--- a/score_data.xlsx
+++ b/score_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Desktop\SYS 2202\Final Project Folder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9665AC82-D543-4726-BB65-2532E86C3104}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCE03891-190F-4AB1-A134-49CAEBDEF4AC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{FBA93070-678B-4237-861F-8662DD655F34}"/>
   </bookViews>
@@ -499,9 +499,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -818,8 +817,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D2F7106-D69E-42AB-90EE-8EE88DA6E3E0}">
   <dimension ref="A1:O131"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A120" workbookViewId="0">
-      <selection activeCell="D138" sqref="D138"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N2" sqref="N2:N131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -838,25 +837,25 @@
         <v>143</v>
       </c>
       <c r="E1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" t="s">
         <v>1</v>
       </c>
-      <c r="G1" t="s">
-        <v>2</v>
-      </c>
-      <c r="H1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1" t="s">
-        <v>5</v>
-      </c>
-      <c r="J1" t="s">
-        <v>6</v>
-      </c>
       <c r="K1" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="L1" t="s">
         <v>8</v>
@@ -885,25 +884,25 @@
         <v>-75.806899999999999</v>
       </c>
       <c r="E2">
-        <v>0.02</v>
+        <v>0.86</v>
       </c>
       <c r="F2">
-        <v>0.27</v>
+        <v>-0.15</v>
       </c>
       <c r="G2">
-        <v>0.86</v>
+        <v>-1.3438397159999999E-2</v>
       </c>
       <c r="H2">
-        <v>0.67191985799999998</v>
+        <v>-0.25925925925925924</v>
       </c>
       <c r="I2">
-        <v>0.15</v>
+        <v>-0.30645161290322581</v>
       </c>
       <c r="J2">
-        <v>0.25925925925925924</v>
+        <v>-0.27</v>
       </c>
       <c r="K2">
-        <v>0.30645161290322581</v>
+        <v>-0.02</v>
       </c>
       <c r="L2">
         <v>0.55866742312167805</v>
@@ -912,8 +911,8 @@
         <v>0.16537185676325311</v>
       </c>
       <c r="N2">
-        <f t="shared" ref="N2:N33" si="0">(E2+F2+G2+H2+I2+J2+K2+L2+M2)/(9-O2)</f>
-        <v>0.36240777889415732</v>
+        <f>(E2+F2+G2+H2+I2+J2+K2+L2+M2)/(9-O2)</f>
+        <v>6.2765556729160676E-2</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -933,25 +932,25 @@
         <v>-78.611500000000007</v>
       </c>
       <c r="E3">
-        <v>0.04</v>
+        <v>0.93</v>
       </c>
       <c r="F3">
-        <v>0.1</v>
+        <v>-0.13</v>
       </c>
       <c r="G3">
-        <v>0.93</v>
+        <v>-3.3848902199999998E-3</v>
       </c>
       <c r="H3">
-        <v>0.16924451099999999</v>
+        <v>-0.46913580246913578</v>
       </c>
       <c r="I3">
-        <v>0.13</v>
+        <v>-0.46774193548387094</v>
       </c>
       <c r="J3">
-        <v>0.46913580246913578</v>
+        <v>-0.1</v>
       </c>
       <c r="K3">
-        <v>0.46774193548387094</v>
+        <v>-0.04</v>
       </c>
       <c r="L3">
         <v>0.70049651811814106</v>
@@ -960,8 +959,8 @@
         <v>0.59323665900834077</v>
       </c>
       <c r="N3">
-        <f t="shared" si="0"/>
-        <v>0.39998393623105433</v>
+        <f t="shared" ref="N3:N66" si="0">(E3+F3+G3+H3+I3+J3+K3+L3+M3)/(9-O3)</f>
+        <v>0.11260783877260835</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -981,25 +980,25 @@
         <v>-77.046899999999994</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>0.81</v>
       </c>
       <c r="F4">
-        <v>0.16</v>
+        <v>-0.17</v>
       </c>
       <c r="G4">
-        <v>0.81</v>
+        <v>-7.2841123200000002E-3</v>
       </c>
       <c r="H4">
-        <v>0.36420561600000001</v>
+        <v>-0.49382716049382713</v>
       </c>
       <c r="I4">
-        <v>0.17</v>
+        <v>-0.58064516129032262</v>
       </c>
       <c r="J4">
-        <v>0.49382716049382713</v>
+        <v>-0.16</v>
       </c>
       <c r="K4">
-        <v>0.58064516129032262</v>
+        <v>0</v>
       </c>
       <c r="L4">
         <v>0.39883833486147818</v>
@@ -1009,7 +1008,7 @@
       </c>
       <c r="N4">
         <f t="shared" si="0"/>
-        <v>0.4209526385565629</v>
+        <v>2.3398342070525442E-2</v>
       </c>
       <c r="O4">
         <v>1</v>
@@ -1029,25 +1028,25 @@
         <v>-80.0535</v>
       </c>
       <c r="E5">
-        <v>0.05</v>
+        <v>0.94</v>
       </c>
       <c r="F5">
-        <v>0.21</v>
+        <v>-0.12</v>
       </c>
       <c r="G5">
-        <v>0.94</v>
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>-0.54320987654320985</v>
       </c>
       <c r="I5">
-        <v>0.12</v>
+        <v>-0.64516129032258063</v>
       </c>
       <c r="J5">
-        <v>0.54320987654320985</v>
+        <v>-0.21</v>
       </c>
       <c r="K5">
-        <v>0.64516129032258063</v>
+        <v>-0.05</v>
       </c>
       <c r="L5">
         <v>0.59792369065617967</v>
@@ -1057,7 +1056,7 @@
       </c>
       <c r="N5">
         <f t="shared" si="0"/>
-        <v>0.41566040145485306</v>
+        <v>2.3567609738405455E-2</v>
       </c>
       <c r="O5">
         <v>1</v>
@@ -1077,25 +1076,25 @@
         <v>-77.9739</v>
       </c>
       <c r="E6">
-        <v>0.06</v>
+        <v>0.9</v>
       </c>
       <c r="F6">
-        <v>0.13</v>
+        <v>-0.12</v>
       </c>
       <c r="G6">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>-8.6419753086419748E-2</v>
       </c>
       <c r="I6">
-        <v>0.12</v>
+        <v>-4.8387096774193547E-2</v>
       </c>
       <c r="J6">
-        <v>8.6419753086419748E-2</v>
+        <v>-0.13</v>
       </c>
       <c r="K6">
-        <v>4.8387096774193547E-2</v>
+        <v>-0.06</v>
       </c>
       <c r="L6">
         <v>0.6921587607893247</v>
@@ -1105,7 +1104,7 @@
       </c>
       <c r="N6">
         <f t="shared" si="0"/>
-        <v>0.279580280956433</v>
+        <v>0.16837856849127966</v>
       </c>
       <c r="O6">
         <v>1</v>
@@ -1125,25 +1124,25 @@
         <v>-79.109700000000004</v>
       </c>
       <c r="E7">
-        <v>0.06</v>
+        <v>0.93</v>
       </c>
       <c r="F7">
-        <v>0.19</v>
+        <v>-0.13</v>
       </c>
       <c r="G7">
-        <v>0.93</v>
+        <v>-6.9004454E-3</v>
       </c>
       <c r="H7">
-        <v>0.34502227000000002</v>
+        <v>-0.23456790123456789</v>
       </c>
       <c r="I7">
-        <v>0.13</v>
+        <v>-0.22580645161290322</v>
       </c>
       <c r="J7">
-        <v>0.23456790123456789</v>
+        <v>-0.19</v>
       </c>
       <c r="K7">
-        <v>0.22580645161290322</v>
+        <v>-0.06</v>
       </c>
       <c r="L7">
         <v>0.65150048392267157</v>
@@ -1153,7 +1152,7 @@
       </c>
       <c r="N7">
         <f t="shared" si="0"/>
-        <v>0.33303258071591935</v>
+        <v>0.10718020059425903</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -1173,25 +1172,25 @@
         <v>-78.793000000000006</v>
       </c>
       <c r="E8">
-        <v>0.01</v>
+        <v>0.94</v>
       </c>
       <c r="F8">
-        <v>0.19</v>
+        <v>-0.12</v>
       </c>
       <c r="G8">
-        <v>0.94</v>
+        <v>-2.0543108420000001E-2</v>
       </c>
       <c r="H8">
-        <v>1.027155421</v>
+        <v>-6.1728395061728392E-2</v>
       </c>
       <c r="I8">
-        <v>0.12</v>
+        <v>-9.6774193548387094E-2</v>
       </c>
       <c r="J8">
-        <v>6.1728395061728392E-2</v>
+        <v>-0.19</v>
       </c>
       <c r="K8">
-        <v>9.6774193548387094E-2</v>
+        <v>-0.01</v>
       </c>
       <c r="L8">
         <v>0.82284607925055919</v>
@@ -1201,7 +1200,7 @@
       </c>
       <c r="N8">
         <f t="shared" si="0"/>
-        <v>0.40123827465270984</v>
+        <v>0.17849341835935084</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -1221,25 +1220,25 @@
         <v>-77.090999999999994</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>0.92</v>
       </c>
       <c r="F9">
-        <v>7.0000000000000007E-2</v>
+        <v>-0.16</v>
       </c>
       <c r="G9">
-        <v>0.92</v>
+        <v>-4.1414477000000002E-3</v>
       </c>
       <c r="H9">
-        <v>0.207072385</v>
+        <v>-0.64197530864197527</v>
       </c>
       <c r="I9">
-        <v>0.16</v>
+        <v>-0.54838709677419351</v>
       </c>
       <c r="J9">
-        <v>0.64197530864197527</v>
+        <v>-7.0000000000000007E-2</v>
       </c>
       <c r="K9">
-        <v>0.54838709677419351</v>
+        <v>0</v>
       </c>
       <c r="L9">
         <v>0.85438590999840336</v>
@@ -1249,7 +1248,7 @@
       </c>
       <c r="N9">
         <f t="shared" si="0"/>
-        <v>0.45575279611249314</v>
+        <v>0.1166485023866778</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -1269,25 +1268,25 @@
         <v>-79.245099999999994</v>
       </c>
       <c r="E10">
-        <v>0.04</v>
+        <v>0.95</v>
       </c>
       <c r="F10">
-        <v>0.12</v>
+        <v>-0.1</v>
       </c>
       <c r="G10">
-        <v>0.95</v>
+        <v>-3.2128084000000003E-3</v>
       </c>
       <c r="H10">
-        <v>0.16064042000000001</v>
+        <v>-0.4567901234567901</v>
       </c>
       <c r="I10">
-        <v>0.1</v>
+        <v>-0.45161290322580644</v>
       </c>
       <c r="J10">
-        <v>0.4567901234567901</v>
+        <v>-0.12</v>
       </c>
       <c r="K10">
-        <v>0.45161290322580644</v>
+        <v>-0.04</v>
       </c>
       <c r="L10">
         <v>0.75121006770580512</v>
@@ -1297,7 +1296,7 @@
       </c>
       <c r="N10">
         <f t="shared" si="0"/>
-        <v>0.39336114274879663</v>
+        <v>0.11551011144155303</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -1317,25 +1316,25 @@
         <v>-79.650199999999998</v>
       </c>
       <c r="E11">
-        <v>0.09</v>
+        <v>0.94</v>
       </c>
       <c r="F11">
-        <v>0.15</v>
+        <v>-0.12</v>
       </c>
       <c r="G11">
-        <v>0.94</v>
+        <v>0</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>-0.15</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>-0.09</v>
       </c>
       <c r="L11">
         <v>0.68391360946245205</v>
@@ -1345,7 +1344,7 @@
       </c>
       <c r="N11">
         <f t="shared" si="0"/>
-        <v>0.37836796327776739</v>
+        <v>0.25836796327776745</v>
       </c>
       <c r="O11">
         <v>3</v>
@@ -1365,25 +1364,25 @@
         <v>-79.470399999999998</v>
       </c>
       <c r="E12">
-        <v>0.02</v>
+        <v>0.92</v>
       </c>
       <c r="F12">
-        <v>0.13</v>
+        <v>-0.1</v>
       </c>
       <c r="G12">
-        <v>0.92</v>
+        <v>-7.7013913800000004E-3</v>
       </c>
       <c r="H12">
-        <v>0.385069569</v>
+        <v>-0.41975308641975306</v>
       </c>
       <c r="I12">
-        <v>0.1</v>
+        <v>-0.4838709677419355</v>
       </c>
       <c r="J12">
-        <v>0.41975308641975306</v>
+        <v>-0.13</v>
       </c>
       <c r="K12">
-        <v>0.4838709677419355</v>
+        <v>-0.02</v>
       </c>
       <c r="L12">
         <v>0.71958696338583439</v>
@@ -1393,7 +1392,7 @@
       </c>
       <c r="N12">
         <f t="shared" si="0"/>
-        <v>0.39589575538825561</v>
+        <v>9.5893636643435975E-2</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -1413,25 +1412,25 @@
         <v>-81.119600000000005</v>
       </c>
       <c r="E13">
-        <v>0.09</v>
+        <v>0.95</v>
       </c>
       <c r="F13">
-        <v>0.15</v>
+        <v>-7.0000000000000007E-2</v>
       </c>
       <c r="G13">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>7.0000000000000007E-2</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>-0.15</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>-0.09</v>
       </c>
       <c r="L13">
         <v>0.86350435611721232</v>
@@ -1441,7 +1440,7 @@
       </c>
       <c r="N13">
         <f t="shared" si="0"/>
-        <v>0.41850707409991489</v>
+        <v>0.31517374076658156</v>
       </c>
       <c r="O13">
         <v>3</v>
@@ -1461,25 +1460,25 @@
         <v>-79.784800000000004</v>
       </c>
       <c r="E14">
-        <v>0.08</v>
+        <v>0.95</v>
       </c>
       <c r="F14">
-        <v>0.09</v>
+        <v>-0.1</v>
       </c>
       <c r="G14">
-        <v>0.95</v>
+        <v>-6.0201071599999996E-3</v>
       </c>
       <c r="H14">
-        <v>0.301005358</v>
+        <v>-0.32098765432098764</v>
       </c>
       <c r="I14">
-        <v>0.1</v>
+        <v>-0.43548387096774194</v>
       </c>
       <c r="J14">
-        <v>0.32098765432098764</v>
+        <v>-0.09</v>
       </c>
       <c r="K14">
-        <v>0.43548387096774194</v>
+        <v>-0.08</v>
       </c>
       <c r="L14">
         <v>0.89641819944986756</v>
@@ -1489,7 +1488,7 @@
       </c>
       <c r="N14">
         <f t="shared" si="0"/>
-        <v>0.40687358324144596</v>
+        <v>0.14465485927061714</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1509,25 +1508,25 @@
         <v>-82.188699999999997</v>
       </c>
       <c r="E15">
-        <v>0.15</v>
+        <v>0.91</v>
       </c>
       <c r="F15">
-        <v>0.33</v>
+        <v>-0.14000000000000001</v>
       </c>
       <c r="G15">
-        <v>0.91</v>
+        <v>-1.30618061E-2</v>
       </c>
       <c r="H15">
-        <v>0.65309030499999998</v>
+        <v>-0.38271604938271603</v>
       </c>
       <c r="I15">
-        <v>0.14000000000000001</v>
+        <v>-0.35483870967741937</v>
       </c>
       <c r="J15">
-        <v>0.38271604938271603</v>
+        <v>-0.33</v>
       </c>
       <c r="K15">
-        <v>0.35483870967741937</v>
+        <v>-0.15</v>
       </c>
       <c r="L15">
         <v>0.5913809794456053</v>
@@ -1537,7 +1536,7 @@
       </c>
       <c r="N15">
         <f t="shared" si="0"/>
-        <v>0.4250776500940513</v>
+        <v>4.9381913514021207E-2</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1557,25 +1556,25 @@
         <v>-77.836699999999993</v>
       </c>
       <c r="E16">
-        <v>0.04</v>
+        <v>0.89</v>
       </c>
       <c r="F16">
-        <v>0.27</v>
+        <v>-0.15</v>
       </c>
       <c r="G16">
-        <v>0.89</v>
+        <v>-1.200120012E-2</v>
       </c>
       <c r="H16">
-        <v>0.60006000599999998</v>
+        <v>-0.23456790123456789</v>
       </c>
       <c r="I16">
-        <v>0.15</v>
+        <v>-0.30645161290322581</v>
       </c>
       <c r="J16">
-        <v>0.23456790123456789</v>
+        <v>-0.27</v>
       </c>
       <c r="K16">
-        <v>0.30645161290322581</v>
+        <v>-0.04</v>
       </c>
       <c r="L16">
         <v>0.35430784122782616</v>
@@ -1585,7 +1584,7 @@
       </c>
       <c r="N16">
         <f t="shared" si="0"/>
-        <v>0.32429350135884488</v>
+        <v>3.3837919759335207E-2</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1605,25 +1604,25 @@
         <v>-79.6798</v>
       </c>
       <c r="E17">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="F17">
-        <v>0.32</v>
+        <v>-0.14000000000000001</v>
       </c>
       <c r="G17">
-        <v>0.9</v>
+        <v>-1.17445117E-2</v>
       </c>
       <c r="H17">
-        <v>0.58722558499999999</v>
+        <v>-0.86419753086419748</v>
       </c>
       <c r="I17">
-        <v>0.14000000000000001</v>
+        <v>-0.72580645161290325</v>
       </c>
       <c r="J17">
-        <v>0.86419753086419748</v>
+        <v>-0.32</v>
       </c>
       <c r="K17">
-        <v>0.72580645161290325</v>
+        <v>0</v>
       </c>
       <c r="L17">
         <v>0.57081817274507762</v>
@@ -1633,7 +1632,7 @@
       </c>
       <c r="N17">
         <f t="shared" si="0"/>
-        <v>0.54130730301314545</v>
+        <v>-4.606495469362977E-2</v>
       </c>
       <c r="O17">
         <v>1</v>
@@ -1653,25 +1652,25 @@
         <v>-78.554500000000004</v>
       </c>
       <c r="E18">
-        <v>0.04</v>
+        <v>0.95</v>
       </c>
       <c r="F18">
-        <v>0.25</v>
+        <v>-0.14000000000000001</v>
       </c>
       <c r="G18">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>-0.19753086419753085</v>
       </c>
       <c r="I18">
-        <v>0.14000000000000001</v>
+        <v>-0.19354838709677419</v>
       </c>
       <c r="J18">
-        <v>0.19753086419753085</v>
+        <v>-0.25</v>
       </c>
       <c r="K18">
-        <v>0.19354838709677419</v>
+        <v>-0.04</v>
       </c>
       <c r="L18">
         <v>0.41239109381702926</v>
@@ -1681,7 +1680,7 @@
       </c>
       <c r="N18">
         <f t="shared" si="0"/>
-        <v>0.2933149883392438</v>
+        <v>8.8045175515667526E-2</v>
       </c>
       <c r="O18">
         <v>1</v>
@@ -1701,25 +1700,25 @@
         <v>-79.353899999999996</v>
       </c>
       <c r="E19">
-        <v>0.53</v>
+        <v>0.87</v>
       </c>
       <c r="F19">
-        <v>0.2</v>
+        <v>-0.25</v>
       </c>
       <c r="G19">
-        <v>0.87</v>
+        <v>0</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>-0.2</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>-0.53</v>
       </c>
       <c r="L19">
         <v>0.5063257334370822</v>
@@ -1729,7 +1728,7 @@
       </c>
       <c r="N19">
         <f t="shared" si="0"/>
-        <v>0.43701432100615456</v>
+        <v>0.1103476543394879</v>
       </c>
       <c r="O19">
         <v>3</v>
@@ -1749,25 +1748,25 @@
         <v>-79.109700000000004</v>
       </c>
       <c r="E20">
-        <v>0.04</v>
+        <v>0.91</v>
       </c>
       <c r="F20">
-        <v>0.17</v>
+        <v>-0.1</v>
       </c>
       <c r="G20">
-        <v>0.91</v>
+        <v>-7.6128330600000009E-3</v>
       </c>
       <c r="H20">
-        <v>0.38064165300000002</v>
+        <v>-0.25925925925925924</v>
       </c>
       <c r="I20">
-        <v>0.1</v>
+        <v>-0.30645161290322581</v>
       </c>
       <c r="J20">
-        <v>0.25925925925925924</v>
+        <v>-0.17</v>
       </c>
       <c r="K20">
-        <v>0.30645161290322581</v>
+        <v>-0.04</v>
       </c>
       <c r="L20">
         <v>0.75211358487915692</v>
@@ -1777,7 +1776,7 @@
       </c>
       <c r="N20">
         <f t="shared" si="0"/>
-        <v>0.37082584358730541</v>
+        <v>0.13308404021119757</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1797,25 +1796,25 @@
         <v>-77.286500000000004</v>
       </c>
       <c r="E21">
-        <v>0.01</v>
+        <v>0.88</v>
       </c>
       <c r="F21">
-        <v>0.15</v>
+        <v>-0.11</v>
       </c>
       <c r="G21">
-        <v>0.88</v>
+        <v>-9.2764378400000003E-3</v>
       </c>
       <c r="H21">
-        <v>0.46382189200000001</v>
+        <v>-0.18518518518518517</v>
       </c>
       <c r="I21">
-        <v>0.11</v>
+        <v>-0.20967741935483872</v>
       </c>
       <c r="J21">
-        <v>0.18518518518518517</v>
+        <v>-0.15</v>
       </c>
       <c r="K21">
-        <v>0.20967741935483872</v>
+        <v>-0.01</v>
       </c>
       <c r="L21">
         <v>0.58567279752841606</v>
@@ -1825,7 +1824,7 @@
       </c>
       <c r="N21">
         <f t="shared" si="0"/>
-        <v>0.31635580738620583</v>
+        <v>0.11604208083953384</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1845,25 +1844,25 @@
         <v>-80.721400000000003</v>
       </c>
       <c r="E22">
-        <v>0.02</v>
+        <v>0.91</v>
       </c>
       <c r="F22">
-        <v>0.23</v>
+        <v>-0.11</v>
       </c>
       <c r="G22">
-        <v>0.91</v>
+        <v>-6.7254018400000008E-3</v>
       </c>
       <c r="H22">
-        <v>0.33627009200000002</v>
+        <v>0</v>
       </c>
       <c r="I22">
-        <v>0.11</v>
+        <v>-0.30645161290322581</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>-0.23</v>
       </c>
       <c r="K22">
-        <v>0.30645161290322581</v>
+        <v>-0.02</v>
       </c>
       <c r="L22">
         <v>0.67363220597666074</v>
@@ -1873,7 +1872,7 @@
       </c>
       <c r="N22">
         <f t="shared" si="0"/>
-        <v>0.35679945704079086</v>
+        <v>0.1473121170849844</v>
       </c>
       <c r="O22">
         <v>1</v>
@@ -1893,25 +1892,25 @@
         <v>-77.071299999999994</v>
       </c>
       <c r="E23">
-        <v>0.01</v>
+        <v>0.9</v>
       </c>
       <c r="F23">
-        <v>0.19</v>
+        <v>-0.12</v>
       </c>
       <c r="G23">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>-0.12345679012345678</v>
       </c>
       <c r="I23">
-        <v>0.12</v>
+        <v>-0.19354838709677419</v>
       </c>
       <c r="J23">
-        <v>0.12345679012345678</v>
+        <v>-0.19</v>
       </c>
       <c r="K23">
-        <v>0.19354838709677419</v>
+        <v>-0.01</v>
       </c>
       <c r="L23">
         <v>0.33204259441100037</v>
@@ -1921,7 +1920,7 @@
       </c>
       <c r="N23">
         <f t="shared" si="0"/>
-        <v>0.2424923606730556</v>
+        <v>8.3241066367997829E-2</v>
       </c>
       <c r="O23">
         <v>1</v>
@@ -1941,25 +1940,25 @@
         <v>-78.611500000000007</v>
       </c>
       <c r="E24">
-        <v>0.15</v>
+        <v>0.89</v>
       </c>
       <c r="F24">
-        <v>0.3</v>
+        <v>-0.15</v>
       </c>
       <c r="G24">
-        <v>0.89</v>
+        <v>-1.9842910300000002E-2</v>
       </c>
       <c r="H24">
-        <v>0.99214551500000003</v>
+        <v>-2.4691358024691357E-2</v>
       </c>
       <c r="I24">
-        <v>0.15</v>
+        <v>-4.8387096774193547E-2</v>
       </c>
       <c r="J24">
-        <v>2.4691358024691357E-2</v>
+        <v>-0.3</v>
       </c>
       <c r="K24">
-        <v>4.8387096774193547E-2</v>
+        <v>-0.15</v>
       </c>
       <c r="L24">
         <v>0.81510164571656141</v>
@@ -1969,7 +1968,7 @@
       </c>
       <c r="N24">
         <f t="shared" si="0"/>
-        <v>0.41347073649627597</v>
+        <v>0.15145458817430157</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1989,25 +1988,25 @@
         <v>-78.476699999999994</v>
       </c>
       <c r="E25">
-        <v>0.03</v>
+        <v>0.93</v>
       </c>
       <c r="F25">
-        <v>0.18</v>
+        <v>-0.22</v>
       </c>
       <c r="G25">
-        <v>0.93</v>
+        <v>-6.8024318600000003E-3</v>
       </c>
       <c r="H25">
-        <v>0.340121593</v>
+        <v>-0.4567901234567901</v>
       </c>
       <c r="I25">
-        <v>0.22</v>
+        <v>-0.5</v>
       </c>
       <c r="J25">
-        <v>0.4567901234567901</v>
+        <v>-0.18</v>
       </c>
       <c r="K25">
-        <v>0.5</v>
+        <v>-0.03</v>
       </c>
       <c r="L25">
         <v>0.55305938497990759</v>
@@ -2017,7 +2016,7 @@
       </c>
       <c r="N25">
         <f t="shared" si="0"/>
-        <v>0.41737359151235409</v>
+        <v>7.0650894648622953E-2</v>
       </c>
       <c r="O25">
         <v>0</v>
@@ -2037,25 +2036,25 @@
         <v>-76.287499999999994</v>
       </c>
       <c r="E26">
-        <v>0.05</v>
+        <v>0.93</v>
       </c>
       <c r="F26">
-        <v>0.12</v>
+        <v>-0.16</v>
       </c>
       <c r="G26">
-        <v>0.93</v>
+        <v>-1.0932638119999999E-2</v>
       </c>
       <c r="H26">
-        <v>0.546631906</v>
+        <v>-0.49382716049382713</v>
       </c>
       <c r="I26">
-        <v>0.16</v>
+        <v>-0.56451612903225812</v>
       </c>
       <c r="J26">
-        <v>0.49382716049382713</v>
+        <v>-0.12</v>
       </c>
       <c r="K26">
-        <v>0.56451612903225812</v>
+        <v>-0.05</v>
       </c>
       <c r="L26">
         <v>0.83077787832184136</v>
@@ -2065,7 +2064,7 @@
       </c>
       <c r="N26">
         <f t="shared" si="0"/>
-        <v>0.47003277107770253</v>
+        <v>9.9560424058572419E-2</v>
       </c>
       <c r="O26">
         <v>0</v>
@@ -2084,26 +2083,26 @@
       <c r="D27">
         <v>-77.607799999999997</v>
       </c>
-      <c r="E27" s="1">
-        <v>7.0000000000000007E-2</v>
+      <c r="E27">
+        <v>0.91</v>
       </c>
       <c r="F27">
-        <v>0.1</v>
+        <v>-0.12</v>
       </c>
       <c r="G27">
-        <v>0.91</v>
+        <v>-8.2487103999999995E-3</v>
       </c>
       <c r="H27">
-        <v>0.41243552</v>
+        <v>-0.44444444444444442</v>
       </c>
       <c r="I27">
-        <v>0.12</v>
+        <v>-0.5</v>
       </c>
       <c r="J27">
-        <v>0.44444444444444442</v>
+        <v>-0.1</v>
       </c>
       <c r="K27">
-        <v>0.5</v>
+        <v>-7.0000000000000007E-2</v>
       </c>
       <c r="L27">
         <v>0.7896824157436344</v>
@@ -2113,7 +2112,7 @@
       </c>
       <c r="N27">
         <f t="shared" si="0"/>
-        <v>0.42838799695909152</v>
+        <v>0.10732431703810387</v>
       </c>
       <c r="O27">
         <v>0</v>
@@ -2133,25 +2132,25 @@
         <v>-77.9739</v>
       </c>
       <c r="E28">
-        <v>0</v>
+        <v>0.99</v>
       </c>
       <c r="F28">
-        <v>0.08</v>
+        <v>-0.17</v>
       </c>
       <c r="G28">
-        <v>0.99</v>
+        <v>-1.3922728860000001E-2</v>
       </c>
       <c r="H28">
-        <v>0.69613644299999999</v>
+        <v>-0.29629629629629628</v>
       </c>
       <c r="I28">
-        <v>0.17</v>
+        <v>-0.35483870967741937</v>
       </c>
       <c r="J28">
-        <v>0.29629629629629628</v>
+        <v>-0.08</v>
       </c>
       <c r="K28">
-        <v>0.35483870967741937</v>
+        <v>0</v>
       </c>
       <c r="L28">
         <v>0.70861568245565276</v>
@@ -2161,7 +2160,7 @@
       </c>
       <c r="N28">
         <f t="shared" si="0"/>
-        <v>0.39994860020379491</v>
+        <v>0.12080091311408027</v>
       </c>
       <c r="O28">
         <v>0</v>
@@ -2181,25 +2180,25 @@
         <v>-77.410300000000007</v>
       </c>
       <c r="E29">
-        <v>0.03</v>
+        <v>0.92</v>
       </c>
       <c r="F29">
-        <v>0.17</v>
+        <v>-0.18</v>
       </c>
       <c r="G29">
-        <v>0.92</v>
+        <v>-1.5915420899999998E-2</v>
       </c>
       <c r="H29">
-        <v>0.79577104499999995</v>
+        <v>-0.38271604938271603</v>
       </c>
       <c r="I29">
-        <v>0.18</v>
+        <v>-0.30645161290322581</v>
       </c>
       <c r="J29">
-        <v>0.38271604938271603</v>
+        <v>-0.17</v>
       </c>
       <c r="K29">
-        <v>0.30645161290322581</v>
+        <v>-0.03</v>
       </c>
       <c r="L29">
         <v>0.69506292350010168</v>
@@ -2209,7 +2208,7 @@
       </c>
       <c r="N29">
         <f t="shared" si="0"/>
-        <v>0.41554841271405807</v>
+        <v>8.7768213772737649E-2</v>
       </c>
       <c r="O29">
         <v>0</v>
@@ -2229,25 +2228,25 @@
         <v>-79.993899999999996</v>
       </c>
       <c r="E30">
-        <v>0.1</v>
+        <v>0.81</v>
       </c>
       <c r="F30">
-        <v>0.26</v>
+        <v>-0.14000000000000001</v>
       </c>
       <c r="G30">
-        <v>0.81</v>
+        <v>0</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>-0.48148148148148145</v>
       </c>
       <c r="I30">
-        <v>0.14000000000000001</v>
+        <v>-0.58064516129032262</v>
       </c>
       <c r="J30">
-        <v>0.48148148148148145</v>
+        <v>-0.26</v>
       </c>
       <c r="K30">
-        <v>0.58064516129032262</v>
+        <v>-0.1</v>
       </c>
       <c r="L30">
         <v>0.50242013541161024</v>
@@ -2257,7 +2256,7 @@
       </c>
       <c r="N30">
         <f t="shared" si="0"/>
-        <v>0.37837033409224191</v>
+        <v>-1.2161326600709066E-2</v>
       </c>
       <c r="O30">
         <v>1</v>
@@ -2277,25 +2276,25 @@
         <v>-80.232100000000003</v>
       </c>
       <c r="E31">
-        <v>0.04</v>
+        <v>0.88</v>
       </c>
       <c r="F31">
-        <v>0.21</v>
+        <v>-0.08</v>
       </c>
       <c r="G31">
-        <v>0.88</v>
+        <v>0</v>
       </c>
       <c r="H31">
         <v>0</v>
       </c>
       <c r="I31">
-        <v>0.08</v>
+        <v>0</v>
       </c>
       <c r="J31">
-        <v>0</v>
+        <v>-0.21</v>
       </c>
       <c r="K31">
-        <v>0</v>
+        <v>-0.04</v>
       </c>
       <c r="L31">
         <v>0.54888673769981688</v>
@@ -2305,7 +2304,7 @@
       </c>
       <c r="N31">
         <f t="shared" si="0"/>
-        <v>0.31815659918508071</v>
+        <v>0.20815659918508075</v>
       </c>
       <c r="O31">
         <v>3</v>
@@ -2325,25 +2324,25 @@
         <v>-77.996300000000005</v>
       </c>
       <c r="E32">
-        <v>0.01</v>
+        <v>0.92</v>
       </c>
       <c r="F32">
-        <v>0.11</v>
+        <v>-0.15</v>
       </c>
       <c r="G32">
-        <v>0.92</v>
+        <v>-7.1357780000000006E-3</v>
       </c>
       <c r="H32">
-        <v>0.35678890000000002</v>
+        <v>-0.34567901234567899</v>
       </c>
       <c r="I32">
-        <v>0.15</v>
+        <v>-0.5</v>
       </c>
       <c r="J32">
-        <v>0.34567901234567899</v>
+        <v>-0.11</v>
       </c>
       <c r="K32">
-        <v>0.5</v>
+        <v>-0.01</v>
       </c>
       <c r="L32">
         <v>0.70541108923178408</v>
@@ -2353,7 +2352,7 @@
       </c>
       <c r="N32">
         <f t="shared" si="0"/>
-        <v>0.39046907754802179</v>
+        <v>0.10210433280453761</v>
       </c>
       <c r="O32">
         <v>0</v>
@@ -2373,25 +2372,25 @@
         <v>-78.244900000000001</v>
       </c>
       <c r="E33">
-        <v>0.24</v>
+        <v>0.94</v>
       </c>
       <c r="F33">
-        <v>0.25</v>
+        <v>-0.19</v>
       </c>
       <c r="G33">
-        <v>0.94</v>
+        <v>0</v>
       </c>
       <c r="H33">
         <v>0</v>
       </c>
       <c r="I33">
-        <v>0.19</v>
+        <v>0</v>
       </c>
       <c r="J33">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="K33">
-        <v>0</v>
+        <v>-0.24</v>
       </c>
       <c r="L33">
         <v>0.54540891326585939</v>
@@ -2401,7 +2400,7 @@
       </c>
       <c r="N33">
         <f t="shared" si="0"/>
-        <v>0.2970250721096287</v>
+        <v>0.12702507210962877</v>
       </c>
       <c r="O33">
         <v>1</v>
@@ -2421,25 +2420,25 @@
         <v>-79.394999999999996</v>
       </c>
       <c r="E34">
-        <v>0.06</v>
+        <v>0.81</v>
       </c>
       <c r="F34">
-        <v>0.38</v>
+        <v>-0.17</v>
       </c>
       <c r="G34">
-        <v>0.81</v>
+        <v>-2.1680477940000002E-2</v>
       </c>
       <c r="H34">
-        <v>1.084023897</v>
+        <v>-0.41975308641975306</v>
       </c>
       <c r="I34">
-        <v>0.17</v>
+        <v>-0.5161290322580645</v>
       </c>
       <c r="J34">
-        <v>0.41975308641975306</v>
+        <v>-0.38</v>
       </c>
       <c r="K34">
-        <v>0.5161290322580645</v>
+        <v>-0.06</v>
       </c>
       <c r="L34">
         <v>8.3252662116805667E-2</v>
@@ -2448,8 +2447,8 @@
         <v>7.0891113753213164E-2</v>
       </c>
       <c r="N34">
-        <f t="shared" ref="N34:N65" si="1">(E34+F34+G34+H34+I34+J34+K34+L34+M34)/(9-O34)</f>
-        <v>0.39933886572753735</v>
+        <f t="shared" si="0"/>
+        <v>-6.7046535638644322E-2</v>
       </c>
       <c r="O34">
         <v>0</v>
@@ -2469,25 +2468,25 @@
         <v>-82.345200000000006</v>
       </c>
       <c r="E35">
-        <v>0</v>
+        <v>0.91</v>
       </c>
       <c r="F35">
-        <v>0.28999999999999998</v>
+        <v>-0.15</v>
       </c>
       <c r="G35">
-        <v>0.91</v>
+        <v>0</v>
       </c>
       <c r="H35">
         <v>0</v>
       </c>
       <c r="I35">
-        <v>0.15</v>
+        <v>-0.67741935483870963</v>
       </c>
       <c r="J35">
-        <v>0</v>
+        <v>-0.28999999999999998</v>
       </c>
       <c r="K35">
-        <v>0.67741935483870963</v>
+        <v>0</v>
       </c>
       <c r="L35">
         <v>0.84935073613547707</v>
@@ -2496,8 +2495,8 @@
         <v>0.37527474048446818</v>
       </c>
       <c r="N35">
-        <f t="shared" si="1"/>
-        <v>0.54200747190977583</v>
+        <f t="shared" si="0"/>
+        <v>0.16953435363020594</v>
       </c>
       <c r="O35">
         <v>3</v>
@@ -2517,25 +2516,25 @@
         <v>-77.653599999999997</v>
       </c>
       <c r="E36">
-        <v>0.08</v>
+        <v>0.88</v>
       </c>
       <c r="F36">
-        <v>0.18</v>
+        <v>-0.16</v>
       </c>
       <c r="G36">
-        <v>0.88</v>
+        <v>-1.05977109E-2</v>
       </c>
       <c r="H36">
-        <v>0.52988554499999996</v>
+        <v>-0.27160493827160492</v>
       </c>
       <c r="I36">
-        <v>0.16</v>
+        <v>-0.35483870967741937</v>
       </c>
       <c r="J36">
-        <v>0.27160493827160492</v>
+        <v>-0.18</v>
       </c>
       <c r="K36">
-        <v>0.35483870967741937</v>
+        <v>-0.08</v>
       </c>
       <c r="L36">
         <v>0.64091864992378822</v>
@@ -2544,8 +2543,8 @@
         <v>0.30112426519573432</v>
       </c>
       <c r="N36">
-        <f t="shared" si="1"/>
-        <v>0.37759690089650522</v>
+        <f t="shared" si="0"/>
+        <v>8.5000172918944253E-2</v>
       </c>
       <c r="O36">
         <v>0</v>
@@ -2565,25 +2564,25 @@
         <v>-76.964299999999994</v>
       </c>
       <c r="E37">
-        <v>0.1</v>
+        <v>0.93</v>
       </c>
       <c r="F37">
-        <v>0.23</v>
+        <v>-0.13</v>
       </c>
       <c r="G37">
-        <v>0.93</v>
+        <v>-1.9934758980000002E-2</v>
       </c>
       <c r="H37">
-        <v>0.99673794900000001</v>
+        <v>-0.22222222222222221</v>
       </c>
       <c r="I37">
-        <v>0.13</v>
+        <v>-0.20967741935483872</v>
       </c>
       <c r="J37">
-        <v>0.22222222222222221</v>
+        <v>-0.23</v>
       </c>
       <c r="K37">
-        <v>0.20967741935483872</v>
+        <v>-0.1</v>
       </c>
       <c r="L37">
         <v>0.21393998057803978</v>
@@ -2592,8 +2591,8 @@
         <v>1.7722778413491406E-2</v>
       </c>
       <c r="N37">
-        <f t="shared" si="1"/>
-        <v>0.33892226106317691</v>
+        <f t="shared" si="0"/>
+        <v>2.7758706492718922E-2</v>
       </c>
       <c r="O37">
         <v>0</v>
@@ -2613,25 +2612,25 @@
         <v>-77.240499999999997</v>
       </c>
       <c r="E38">
-        <v>0.02</v>
+        <v>0.92</v>
       </c>
       <c r="F38">
-        <v>7.0000000000000007E-2</v>
+        <v>-0.14000000000000001</v>
       </c>
       <c r="G38">
-        <v>0.92</v>
+        <v>-0.30253509319999999</v>
       </c>
       <c r="H38">
-        <v>15.12675466</v>
+        <v>-0.49382716049382713</v>
       </c>
       <c r="I38">
-        <v>0.14000000000000001</v>
+        <v>-0.41935483870967744</v>
       </c>
       <c r="J38">
-        <v>0.49382716049382713</v>
+        <v>-7.0000000000000007E-2</v>
       </c>
       <c r="K38">
-        <v>0.41935483870967744</v>
+        <v>-0.02</v>
       </c>
       <c r="L38">
         <v>0.82258793144802211</v>
@@ -2640,8 +2639,8 @@
         <v>0.71891466141464699</v>
       </c>
       <c r="N38">
-        <f t="shared" si="1"/>
-        <v>2.0812710280073525</v>
+        <f t="shared" si="0"/>
+        <v>0.11286505560657384</v>
       </c>
       <c r="O38">
         <v>0</v>
@@ -2661,25 +2660,25 @@
         <v>-77.171099999999996</v>
       </c>
       <c r="E39">
-        <v>0</v>
+        <v>0.99</v>
       </c>
       <c r="F39">
-        <v>0.03</v>
+        <v>-0.14000000000000001</v>
       </c>
       <c r="G39">
-        <v>0.99</v>
+        <v>0</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>-0.30864197530864196</v>
       </c>
       <c r="I39">
-        <v>0.14000000000000001</v>
+        <v>-0.19354838709677419</v>
       </c>
       <c r="J39">
-        <v>0.30864197530864196</v>
+        <v>-0.03</v>
       </c>
       <c r="K39">
-        <v>0.19354838709677419</v>
+        <v>0</v>
       </c>
       <c r="L39">
         <v>1</v>
@@ -2688,8 +2687,8 @@
         <v>0.79398047411538553</v>
       </c>
       <c r="N39">
-        <f t="shared" si="1"/>
-        <v>0.49373869093154316</v>
+        <f t="shared" si="0"/>
+        <v>0.30168430167285276</v>
       </c>
       <c r="O39">
         <v>2</v>
@@ -2709,25 +2708,25 @@
         <v>-77.790999999999997</v>
       </c>
       <c r="E40">
-        <v>0.01</v>
+        <v>0.96</v>
       </c>
       <c r="F40">
-        <v>7.0000000000000007E-2</v>
+        <v>-0.12</v>
       </c>
       <c r="G40">
-        <v>0.96</v>
+        <v>-6.3662012599999991E-3</v>
       </c>
       <c r="H40">
-        <v>0.31831006299999998</v>
+        <v>-0.25925925925925924</v>
       </c>
       <c r="I40">
-        <v>0.12</v>
+        <v>-0.29032258064516131</v>
       </c>
       <c r="J40">
-        <v>0.25925925925925924</v>
+        <v>-7.0000000000000007E-2</v>
       </c>
       <c r="K40">
-        <v>0.29032258064516131</v>
+        <v>-0.01</v>
       </c>
       <c r="L40">
         <v>0.72320103262135127</v>
@@ -2736,8 +2735,8 @@
         <v>0.4531517525414353</v>
       </c>
       <c r="N40">
-        <f t="shared" si="1"/>
-        <v>0.35602718756302304</v>
+        <f t="shared" si="0"/>
+        <v>0.15337830488870732</v>
       </c>
       <c r="O40">
         <v>0</v>
@@ -2757,25 +2756,25 @@
         <v>-80.320099999999996</v>
       </c>
       <c r="E41">
-        <v>0.1</v>
+        <v>0.98</v>
       </c>
       <c r="F41">
-        <v>0.18</v>
+        <v>-0.09</v>
       </c>
       <c r="G41">
-        <v>0.98</v>
+        <v>0</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>-0.2839506172839506</v>
       </c>
       <c r="I41">
-        <v>0.09</v>
+        <v>-0.32258064516129031</v>
       </c>
       <c r="J41">
-        <v>0.2839506172839506</v>
+        <v>-0.18</v>
       </c>
       <c r="K41">
-        <v>0.32258064516129031</v>
+        <v>-0.1</v>
       </c>
       <c r="L41">
         <v>0.69603097755632359</v>
@@ -2784,8 +2783,8 @@
         <v>0.33200671599870168</v>
       </c>
       <c r="N41">
-        <f t="shared" si="1"/>
-        <v>0.37307111950003324</v>
+        <f t="shared" si="0"/>
+        <v>0.12893830388872304</v>
       </c>
       <c r="O41">
         <v>1</v>
@@ -2805,25 +2804,25 @@
         <v>-78.247600000000006</v>
       </c>
       <c r="E42">
-        <v>0.03</v>
+        <v>0.96</v>
       </c>
       <c r="F42">
-        <v>0.09</v>
+        <v>-0.14000000000000001</v>
       </c>
       <c r="G42">
-        <v>0.96</v>
+        <v>-7.6097709399999998E-3</v>
       </c>
       <c r="H42">
-        <v>0.38048854700000001</v>
+        <v>-0.16049382716049382</v>
       </c>
       <c r="I42">
-        <v>0.14000000000000001</v>
+        <v>-0.20967741935483872</v>
       </c>
       <c r="J42">
-        <v>0.16049382716049382</v>
+        <v>-0.09</v>
       </c>
       <c r="K42">
-        <v>0.20967741935483872</v>
+        <v>-0.03</v>
       </c>
       <c r="L42">
         <v>0.73532062607824367</v>
@@ -2832,8 +2831,8 @@
         <v>0.40721648397587729</v>
       </c>
       <c r="N42">
-        <f t="shared" si="1"/>
-        <v>0.34591076706327262</v>
+        <f t="shared" si="0"/>
+        <v>0.16275067695542089</v>
       </c>
       <c r="O42">
         <v>0</v>
@@ -2853,25 +2852,25 @@
         <v>-79.829700000000003</v>
       </c>
       <c r="E43">
-        <v>0.06</v>
+        <v>0.9</v>
       </c>
       <c r="F43">
-        <v>0.23</v>
+        <v>-0.12</v>
       </c>
       <c r="G43">
-        <v>0.9</v>
+        <v>-6.0893922779999998E-2</v>
       </c>
       <c r="H43">
-        <v>3.044696139</v>
+        <v>-0.44444444444444442</v>
       </c>
       <c r="I43">
-        <v>0.12</v>
+        <v>-0.56451612903225812</v>
       </c>
       <c r="J43">
-        <v>0.44444444444444442</v>
+        <v>-0.23</v>
       </c>
       <c r="K43">
-        <v>0.56451612903225812</v>
+        <v>-0.06</v>
       </c>
       <c r="L43">
         <v>0.7647628266613562</v>
@@ -2880,8 +2879,8 @@
         <v>0.38753808848227728</v>
       </c>
       <c r="N43">
-        <f t="shared" si="1"/>
-        <v>0.7239952919578152</v>
+        <f t="shared" si="0"/>
+        <v>6.3605157654103434E-2</v>
       </c>
       <c r="O43">
         <v>0</v>
@@ -2901,25 +2900,25 @@
         <v>-76.922499999999999</v>
       </c>
       <c r="E44">
-        <v>0.28000000000000003</v>
+        <v>0.93</v>
       </c>
       <c r="F44">
-        <v>0.34</v>
+        <v>-0.21</v>
       </c>
       <c r="G44">
-        <v>0.93</v>
+        <v>-4.9792826199999999E-3</v>
       </c>
       <c r="H44">
-        <v>0.24896413100000001</v>
+        <v>-0.55555555555555558</v>
       </c>
       <c r="I44">
-        <v>0.21</v>
+        <v>-0.70967741935483875</v>
       </c>
       <c r="J44">
-        <v>0.55555555555555558</v>
+        <v>-0.34</v>
       </c>
       <c r="K44">
-        <v>0.70967741935483875</v>
+        <v>-0.28000000000000003</v>
       </c>
       <c r="L44">
         <v>0.53146176170621195</v>
@@ -2928,8 +2927,8 @@
         <v>0.10633667061327849</v>
       </c>
       <c r="N44">
-        <f t="shared" si="1"/>
-        <v>0.43466617091443172</v>
+        <f t="shared" si="0"/>
+        <v>-5.9157091690100444E-2</v>
       </c>
       <c r="O44">
         <v>0</v>
@@ -2949,25 +2948,25 @@
         <v>-78.260099999999994</v>
       </c>
       <c r="E45">
-        <v>0.04</v>
+        <v>0.93</v>
       </c>
       <c r="F45">
-        <v>0.1</v>
+        <v>-0.11</v>
       </c>
       <c r="G45">
-        <v>0.93</v>
+        <v>-8.4553685800000007E-3</v>
       </c>
       <c r="H45">
-        <v>0.422768429</v>
+        <v>-0.35802469135802467</v>
       </c>
       <c r="I45">
-        <v>0.11</v>
+        <v>-0.37096774193548387</v>
       </c>
       <c r="J45">
-        <v>0.35802469135802467</v>
+        <v>-0.1</v>
       </c>
       <c r="K45">
-        <v>0.37096774193548387</v>
+        <v>-0.04</v>
       </c>
       <c r="L45">
         <v>0.68706034189251175</v>
@@ -2976,8 +2975,8 @@
         <v>0.39360321699270612</v>
       </c>
       <c r="N45">
-        <f t="shared" si="1"/>
-        <v>0.3791582690198585</v>
+        <f t="shared" si="0"/>
+        <v>0.11369063966796772</v>
       </c>
       <c r="O45">
         <v>0</v>
@@ -2997,25 +2996,25 @@
         <v>-77.460499999999996</v>
       </c>
       <c r="E46">
-        <v>0.02</v>
+        <v>0.83</v>
       </c>
       <c r="F46">
-        <v>0.21</v>
+        <v>-0.2</v>
       </c>
       <c r="G46">
-        <v>0.83</v>
+        <v>-1.6157926159999999E-2</v>
       </c>
       <c r="H46">
-        <v>0.80789630800000001</v>
+        <v>-0.20987654320987653</v>
       </c>
       <c r="I46">
-        <v>0.2</v>
+        <v>-0.30645161290322581</v>
       </c>
       <c r="J46">
-        <v>0.20987654320987653</v>
+        <v>-0.21</v>
       </c>
       <c r="K46">
-        <v>0.30645161290322581</v>
+        <v>-0.02</v>
       </c>
       <c r="L46">
         <v>0.33060720354932088</v>
@@ -3024,8 +3023,8 @@
         <v>0.17906117516612471</v>
       </c>
       <c r="N46">
-        <f t="shared" si="1"/>
-        <v>0.34376587142539428</v>
+        <f t="shared" si="0"/>
+        <v>4.1909144049149236E-2</v>
       </c>
       <c r="O46">
         <v>0</v>
@@ -3045,25 +3044,25 @@
         <v>-80.924000000000007</v>
       </c>
       <c r="E47">
-        <v>0.01</v>
+        <v>0.93</v>
       </c>
       <c r="F47">
-        <v>0.35</v>
+        <v>-0.14000000000000001</v>
       </c>
       <c r="G47">
-        <v>0.93</v>
+        <v>0</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>-0.75308641975308643</v>
       </c>
       <c r="I47">
-        <v>0.14000000000000001</v>
+        <v>-0.9838709677419355</v>
       </c>
       <c r="J47">
-        <v>0.75308641975308643</v>
+        <v>-0.35</v>
       </c>
       <c r="K47">
-        <v>0.9838709677419355</v>
+        <v>-0.01</v>
       </c>
       <c r="L47">
         <v>0.72604065817820229</v>
@@ -3072,8 +3071,8 @@
         <v>0.26820471357780251</v>
       </c>
       <c r="N47">
-        <f t="shared" si="1"/>
-        <v>0.52015034490637846</v>
+        <f t="shared" si="0"/>
+        <v>-3.9089001967377121E-2</v>
       </c>
       <c r="O47">
         <v>1</v>
@@ -3093,25 +3092,25 @@
         <v>-80.677099999999996</v>
       </c>
       <c r="E48">
-        <v>0</v>
+        <v>0.93</v>
       </c>
       <c r="F48">
-        <v>0.18</v>
+        <v>-0.08</v>
       </c>
       <c r="G48">
-        <v>0.93</v>
+        <v>0</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>-0.61728395061728392</v>
       </c>
       <c r="I48">
-        <v>0.08</v>
+        <v>-0.66129032258064513</v>
       </c>
       <c r="J48">
-        <v>0.61728395061728392</v>
+        <v>-0.18</v>
       </c>
       <c r="K48">
-        <v>0.66129032258064513</v>
+        <v>0</v>
       </c>
       <c r="L48">
         <v>0.81663717981154993</v>
@@ -3120,8 +3119,8 @@
         <v>0.40151260103232639</v>
       </c>
       <c r="N48">
-        <f t="shared" si="1"/>
-        <v>0.4608405067552257</v>
+        <f t="shared" si="0"/>
+        <v>7.6196938455743435E-2</v>
       </c>
       <c r="O48">
         <v>1</v>
@@ -3141,25 +3140,25 @@
         <v>-76.502600000000001</v>
       </c>
       <c r="E49">
-        <v>0.03</v>
+        <v>0.93</v>
       </c>
       <c r="F49">
-        <v>0.13</v>
+        <v>-0.12</v>
       </c>
       <c r="G49">
-        <v>0.93</v>
+        <v>-7.5347810800000005E-3</v>
       </c>
       <c r="H49">
-        <v>0.37673905400000002</v>
+        <v>-0.25925925925925924</v>
       </c>
       <c r="I49">
-        <v>0.12</v>
+        <v>-0.25806451612903225</v>
       </c>
       <c r="J49">
-        <v>0.25925925925925924</v>
+        <v>-0.13</v>
       </c>
       <c r="K49">
-        <v>0.25806451612903225</v>
+        <v>-0.03</v>
       </c>
       <c r="L49">
         <v>0.8189738624835603</v>
@@ -3168,8 +3167,8 @@
         <v>0.42062060823157127</v>
       </c>
       <c r="N49">
-        <f t="shared" si="1"/>
-        <v>0.37151747778926925</v>
+        <f t="shared" si="0"/>
+        <v>0.15163732380520445</v>
       </c>
       <c r="O49">
         <v>0</v>
@@ -3189,25 +3188,25 @@
         <v>-77.9739</v>
       </c>
       <c r="E50">
-        <v>0.03</v>
+        <v>0.94</v>
       </c>
       <c r="F50">
-        <v>0.08</v>
+        <v>-0.11</v>
       </c>
       <c r="G50">
-        <v>0.94</v>
+        <v>0</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>-0.33333333333333331</v>
       </c>
       <c r="I50">
-        <v>0.11</v>
+        <v>-0.37096774193548387</v>
       </c>
       <c r="J50">
-        <v>0.33333333333333331</v>
+        <v>-0.08</v>
       </c>
       <c r="K50">
-        <v>0.37096774193548387</v>
+        <v>-0.03</v>
       </c>
       <c r="L50">
         <v>0.8381346595808814</v>
@@ -3216,8 +3215,8 @@
         <v>0.43915822713646097</v>
       </c>
       <c r="N50">
-        <f t="shared" si="1"/>
-        <v>0.39269924524826999</v>
+        <f t="shared" si="0"/>
+        <v>0.16162397643106563</v>
       </c>
       <c r="O50">
         <v>1</v>
@@ -3237,25 +3236,25 @@
         <v>-81.207800000000006</v>
       </c>
       <c r="E51">
-        <v>0.09</v>
+        <v>0.91</v>
       </c>
       <c r="F51">
-        <v>0.28000000000000003</v>
+        <v>-0.12</v>
       </c>
       <c r="G51">
-        <v>0.91</v>
+        <v>0</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>-0.22222222222222221</v>
       </c>
       <c r="I51">
-        <v>0.12</v>
+        <v>-0.19354838709677419</v>
       </c>
       <c r="J51">
-        <v>0.22222222222222221</v>
+        <v>-0.28000000000000003</v>
       </c>
       <c r="K51">
-        <v>0.19354838709677419</v>
+        <v>-0.09</v>
       </c>
       <c r="L51">
         <v>0.78315585671118348</v>
@@ -3264,8 +3263,8 @@
         <v>0.28947204793865239</v>
       </c>
       <c r="N51">
-        <f t="shared" si="1"/>
-        <v>0.36104981424610405</v>
+        <f t="shared" si="0"/>
+        <v>0.13460716191635494</v>
       </c>
       <c r="O51">
         <v>1</v>
@@ -3285,25 +3284,25 @@
         <v>-78.452500000000001</v>
       </c>
       <c r="E52">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="F52">
-        <v>0.12</v>
+        <v>-0.12</v>
       </c>
       <c r="G52">
-        <v>0.95</v>
+        <v>-1.0303967020000001E-2</v>
       </c>
       <c r="H52">
-        <v>0.515198351</v>
+        <v>-0.23456790123456789</v>
       </c>
       <c r="I52">
-        <v>0.12</v>
+        <v>-0.40322580645161288</v>
       </c>
       <c r="J52">
-        <v>0.23456790123456789</v>
+        <v>-0.12</v>
       </c>
       <c r="K52">
-        <v>0.40322580645161288</v>
+        <v>0</v>
       </c>
       <c r="L52">
         <v>0.57923022982220573</v>
@@ -3312,8 +3311,8 @@
         <v>0.30796892472799531</v>
       </c>
       <c r="N52">
-        <f t="shared" si="1"/>
-        <v>0.35891013480404238</v>
+        <f t="shared" si="0"/>
+        <v>0.10545571998266891</v>
       </c>
       <c r="O52">
         <v>0</v>
@@ -3333,25 +3332,25 @@
         <v>-77.607799999999997</v>
       </c>
       <c r="E53">
-        <v>0.04</v>
+        <v>0.89</v>
       </c>
       <c r="F53">
-        <v>0.27</v>
+        <v>-0.15</v>
       </c>
       <c r="G53">
-        <v>0.89</v>
+        <v>0</v>
       </c>
       <c r="H53">
-        <v>0</v>
+        <v>-0.12345679012345678</v>
       </c>
       <c r="I53">
-        <v>0.15</v>
+        <v>-0.16129032258064516</v>
       </c>
       <c r="J53">
-        <v>0.12345679012345678</v>
+        <v>-0.27</v>
       </c>
       <c r="K53">
-        <v>0.16129032258064516</v>
+        <v>-0.04</v>
       </c>
       <c r="L53">
         <v>0.23717328172214311</v>
@@ -3360,8 +3359,8 @@
         <v>8.1524780801308011E-2</v>
       </c>
       <c r="N53">
-        <f t="shared" si="1"/>
-        <v>0.2441806469034441</v>
+        <f t="shared" si="0"/>
+        <v>5.7993868727418643E-2</v>
       </c>
       <c r="O53">
         <v>1</v>
@@ -3381,25 +3380,25 @@
         <v>-78.928799999999995</v>
       </c>
       <c r="E54">
-        <v>0.11</v>
+        <v>0.95</v>
       </c>
       <c r="F54">
-        <v>0.22</v>
+        <v>-0.11</v>
       </c>
       <c r="G54">
-        <v>0.95</v>
+        <v>-9.2009546000000001E-3</v>
       </c>
       <c r="H54">
-        <v>0.46004772999999999</v>
+        <v>-0.29629629629629628</v>
       </c>
       <c r="I54">
-        <v>0.11</v>
+        <v>-0.35483870967741937</v>
       </c>
       <c r="J54">
-        <v>0.29629629629629628</v>
+        <v>-0.22</v>
       </c>
       <c r="K54">
-        <v>0.35483870967741937</v>
+        <v>-0.11</v>
       </c>
       <c r="L54">
         <v>0.5717528455428269</v>
@@ -3408,8 +3407,8 @@
         <v>0.18134272834354501</v>
       </c>
       <c r="N54">
-        <f t="shared" si="1"/>
-        <v>0.36158647887334311</v>
+        <f t="shared" si="0"/>
+        <v>6.697329036807291E-2</v>
       </c>
       <c r="O54">
         <v>0</v>
@@ -3429,25 +3428,25 @@
         <v>-76.345200000000006</v>
       </c>
       <c r="E55">
-        <v>0.1</v>
+        <v>0.93</v>
       </c>
       <c r="F55">
-        <v>0.24</v>
+        <v>-0.23</v>
       </c>
       <c r="G55">
-        <v>0.93</v>
+        <v>-1.2390933959999999E-2</v>
       </c>
       <c r="H55">
-        <v>0.61954669799999995</v>
+        <v>-0.44444444444444442</v>
       </c>
       <c r="I55">
-        <v>0.23</v>
+        <v>-0.532258064516129</v>
       </c>
       <c r="J55">
-        <v>0.44444444444444442</v>
+        <v>-0.24</v>
       </c>
       <c r="K55">
-        <v>0.532258064516129</v>
+        <v>-0.1</v>
       </c>
       <c r="L55">
         <v>0.59819504724864991</v>
@@ -3456,8 +3455,8 @@
         <v>0.26454581732944882</v>
       </c>
       <c r="N55">
-        <f t="shared" si="1"/>
-        <v>0.4398877857265191</v>
+        <f t="shared" si="0"/>
+        <v>2.5960824628613932E-2</v>
       </c>
       <c r="O55">
         <v>0</v>
@@ -3477,25 +3476,25 @@
         <v>-77.516099999999994</v>
       </c>
       <c r="E56">
-        <v>0.04</v>
+        <v>0.95</v>
       </c>
       <c r="F56">
-        <v>0.06</v>
+        <v>-0.09</v>
       </c>
       <c r="G56">
-        <v>0.95</v>
+        <v>-6.3188733200000005E-3</v>
       </c>
       <c r="H56">
-        <v>0.31594366600000001</v>
+        <v>-0.2839506172839506</v>
       </c>
       <c r="I56">
-        <v>0.09</v>
+        <v>-0.29032258064516131</v>
       </c>
       <c r="J56">
-        <v>0.2839506172839506</v>
+        <v>-0.06</v>
       </c>
       <c r="K56">
-        <v>0.29032258064516131</v>
+        <v>-0.04</v>
       </c>
       <c r="L56">
         <v>0.8822200708524468</v>
@@ -3504,8 +3503,8 @@
         <v>0.51600854006509378</v>
       </c>
       <c r="N56">
-        <f t="shared" si="1"/>
-        <v>0.38093838609407249</v>
+        <f t="shared" si="0"/>
+        <v>0.17529294885204763</v>
       </c>
       <c r="O56">
         <v>0</v>
@@ -3525,25 +3524,25 @@
         <v>-78.868899999999996</v>
       </c>
       <c r="E57">
-        <v>0.01</v>
+        <v>0.88</v>
       </c>
       <c r="F57">
-        <v>0.2</v>
+        <v>-0.26</v>
       </c>
       <c r="G57">
-        <v>0.88</v>
+        <v>-7.49189938E-3</v>
       </c>
       <c r="H57">
-        <v>0.374594969</v>
+        <v>-0.2839506172839506</v>
       </c>
       <c r="I57">
-        <v>0.26</v>
+        <v>-0.30645161290322581</v>
       </c>
       <c r="J57">
-        <v>0.2839506172839506</v>
+        <v>-0.2</v>
       </c>
       <c r="K57">
-        <v>0.30645161290322581</v>
+        <v>-0.01</v>
       </c>
       <c r="L57">
         <v>0.39980638918875555</v>
@@ -3552,8 +3551,8 @@
         <v>0.25757104656279023</v>
       </c>
       <c r="N57">
-        <f t="shared" si="1"/>
-        <v>0.33026384832652478</v>
+        <f t="shared" si="0"/>
+        <v>5.2164811798263253E-2</v>
       </c>
       <c r="O57">
         <v>0</v>
@@ -3573,25 +3572,25 @@
         <v>-77.332400000000007</v>
       </c>
       <c r="E58">
-        <v>0.04</v>
+        <v>0.92</v>
       </c>
       <c r="F58">
-        <v>0.13</v>
+        <v>-0.15</v>
       </c>
       <c r="G58">
-        <v>0.92</v>
+        <v>-9.8267422600000001E-3</v>
       </c>
       <c r="H58">
-        <v>0.49133711299999999</v>
+        <v>-0.70370370370370372</v>
       </c>
       <c r="I58">
-        <v>0.15</v>
+        <v>-0.67741935483870963</v>
       </c>
       <c r="J58">
-        <v>0.70370370370370372</v>
+        <v>-0.13</v>
       </c>
       <c r="K58">
-        <v>0.67741935483870963</v>
+        <v>-0.04</v>
       </c>
       <c r="L58">
         <v>0.72847640745235065</v>
@@ -3600,8 +3599,8 @@
         <v>0.55801978311417366</v>
       </c>
       <c r="N58">
-        <f t="shared" si="1"/>
-        <v>0.48877292912321529</v>
+        <f t="shared" si="0"/>
+        <v>5.5060709973790103E-2</v>
       </c>
       <c r="O58">
         <v>0</v>
@@ -3620,26 +3619,26 @@
       <c r="D59">
         <v>-79.963999999999999</v>
       </c>
-      <c r="E59" s="1">
-        <v>7.0000000000000007E-2</v>
+      <c r="E59">
+        <v>0.88</v>
       </c>
       <c r="F59">
-        <v>0.28000000000000003</v>
+        <v>-0.12</v>
       </c>
       <c r="G59">
-        <v>0.88</v>
+        <v>-8.91680236E-3</v>
       </c>
       <c r="H59">
-        <v>0.44584011800000001</v>
+        <v>-0.30864197530864196</v>
       </c>
       <c r="I59">
-        <v>0.12</v>
+        <v>-0.35483870967741937</v>
       </c>
       <c r="J59">
-        <v>0.30864197530864196</v>
+        <v>-0.28000000000000003</v>
       </c>
       <c r="K59">
-        <v>0.35483870967741937</v>
+        <v>-7.0000000000000007E-2</v>
       </c>
       <c r="L59">
         <v>0.6852533075458086</v>
@@ -3648,8 +3647,8 @@
         <v>0.33405468144397693</v>
       </c>
       <c r="N59">
-        <f t="shared" si="1"/>
-        <v>0.38651431021953858</v>
+        <f t="shared" si="0"/>
+        <v>8.4101166849302675E-2</v>
       </c>
       <c r="O59">
         <v>0</v>
@@ -3669,25 +3668,25 @@
         <v>-79.6053</v>
       </c>
       <c r="E60">
-        <v>0.32</v>
+        <v>1</v>
       </c>
       <c r="F60">
-        <v>0.21</v>
+        <v>-0.1</v>
       </c>
       <c r="G60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H60">
         <v>0</v>
       </c>
       <c r="I60">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="J60">
-        <v>0</v>
+        <v>-0.21</v>
       </c>
       <c r="K60">
-        <v>0</v>
+        <v>-0.32</v>
       </c>
       <c r="L60">
         <v>0.7721552405631873</v>
@@ -3696,8 +3695,8 @@
         <v>0.26949364295305556</v>
       </c>
       <c r="N60">
-        <f t="shared" si="1"/>
-        <v>0.44527481391937385</v>
+        <f t="shared" si="0"/>
+        <v>0.2352748139193738</v>
       </c>
       <c r="O60">
         <v>3</v>
@@ -3717,25 +3716,25 @@
         <v>-77.287199999999999</v>
       </c>
       <c r="E61">
-        <v>0.13</v>
+        <v>0.91</v>
       </c>
       <c r="F61">
-        <v>0.31</v>
+        <v>-0.2</v>
       </c>
       <c r="G61">
-        <v>0.91</v>
+        <v>-2.0528382719999998E-2</v>
       </c>
       <c r="H61">
-        <v>1.0264191359999999</v>
+        <v>-0.27160493827160492</v>
       </c>
       <c r="I61">
-        <v>0.2</v>
+        <v>-0.37096774193548387</v>
       </c>
       <c r="J61">
-        <v>0.27160493827160492</v>
+        <v>-0.31</v>
       </c>
       <c r="K61">
-        <v>0.37096774193548387</v>
+        <v>-0.13</v>
       </c>
       <c r="L61">
         <v>0.52984833800811992</v>
@@ -3744,8 +3743,8 @@
         <v>0.22708786769820152</v>
       </c>
       <c r="N61">
-        <f t="shared" si="1"/>
-        <v>0.44176978021260116</v>
+        <f t="shared" si="0"/>
+        <v>4.0426126975470288E-2</v>
       </c>
       <c r="O61">
         <v>0</v>
@@ -3765,25 +3764,25 @@
         <v>-76.706500000000005</v>
       </c>
       <c r="E62">
-        <v>0.02</v>
+        <v>0.96</v>
       </c>
       <c r="F62">
-        <v>0.12</v>
+        <v>-0.12</v>
       </c>
       <c r="G62">
-        <v>0.96</v>
+        <v>-7.1483558800000003E-3</v>
       </c>
       <c r="H62">
-        <v>0.35741779400000001</v>
+        <v>-0.24691358024691357</v>
       </c>
       <c r="I62">
-        <v>0.12</v>
+        <v>-0.27419354838709675</v>
       </c>
       <c r="J62">
-        <v>0.24691358024691357</v>
+        <v>-0.12</v>
       </c>
       <c r="K62">
-        <v>0.27419354838709675</v>
+        <v>-0.02</v>
       </c>
       <c r="L62">
         <v>0.75024201337852781</v>
@@ -3792,8 +3791,8 @@
         <v>0.37335986568531909</v>
       </c>
       <c r="N62">
-        <f t="shared" si="1"/>
-        <v>0.35801408907753968</v>
+        <f t="shared" si="0"/>
+        <v>0.14392737717220408</v>
       </c>
       <c r="O62">
         <v>0</v>
@@ -3813,25 +3812,25 @@
         <v>-76.895200000000003</v>
       </c>
       <c r="E63">
-        <v>0.04</v>
+        <v>0.87</v>
       </c>
       <c r="F63">
-        <v>0.19</v>
+        <v>-0.15</v>
       </c>
       <c r="G63">
-        <v>0.87</v>
+        <v>0</v>
       </c>
       <c r="H63">
-        <v>0</v>
+        <v>-0.33333333333333331</v>
       </c>
       <c r="I63">
-        <v>0.15</v>
+        <v>-0.4838709677419355</v>
       </c>
       <c r="J63">
-        <v>0.33333333333333331</v>
+        <v>-0.19</v>
       </c>
       <c r="K63">
-        <v>0.4838709677419355</v>
+        <v>-0.04</v>
       </c>
       <c r="L63">
         <v>0.63811463098843102</v>
@@ -3840,8 +3839,8 @@
         <v>0.18134272834354501</v>
       </c>
       <c r="N63">
-        <f t="shared" si="1"/>
-        <v>0.36083270755090563</v>
+        <f t="shared" si="0"/>
+        <v>6.1531632282088397E-2</v>
       </c>
       <c r="O63">
         <v>1</v>
@@ -3861,25 +3860,25 @@
         <v>-77.180800000000005</v>
       </c>
       <c r="E64">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="F64">
-        <v>0.09</v>
+        <v>-0.09</v>
       </c>
       <c r="G64">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="H64">
-        <v>0</v>
+        <v>-0.22222222222222221</v>
       </c>
       <c r="I64">
-        <v>0.09</v>
+        <v>-0.24193548387096775</v>
       </c>
       <c r="J64">
-        <v>0.22222222222222221</v>
+        <v>-0.09</v>
       </c>
       <c r="K64">
-        <v>0.24193548387096775</v>
+        <v>0</v>
       </c>
       <c r="L64">
         <v>0.78205427762106905</v>
@@ -3888,8 +3887,8 @@
         <v>0.42660968499147445</v>
       </c>
       <c r="N64">
-        <f t="shared" si="1"/>
-        <v>0.40040309552939046</v>
+        <f t="shared" si="0"/>
+        <v>0.21635803664562192</v>
       </c>
       <c r="O64">
         <v>2</v>
@@ -3909,25 +3908,25 @@
         <v>-77.0137</v>
       </c>
       <c r="E65">
-        <v>0.03</v>
+        <v>0.92</v>
       </c>
       <c r="F65">
-        <v>0.1</v>
+        <v>-0.13</v>
       </c>
       <c r="G65">
-        <v>0.92</v>
+        <v>0</v>
       </c>
       <c r="H65">
-        <v>0</v>
+        <v>-0.23456790123456789</v>
       </c>
       <c r="I65">
-        <v>0.13</v>
+        <v>-0.27419354838709675</v>
       </c>
       <c r="J65">
-        <v>0.23456790123456789</v>
+        <v>-0.1</v>
       </c>
       <c r="K65">
-        <v>0.27419354838709675</v>
+        <v>-0.03</v>
       </c>
       <c r="L65">
         <v>0.64666021282839581</v>
@@ -3936,8 +3935,8 @@
         <v>0.20203967407921461</v>
       </c>
       <c r="N65">
-        <f t="shared" si="1"/>
-        <v>0.31718266706615938</v>
+        <f t="shared" si="0"/>
+        <v>0.12499230466074324</v>
       </c>
       <c r="O65">
         <v>1</v>
@@ -3957,25 +3956,25 @@
         <v>-76.502600000000001</v>
       </c>
       <c r="E66">
-        <v>0.01</v>
+        <v>0.89</v>
       </c>
       <c r="F66">
-        <v>0.24</v>
+        <v>-0.12</v>
       </c>
       <c r="G66">
-        <v>0.89</v>
+        <v>0</v>
       </c>
       <c r="H66">
-        <v>0</v>
+        <v>-0.18518518518518517</v>
       </c>
       <c r="I66">
-        <v>0.12</v>
+        <v>-0.22580645161290322</v>
       </c>
       <c r="J66">
-        <v>0.18518518518518517</v>
+        <v>-0.24</v>
       </c>
       <c r="K66">
-        <v>0.22580645161290322</v>
+        <v>-0.01</v>
       </c>
       <c r="L66">
         <v>0.362052274761824</v>
@@ -3984,8 +3983,8 @@
         <v>0.10869970772404984</v>
       </c>
       <c r="N66">
-        <f t="shared" ref="N66:N97" si="2">(E66+F66+G66+H66+I66+J66+K66+L66+M66)/(9-O66)</f>
-        <v>0.26771795241049529</v>
+        <f t="shared" si="0"/>
+        <v>7.2470043210973181E-2</v>
       </c>
       <c r="O66">
         <v>1</v>
@@ -4005,25 +4004,25 @@
         <v>-83.036100000000005</v>
       </c>
       <c r="E67">
-        <v>0</v>
+        <v>0.85</v>
       </c>
       <c r="F67">
-        <v>0.33</v>
+        <v>-0.13</v>
       </c>
       <c r="G67">
-        <v>0.85</v>
+        <v>-9.1157702799999994E-3</v>
       </c>
       <c r="H67">
-        <v>0.45578851399999998</v>
+        <v>-1</v>
       </c>
       <c r="I67">
-        <v>0.13</v>
+        <v>-1</v>
       </c>
       <c r="J67">
-        <v>1</v>
+        <v>-0.33</v>
       </c>
       <c r="K67">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L67">
         <v>0.74733785093880623</v>
@@ -4032,8 +4031,8 @@
         <v>0.31073938196867706</v>
       </c>
       <c r="N67">
-        <f t="shared" si="2"/>
-        <v>0.53598508298972036</v>
+        <f t="shared" ref="N67:N130" si="1">(E67+F67+G67+H67+I67+J67+K67+L67+M67)/(9-O67)</f>
+        <v>-6.2337615263612985E-2</v>
       </c>
       <c r="O67">
         <v>0</v>
@@ -4053,25 +4052,25 @@
         <v>-79.442800000000005</v>
       </c>
       <c r="E68">
-        <v>0.01</v>
+        <v>0.82</v>
       </c>
       <c r="F68">
-        <v>0.14000000000000001</v>
+        <v>-0.16</v>
       </c>
       <c r="G68">
-        <v>0.82</v>
+        <v>0</v>
       </c>
       <c r="H68">
         <v>0</v>
       </c>
       <c r="I68">
-        <v>0.16</v>
+        <v>0</v>
       </c>
       <c r="J68">
-        <v>0</v>
+        <v>-0.14000000000000001</v>
       </c>
       <c r="K68">
-        <v>0</v>
+        <v>-0.01</v>
       </c>
       <c r="L68">
         <v>0.79400825392402752</v>
@@ -4080,8 +4079,8 @@
         <v>1</v>
       </c>
       <c r="N68">
-        <f t="shared" si="2"/>
-        <v>0.48733470898733788</v>
+        <f t="shared" si="1"/>
+        <v>0.38400137565400455</v>
       </c>
       <c r="O68">
         <v>3</v>
@@ -4101,25 +4100,25 @@
         <v>-77.653599999999997</v>
       </c>
       <c r="E69">
-        <v>0.01</v>
+        <v>0.96</v>
       </c>
       <c r="F69">
-        <v>0.04</v>
+        <v>-0.11</v>
       </c>
       <c r="G69">
-        <v>0.96</v>
+        <v>-6.1795229399999995E-3</v>
       </c>
       <c r="H69">
-        <v>0.30897614699999998</v>
+        <v>-0.30864197530864196</v>
       </c>
       <c r="I69">
-        <v>0.11</v>
+        <v>-0.4838709677419355</v>
       </c>
       <c r="J69">
-        <v>0.30864197530864196</v>
+        <v>-0.04</v>
       </c>
       <c r="K69">
-        <v>0.4838709677419355</v>
+        <v>-0.01</v>
       </c>
       <c r="L69">
         <v>0.8648783687020235</v>
@@ -4128,8 +4127,8 @@
         <v>0.64979709568958754</v>
       </c>
       <c r="N69">
-        <f t="shared" si="2"/>
-        <v>0.41512939493802098</v>
+        <f t="shared" si="1"/>
+        <v>0.16844255537789263</v>
       </c>
       <c r="O69">
         <v>0</v>
@@ -4149,25 +4148,25 @@
         <v>-77.9739</v>
       </c>
       <c r="E70">
-        <v>0.01</v>
+        <v>0.94</v>
       </c>
       <c r="F70">
-        <v>0.15</v>
+        <v>-0.12</v>
       </c>
       <c r="G70">
-        <v>0.94</v>
+        <v>-6.2182023799999993E-3</v>
       </c>
       <c r="H70">
-        <v>0.31091011899999998</v>
+        <v>-0.29629629629629628</v>
       </c>
       <c r="I70">
-        <v>0.12</v>
+        <v>-0.30645161290322581</v>
       </c>
       <c r="J70">
-        <v>0.29629629629629628</v>
+        <v>-0.15</v>
       </c>
       <c r="K70">
-        <v>0.30645161290322581</v>
+        <v>-0.01</v>
       </c>
       <c r="L70">
         <v>0.79090029024518094</v>
@@ -4176,8 +4175,8 @@
         <v>0.45134009090317645</v>
       </c>
       <c r="N70">
-        <f t="shared" si="2"/>
-        <v>0.37509982326087554</v>
+        <f t="shared" si="1"/>
+        <v>0.14369714106320391</v>
       </c>
       <c r="O70">
         <v>0</v>
@@ -4197,25 +4196,25 @@
         <v>-78.247600000000006</v>
       </c>
       <c r="E71">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="F71">
-        <v>0.25</v>
+        <v>-0.14000000000000001</v>
       </c>
       <c r="G71">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="H71">
-        <v>0</v>
+        <v>-7.407407407407407E-2</v>
       </c>
       <c r="I71">
-        <v>0.14000000000000001</v>
+        <v>-0.19354838709677419</v>
       </c>
       <c r="J71">
-        <v>7.407407407407407E-2</v>
+        <v>-0.25</v>
       </c>
       <c r="K71">
-        <v>0.19354838709677419</v>
+        <v>0</v>
       </c>
       <c r="L71">
         <v>0.5837366891449165</v>
@@ -4224,8 +4223,8 @@
         <v>0.21858093395386158</v>
       </c>
       <c r="N71">
-        <f t="shared" si="2"/>
-        <v>0.28249251053370328</v>
+        <f t="shared" si="1"/>
+        <v>0.11808689524099122</v>
       </c>
       <c r="O71">
         <v>1</v>
@@ -4245,25 +4244,25 @@
         <v>-79.142200000000003</v>
       </c>
       <c r="E72">
-        <v>0.09</v>
+        <v>0.86</v>
       </c>
       <c r="F72">
-        <v>0.25</v>
+        <v>-0.18</v>
       </c>
       <c r="G72">
-        <v>0.86</v>
+        <v>-9.7340604799999991E-3</v>
       </c>
       <c r="H72">
-        <v>0.48670302399999998</v>
+        <v>-0.54320987654320985</v>
       </c>
       <c r="I72">
-        <v>0.18</v>
+        <v>-0.62903225806451613</v>
       </c>
       <c r="J72">
-        <v>0.54320987654320985</v>
+        <v>-0.25</v>
       </c>
       <c r="K72">
-        <v>0.62903225806451613</v>
+        <v>-0.09</v>
       </c>
       <c r="L72">
         <v>0.49732171651479734</v>
@@ -4272,8 +4271,8 @@
         <v>0.35610969472044801</v>
       </c>
       <c r="N72">
-        <f t="shared" si="2"/>
-        <v>0.43248628553810786</v>
+        <f t="shared" si="1"/>
+        <v>1.2728017941688134E-3</v>
       </c>
       <c r="O72">
         <v>0</v>
@@ -4293,25 +4292,25 @@
         <v>-78.257499999999993</v>
       </c>
       <c r="E73">
-        <v>0.01</v>
+        <v>0.96</v>
       </c>
       <c r="F73">
-        <v>0.16</v>
+        <v>-0.17</v>
       </c>
       <c r="G73">
-        <v>0.96</v>
+        <v>0</v>
       </c>
       <c r="H73">
-        <v>0</v>
+        <v>-7.407407407407407E-2</v>
       </c>
       <c r="I73">
-        <v>0.17</v>
+        <v>-6.4516129032258063E-2</v>
       </c>
       <c r="J73">
-        <v>7.407407407407407E-2</v>
+        <v>-0.16</v>
       </c>
       <c r="K73">
-        <v>6.4516129032258063E-2</v>
+        <v>-0.01</v>
       </c>
       <c r="L73">
         <v>0.57405614695636431</v>
@@ -4320,8 +4319,8 @@
         <v>0.27174926935974836</v>
       </c>
       <c r="N73">
-        <f t="shared" si="2"/>
-        <v>0.28554945242780561</v>
+        <f t="shared" si="1"/>
+        <v>0.16590190165122257</v>
       </c>
       <c r="O73">
         <v>1</v>
@@ -4341,25 +4340,25 @@
         <v>-77.475300000000004</v>
       </c>
       <c r="E74">
-        <v>0.01</v>
+        <v>0.78</v>
       </c>
       <c r="F74">
-        <v>0.15</v>
+        <v>-0.19</v>
       </c>
       <c r="G74">
-        <v>0.78</v>
+        <v>-8.6836963599999997E-3</v>
       </c>
       <c r="H74">
-        <v>0.43418481799999997</v>
+        <v>-0.18518518518518517</v>
       </c>
       <c r="I74">
-        <v>0.19</v>
+        <v>-0.25806451612903225</v>
       </c>
       <c r="J74">
-        <v>0.18518518518518517</v>
+        <v>-0.15</v>
       </c>
       <c r="K74">
-        <v>0.25806451612903225</v>
+        <v>-0.01</v>
       </c>
       <c r="L74">
         <v>0.48295890780119699</v>
@@ -4368,8 +4367,8 @@
         <v>0.20415825912527272</v>
       </c>
       <c r="N74">
-        <f t="shared" si="2"/>
-        <v>0.29939463180452081</v>
+        <f t="shared" si="1"/>
+        <v>7.3909307694694712E-2</v>
       </c>
       <c r="O74">
         <v>0</v>
@@ -4389,25 +4388,25 @@
         <v>-77.469700000000003</v>
       </c>
       <c r="E75">
-        <v>0.11</v>
+        <v>0.89</v>
       </c>
       <c r="F75">
-        <v>0.12</v>
+        <v>-0.19</v>
       </c>
       <c r="G75">
-        <v>0.89</v>
+        <v>0</v>
       </c>
       <c r="H75">
-        <v>0</v>
+        <v>-0.23456790123456789</v>
       </c>
       <c r="I75">
-        <v>0.19</v>
+        <v>-0.14516129032258066</v>
       </c>
       <c r="J75">
-        <v>0.23456790123456789</v>
+        <v>-0.12</v>
       </c>
       <c r="K75">
-        <v>0.14516129032258066</v>
+        <v>-0.11</v>
       </c>
       <c r="L75">
         <v>0.55759922556109176</v>
@@ -4416,8 +4415,8 @@
         <v>0.26111560234473608</v>
       </c>
       <c r="N75">
-        <f t="shared" si="2"/>
-        <v>0.31355550243287206</v>
+        <f t="shared" si="1"/>
+        <v>0.1136232045435849</v>
       </c>
       <c r="O75">
         <v>1</v>
@@ -4437,25 +4436,25 @@
         <v>-79.872500000000002</v>
       </c>
       <c r="E76">
-        <v>0.1</v>
+        <v>0.87</v>
       </c>
       <c r="F76">
-        <v>0.34</v>
+        <v>-0.15</v>
       </c>
       <c r="G76">
-        <v>0.87</v>
+        <v>-1.5266010219999999E-2</v>
       </c>
       <c r="H76">
-        <v>0.76330051099999996</v>
+        <v>-0.40740740740740738</v>
       </c>
       <c r="I76">
-        <v>0.15</v>
+        <v>-0.532258064516129</v>
       </c>
       <c r="J76">
-        <v>0.40740740740740738</v>
+        <v>-0.34</v>
       </c>
       <c r="K76">
-        <v>0.532258064516129</v>
+        <v>-0.1</v>
       </c>
       <c r="L76">
         <v>0.47613925626146286</v>
@@ -4464,8 +4463,8 @@
         <v>0.1752585866473659</v>
       </c>
       <c r="N76">
-        <f t="shared" si="2"/>
-        <v>0.42381820287026284</v>
+        <f t="shared" si="1"/>
+        <v>-2.6148488038564011E-3</v>
       </c>
       <c r="O76">
         <v>0</v>
@@ -4485,25 +4484,25 @@
         <v>-76.317400000000006</v>
       </c>
       <c r="E77">
-        <v>0</v>
+        <v>0.94</v>
       </c>
       <c r="F77">
-        <v>0.17</v>
+        <v>-0.1</v>
       </c>
       <c r="G77">
-        <v>0.94</v>
+        <v>0</v>
       </c>
       <c r="H77">
-        <v>0</v>
+        <v>-0.38271604938271603</v>
       </c>
       <c r="I77">
-        <v>0.1</v>
+        <v>-0.17741935483870969</v>
       </c>
       <c r="J77">
-        <v>0.38271604938271603</v>
+        <v>-0.17</v>
       </c>
       <c r="K77">
-        <v>0.17741935483870969</v>
+        <v>0</v>
       </c>
       <c r="L77">
         <v>0.6708281870413032</v>
@@ -4512,8 +4511,8 @@
         <v>0.26347863942242489</v>
       </c>
       <c r="N77">
-        <f t="shared" si="2"/>
-        <v>0.33805527883564424</v>
+        <f t="shared" si="1"/>
+        <v>0.1305214277802878</v>
       </c>
       <c r="O77">
         <v>1</v>
@@ -4533,25 +4532,25 @@
         <v>-78.384200000000007</v>
       </c>
       <c r="E78">
-        <v>0.04</v>
+        <v>0.89</v>
       </c>
       <c r="F78">
-        <v>0.3</v>
+        <v>-0.14000000000000001</v>
       </c>
       <c r="G78">
-        <v>0.89</v>
+        <v>-1.8802476740000001E-2</v>
       </c>
       <c r="H78">
-        <v>0.94012383700000002</v>
+        <v>-0.22222222222222221</v>
       </c>
       <c r="I78">
-        <v>0.14000000000000001</v>
+        <v>-0.29032258064516131</v>
       </c>
       <c r="J78">
-        <v>0.22222222222222221</v>
+        <v>-0.3</v>
       </c>
       <c r="K78">
-        <v>0.29032258064516131</v>
+        <v>-0.04</v>
       </c>
       <c r="L78">
         <v>0.69232566681063512</v>
@@ -4560,8 +4559,8 @@
         <v>0.38782328262945487</v>
       </c>
       <c r="N78">
-        <f t="shared" si="2"/>
-        <v>0.43364639881194156</v>
+        <f t="shared" si="1"/>
+        <v>0.10653351887030071</v>
       </c>
       <c r="O78">
         <v>0</v>
@@ -4581,25 +4580,25 @@
         <v>-76.525700000000001</v>
       </c>
       <c r="E79">
-        <v>0</v>
+        <v>0.94</v>
       </c>
       <c r="F79">
-        <v>0.23</v>
+        <v>-0.14000000000000001</v>
       </c>
       <c r="G79">
-        <v>0.94</v>
+        <v>0</v>
       </c>
       <c r="H79">
-        <v>0</v>
+        <v>-0.2839506172839506</v>
       </c>
       <c r="I79">
-        <v>0.14000000000000001</v>
+        <v>-0.19354838709677419</v>
       </c>
       <c r="J79">
-        <v>0.2839506172839506</v>
+        <v>-0.23</v>
       </c>
       <c r="K79">
-        <v>0.19354838709677419</v>
+        <v>0</v>
       </c>
       <c r="L79">
         <v>0.62826718277856852</v>
@@ -4608,8 +4607,8 @@
         <v>0.34736645749991685</v>
       </c>
       <c r="N79">
-        <f t="shared" si="2"/>
-        <v>0.34539158058240127</v>
+        <f t="shared" si="1"/>
+        <v>0.13351682948722005</v>
       </c>
       <c r="O79">
         <v>1</v>
@@ -4629,25 +4628,25 @@
         <v>-80.410399999999996</v>
       </c>
       <c r="E80">
-        <v>0.04</v>
+        <v>0.95</v>
       </c>
       <c r="F80">
-        <v>0.15</v>
+        <v>-0.19</v>
       </c>
       <c r="G80">
-        <v>0.95</v>
+        <v>-5.7144606399999994E-3</v>
       </c>
       <c r="H80">
-        <v>0.28572303199999999</v>
+        <v>-0.35802469135802467</v>
       </c>
       <c r="I80">
-        <v>0.19</v>
+        <v>-0.5161290322580645</v>
       </c>
       <c r="J80">
-        <v>0.35802469135802467</v>
+        <v>-0.15</v>
       </c>
       <c r="K80">
-        <v>0.5161290322580645</v>
+        <v>-0.04</v>
       </c>
       <c r="L80">
         <v>0.75314617608930434</v>
@@ -4656,8 +4655,8 @@
         <v>0.48796716643441629</v>
       </c>
       <c r="N80">
-        <f t="shared" si="2"/>
-        <v>0.41455445534886776</v>
+        <f t="shared" si="1"/>
+        <v>0.10347168425195906</v>
       </c>
       <c r="O80">
         <v>0</v>
@@ -4677,25 +4676,25 @@
         <v>-78.883600000000001</v>
       </c>
       <c r="E81">
-        <v>0.03</v>
+        <v>0.92</v>
       </c>
       <c r="F81">
-        <v>0.2</v>
+        <v>-0.14000000000000001</v>
       </c>
       <c r="G81">
-        <v>0.92</v>
+        <v>0</v>
       </c>
       <c r="H81">
-        <v>0</v>
+        <v>-0.30864197530864196</v>
       </c>
       <c r="I81">
-        <v>0.14000000000000001</v>
+        <v>-0.29032258064516131</v>
       </c>
       <c r="J81">
-        <v>0.30864197530864196</v>
+        <v>-0.2</v>
       </c>
       <c r="K81">
-        <v>0.29032258064516131</v>
+        <v>-0.03</v>
       </c>
       <c r="L81">
         <v>0.62689855443383535</v>
@@ -4704,8 +4703,8 @@
         <v>0.30796892472799531</v>
       </c>
       <c r="N81">
-        <f t="shared" si="2"/>
-        <v>0.35297900438945423</v>
+        <f t="shared" si="1"/>
+        <v>0.11073786540100343</v>
       </c>
       <c r="O81">
         <v>1</v>
@@ -4725,25 +4724,25 @@
         <v>-76.964299999999994</v>
       </c>
       <c r="E82">
-        <v>0</v>
+        <v>0.94</v>
       </c>
       <c r="F82">
-        <v>7.0000000000000007E-2</v>
+        <v>-0.13</v>
       </c>
       <c r="G82">
-        <v>0.94</v>
+        <v>0</v>
       </c>
       <c r="H82">
-        <v>0</v>
+        <v>-0.1111111111111111</v>
       </c>
       <c r="I82">
-        <v>0.13</v>
+        <v>-4.8387096774193547E-2</v>
       </c>
       <c r="J82">
-        <v>0.1111111111111111</v>
+        <v>-7.0000000000000007E-2</v>
       </c>
       <c r="K82">
-        <v>4.8387096774193547E-2</v>
+        <v>0</v>
       </c>
       <c r="L82">
         <v>0.78111960482331977</v>
@@ -4752,8 +4751,8 @@
         <v>0.39352716524218045</v>
       </c>
       <c r="N82">
-        <f t="shared" si="2"/>
-        <v>0.30926812224385064</v>
+        <f t="shared" si="1"/>
+        <v>0.21939357027252443</v>
       </c>
       <c r="O82">
         <v>1</v>
@@ -4773,25 +4772,25 @@
         <v>-76.472999999999999</v>
       </c>
       <c r="E83">
-        <v>0.06</v>
+        <v>0.93</v>
       </c>
       <c r="F83">
-        <v>0.22</v>
+        <v>-0.18</v>
       </c>
       <c r="G83">
-        <v>0.93</v>
+        <v>-1.1435232719999999E-2</v>
       </c>
       <c r="H83">
-        <v>0.57176163599999996</v>
+        <v>-0.51851851851851849</v>
       </c>
       <c r="I83">
-        <v>0.18</v>
+        <v>-0.59677419354838712</v>
       </c>
       <c r="J83">
-        <v>0.51851851851851849</v>
+        <v>-0.22</v>
       </c>
       <c r="K83">
-        <v>0.59677419354838712</v>
+        <v>-0.06</v>
       </c>
       <c r="L83">
         <v>0.49822523395920415</v>
@@ -4800,8 +4799,8 @@
         <v>0.32192442442311925</v>
       </c>
       <c r="N83">
-        <f t="shared" si="2"/>
-        <v>0.43302266738324768</v>
+        <f t="shared" si="1"/>
+        <v>1.8157968177268637E-2</v>
       </c>
       <c r="O83">
         <v>0</v>
@@ -4821,25 +4820,25 @@
         <v>-76.285899999999998</v>
       </c>
       <c r="E84">
-        <v>0.08</v>
+        <v>0.82</v>
       </c>
       <c r="F84">
-        <v>0.28000000000000003</v>
+        <v>-0.23</v>
       </c>
       <c r="G84">
-        <v>0.82</v>
+        <v>-1.4495586179999999E-2</v>
       </c>
       <c r="H84">
-        <v>0.72477930899999998</v>
+        <v>-0.65432098765432101</v>
       </c>
       <c r="I84">
-        <v>0.23</v>
+        <v>-0.74193548387096775</v>
       </c>
       <c r="J84">
-        <v>0.65432098765432101</v>
+        <v>-0.28000000000000003</v>
       </c>
       <c r="K84">
-        <v>0.74193548387096775</v>
+        <v>-0.08</v>
       </c>
       <c r="L84">
         <v>0.48889860418113451</v>
@@ -4848,8 +4847,8 @@
         <v>0.31897189819664779</v>
       </c>
       <c r="N84">
-        <f t="shared" si="2"/>
-        <v>0.48210069810034129</v>
+        <f t="shared" si="1"/>
+        <v>-4.1431283925278527E-2</v>
       </c>
       <c r="O84">
         <v>0</v>
@@ -4869,25 +4868,25 @@
         <v>-75.992800000000003</v>
       </c>
       <c r="E85">
-        <v>0</v>
+        <v>0.91</v>
       </c>
       <c r="F85">
-        <v>0.3</v>
+        <v>-0.15</v>
       </c>
       <c r="G85">
-        <v>0.91</v>
+        <v>-1.6726603659999999E-2</v>
       </c>
       <c r="H85">
-        <v>0.83633018299999995</v>
+        <v>-6.1728395061728392E-2</v>
       </c>
       <c r="I85">
-        <v>0.15</v>
+        <v>-9.6774193548387094E-2</v>
       </c>
       <c r="J85">
-        <v>6.1728395061728392E-2</v>
+        <v>-0.3</v>
       </c>
       <c r="K85">
-        <v>9.6774193548387094E-2</v>
+        <v>0</v>
       </c>
       <c r="L85">
         <v>0.45595353339445893</v>
@@ -4896,8 +4895,8 @@
         <v>0.17368322881612344</v>
       </c>
       <c r="N85">
-        <f t="shared" si="2"/>
-        <v>0.33160772598007748</v>
+        <f t="shared" si="1"/>
+        <v>0.10160084110449631</v>
       </c>
       <c r="O85">
         <v>0</v>
@@ -4917,25 +4916,25 @@
         <v>-76.41</v>
       </c>
       <c r="E86">
-        <v>0.01</v>
+        <v>0.95</v>
       </c>
       <c r="F86">
-        <v>0.27</v>
+        <v>-0.15</v>
       </c>
       <c r="G86">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="H86">
-        <v>0</v>
+        <v>-0.12345679012345678</v>
       </c>
       <c r="I86">
-        <v>0.15</v>
+        <v>-0.14516129032258066</v>
       </c>
       <c r="J86">
-        <v>0.12345679012345678</v>
+        <v>-0.27</v>
       </c>
       <c r="K86">
-        <v>0.14516129032258066</v>
+        <v>-0.01</v>
       </c>
       <c r="L86">
         <v>0.66795740558899963</v>
@@ -4944,8 +4943,8 @@
         <v>0.25402649078084438</v>
       </c>
       <c r="N86">
-        <f t="shared" si="2"/>
-        <v>0.32132524710198523</v>
+        <f t="shared" si="1"/>
+        <v>0.14667072699047581</v>
       </c>
       <c r="O86">
         <v>1</v>
@@ -4965,25 +4964,25 @@
         <v>-82.629000000000005</v>
       </c>
       <c r="E87">
-        <v>0.02</v>
+        <v>0.95</v>
       </c>
       <c r="F87">
-        <v>0.31</v>
+        <v>-0.23</v>
       </c>
       <c r="G87">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="H87">
         <v>0</v>
       </c>
-      <c r="I87">
-        <v>0.23</v>
+      <c r="I87" t="e">
+        <v>#VALUE!</v>
       </c>
       <c r="J87">
-        <v>0</v>
-      </c>
-      <c r="K87" t="e">
-        <v>#VALUE!</v>
+        <v>-0.31</v>
+      </c>
+      <c r="K87">
+        <v>-0.02</v>
       </c>
       <c r="L87">
         <v>0.80929332029500822</v>
@@ -4992,7 +4991,7 @@
         <v>0.23039611967313092</v>
       </c>
       <c r="N87" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
       <c r="O87">
@@ -5013,25 +5012,25 @@
         <v>-78.019499999999994</v>
       </c>
       <c r="E88">
-        <v>0.3</v>
+        <v>0.91</v>
       </c>
       <c r="F88">
-        <v>0.28000000000000003</v>
+        <v>-0.17</v>
       </c>
       <c r="G88">
-        <v>0.91</v>
+        <v>-1.2903225799999999E-2</v>
       </c>
       <c r="H88">
-        <v>0.64516129</v>
+        <v>-0.22222222222222221</v>
       </c>
       <c r="I88">
-        <v>0.17</v>
+        <v>-0.27419354838709675</v>
       </c>
       <c r="J88">
-        <v>0.22222222222222221</v>
+        <v>-0.28000000000000003</v>
       </c>
       <c r="K88">
-        <v>0.27419354838709675</v>
+        <v>-0.3</v>
       </c>
       <c r="L88">
         <v>0.54791868337253957</v>
@@ -5040,8 +5039,8 @@
         <v>0.19613208121957992</v>
       </c>
       <c r="N88">
-        <f t="shared" si="2"/>
-        <v>0.39395864724460433</v>
+        <f t="shared" si="1"/>
+        <v>4.3859085353644495E-2</v>
       </c>
       <c r="O88">
         <v>0</v>
@@ -5061,25 +5060,25 @@
         <v>-77.9739</v>
       </c>
       <c r="E89">
-        <v>0.08</v>
+        <v>0.93</v>
       </c>
       <c r="F89">
-        <v>0.13</v>
+        <v>-0.13</v>
       </c>
       <c r="G89">
-        <v>0.93</v>
+        <v>-6.7393013599999999E-3</v>
       </c>
       <c r="H89">
-        <v>0.33696506799999998</v>
+        <v>-0.1728395061728395</v>
       </c>
       <c r="I89">
-        <v>0.13</v>
+        <v>-9.6774193548387094E-2</v>
       </c>
       <c r="J89">
-        <v>0.1728395061728395</v>
+        <v>-0.13</v>
       </c>
       <c r="K89">
-        <v>9.6774193548387094E-2</v>
+        <v>-0.08</v>
       </c>
       <c r="L89">
         <v>0.72877791486766885</v>
@@ -5088,8 +5087,8 @@
         <v>0.35359998629145073</v>
       </c>
       <c r="N89">
-        <f t="shared" si="2"/>
-        <v>0.32877296320892735</v>
+        <f t="shared" si="1"/>
+        <v>0.15511387778643257</v>
       </c>
       <c r="O89">
         <v>0</v>
@@ -5109,25 +5108,25 @@
         <v>-78.520700000000005</v>
       </c>
       <c r="E90">
-        <v>0.01</v>
+        <v>1</v>
       </c>
       <c r="F90">
-        <v>0.19</v>
+        <v>-0.13</v>
       </c>
       <c r="G90">
-        <v>1</v>
+        <v>-9.2635479400000002E-3</v>
       </c>
       <c r="H90">
-        <v>0.46317739699999999</v>
+        <v>-0.66666666666666663</v>
       </c>
       <c r="I90">
-        <v>0.13</v>
+        <v>-0.54838709677419351</v>
       </c>
       <c r="J90">
-        <v>0.66666666666666663</v>
+        <v>-0.19</v>
       </c>
       <c r="K90">
-        <v>0.54838709677419351</v>
+        <v>-0.01</v>
       </c>
       <c r="L90">
         <v>0.62245885762807029</v>
@@ -5136,8 +5135,8 @@
         <v>0.25875256526704721</v>
       </c>
       <c r="N90">
-        <f t="shared" si="2"/>
-        <v>0.43216028703733084</v>
+        <f t="shared" si="1"/>
+        <v>3.6321567946028595E-2</v>
       </c>
       <c r="O90">
         <v>0</v>
@@ -5157,25 +5156,25 @@
         <v>-80.321299999999994</v>
       </c>
       <c r="E91">
-        <v>0.05</v>
+        <v>0.93</v>
       </c>
       <c r="F91">
-        <v>0.23</v>
+        <v>-0.13</v>
       </c>
       <c r="G91">
-        <v>0.93</v>
+        <v>0</v>
       </c>
       <c r="H91">
-        <v>0</v>
+        <v>-0.24691358024691357</v>
       </c>
       <c r="I91">
-        <v>0.13</v>
+        <v>-0.33870967741935482</v>
       </c>
       <c r="J91">
-        <v>0.24691358024691357</v>
+        <v>-0.23</v>
       </c>
       <c r="K91">
-        <v>0.33870967741935482</v>
+        <v>-0.05</v>
       </c>
       <c r="L91">
         <v>0.83626531344327315</v>
@@ -5184,8 +5183,8 @@
         <v>0.45284754553933265</v>
       </c>
       <c r="N91">
-        <f t="shared" si="2"/>
-        <v>0.40184201458110924</v>
+        <f t="shared" si="1"/>
+        <v>0.15293620016454218</v>
       </c>
       <c r="O91">
         <v>1</v>
@@ -5205,25 +5204,25 @@
         <v>-77.401899999999998</v>
       </c>
       <c r="E92">
-        <v>0.21</v>
+        <v>0.83</v>
       </c>
       <c r="F92">
-        <v>0.39</v>
+        <v>-0.25</v>
       </c>
       <c r="G92">
-        <v>0.83</v>
+        <v>-2.3879096359999998E-2</v>
       </c>
       <c r="H92">
-        <v>1.1939548179999999</v>
+        <v>-0.39506172839506171</v>
       </c>
       <c r="I92">
-        <v>0.25</v>
+        <v>-0.5161290322580645</v>
       </c>
       <c r="J92">
-        <v>0.39506172839506171</v>
+        <v>-0.39</v>
       </c>
       <c r="K92">
-        <v>0.5161290322580645</v>
+        <v>-0.21</v>
       </c>
       <c r="L92">
         <v>0</v>
@@ -5232,8 +5231,8 @@
         <v>0</v>
       </c>
       <c r="N92">
-        <f t="shared" si="2"/>
-        <v>0.42057173096145845</v>
+        <f t="shared" si="1"/>
+        <v>-0.10611887300145846</v>
       </c>
       <c r="O92">
         <v>0</v>
@@ -5253,25 +5252,25 @@
         <v>-79.470399999999998</v>
       </c>
       <c r="E93">
-        <v>0.06</v>
+        <v>0.91</v>
       </c>
       <c r="F93">
-        <v>0.22</v>
+        <v>-0.12</v>
       </c>
       <c r="G93">
-        <v>0.91</v>
+        <v>-1.037680784E-2</v>
       </c>
       <c r="H93">
-        <v>0.51884039199999998</v>
+        <v>-0.32098765432098764</v>
       </c>
       <c r="I93">
-        <v>0.12</v>
+        <v>-0.40322580645161288</v>
       </c>
       <c r="J93">
-        <v>0.32098765432098764</v>
+        <v>-0.22</v>
       </c>
       <c r="K93">
-        <v>0.40322580645161288</v>
+        <v>-0.06</v>
       </c>
       <c r="L93">
         <v>0.83252662143911138</v>
@@ -5280,8 +5279,8 @@
         <v>0.47300126439101159</v>
       </c>
       <c r="N93">
-        <f t="shared" si="2"/>
-        <v>0.42873130428919154</v>
+        <f t="shared" si="1"/>
+        <v>0.12010417969083582</v>
       </c>
       <c r="O93">
         <v>0</v>
@@ -5301,25 +5300,25 @@
         <v>-76.345799999999997</v>
       </c>
       <c r="E94">
-        <v>0.05</v>
+        <v>0.96</v>
       </c>
       <c r="F94">
-        <v>0.05</v>
+        <v>-0.09</v>
       </c>
       <c r="G94">
-        <v>0.96</v>
+        <v>0</v>
       </c>
       <c r="H94">
-        <v>0</v>
+        <v>-0.4567901234567901</v>
       </c>
       <c r="I94">
-        <v>0.09</v>
+        <v>-0.33870967741935482</v>
       </c>
       <c r="J94">
-        <v>0.4567901234567901</v>
+        <v>-0.05</v>
       </c>
       <c r="K94">
-        <v>0.33870967741935482</v>
+        <v>-0.05</v>
       </c>
       <c r="L94">
         <v>0.95643756042256989</v>
@@ -5328,8 +5327,8 @@
         <v>0.56831042839913715</v>
       </c>
       <c r="N94">
-        <f t="shared" si="2"/>
-        <v>0.43378097371223145</v>
+        <f t="shared" si="1"/>
+        <v>0.18740602349319527</v>
       </c>
       <c r="O94">
         <v>1</v>
@@ -5349,25 +5348,25 @@
         <v>-76.298299999999998</v>
       </c>
       <c r="E95">
-        <v>0.04</v>
+        <v>0.86</v>
       </c>
       <c r="F95">
-        <v>0.28999999999999998</v>
+        <v>-0.21</v>
       </c>
       <c r="G95">
-        <v>0.86</v>
+        <v>-1.6157631339999999E-2</v>
       </c>
       <c r="H95">
-        <v>0.80788156700000002</v>
+        <v>-0.66666666666666663</v>
       </c>
       <c r="I95">
-        <v>0.21</v>
+        <v>-0.82258064516129037</v>
       </c>
       <c r="J95">
-        <v>0.66666666666666663</v>
+        <v>-0.28999999999999998</v>
       </c>
       <c r="K95">
-        <v>0.82258064516129037</v>
+        <v>-0.04</v>
       </c>
       <c r="L95">
         <v>0.5424975797903191</v>
@@ -5376,8 +5375,8 @@
         <v>0.26788964194538895</v>
       </c>
       <c r="N95">
-        <f t="shared" si="2"/>
-        <v>0.50083512228485161</v>
+        <f t="shared" si="1"/>
+        <v>-4.1668635714694327E-2</v>
       </c>
       <c r="O95">
         <v>0</v>
@@ -5397,25 +5396,25 @@
         <v>-77.882499999999993</v>
       </c>
       <c r="E96">
-        <v>0.02</v>
+        <v>0.94</v>
       </c>
       <c r="F96">
-        <v>0.08</v>
+        <v>-0.13</v>
       </c>
       <c r="G96">
-        <v>0.94</v>
+        <v>-6.9993700599999993E-3</v>
       </c>
       <c r="H96">
-        <v>0.34996850299999999</v>
+        <v>-0.35802469135802467</v>
       </c>
       <c r="I96">
-        <v>0.13</v>
+        <v>-0.29032258064516131</v>
       </c>
       <c r="J96">
-        <v>0.35802469135802467</v>
+        <v>-0.08</v>
       </c>
       <c r="K96">
-        <v>0.29032258064516131</v>
+        <v>-0.02</v>
       </c>
       <c r="L96">
         <v>0.78218780238390606</v>
@@ -5424,8 +5423,8 @@
         <v>0.36863379152994152</v>
       </c>
       <c r="N96">
-        <f t="shared" si="2"/>
-        <v>0.36879304099078147</v>
+        <f t="shared" si="1"/>
+        <v>0.13394166131674018</v>
       </c>
       <c r="O96">
         <v>0</v>
@@ -5445,25 +5444,25 @@
         <v>-78.429699999999997</v>
       </c>
       <c r="E97">
-        <v>0.12</v>
+        <v>0.89</v>
       </c>
       <c r="F97">
-        <v>0.28000000000000003</v>
+        <v>-0.13</v>
       </c>
       <c r="G97">
-        <v>0.89</v>
+        <v>0</v>
       </c>
       <c r="H97">
-        <v>0</v>
+        <v>-0.14814814814814814</v>
       </c>
       <c r="I97">
-        <v>0.13</v>
+        <v>-0.17741935483870969</v>
       </c>
       <c r="J97">
-        <v>0.14814814814814814</v>
+        <v>-0.28000000000000003</v>
       </c>
       <c r="K97">
-        <v>0.17741935483870969</v>
+        <v>-0.12</v>
       </c>
       <c r="L97">
         <v>0.26331074530596787</v>
@@ -5472,8 +5471,8 @@
         <v>0.14887133887182288</v>
       </c>
       <c r="N97">
-        <f t="shared" si="2"/>
-        <v>0.26971869839558105</v>
+        <f t="shared" si="1"/>
+        <v>5.5826822648866611E-2</v>
       </c>
       <c r="O97">
         <v>1</v>
@@ -5493,25 +5492,25 @@
         <v>-77.240499999999997</v>
       </c>
       <c r="E98">
-        <v>0.1</v>
+        <v>0.91</v>
       </c>
       <c r="F98">
-        <v>0.11</v>
+        <v>-0.13</v>
       </c>
       <c r="G98">
-        <v>0.91</v>
+        <v>-7.9168205999999991E-3</v>
       </c>
       <c r="H98">
-        <v>0.39584102999999998</v>
+        <v>-0.23456790123456789</v>
       </c>
       <c r="I98">
-        <v>0.13</v>
+        <v>-0.27419354838709675</v>
       </c>
       <c r="J98">
-        <v>0.23456790123456789</v>
+        <v>-0.11</v>
       </c>
       <c r="K98">
-        <v>0.27419354838709675</v>
+        <v>-0.1</v>
       </c>
       <c r="L98">
         <v>0.76379477233407878</v>
@@ -5520,8 +5519,8 @@
         <v>0.30719482618673122</v>
       </c>
       <c r="N98">
-        <f t="shared" ref="N98:N129" si="3">(E98+F98+G98+H98+I98+J98+K98+L98+M98)/(9-O98)</f>
-        <v>0.35839911979360828</v>
+        <f t="shared" si="1"/>
+        <v>0.12492348092212728</v>
       </c>
       <c r="O98">
         <v>0</v>
@@ -5541,25 +5540,25 @@
         <v>-77.607799999999997</v>
       </c>
       <c r="E99">
-        <v>0.03</v>
+        <v>0.92</v>
       </c>
       <c r="F99">
-        <v>0.09</v>
+        <v>-0.16</v>
       </c>
       <c r="G99">
-        <v>0.92</v>
+        <v>-7.7066397599999999E-3</v>
       </c>
       <c r="H99">
-        <v>0.38533198800000001</v>
+        <v>-0.41975308641975306</v>
       </c>
       <c r="I99">
-        <v>0.16</v>
+        <v>-0.43548387096774194</v>
       </c>
       <c r="J99">
-        <v>0.41975308641975306</v>
+        <v>-0.09</v>
       </c>
       <c r="K99">
-        <v>0.43548387096774194</v>
+        <v>-0.03</v>
       </c>
       <c r="L99">
         <v>0.76520001237290991</v>
@@ -5568,8 +5567,8 @@
         <v>0.50039216786425267</v>
       </c>
       <c r="N99">
-        <f t="shared" si="3"/>
-        <v>0.41179568062496191</v>
+        <f t="shared" si="1"/>
+        <v>0.11584984256551863</v>
       </c>
       <c r="O99">
         <v>0</v>
@@ -5589,25 +5588,25 @@
         <v>-80.779799999999994</v>
       </c>
       <c r="E100">
-        <v>0.06</v>
+        <v>0.95</v>
       </c>
       <c r="F100">
-        <v>0.21</v>
+        <v>-0.09</v>
       </c>
       <c r="G100">
-        <v>0.95</v>
+        <v>-7.0105742800000001E-3</v>
       </c>
       <c r="H100">
-        <v>0.35052871400000002</v>
+        <v>-0.19753086419753085</v>
       </c>
       <c r="I100">
-        <v>0.09</v>
+        <v>-0.17741935483870969</v>
       </c>
       <c r="J100">
-        <v>0.19753086419753085</v>
+        <v>-0.21</v>
       </c>
       <c r="K100">
-        <v>0.17741935483870969</v>
+        <v>-0.06</v>
       </c>
       <c r="L100">
         <v>0.65634075501694789</v>
@@ -5616,8 +5615,8 @@
         <v>0.30010571495366467</v>
       </c>
       <c r="N100">
-        <f t="shared" si="3"/>
-        <v>0.33243615588965031</v>
+        <f t="shared" si="1"/>
+        <v>0.12938729740604135</v>
       </c>
       <c r="O100">
         <v>0</v>
@@ -5636,26 +5635,26 @@
       <c r="D101">
         <v>-80.576400000000007</v>
       </c>
-      <c r="E101" s="1">
-        <v>7.0000000000000007E-2</v>
+      <c r="E101">
+        <v>0.97</v>
       </c>
       <c r="F101">
-        <v>0.18</v>
+        <v>-0.25</v>
       </c>
       <c r="G101">
-        <v>0.97</v>
+        <v>0</v>
       </c>
       <c r="H101">
-        <v>0</v>
+        <v>-0.16049382716049382</v>
       </c>
       <c r="I101">
-        <v>0.25</v>
+        <v>-0.24193548387096775</v>
       </c>
       <c r="J101">
-        <v>0.16049382716049382</v>
+        <v>-0.18</v>
       </c>
       <c r="K101">
-        <v>0.24193548387096775</v>
+        <v>-7.0000000000000007E-2</v>
       </c>
       <c r="L101">
         <v>0.78333512610132294</v>
@@ -5664,8 +5663,8 @@
         <v>0.54774325347873687</v>
       </c>
       <c r="N101">
-        <f t="shared" si="3"/>
-        <v>0.40043846132644018</v>
+        <f t="shared" si="1"/>
+        <v>0.17483113356857477</v>
       </c>
       <c r="O101">
         <v>1</v>
@@ -5685,25 +5684,25 @@
         <v>-78.156400000000005</v>
       </c>
       <c r="E102">
-        <v>0.21</v>
+        <v>0.95</v>
       </c>
       <c r="F102">
-        <v>0.14000000000000001</v>
+        <v>-0.16</v>
       </c>
       <c r="G102">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="H102">
-        <v>0</v>
+        <v>-0.41975308641975306</v>
       </c>
       <c r="I102">
-        <v>0.16</v>
+        <v>-0.54838709677419351</v>
       </c>
       <c r="J102">
-        <v>0.41975308641975306</v>
+        <v>-0.14000000000000001</v>
       </c>
       <c r="K102">
-        <v>0.54838709677419351</v>
+        <v>-0.21</v>
       </c>
       <c r="L102">
         <v>0.86150148548782202</v>
@@ -5712,8 +5711,8 @@
         <v>0.35816309264629131</v>
       </c>
       <c r="N102">
-        <f t="shared" si="3"/>
-        <v>0.45597559516600744</v>
+        <f t="shared" si="1"/>
+        <v>8.6440549367520839E-2</v>
       </c>
       <c r="O102">
         <v>1</v>
@@ -5733,25 +5732,25 @@
         <v>-76.710599999999999</v>
       </c>
       <c r="E103">
-        <v>0.02</v>
+        <v>0.95</v>
       </c>
       <c r="F103">
-        <v>0.23</v>
+        <v>-0.17</v>
       </c>
       <c r="G103">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="H103">
-        <v>0</v>
+        <v>-0.14814814814814814</v>
       </c>
       <c r="I103">
-        <v>0.17</v>
+        <v>-0.22580645161290322</v>
       </c>
       <c r="J103">
-        <v>0.14814814814814814</v>
+        <v>-0.23</v>
       </c>
       <c r="K103">
-        <v>0.22580645161290322</v>
+        <v>-0.02</v>
       </c>
       <c r="L103">
         <v>0.68997167536805204</v>
@@ -5760,8 +5759,8 @@
         <v>0.22426972696767913</v>
       </c>
       <c r="N103">
-        <f t="shared" si="3"/>
-        <v>0.33227450026209776</v>
+        <f t="shared" si="1"/>
+        <v>0.13378585032183496</v>
       </c>
       <c r="O103">
         <v>1</v>
@@ -5781,25 +5780,25 @@
         <v>-77.436000000000007</v>
       </c>
       <c r="E104">
-        <v>0.08</v>
+        <v>0.75</v>
       </c>
       <c r="F104">
-        <v>0.35</v>
+        <v>-0.24</v>
       </c>
       <c r="G104">
-        <v>0.75</v>
+        <v>-0.35143050240000001</v>
       </c>
       <c r="H104">
-        <v>17.57152512</v>
+        <v>-0.67901234567901236</v>
       </c>
       <c r="I104">
-        <v>0.24</v>
+        <v>-0.83870967741935487</v>
       </c>
       <c r="J104">
-        <v>0.67901234567901236</v>
+        <v>-0.35</v>
       </c>
       <c r="K104">
-        <v>0.83870967741935487</v>
+        <v>-0.08</v>
       </c>
       <c r="L104">
         <v>0.15139118742701954</v>
@@ -5808,8 +5807,8 @@
         <v>0.22399305123851185</v>
       </c>
       <c r="N104">
-        <f t="shared" si="3"/>
-        <v>2.3205145979737667</v>
+        <f t="shared" si="1"/>
+        <v>-0.15708536520364846</v>
       </c>
       <c r="O104">
         <v>0</v>
@@ -5829,25 +5828,25 @@
         <v>-80.120500000000007</v>
       </c>
       <c r="E105">
-        <v>0.03</v>
+        <v>0.95</v>
       </c>
       <c r="F105">
-        <v>0.08</v>
+        <v>-0.11</v>
       </c>
       <c r="G105">
-        <v>0.95</v>
+        <v>-6.4243482799999996E-3</v>
       </c>
       <c r="H105">
-        <v>0.32121741399999998</v>
+        <v>-0.40740740740740738</v>
       </c>
       <c r="I105">
-        <v>0.11</v>
+        <v>-0.37096774193548387</v>
       </c>
       <c r="J105">
-        <v>0.40740740740740738</v>
+        <v>-0.08</v>
       </c>
       <c r="K105">
-        <v>0.37096774193548387</v>
+        <v>-0.03</v>
       </c>
       <c r="L105">
         <v>0.87137786368800585</v>
@@ -5856,8 +5855,8 @@
         <v>0.51931679204002323</v>
       </c>
       <c r="N105">
-        <f t="shared" si="3"/>
-        <v>0.40669857989676894</v>
+        <f t="shared" si="1"/>
+        <v>0.1484327953450153</v>
       </c>
       <c r="O105">
         <v>0</v>
@@ -5877,25 +5876,25 @@
         <v>-79.941400000000002</v>
       </c>
       <c r="E106">
-        <v>0.08</v>
+        <v>0.9</v>
       </c>
       <c r="F106">
-        <v>0.32</v>
+        <v>-0.19</v>
       </c>
       <c r="G106">
-        <v>0.9</v>
+        <v>-1.325026982E-2</v>
       </c>
       <c r="H106">
-        <v>0.66251349100000001</v>
+        <v>-0.71604938271604934</v>
       </c>
       <c r="I106">
-        <v>0.19</v>
+        <v>-0.80645161290322576</v>
       </c>
       <c r="J106">
-        <v>0.71604938271604934</v>
+        <v>-0.32</v>
       </c>
       <c r="K106">
-        <v>0.80645161290322576</v>
+        <v>-0.08</v>
       </c>
       <c r="L106">
         <v>0.59490158099476464</v>
@@ -5904,8 +5903,8 @@
         <v>0.41014447686735311</v>
       </c>
       <c r="N106">
-        <f t="shared" si="3"/>
-        <v>0.52000672716459928</v>
+        <f t="shared" si="1"/>
+        <v>-2.4522800841906389E-2</v>
       </c>
       <c r="O106">
         <v>0</v>
@@ -5925,25 +5924,25 @@
         <v>-79.5154</v>
       </c>
       <c r="E107">
-        <v>0.05</v>
+        <v>0.91</v>
       </c>
       <c r="F107">
-        <v>0.17</v>
+        <v>-0.12</v>
       </c>
       <c r="G107">
-        <v>0.91</v>
+        <v>0</v>
       </c>
       <c r="H107">
-        <v>0</v>
+        <v>-0.44444444444444442</v>
       </c>
       <c r="I107">
-        <v>0.12</v>
+        <v>-0.38709677419354838</v>
       </c>
       <c r="J107">
-        <v>0.44444444444444442</v>
+        <v>-0.17</v>
       </c>
       <c r="K107">
-        <v>0.38709677419354838</v>
+        <v>-0.05</v>
       </c>
       <c r="L107">
         <v>0.69519199726584235</v>
@@ -5952,8 +5951,8 @@
         <v>0.45535725396832999</v>
       </c>
       <c r="N107">
-        <f t="shared" si="3"/>
-        <v>0.40401130873402064</v>
+        <f t="shared" si="1"/>
+        <v>0.11112600407452244</v>
       </c>
       <c r="O107">
         <v>1</v>
@@ -5973,25 +5972,25 @@
         <v>-78.883600000000001</v>
       </c>
       <c r="E108">
-        <v>0.06</v>
+        <v>0.94</v>
       </c>
       <c r="F108">
-        <v>0.09</v>
+        <v>-0.12</v>
       </c>
       <c r="G108">
-        <v>0.94</v>
+        <v>-9.3147374200000001E-3</v>
       </c>
       <c r="H108">
-        <v>0.465736871</v>
+        <v>-0.62962962962962965</v>
       </c>
       <c r="I108">
-        <v>0.12</v>
+        <v>-0.54838709677419351</v>
       </c>
       <c r="J108">
-        <v>0.62962962962962965</v>
+        <v>-0.09</v>
       </c>
       <c r="K108">
-        <v>0.54838709677419351</v>
+        <v>-0.06</v>
       </c>
       <c r="L108">
         <v>0.73532062607824367</v>
@@ -6000,8 +5999,8 @@
         <v>0.40721648397587729</v>
       </c>
       <c r="N108">
-        <f t="shared" si="3"/>
-        <v>0.44403230082866041</v>
+        <f t="shared" si="1"/>
+        <v>6.9467294025588655E-2</v>
       </c>
       <c r="O108">
         <v>0</v>
@@ -6021,25 +6020,25 @@
         <v>-82.084299999999999</v>
       </c>
       <c r="E109">
-        <v>0.02</v>
+        <v>0.9</v>
       </c>
       <c r="F109">
-        <v>0.22</v>
+        <v>-0.13</v>
       </c>
       <c r="G109">
-        <v>0.9</v>
+        <v>-9.4862813799999994E-3</v>
       </c>
       <c r="H109">
-        <v>0.474314069</v>
+        <v>-0.85185185185185186</v>
       </c>
       <c r="I109">
-        <v>0.13</v>
+        <v>-0.77419354838709675</v>
       </c>
       <c r="J109">
-        <v>0.85185185185185186</v>
+        <v>-0.22</v>
       </c>
       <c r="K109">
-        <v>0.77419354838709675</v>
+        <v>-0.02</v>
       </c>
       <c r="L109">
         <v>0.83654225377243285</v>
@@ -6048,8 +6047,8 @@
         <v>0.34189646400109114</v>
       </c>
       <c r="N109">
-        <f t="shared" si="3"/>
-        <v>0.50542202077916365</v>
+        <f t="shared" si="1"/>
+        <v>8.100781794952815E-3</v>
       </c>
       <c r="O109">
         <v>0</v>
@@ -6069,25 +6068,25 @@
         <v>-80.0548</v>
       </c>
       <c r="E110">
-        <v>0.12</v>
+        <v>0.97</v>
       </c>
       <c r="F110">
-        <v>0.12</v>
+        <v>-0.15</v>
       </c>
       <c r="G110">
-        <v>0.97</v>
+        <v>-1.0188487E-2</v>
       </c>
       <c r="H110">
-        <v>0.50942434999999997</v>
+        <v>-0.59259259259259256</v>
       </c>
       <c r="I110">
-        <v>0.15</v>
+        <v>-0.64516129032258063</v>
       </c>
       <c r="J110">
-        <v>0.59259259259259256</v>
+        <v>-0.12</v>
       </c>
       <c r="K110">
-        <v>0.64516129032258063</v>
+        <v>-0.12</v>
       </c>
       <c r="L110">
         <v>0.78953166190044777</v>
@@ -6096,8 +6095,8 @@
         <v>0.44372133316047646</v>
       </c>
       <c r="N110">
-        <f t="shared" si="3"/>
-        <v>0.48227013644178857</v>
+        <f t="shared" si="1"/>
+        <v>6.2812291682861232E-2</v>
       </c>
       <c r="O110">
         <v>0</v>
@@ -6117,25 +6116,25 @@
         <v>-82.605099999999993</v>
       </c>
       <c r="E111">
-        <v>0.04</v>
+        <v>0.95</v>
       </c>
       <c r="F111">
-        <v>0.25</v>
+        <v>-0.11</v>
       </c>
       <c r="G111">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="H111">
         <v>0</v>
       </c>
       <c r="I111">
-        <v>0.11</v>
+        <v>-0.88709677419354838</v>
       </c>
       <c r="J111">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="K111">
-        <v>0.88709677419354838</v>
+        <v>-0.04</v>
       </c>
       <c r="L111">
         <v>0.93901258470002036</v>
@@ -6144,8 +6143,8 @@
         <v>0.43716186810621827</v>
       </c>
       <c r="N111">
-        <f t="shared" si="3"/>
-        <v>0.51618160385711243</v>
+        <f t="shared" si="1"/>
+        <v>0.14843966837324146</v>
       </c>
       <c r="O111">
         <v>2</v>
@@ -6165,25 +6164,25 @@
         <v>-78.625</v>
       </c>
       <c r="E112">
-        <v>0.03</v>
+        <v>0.97</v>
       </c>
       <c r="F112">
-        <v>0.15</v>
+        <v>-0.12</v>
       </c>
       <c r="G112">
-        <v>0.97</v>
+        <v>0</v>
       </c>
       <c r="H112">
-        <v>0</v>
+        <v>-0.48148148148148145</v>
       </c>
       <c r="I112">
-        <v>0.12</v>
+        <v>-0.46774193548387094</v>
       </c>
       <c r="J112">
-        <v>0.48148148148148145</v>
+        <v>-0.15</v>
       </c>
       <c r="K112">
-        <v>0.46774193548387094</v>
+        <v>-0.03</v>
       </c>
       <c r="L112">
         <v>0.50629235217860913</v>
@@ -6192,8 +6191,8 @@
         <v>0.21385485979848393</v>
       </c>
       <c r="N112">
-        <f t="shared" si="3"/>
-        <v>0.36742132861780569</v>
+        <f t="shared" si="1"/>
+        <v>5.5115474376467577E-2</v>
       </c>
       <c r="O112">
         <v>1</v>
@@ -6213,25 +6212,25 @@
         <v>-81.559600000000003</v>
       </c>
       <c r="E113">
-        <v>0.06</v>
+        <v>0.95</v>
       </c>
       <c r="F113">
-        <v>0.25</v>
+        <v>-0.11</v>
       </c>
       <c r="G113">
-        <v>0.95</v>
+        <v>-1.030297176E-2</v>
       </c>
       <c r="H113">
-        <v>0.51514858799999996</v>
+        <v>-0.64197530864197527</v>
       </c>
       <c r="I113">
-        <v>0.11</v>
+        <v>-0.532258064516129</v>
       </c>
       <c r="J113">
-        <v>0.64197530864197527</v>
+        <v>-0.25</v>
       </c>
       <c r="K113">
-        <v>0.532258064516129</v>
+        <v>-0.06</v>
       </c>
       <c r="L113">
         <v>0.72223520365709437</v>
@@ -6240,8 +6239,8 @@
         <v>0.3102504775745904</v>
       </c>
       <c r="N113">
-        <f t="shared" si="3"/>
-        <v>0.45465196026553212</v>
+        <f t="shared" si="1"/>
+        <v>4.1994370701508937E-2</v>
       </c>
       <c r="O113">
         <v>0</v>
@@ -6261,25 +6260,25 @@
         <v>-77.102500000000006</v>
       </c>
       <c r="E114">
-        <v>0.14000000000000001</v>
+        <v>0.87</v>
       </c>
       <c r="F114">
-        <v>0.2</v>
+        <v>-0.12</v>
       </c>
       <c r="G114">
-        <v>0.87</v>
+        <v>-1.3378672160000001E-2</v>
       </c>
       <c r="H114">
-        <v>0.66893360800000001</v>
+        <v>-0.13580246913580246</v>
       </c>
       <c r="I114">
-        <v>0.12</v>
+        <v>-0.16129032258064516</v>
       </c>
       <c r="J114">
-        <v>0.13580246913580246</v>
+        <v>-0.2</v>
       </c>
       <c r="K114">
-        <v>0.16129032258064516</v>
+        <v>-0.14000000000000001</v>
       </c>
       <c r="L114">
         <v>0.80445304920073191</v>
@@ -6288,8 +6287,8 @@
         <v>0.33318823470295866</v>
       </c>
       <c r="N114">
-        <f t="shared" si="3"/>
-        <v>0.38151863151334875</v>
+        <f t="shared" si="1"/>
+        <v>0.13746331333636033</v>
       </c>
       <c r="O114">
         <v>0</v>
@@ -6309,25 +6308,25 @@
         <v>-77.607799999999997</v>
       </c>
       <c r="E115">
-        <v>0.04</v>
+        <v>0.91</v>
       </c>
       <c r="F115">
-        <v>0.1</v>
+        <v>-0.13</v>
       </c>
       <c r="G115">
-        <v>0.91</v>
+        <v>-8.8271999599999987E-3</v>
       </c>
       <c r="H115">
-        <v>0.44135999799999998</v>
+        <v>-0.22222222222222221</v>
       </c>
       <c r="I115">
-        <v>0.13</v>
+        <v>-0.30645161290322581</v>
       </c>
       <c r="J115">
-        <v>0.22222222222222221</v>
+        <v>-0.1</v>
       </c>
       <c r="K115">
-        <v>0.30645161290322581</v>
+        <v>-0.04</v>
       </c>
       <c r="L115">
         <v>0.69880606650135957</v>
@@ -6336,8 +6335,8 @@
         <v>0.39691146896763557</v>
       </c>
       <c r="N115">
-        <f t="shared" si="3"/>
-        <v>0.36063904095493815</v>
+        <f t="shared" si="1"/>
+        <v>0.13313516670928302</v>
       </c>
       <c r="O115">
         <v>0</v>
@@ -6357,25 +6356,25 @@
         <v>-77.424300000000002</v>
       </c>
       <c r="E116">
-        <v>0.03</v>
+        <v>0.95</v>
       </c>
       <c r="F116">
-        <v>7.0000000000000007E-2</v>
+        <v>-0.11</v>
       </c>
       <c r="G116">
-        <v>0.95</v>
+        <v>-8.4715162600000008E-3</v>
       </c>
       <c r="H116">
-        <v>0.42357581300000002</v>
+        <v>-0.2839506172839506</v>
       </c>
       <c r="I116">
-        <v>0.11</v>
+        <v>-0.40322580645161288</v>
       </c>
       <c r="J116">
-        <v>0.2839506172839506</v>
+        <v>-7.0000000000000007E-2</v>
       </c>
       <c r="K116">
-        <v>0.40322580645161288</v>
+        <v>-0.03</v>
       </c>
       <c r="L116">
         <v>0.79755175963582203</v>
@@ -6384,8 +6383,8 @@
         <v>0.49932498995722874</v>
       </c>
       <c r="N116">
-        <f t="shared" si="3"/>
-        <v>0.39640322070317935</v>
+        <f t="shared" si="1"/>
+        <v>0.14902542328860971</v>
       </c>
       <c r="O116">
         <v>0</v>
@@ -6405,25 +6404,25 @@
         <v>-79.071700000000007</v>
       </c>
       <c r="E117">
-        <v>0.02</v>
+        <v>0.9</v>
       </c>
       <c r="F117">
-        <v>0.19</v>
+        <v>-0.17</v>
       </c>
       <c r="G117">
-        <v>0.9</v>
+        <v>-9.8151480400000008E-3</v>
       </c>
       <c r="H117">
-        <v>0.49075740200000001</v>
+        <v>-0.19753086419753085</v>
       </c>
       <c r="I117">
-        <v>0.17</v>
+        <v>-0.30645161290322581</v>
       </c>
       <c r="J117">
-        <v>0.19753086419753085</v>
+        <v>-0.19</v>
       </c>
       <c r="K117">
-        <v>0.30645161290322581</v>
+        <v>-0.02</v>
       </c>
       <c r="L117">
         <v>0.55179090013953846</v>
@@ -6432,8 +6431,8 @@
         <v>0.32255456768794638</v>
       </c>
       <c r="N117">
-        <f t="shared" si="3"/>
-        <v>0.34989837188091572</v>
+        <f t="shared" si="1"/>
+        <v>9.7838649187414237E-2</v>
       </c>
       <c r="O117">
         <v>0</v>
@@ -6453,25 +6452,25 @@
         <v>-76.583600000000004</v>
       </c>
       <c r="E118">
-        <v>0.06</v>
+        <v>0.87</v>
       </c>
       <c r="F118">
-        <v>0.16</v>
+        <v>-0.16</v>
       </c>
       <c r="G118">
-        <v>0.87</v>
+        <v>-9.6455809800000004E-3</v>
       </c>
       <c r="H118">
-        <v>0.48227904900000002</v>
+        <v>-0.53086419753086422</v>
       </c>
       <c r="I118">
-        <v>0.16</v>
+        <v>-0.67741935483870963</v>
       </c>
       <c r="J118">
-        <v>0.53086419753086422</v>
+        <v>-0.16</v>
       </c>
       <c r="K118">
-        <v>0.67741935483870963</v>
+        <v>-0.06</v>
       </c>
       <c r="L118">
         <v>0.64098096144363825</v>
@@ -6480,8 +6479,8 @@
         <v>0.2711978939203184</v>
       </c>
       <c r="N118">
-        <f t="shared" si="3"/>
-        <v>0.4280823840815034</v>
+        <f t="shared" si="1"/>
+        <v>2.047219133493142E-2</v>
       </c>
       <c r="O118">
         <v>0</v>
@@ -6501,25 +6500,25 @@
         <v>-76.872100000000003</v>
       </c>
       <c r="E119">
-        <v>0.1</v>
+        <v>0.94</v>
       </c>
       <c r="F119">
-        <v>0.2</v>
+        <v>-0.09</v>
       </c>
       <c r="G119">
-        <v>0.94</v>
+        <v>0</v>
       </c>
       <c r="H119">
-        <v>0</v>
+        <v>-1.2345679012345678E-2</v>
       </c>
       <c r="I119">
-        <v>0.09</v>
+        <v>-1.6129032258064516E-2</v>
       </c>
       <c r="J119">
-        <v>1.2345679012345678E-2</v>
+        <v>-0.2</v>
       </c>
       <c r="K119">
-        <v>1.6129032258064516E-2</v>
+        <v>-0.1</v>
       </c>
       <c r="L119">
         <v>0.67570183912299708</v>
@@ -6528,8 +6527,8 @@
         <v>0.17132019140760946</v>
       </c>
       <c r="N119">
-        <f t="shared" si="3"/>
-        <v>0.27568709272512709</v>
+        <f t="shared" si="1"/>
+        <v>0.17106841490752456</v>
       </c>
       <c r="O119">
         <v>1</v>
@@ -6549,25 +6548,25 @@
         <v>-77.240499999999997</v>
       </c>
       <c r="E120">
-        <v>0.18</v>
+        <v>0.89</v>
       </c>
       <c r="F120">
-        <v>0.3</v>
+        <v>-0.13</v>
       </c>
       <c r="G120">
-        <v>0.89</v>
+        <v>0</v>
       </c>
       <c r="H120">
-        <v>0</v>
+        <v>-0.22222222222222221</v>
       </c>
       <c r="I120">
-        <v>0.13</v>
+        <v>-0.27419354838709675</v>
       </c>
       <c r="J120">
-        <v>0.22222222222222221</v>
+        <v>-0.3</v>
       </c>
       <c r="K120">
-        <v>0.27419354838709675</v>
+        <v>-0.18</v>
       </c>
       <c r="L120">
         <v>0.64569215877217345</v>
@@ -6576,8 +6575,8 @@
         <v>0.23512219382850857</v>
       </c>
       <c r="N120">
-        <f t="shared" si="3"/>
-        <v>0.3596537654012501</v>
+        <f t="shared" si="1"/>
+        <v>8.3049822748920393E-2</v>
       </c>
       <c r="O120">
         <v>1</v>
@@ -6597,25 +6596,25 @@
         <v>-81.559600000000003</v>
       </c>
       <c r="E121">
-        <v>0.08</v>
+        <v>0.89</v>
       </c>
       <c r="F121">
-        <v>0.24</v>
+        <v>-0.1</v>
       </c>
       <c r="G121">
-        <v>0.89</v>
+        <v>-9.0304182600000008E-3</v>
       </c>
       <c r="H121">
-        <v>0.45152091300000002</v>
+        <v>-0.65432098765432101</v>
       </c>
       <c r="I121">
-        <v>0.1</v>
+        <v>-0.43548387096774194</v>
       </c>
       <c r="J121">
-        <v>0.65432098765432101</v>
+        <v>-0.24</v>
       </c>
       <c r="K121">
-        <v>0.43548387096774194</v>
+        <v>-0.08</v>
       </c>
       <c r="L121">
         <v>0.90222652460036579</v>
@@ -6624,8 +6623,8 @@
         <v>0.44070642388816406</v>
       </c>
       <c r="N121">
-        <f t="shared" si="3"/>
-        <v>0.46602874667895478</v>
+        <f t="shared" si="1"/>
+        <v>7.93441857340519E-2</v>
       </c>
       <c r="O121">
         <v>0</v>
@@ -6645,25 +6644,25 @@
         <v>-75.977999999999994</v>
       </c>
       <c r="E122">
-        <v>0.03</v>
+        <v>0.93</v>
       </c>
       <c r="F122">
-        <v>0.1</v>
+        <v>-0.16</v>
       </c>
       <c r="G122">
-        <v>0.93</v>
+        <v>-7.8198762600000006E-3</v>
       </c>
       <c r="H122">
-        <v>0.39099381300000002</v>
+        <v>-0.44444444444444442</v>
       </c>
       <c r="I122">
-        <v>0.16</v>
+        <v>-0.54838709677419351</v>
       </c>
       <c r="J122">
-        <v>0.44444444444444442</v>
+        <v>-0.1</v>
       </c>
       <c r="K122">
-        <v>0.54838709677419351</v>
+        <v>-0.03</v>
       </c>
       <c r="L122">
         <v>0.84301907987167612</v>
@@ -6672,8 +6671,8 @@
         <v>0.51533266087836382</v>
       </c>
       <c r="N122">
-        <f t="shared" si="3"/>
-        <v>0.44024189944096426</v>
+        <f t="shared" si="1"/>
+        <v>0.11085559147460022</v>
       </c>
       <c r="O122">
         <v>0</v>
@@ -6693,25 +6692,25 @@
         <v>-78.247600000000006</v>
       </c>
       <c r="E123">
-        <v>0.03</v>
+        <v>0.94</v>
       </c>
       <c r="F123">
-        <v>0.14000000000000001</v>
+        <v>-0.12</v>
       </c>
       <c r="G123">
-        <v>0.94</v>
+        <v>-1.216760882E-2</v>
       </c>
       <c r="H123">
-        <v>0.60838044099999999</v>
+        <v>-0.46913580246913578</v>
       </c>
       <c r="I123">
-        <v>0.12</v>
+        <v>-0.46774193548387094</v>
       </c>
       <c r="J123">
-        <v>0.46913580246913578</v>
+        <v>-0.14000000000000001</v>
       </c>
       <c r="K123">
-        <v>0.46774193548387094</v>
+        <v>-0.03</v>
       </c>
       <c r="L123">
         <v>0.58276863508869448</v>
@@ -6720,8 +6719,8 @@
         <v>0.29419812209403007</v>
       </c>
       <c r="N123">
-        <f t="shared" si="3"/>
-        <v>0.40580277068174797</v>
+        <f t="shared" si="1"/>
+        <v>6.4213490045524194E-2</v>
       </c>
       <c r="O123">
         <v>0</v>
@@ -6741,25 +6740,25 @@
         <v>-81.953500000000005</v>
       </c>
       <c r="E124">
-        <v>0.03</v>
+        <v>0.94</v>
       </c>
       <c r="F124">
-        <v>0.21</v>
+        <v>-0.1</v>
       </c>
       <c r="G124">
-        <v>0.94</v>
+        <v>-6.6169172600000006E-3</v>
       </c>
       <c r="H124">
-        <v>0.33084586300000002</v>
+        <v>-0.72839506172839508</v>
       </c>
       <c r="I124">
-        <v>0.1</v>
+        <v>-0.43548387096774194</v>
       </c>
       <c r="J124">
-        <v>0.72839506172839508</v>
+        <v>-0.21</v>
       </c>
       <c r="K124">
-        <v>0.43548387096774194</v>
+        <v>-0.03</v>
       </c>
       <c r="L124">
         <v>0.89198388661312555</v>
@@ -6768,8 +6767,8 @@
         <v>0.56122131716607071</v>
       </c>
       <c r="N124">
-        <f t="shared" si="3"/>
-        <v>0.46976999994170371</v>
+        <f t="shared" si="1"/>
+        <v>9.8078817091451012E-2</v>
       </c>
       <c r="O124">
         <v>0</v>
@@ -6789,25 +6788,25 @@
         <v>-78.889499999999998</v>
       </c>
       <c r="E125">
-        <v>0.04</v>
+        <v>0.83</v>
       </c>
       <c r="F125">
-        <v>0.25</v>
+        <v>-0.15</v>
       </c>
       <c r="G125">
-        <v>0.83</v>
+        <v>-1.0945908959999999E-2</v>
       </c>
       <c r="H125">
-        <v>0.54729544799999996</v>
+        <v>-0.33333333333333331</v>
       </c>
       <c r="I125">
-        <v>0.15</v>
+        <v>-0.33870967741935482</v>
       </c>
       <c r="J125">
-        <v>0.33333333333333331</v>
+        <v>-0.25</v>
       </c>
       <c r="K125">
-        <v>0.33870967741935482</v>
+        <v>-0.04</v>
       </c>
       <c r="L125">
         <v>0.41335914814430658</v>
@@ -6816,8 +6815,8 @@
         <v>0.19849511862809394</v>
       </c>
       <c r="N125">
-        <f t="shared" si="3"/>
-        <v>0.3445769695027876</v>
+        <f t="shared" si="1"/>
+        <v>3.5429483006634704E-2</v>
       </c>
       <c r="O125">
         <v>0</v>
@@ -6837,25 +6836,25 @@
         <v>-76.779799999999994</v>
       </c>
       <c r="E126">
-        <v>0.02</v>
+        <v>0.92</v>
       </c>
       <c r="F126">
-        <v>0.27</v>
+        <v>-0.14000000000000001</v>
       </c>
       <c r="G126">
-        <v>0.92</v>
+        <v>0</v>
       </c>
       <c r="H126">
-        <v>0</v>
+        <v>-0.30864197530864196</v>
       </c>
       <c r="I126">
-        <v>0.14000000000000001</v>
+        <v>-0.33870967741935482</v>
       </c>
       <c r="J126">
-        <v>0.30864197530864196</v>
+        <v>-0.27</v>
       </c>
       <c r="K126">
-        <v>0.33870967741935482</v>
+        <v>-0.02</v>
       </c>
       <c r="L126">
         <v>0.5730880929001424</v>
@@ -6864,8 +6863,8 @@
         <v>0.20440271115690342</v>
       </c>
       <c r="N126">
-        <f t="shared" si="3"/>
-        <v>0.34685530709813034</v>
+        <f t="shared" si="1"/>
+        <v>7.7517393916131133E-2</v>
       </c>
       <c r="O126">
         <v>1</v>
@@ -6885,25 +6884,25 @@
         <v>-76.707499999999996</v>
       </c>
       <c r="E127">
-        <v>0.04</v>
+        <v>0.92</v>
       </c>
       <c r="F127">
-        <v>0.28000000000000003</v>
+        <v>-0.22</v>
       </c>
       <c r="G127">
-        <v>0.92</v>
+        <v>0</v>
       </c>
       <c r="H127">
-        <v>0</v>
+        <v>-0.27160493827160492</v>
       </c>
       <c r="I127">
-        <v>0.22</v>
+        <v>-0.37096774193548387</v>
       </c>
       <c r="J127">
-        <v>0.27160493827160492</v>
+        <v>-0.28000000000000003</v>
       </c>
       <c r="K127">
-        <v>0.37096774193548387</v>
+        <v>-0.04</v>
       </c>
       <c r="L127">
         <v>0.80279798898763177</v>
@@ -6912,8 +6911,8 @@
         <v>0.60497561763972973</v>
       </c>
       <c r="N127">
-        <f t="shared" si="3"/>
-        <v>0.43879328585430627</v>
+        <f t="shared" si="1"/>
+        <v>0.14315011580253412</v>
       </c>
       <c r="O127">
         <v>1</v>
@@ -6933,25 +6932,25 @@
         <v>-78.163300000000007</v>
       </c>
       <c r="E128">
-        <v>0.03</v>
+        <v>0.89</v>
       </c>
       <c r="F128">
-        <v>0.22</v>
+        <v>-0.2</v>
       </c>
       <c r="G128">
-        <v>0.89</v>
+        <v>-1.0795638560000001E-2</v>
       </c>
       <c r="H128">
-        <v>0.53978192800000002</v>
+        <v>-0.37037037037037035</v>
       </c>
       <c r="I128">
-        <v>0.2</v>
+        <v>-0.33870967741935482</v>
       </c>
       <c r="J128">
-        <v>0.37037037037037035</v>
+        <v>-0.22</v>
       </c>
       <c r="K128">
-        <v>0.33870967741935482</v>
+        <v>-0.03</v>
       </c>
       <c r="L128">
         <v>0.53630203280048783</v>
@@ -6960,8 +6959,8 @@
         <v>0.31310241904636582</v>
       </c>
       <c r="N128">
-        <f t="shared" si="3"/>
-        <v>0.38202960307073103</v>
+        <f t="shared" si="1"/>
+        <v>6.3280973944125379E-2</v>
       </c>
       <c r="O128">
         <v>0</v>
@@ -6981,25 +6980,25 @@
         <v>-82.605099999999993</v>
       </c>
       <c r="E129">
-        <v>0.04</v>
+        <v>0.96</v>
       </c>
       <c r="F129">
-        <v>0.33</v>
+        <v>-0.13</v>
       </c>
       <c r="G129">
-        <v>0.96</v>
+        <v>-1.229980782E-2</v>
       </c>
       <c r="H129">
-        <v>0.61499039099999997</v>
+        <v>-0.71604938271604934</v>
       </c>
       <c r="I129">
-        <v>0.13</v>
+        <v>-0.46774193548387094</v>
       </c>
       <c r="J129">
-        <v>0.71604938271604934</v>
+        <v>-0.33</v>
       </c>
       <c r="K129">
-        <v>0.46774193548387094</v>
+        <v>-0.04</v>
       </c>
       <c r="L129">
         <v>0.95450145203907066</v>
@@ -7008,8 +7007,8 @@
         <v>0.49860083344942857</v>
       </c>
       <c r="N129">
-        <f t="shared" si="3"/>
-        <v>0.52354266607649103</v>
+        <f t="shared" si="1"/>
+        <v>7.9667906607619868E-2</v>
       </c>
       <c r="O129">
         <v>0</v>
@@ -7029,25 +7028,25 @@
         <v>-81.084800000000001</v>
       </c>
       <c r="E130">
-        <v>0.02</v>
+        <v>0.94</v>
       </c>
       <c r="F130">
-        <v>0.24</v>
+        <v>-0.12</v>
       </c>
       <c r="G130">
-        <v>0.94</v>
+        <v>0</v>
       </c>
       <c r="H130">
-        <v>0</v>
+        <v>-0.59259259259259256</v>
       </c>
       <c r="I130">
-        <v>0.12</v>
+        <v>-0.69354838709677424</v>
       </c>
       <c r="J130">
-        <v>0.59259259259259256</v>
+        <v>-0.24</v>
       </c>
       <c r="K130">
-        <v>0.69354838709677424</v>
+        <v>-0.02</v>
       </c>
       <c r="L130">
         <v>0.90681581865686867</v>
@@ -7056,8 +7055,8 @@
         <v>0.53549046839865866</v>
       </c>
       <c r="N130">
-        <f t="shared" ref="N130:N131" si="4">(E130+F130+G130+H130+I130+J130+K130+L130+M130)/(9-O130)</f>
-        <v>0.50605590834311176</v>
+        <f t="shared" si="1"/>
+        <v>8.9520663420770058E-2</v>
       </c>
       <c r="O130">
         <v>1</v>
@@ -7077,25 +7076,25 @@
         <v>-76.386899999999997</v>
       </c>
       <c r="E131">
-        <v>0.04</v>
+        <v>0.97</v>
       </c>
       <c r="F131">
-        <v>7.0000000000000007E-2</v>
+        <v>-0.11</v>
       </c>
       <c r="G131">
-        <v>0.97</v>
+        <v>-5.0305532200000001E-3</v>
       </c>
       <c r="H131">
-        <v>0.25152766100000001</v>
+        <v>-0.34567901234567899</v>
       </c>
       <c r="I131">
-        <v>0.11</v>
+        <v>-0.43548387096774194</v>
       </c>
       <c r="J131">
-        <v>0.34567901234567899</v>
+        <v>-7.0000000000000007E-2</v>
       </c>
       <c r="K131">
-        <v>0.43548387096774194</v>
+        <v>-0.04</v>
       </c>
       <c r="L131">
         <v>0.97166827995908356</v>
@@ -7104,8 +7103,8 @@
         <v>0.58107082901564711</v>
       </c>
       <c r="N131">
-        <f t="shared" si="4"/>
-        <v>0.41949218369868357</v>
+        <f t="shared" ref="N131" si="2">(E131+F131+G131+H131+I131+J131+K131+L131+M131)/(9-O131)</f>
+        <v>0.16850507471570106</v>
       </c>
       <c r="O131">
         <v>0</v>

--- a/score_data.xlsx
+++ b/score_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Desktop\SYS 2202\Final Project Folder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCE03891-190F-4AB1-A134-49CAEBDEF4AC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A74BFC0C-A2ED-4E8D-81AB-D8698F8A8E0C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{FBA93070-678B-4237-861F-8662DD655F34}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="472" uniqueCount="275">
   <si>
     <t>HealthyFoods</t>
   </si>
@@ -464,6 +464,399 @@
   </si>
   <si>
     <t xml:space="preserve">Latitude </t>
+  </si>
+  <si>
+    <t>099</t>
+  </si>
+  <si>
+    <t>097</t>
+  </si>
+  <si>
+    <t>047</t>
+  </si>
+  <si>
+    <t>093</t>
+  </si>
+  <si>
+    <t>091</t>
+  </si>
+  <si>
+    <t>089</t>
+  </si>
+  <si>
+    <t>043</t>
+  </si>
+  <si>
+    <t>009</t>
+  </si>
+  <si>
+    <t>015</t>
+  </si>
+  <si>
+    <t>085</t>
+  </si>
+  <si>
+    <t>083</t>
+  </si>
+  <si>
+    <t>025</t>
+  </si>
+  <si>
+    <t>045</t>
+  </si>
+  <si>
+    <t>003</t>
+  </si>
+  <si>
+    <t>081</t>
+  </si>
+  <si>
+    <t>079</t>
+  </si>
+  <si>
+    <t>077</t>
+  </si>
+  <si>
+    <t>075</t>
+  </si>
+  <si>
+    <t>073</t>
+  </si>
+  <si>
+    <t>071</t>
+  </si>
+  <si>
+    <t>069</t>
+  </si>
+  <si>
+    <t>067</t>
+  </si>
+  <si>
+    <t>065</t>
+  </si>
+  <si>
+    <t>063</t>
+  </si>
+  <si>
+    <t>061</t>
+  </si>
+  <si>
+    <t>031</t>
+  </si>
+  <si>
+    <t>059</t>
+  </si>
+  <si>
+    <t>053</t>
+  </si>
+  <si>
+    <t>057</t>
+  </si>
+  <si>
+    <t>051</t>
+  </si>
+  <si>
+    <t>049</t>
+  </si>
+  <si>
+    <t>041</t>
+  </si>
+  <si>
+    <t>037</t>
+  </si>
+  <si>
+    <t>036</t>
+  </si>
+  <si>
+    <t>035</t>
+  </si>
+  <si>
+    <t>033</t>
+  </si>
+  <si>
+    <t>029</t>
+  </si>
+  <si>
+    <t>027</t>
+  </si>
+  <si>
+    <t>023</t>
+  </si>
+  <si>
+    <t>021</t>
+  </si>
+  <si>
+    <t>019</t>
+  </si>
+  <si>
+    <t>017</t>
+  </si>
+  <si>
+    <t>013</t>
+  </si>
+  <si>
+    <t>011</t>
+  </si>
+  <si>
+    <t>007</t>
+  </si>
+  <si>
+    <t>005</t>
+  </si>
+  <si>
+    <t>001</t>
+  </si>
+  <si>
+    <t>520</t>
+  </si>
+  <si>
+    <t>530</t>
+  </si>
+  <si>
+    <t>510</t>
+  </si>
+  <si>
+    <t>540</t>
+  </si>
+  <si>
+    <t>550</t>
+  </si>
+  <si>
+    <t>570</t>
+  </si>
+  <si>
+    <t>580</t>
+  </si>
+  <si>
+    <t>590</t>
+  </si>
+  <si>
+    <t>610</t>
+  </si>
+  <si>
+    <t>620</t>
+  </si>
+  <si>
+    <t>630</t>
+  </si>
+  <si>
+    <t>640</t>
+  </si>
+  <si>
+    <t>650</t>
+  </si>
+  <si>
+    <t>660</t>
+  </si>
+  <si>
+    <t>670</t>
+  </si>
+  <si>
+    <t>678</t>
+  </si>
+  <si>
+    <t>680</t>
+  </si>
+  <si>
+    <t>683</t>
+  </si>
+  <si>
+    <t>685</t>
+  </si>
+  <si>
+    <t>690</t>
+  </si>
+  <si>
+    <t>700</t>
+  </si>
+  <si>
+    <t>710</t>
+  </si>
+  <si>
+    <t>720</t>
+  </si>
+  <si>
+    <t>730</t>
+  </si>
+  <si>
+    <t>735</t>
+  </si>
+  <si>
+    <t>740</t>
+  </si>
+  <si>
+    <t>750</t>
+  </si>
+  <si>
+    <t>760</t>
+  </si>
+  <si>
+    <t>770</t>
+  </si>
+  <si>
+    <t>775</t>
+  </si>
+  <si>
+    <t>790</t>
+  </si>
+  <si>
+    <t>800</t>
+  </si>
+  <si>
+    <t>810</t>
+  </si>
+  <si>
+    <t>820</t>
+  </si>
+  <si>
+    <t>830</t>
+  </si>
+  <si>
+    <t>840</t>
+  </si>
+  <si>
+    <t>199</t>
+  </si>
+  <si>
+    <t>195</t>
+  </si>
+  <si>
+    <t>197</t>
+  </si>
+  <si>
+    <t>193</t>
+  </si>
+  <si>
+    <t>191</t>
+  </si>
+  <si>
+    <t>187</t>
+  </si>
+  <si>
+    <t>185</t>
+  </si>
+  <si>
+    <t>183</t>
+  </si>
+  <si>
+    <t>181</t>
+  </si>
+  <si>
+    <t>179</t>
+  </si>
+  <si>
+    <t>177</t>
+  </si>
+  <si>
+    <t>175</t>
+  </si>
+  <si>
+    <t>173</t>
+  </si>
+  <si>
+    <t>171</t>
+  </si>
+  <si>
+    <t>169</t>
+  </si>
+  <si>
+    <t>167</t>
+  </si>
+  <si>
+    <t>165</t>
+  </si>
+  <si>
+    <t>163</t>
+  </si>
+  <si>
+    <t>161</t>
+  </si>
+  <si>
+    <t>147</t>
+  </si>
+  <si>
+    <t>145</t>
+  </si>
+  <si>
+    <t>149</t>
+  </si>
+  <si>
+    <t>153</t>
+  </si>
+  <si>
+    <t>155</t>
+  </si>
+  <si>
+    <t>157</t>
+  </si>
+  <si>
+    <t>159</t>
+  </si>
+  <si>
+    <t>143</t>
+  </si>
+  <si>
+    <t>141</t>
+  </si>
+  <si>
+    <t>139</t>
+  </si>
+  <si>
+    <t>137</t>
+  </si>
+  <si>
+    <t>135</t>
+  </si>
+  <si>
+    <t>133</t>
+  </si>
+  <si>
+    <t>131</t>
+  </si>
+  <si>
+    <t>127</t>
+  </si>
+  <si>
+    <t>125</t>
+  </si>
+  <si>
+    <t>121</t>
+  </si>
+  <si>
+    <t>119</t>
+  </si>
+  <si>
+    <t>117</t>
+  </si>
+  <si>
+    <t>113</t>
+  </si>
+  <si>
+    <t>111</t>
+  </si>
+  <si>
+    <t>109</t>
+  </si>
+  <si>
+    <t>107</t>
+  </si>
+  <si>
+    <t>105</t>
+  </si>
+  <si>
+    <t>103</t>
+  </si>
+  <si>
+    <t>101</t>
+  </si>
+  <si>
+    <t>STATEFP</t>
+  </si>
+  <si>
+    <t>COUNTYFP</t>
+  </si>
+  <si>
+    <t>51</t>
   </si>
 </sst>
 </file>
@@ -499,8 +892,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -815,6304 +1209,7094 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D2F7106-D69E-42AB-90EE-8EE88DA6E3E0}">
-  <dimension ref="A1:O131"/>
+  <dimension ref="A1:Q131"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N2" sqref="N2:N131"/>
+    <sheetView tabSelected="1" topLeftCell="A123" workbookViewId="0">
+      <selection activeCell="C132" sqref="C132:D165"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="14" max="14" width="7.453125" customWidth="1"/>
+    <col min="3" max="4" width="8.7265625" style="1"/>
+    <col min="16" max="16" width="7.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
         <v>11</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="E1" t="s">
         <v>142</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>143</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>2</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>4</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>1</v>
       </c>
-      <c r="K1" t="s">
-        <v>0</v>
-      </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
+        <v>0</v>
+      </c>
+      <c r="N1" t="s">
         <v>8</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
         <v>9</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
         <v>10</v>
       </c>
-      <c r="O1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="Q1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>12</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="E2">
         <v>37.706299999999999</v>
       </c>
-      <c r="D2">
+      <c r="F2">
         <v>-75.806899999999999</v>
       </c>
-      <c r="E2">
+      <c r="G2">
         <v>0.86</v>
       </c>
-      <c r="F2">
+      <c r="H2">
         <v>-0.15</v>
       </c>
-      <c r="G2">
+      <c r="I2">
         <v>-1.3438397159999999E-2</v>
       </c>
-      <c r="H2">
+      <c r="J2">
         <v>-0.25925925925925924</v>
       </c>
-      <c r="I2">
+      <c r="K2">
         <v>-0.30645161290322581</v>
       </c>
-      <c r="J2">
+      <c r="L2">
         <v>-0.27</v>
       </c>
-      <c r="K2">
+      <c r="M2">
         <v>-0.02</v>
       </c>
-      <c r="L2">
+      <c r="N2">
         <v>0.55866742312167805</v>
       </c>
-      <c r="M2">
+      <c r="O2">
         <v>0.16537185676325311</v>
       </c>
-      <c r="N2">
-        <f>(E2+F2+G2+H2+I2+J2+K2+L2+M2)/(9-O2)</f>
+      <c r="P2">
+        <f>(G2+H2+I2+J2+K2+L2+M2+N2+O2)/(9-Q2)</f>
         <v>6.2765556729160676E-2</v>
       </c>
-      <c r="O2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>13</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="E3">
         <v>38.056699999999999</v>
       </c>
-      <c r="D3">
+      <c r="F3">
         <v>-78.611500000000007</v>
       </c>
-      <c r="E3">
+      <c r="G3">
         <v>0.93</v>
       </c>
-      <c r="F3">
+      <c r="H3">
         <v>-0.13</v>
       </c>
-      <c r="G3">
+      <c r="I3">
         <v>-3.3848902199999998E-3</v>
       </c>
-      <c r="H3">
+      <c r="J3">
         <v>-0.46913580246913578</v>
       </c>
-      <c r="I3">
+      <c r="K3">
         <v>-0.46774193548387094</v>
       </c>
-      <c r="J3">
+      <c r="L3">
         <v>-0.1</v>
       </c>
-      <c r="K3">
+      <c r="M3">
         <v>-0.04</v>
       </c>
-      <c r="L3">
+      <c r="N3">
         <v>0.70049651811814106</v>
       </c>
-      <c r="M3">
+      <c r="O3">
         <v>0.59323665900834077</v>
       </c>
-      <c r="N3">
-        <f t="shared" ref="N3:N66" si="0">(E3+F3+G3+H3+I3+J3+K3+L3+M3)/(9-O3)</f>
+      <c r="P3">
+        <f t="shared" ref="P3:P66" si="0">(G3+H3+I3+J3+K3+L3+M3+N3+O3)/(9-Q3)</f>
         <v>0.11260783877260835</v>
       </c>
-      <c r="O3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
         <v>14</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="E4">
         <v>38.8048</v>
       </c>
-      <c r="D4">
+      <c r="F4">
         <v>-77.046899999999994</v>
       </c>
-      <c r="E4">
+      <c r="G4">
         <v>0.81</v>
       </c>
-      <c r="F4">
+      <c r="H4">
         <v>-0.17</v>
       </c>
-      <c r="G4">
+      <c r="I4">
         <v>-7.2841123200000002E-3</v>
       </c>
-      <c r="H4">
+      <c r="J4">
         <v>-0.49382716049382713</v>
       </c>
-      <c r="I4">
+      <c r="K4">
         <v>-0.58064516129032262</v>
       </c>
-      <c r="J4">
+      <c r="L4">
         <v>-0.16</v>
       </c>
-      <c r="K4">
-        <v>0</v>
-      </c>
-      <c r="L4">
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
         <v>0.39883833486147818</v>
       </c>
-      <c r="M4">
+      <c r="O4">
         <v>0.39010483580687516</v>
       </c>
-      <c r="N4">
+      <c r="P4">
         <f t="shared" si="0"/>
         <v>2.3398342070525442E-2</v>
       </c>
-      <c r="O4">
+      <c r="Q4">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
         <v>15</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="E5">
         <v>37.853200000000001</v>
       </c>
-      <c r="D5">
+      <c r="F5">
         <v>-80.0535</v>
       </c>
-      <c r="E5">
+      <c r="G5">
         <v>0.94</v>
       </c>
-      <c r="F5">
+      <c r="H5">
         <v>-0.12</v>
       </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
         <v>-0.54320987654320985</v>
       </c>
-      <c r="I5">
+      <c r="K5">
         <v>-0.64516129032258063</v>
       </c>
-      <c r="J5">
+      <c r="L5">
         <v>-0.21</v>
       </c>
-      <c r="K5">
+      <c r="M5">
         <v>-0.05</v>
       </c>
-      <c r="L5">
+      <c r="N5">
         <v>0.59792369065617967</v>
       </c>
-      <c r="M5">
+      <c r="O5">
         <v>0.21898835411685449</v>
       </c>
-      <c r="N5">
+      <c r="P5">
         <f t="shared" si="0"/>
         <v>2.3567609738405455E-2</v>
       </c>
-      <c r="O5">
+      <c r="Q5">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
         <v>16</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="E6">
         <v>37.321300000000001</v>
       </c>
-      <c r="D6">
+      <c r="F6">
         <v>-77.9739</v>
       </c>
-      <c r="E6">
+      <c r="G6">
         <v>0.9</v>
       </c>
-      <c r="F6">
+      <c r="H6">
         <v>-0.12</v>
       </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6">
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
         <v>-8.6419753086419748E-2</v>
       </c>
-      <c r="I6">
+      <c r="K6">
         <v>-4.8387096774193547E-2</v>
       </c>
-      <c r="J6">
+      <c r="L6">
         <v>-0.13</v>
       </c>
-      <c r="K6">
+      <c r="M6">
         <v>-0.06</v>
       </c>
-      <c r="L6">
+      <c r="N6">
         <v>0.6921587607893247</v>
       </c>
-      <c r="M6">
+      <c r="O6">
         <v>0.19967663700152577</v>
       </c>
-      <c r="N6">
+      <c r="P6">
         <f t="shared" si="0"/>
         <v>0.16837856849127966</v>
       </c>
-      <c r="O6">
+      <c r="Q6">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
         <v>17</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="E7">
         <v>37.558799999999998</v>
       </c>
-      <c r="D7">
+      <c r="F7">
         <v>-79.109700000000004</v>
       </c>
-      <c r="E7">
+      <c r="G7">
         <v>0.93</v>
       </c>
-      <c r="F7">
+      <c r="H7">
         <v>-0.13</v>
       </c>
-      <c r="G7">
+      <c r="I7">
         <v>-6.9004454E-3</v>
       </c>
-      <c r="H7">
+      <c r="J7">
         <v>-0.23456790123456789</v>
       </c>
-      <c r="I7">
+      <c r="K7">
         <v>-0.22580645161290322</v>
       </c>
-      <c r="J7">
+      <c r="L7">
         <v>-0.19</v>
       </c>
-      <c r="K7">
+      <c r="M7">
         <v>-0.06</v>
       </c>
-      <c r="L7">
+      <c r="N7">
         <v>0.65150048392267157</v>
       </c>
-      <c r="M7">
+      <c r="O7">
         <v>0.23039611967313092</v>
       </c>
-      <c r="N7">
+      <c r="P7">
         <f t="shared" si="0"/>
         <v>0.10718020059425903</v>
       </c>
-      <c r="O7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
         <v>18</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="E8">
         <v>37.402500000000003</v>
       </c>
-      <c r="D8">
+      <c r="F8">
         <v>-78.793000000000006</v>
       </c>
-      <c r="E8">
+      <c r="G8">
         <v>0.94</v>
       </c>
-      <c r="F8">
+      <c r="H8">
         <v>-0.12</v>
       </c>
-      <c r="G8">
+      <c r="I8">
         <v>-2.0543108420000001E-2</v>
       </c>
-      <c r="H8">
+      <c r="J8">
         <v>-6.1728395061728392E-2</v>
       </c>
-      <c r="I8">
+      <c r="K8">
         <v>-9.6774193548387094E-2</v>
       </c>
-      <c r="J8">
+      <c r="L8">
         <v>-0.19</v>
       </c>
-      <c r="K8">
+      <c r="M8">
         <v>-0.01</v>
       </c>
-      <c r="L8">
+      <c r="N8">
         <v>0.82284607925055919</v>
       </c>
-      <c r="M8">
+      <c r="O8">
         <v>0.34264038301371397</v>
       </c>
-      <c r="N8">
+      <c r="P8">
         <f t="shared" si="0"/>
         <v>0.17849341835935084</v>
       </c>
-      <c r="O8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
         <v>19</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="E9">
         <v>38.881599999999999</v>
       </c>
-      <c r="D9">
+      <c r="F9">
         <v>-77.090999999999994</v>
       </c>
-      <c r="E9">
+      <c r="G9">
         <v>0.92</v>
       </c>
-      <c r="F9">
+      <c r="H9">
         <v>-0.16</v>
       </c>
-      <c r="G9">
+      <c r="I9">
         <v>-4.1414477000000002E-3</v>
       </c>
-      <c r="H9">
+      <c r="J9">
         <v>-0.64197530864197527</v>
       </c>
-      <c r="I9">
+      <c r="K9">
         <v>-0.54838709677419351</v>
       </c>
-      <c r="J9">
+      <c r="L9">
         <v>-7.0000000000000007E-2</v>
       </c>
-      <c r="K9">
-        <v>0</v>
-      </c>
-      <c r="L9">
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
         <v>0.85438590999840336</v>
       </c>
-      <c r="M9">
+      <c r="O9">
         <v>0.69995446459786559</v>
       </c>
-      <c r="N9">
+      <c r="P9">
         <f t="shared" si="0"/>
         <v>0.1166485023866778</v>
       </c>
-      <c r="O9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
         <v>20</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="E10">
         <v>38.200499999999998</v>
       </c>
-      <c r="D10">
+      <c r="F10">
         <v>-79.245099999999994</v>
       </c>
-      <c r="E10">
+      <c r="G10">
         <v>0.95</v>
       </c>
-      <c r="F10">
+      <c r="H10">
         <v>-0.1</v>
       </c>
-      <c r="G10">
+      <c r="I10">
         <v>-3.2128084000000003E-3</v>
       </c>
-      <c r="H10">
+      <c r="J10">
         <v>-0.4567901234567901</v>
       </c>
-      <c r="I10">
+      <c r="K10">
         <v>-0.45161290322580644</v>
       </c>
-      <c r="J10">
+      <c r="L10">
         <v>-0.12</v>
       </c>
-      <c r="K10">
+      <c r="M10">
         <v>-0.04</v>
       </c>
-      <c r="L10">
+      <c r="N10">
         <v>0.75121006770580512</v>
       </c>
-      <c r="M10">
+      <c r="O10">
         <v>0.50999677035076862</v>
       </c>
-      <c r="N10">
+      <c r="P10">
         <f t="shared" si="0"/>
         <v>0.11551011144155303</v>
       </c>
-      <c r="O10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
         <v>21</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="E11">
         <v>38.111699999999999</v>
       </c>
-      <c r="D11">
+      <c r="F11">
         <v>-79.650199999999998</v>
       </c>
-      <c r="E11">
+      <c r="G11">
         <v>0.94</v>
       </c>
-      <c r="F11">
+      <c r="H11">
         <v>-0.12</v>
       </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
-      <c r="H11">
-        <v>0</v>
-      </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
         <v>-0.15</v>
       </c>
-      <c r="K11">
+      <c r="M11">
         <v>-0.09</v>
       </c>
-      <c r="L11">
+      <c r="N11">
         <v>0.68391360946245205</v>
       </c>
-      <c r="M11">
+      <c r="O11">
         <v>0.2862941702041526</v>
       </c>
-      <c r="N11">
+      <c r="P11">
         <f t="shared" si="0"/>
         <v>0.25836796327776745</v>
       </c>
-      <c r="O11">
+      <c r="Q11">
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
         <v>22</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="E12">
         <v>37.253900000000002</v>
       </c>
-      <c r="D12">
+      <c r="F12">
         <v>-79.470399999999998</v>
       </c>
-      <c r="E12">
+      <c r="G12">
         <v>0.92</v>
       </c>
-      <c r="F12">
+      <c r="H12">
         <v>-0.1</v>
       </c>
-      <c r="G12">
+      <c r="I12">
         <v>-7.7013913800000004E-3</v>
       </c>
-      <c r="H12">
+      <c r="J12">
         <v>-0.41975308641975306</v>
       </c>
-      <c r="I12">
+      <c r="K12">
         <v>-0.4838709677419355</v>
       </c>
-      <c r="J12">
+      <c r="L12">
         <v>-0.13</v>
       </c>
-      <c r="K12">
+      <c r="M12">
         <v>-0.02</v>
       </c>
-      <c r="L12">
+      <c r="N12">
         <v>0.71958696338583439</v>
       </c>
-      <c r="M12">
+      <c r="O12">
         <v>0.38478121194677789</v>
       </c>
-      <c r="N12">
+      <c r="P12">
         <f t="shared" si="0"/>
         <v>9.5893636643435975E-2</v>
       </c>
-      <c r="O12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
         <v>23</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="E13">
         <v>37.092500000000001</v>
       </c>
-      <c r="D13">
+      <c r="F13">
         <v>-81.119600000000005</v>
       </c>
-      <c r="E13">
+      <c r="G13">
         <v>0.95</v>
       </c>
-      <c r="F13">
+      <c r="H13">
         <v>-7.0000000000000007E-2</v>
       </c>
-      <c r="G13">
-        <v>0</v>
-      </c>
-      <c r="H13">
-        <v>0</v>
-      </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
         <v>-0.15</v>
       </c>
-      <c r="K13">
+      <c r="M13">
         <v>-0.09</v>
       </c>
-      <c r="L13">
+      <c r="N13">
         <v>0.86350435611721232</v>
       </c>
-      <c r="M13">
+      <c r="O13">
         <v>0.38753808848227728</v>
       </c>
-      <c r="N13">
+      <c r="P13">
         <f t="shared" si="0"/>
         <v>0.31517374076658156</v>
       </c>
-      <c r="O13">
+      <c r="Q13">
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
         <v>24</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="E14">
         <v>37.577500000000001</v>
       </c>
-      <c r="D14">
+      <c r="F14">
         <v>-79.784800000000004</v>
       </c>
-      <c r="E14">
+      <c r="G14">
         <v>0.95</v>
       </c>
-      <c r="F14">
+      <c r="H14">
         <v>-0.1</v>
       </c>
-      <c r="G14">
+      <c r="I14">
         <v>-6.0201071599999996E-3</v>
       </c>
-      <c r="H14">
+      <c r="J14">
         <v>-0.32098765432098764</v>
       </c>
-      <c r="I14">
+      <c r="K14">
         <v>-0.43548387096774194</v>
       </c>
-      <c r="J14">
+      <c r="L14">
         <v>-0.09</v>
       </c>
-      <c r="K14">
+      <c r="M14">
         <v>-0.08</v>
       </c>
-      <c r="L14">
+      <c r="N14">
         <v>0.89641819944986756</v>
       </c>
-      <c r="M14">
+      <c r="O14">
         <v>0.48796716643441629</v>
       </c>
-      <c r="N14">
+      <c r="P14">
         <f t="shared" si="0"/>
         <v>0.14465485927061714</v>
       </c>
-      <c r="O14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
         <v>25</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="E15">
         <v>36.595100000000002</v>
       </c>
-      <c r="D15">
+      <c r="F15">
         <v>-82.188699999999997</v>
       </c>
-      <c r="E15">
+      <c r="G15">
         <v>0.91</v>
       </c>
-      <c r="F15">
+      <c r="H15">
         <v>-0.14000000000000001</v>
       </c>
-      <c r="G15">
+      <c r="I15">
         <v>-1.30618061E-2</v>
       </c>
-      <c r="H15">
+      <c r="J15">
         <v>-0.38271604938271603</v>
       </c>
-      <c r="I15">
+      <c r="K15">
         <v>-0.35483870967741937</v>
       </c>
-      <c r="J15">
+      <c r="L15">
         <v>-0.33</v>
       </c>
-      <c r="K15">
+      <c r="M15">
         <v>-0.15</v>
       </c>
-      <c r="L15">
+      <c r="N15">
         <v>0.5913809794456053</v>
       </c>
-      <c r="M15">
+      <c r="O15">
         <v>0.31367280734072095</v>
       </c>
-      <c r="N15">
+      <c r="P15">
         <f t="shared" si="0"/>
         <v>4.9381913514021207E-2</v>
       </c>
-      <c r="O15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
         <v>26</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="E16">
         <v>36.757100000000001</v>
       </c>
-      <c r="D16">
+      <c r="F16">
         <v>-77.836699999999993</v>
       </c>
-      <c r="E16">
+      <c r="G16">
         <v>0.89</v>
       </c>
-      <c r="F16">
+      <c r="H16">
         <v>-0.15</v>
       </c>
-      <c r="G16">
+      <c r="I16">
         <v>-1.200120012E-2</v>
       </c>
-      <c r="H16">
+      <c r="J16">
         <v>-0.23456790123456789</v>
       </c>
-      <c r="I16">
+      <c r="K16">
         <v>-0.30645161290322581</v>
       </c>
-      <c r="J16">
+      <c r="L16">
         <v>-0.27</v>
       </c>
-      <c r="K16">
+      <c r="M16">
         <v>-0.04</v>
       </c>
-      <c r="L16">
+      <c r="N16">
         <v>0.35430784122782616</v>
       </c>
-      <c r="M16">
+      <c r="O16">
         <v>7.3254150863984513E-2</v>
       </c>
-      <c r="N16">
+      <c r="P16">
         <f t="shared" si="0"/>
         <v>3.3837919759335207E-2</v>
       </c>
-      <c r="O16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
         <v>27</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="E17">
         <v>37.5274</v>
       </c>
-      <c r="D17">
+      <c r="F17">
         <v>-79.6798</v>
       </c>
-      <c r="E17">
+      <c r="G17">
         <v>0.9</v>
       </c>
-      <c r="F17">
+      <c r="H17">
         <v>-0.14000000000000001</v>
       </c>
-      <c r="G17">
+      <c r="I17">
         <v>-1.17445117E-2</v>
       </c>
-      <c r="H17">
+      <c r="J17">
         <v>-0.86419753086419748</v>
       </c>
-      <c r="I17">
+      <c r="K17">
         <v>-0.72580645161290325</v>
       </c>
-      <c r="J17">
+      <c r="L17">
         <v>-0.32</v>
       </c>
-      <c r="K17">
-        <v>0</v>
-      </c>
-      <c r="L17">
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17">
         <v>0.57081817274507762</v>
       </c>
-      <c r="M17">
+      <c r="O17">
         <v>0.22241068388298499</v>
       </c>
-      <c r="N17">
+      <c r="P17">
         <f t="shared" si="0"/>
         <v>-4.606495469362977E-2</v>
       </c>
-      <c r="O17">
+      <c r="Q17">
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
         <v>28</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="E18">
         <v>37.5518</v>
       </c>
-      <c r="D18">
+      <c r="F18">
         <v>-78.554500000000004</v>
       </c>
-      <c r="E18">
+      <c r="G18">
         <v>0.95</v>
       </c>
-      <c r="F18">
+      <c r="H18">
         <v>-0.14000000000000001</v>
       </c>
-      <c r="G18">
-        <v>0</v>
-      </c>
-      <c r="H18">
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
         <v>-0.19753086419753085</v>
       </c>
-      <c r="I18">
+      <c r="K18">
         <v>-0.19354838709677419</v>
       </c>
-      <c r="J18">
+      <c r="L18">
         <v>-0.25</v>
       </c>
-      <c r="K18">
+      <c r="M18">
         <v>-0.04</v>
       </c>
-      <c r="L18">
+      <c r="N18">
         <v>0.41239109381702926</v>
       </c>
-      <c r="M18">
+      <c r="O18">
         <v>0.16304956160261605</v>
       </c>
-      <c r="N18">
+      <c r="P18">
         <f t="shared" si="0"/>
         <v>8.8045175515667526E-2</v>
       </c>
-      <c r="O18">
+      <c r="Q18">
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" t="s">
         <v>29</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="E19">
         <v>37.734299999999998</v>
       </c>
-      <c r="D19">
+      <c r="F19">
         <v>-79.353899999999996</v>
       </c>
-      <c r="E19">
+      <c r="G19">
         <v>0.87</v>
       </c>
-      <c r="F19">
+      <c r="H19">
         <v>-0.25</v>
       </c>
-      <c r="G19">
-        <v>0</v>
-      </c>
-      <c r="H19">
-        <v>0</v>
-      </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
         <v>-0.2</v>
       </c>
-      <c r="K19">
+      <c r="M19">
         <v>-0.53</v>
       </c>
-      <c r="L19">
+      <c r="N19">
         <v>0.5063257334370822</v>
       </c>
-      <c r="M19">
+      <c r="O19">
         <v>0.26576019259984529</v>
       </c>
-      <c r="N19">
+      <c r="P19">
         <f t="shared" si="0"/>
         <v>0.1103476543394879</v>
       </c>
-      <c r="O19">
+      <c r="Q19">
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" t="s">
         <v>30</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="E20">
         <v>37.220999999999997</v>
       </c>
-      <c r="D20">
+      <c r="F20">
         <v>-79.109700000000004</v>
       </c>
-      <c r="E20">
+      <c r="G20">
         <v>0.91</v>
       </c>
-      <c r="F20">
+      <c r="H20">
         <v>-0.1</v>
       </c>
-      <c r="G20">
+      <c r="I20">
         <v>-7.6128330600000009E-3</v>
       </c>
-      <c r="H20">
+      <c r="J20">
         <v>-0.25925925925925924</v>
       </c>
-      <c r="I20">
+      <c r="K20">
         <v>-0.30645161290322581</v>
       </c>
-      <c r="J20">
+      <c r="L20">
         <v>-0.17</v>
       </c>
-      <c r="K20">
+      <c r="M20">
         <v>-0.04</v>
       </c>
-      <c r="L20">
+      <c r="N20">
         <v>0.75211358487915692</v>
       </c>
-      <c r="M20">
+      <c r="O20">
         <v>0.41896648224410654</v>
       </c>
-      <c r="N20">
+      <c r="P20">
         <f t="shared" si="0"/>
         <v>0.13308404021119757</v>
       </c>
-      <c r="O20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" t="s">
         <v>31</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="E21">
         <v>38.044600000000003</v>
       </c>
-      <c r="D21">
+      <c r="F21">
         <v>-77.286500000000004</v>
       </c>
-      <c r="E21">
+      <c r="G21">
         <v>0.88</v>
       </c>
-      <c r="F21">
+      <c r="H21">
         <v>-0.11</v>
       </c>
-      <c r="G21">
+      <c r="I21">
         <v>-9.2764378400000003E-3</v>
       </c>
-      <c r="H21">
+      <c r="J21">
         <v>-0.18518518518518517</v>
       </c>
-      <c r="I21">
+      <c r="K21">
         <v>-0.20967741935483872</v>
       </c>
-      <c r="J21">
+      <c r="L21">
         <v>-0.15</v>
       </c>
-      <c r="K21">
+      <c r="M21">
         <v>-0.01</v>
       </c>
-      <c r="L21">
+      <c r="N21">
         <v>0.58567279752841606</v>
       </c>
-      <c r="M21">
+      <c r="O21">
         <v>0.25284497240741255</v>
       </c>
-      <c r="N21">
+      <c r="P21">
         <f t="shared" si="0"/>
         <v>0.11604208083953384</v>
       </c>
-      <c r="O21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" t="s">
         <v>32</v>
       </c>
-      <c r="C22">
+      <c r="C22" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="E22">
         <v>36.677900000000001</v>
       </c>
-      <c r="D22">
+      <c r="F22">
         <v>-80.721400000000003</v>
       </c>
-      <c r="E22">
+      <c r="G22">
         <v>0.91</v>
       </c>
-      <c r="F22">
+      <c r="H22">
         <v>-0.11</v>
       </c>
-      <c r="G22">
+      <c r="I22">
         <v>-6.7254018400000008E-3</v>
       </c>
-      <c r="H22">
-        <v>0</v>
-      </c>
-      <c r="I22">
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
         <v>-0.30645161290322581</v>
       </c>
-      <c r="J22">
+      <c r="L22">
         <v>-0.23</v>
       </c>
-      <c r="K22">
+      <c r="M22">
         <v>-0.02</v>
       </c>
-      <c r="L22">
+      <c r="N22">
         <v>0.67363220597666074</v>
       </c>
-      <c r="M22">
+      <c r="O22">
         <v>0.26804174544644033</v>
       </c>
-      <c r="N22">
+      <c r="P22">
         <f t="shared" si="0"/>
         <v>0.1473121170849844</v>
       </c>
-      <c r="O22">
+      <c r="Q22">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" t="s">
         <v>33</v>
       </c>
-      <c r="C23">
+      <c r="C23" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="E23">
         <v>37.343899999999998</v>
       </c>
-      <c r="D23">
+      <c r="F23">
         <v>-77.071299999999994</v>
       </c>
-      <c r="E23">
+      <c r="G23">
         <v>0.9</v>
       </c>
-      <c r="F23">
+      <c r="H23">
         <v>-0.12</v>
       </c>
-      <c r="G23">
-        <v>0</v>
-      </c>
-      <c r="H23">
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
         <v>-0.12345679012345678</v>
       </c>
-      <c r="I23">
+      <c r="K23">
         <v>-0.19354838709677419</v>
       </c>
-      <c r="J23">
+      <c r="L23">
         <v>-0.19</v>
       </c>
-      <c r="K23">
+      <c r="M23">
         <v>-0.01</v>
       </c>
-      <c r="L23">
+      <c r="N23">
         <v>0.33204259441100037</v>
       </c>
-      <c r="M23">
+      <c r="O23">
         <v>7.0891113753213164E-2</v>
       </c>
-      <c r="N23">
+      <c r="P23">
         <f t="shared" si="0"/>
         <v>8.3241066367997829E-2</v>
       </c>
-      <c r="O23">
+      <c r="Q23">
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" t="s">
         <v>34</v>
       </c>
-      <c r="C24">
+      <c r="C24" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="E24">
         <v>37.046700000000001</v>
       </c>
-      <c r="D24">
+      <c r="F24">
         <v>-78.611500000000007</v>
       </c>
-      <c r="E24">
+      <c r="G24">
         <v>0.89</v>
       </c>
-      <c r="F24">
+      <c r="H24">
         <v>-0.15</v>
       </c>
-      <c r="G24">
+      <c r="I24">
         <v>-1.9842910300000002E-2</v>
       </c>
-      <c r="H24">
+      <c r="J24">
         <v>-2.4691358024691357E-2</v>
       </c>
-      <c r="I24">
+      <c r="K24">
         <v>-4.8387096774193547E-2</v>
       </c>
-      <c r="J24">
+      <c r="L24">
         <v>-0.3</v>
       </c>
-      <c r="K24">
+      <c r="M24">
         <v>-0.15</v>
       </c>
-      <c r="L24">
+      <c r="N24">
         <v>0.81510164571656141</v>
       </c>
-      <c r="M24">
+      <c r="O24">
         <v>0.35091101295103749</v>
       </c>
-      <c r="N24">
+      <c r="P24">
         <f t="shared" si="0"/>
         <v>0.15145458817430157</v>
       </c>
-      <c r="O24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" t="s">
         <v>35</v>
       </c>
-      <c r="C25">
+      <c r="C25" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="E25">
         <v>38.029299999999999</v>
       </c>
-      <c r="D25">
+      <c r="F25">
         <v>-78.476699999999994</v>
       </c>
-      <c r="E25">
+      <c r="G25">
         <v>0.93</v>
       </c>
-      <c r="F25">
+      <c r="H25">
         <v>-0.22</v>
       </c>
-      <c r="G25">
+      <c r="I25">
         <v>-6.8024318600000003E-3</v>
       </c>
-      <c r="H25">
+      <c r="J25">
         <v>-0.4567901234567901</v>
       </c>
-      <c r="I25">
+      <c r="K25">
         <v>-0.5</v>
       </c>
-      <c r="J25">
+      <c r="L25">
         <v>-0.18</v>
       </c>
-      <c r="K25">
+      <c r="M25">
         <v>-0.03</v>
       </c>
-      <c r="L25">
+      <c r="N25">
         <v>0.55305938497990759</v>
       </c>
-      <c r="M25">
+      <c r="O25">
         <v>0.54639122217448899</v>
       </c>
-      <c r="N25">
+      <c r="P25">
         <f t="shared" si="0"/>
         <v>7.0650894648622953E-2</v>
       </c>
-      <c r="O25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="Q25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" t="s">
         <v>36</v>
       </c>
-      <c r="C26">
+      <c r="C26" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="E26">
         <v>36.7682</v>
       </c>
-      <c r="D26">
+      <c r="F26">
         <v>-76.287499999999994</v>
       </c>
-      <c r="E26">
+      <c r="G26">
         <v>0.93</v>
       </c>
-      <c r="F26">
+      <c r="H26">
         <v>-0.16</v>
       </c>
-      <c r="G26">
+      <c r="I26">
         <v>-1.0932638119999999E-2</v>
       </c>
-      <c r="H26">
+      <c r="J26">
         <v>-0.49382716049382713</v>
       </c>
-      <c r="I26">
+      <c r="K26">
         <v>-0.56451612903225812</v>
       </c>
-      <c r="J26">
+      <c r="L26">
         <v>-0.12</v>
       </c>
-      <c r="K26">
+      <c r="M26">
         <v>-0.05</v>
       </c>
-      <c r="L26">
+      <c r="N26">
         <v>0.83077787832184136</v>
       </c>
-      <c r="M26">
+      <c r="O26">
         <v>0.53454186585139574</v>
       </c>
-      <c r="N26">
+      <c r="P26">
         <f t="shared" si="0"/>
         <v>9.9560424058572419E-2</v>
       </c>
-      <c r="O26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="Q26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27" t="s">
         <v>37</v>
       </c>
-      <c r="C27">
+      <c r="C27" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="E27">
         <v>37.3673</v>
       </c>
-      <c r="D27">
+      <c r="F27">
         <v>-77.607799999999997</v>
       </c>
-      <c r="E27">
+      <c r="G27">
         <v>0.91</v>
       </c>
-      <c r="F27">
+      <c r="H27">
         <v>-0.12</v>
       </c>
-      <c r="G27">
+      <c r="I27">
         <v>-8.2487103999999995E-3</v>
       </c>
-      <c r="H27">
+      <c r="J27">
         <v>-0.44444444444444442</v>
       </c>
-      <c r="I27">
+      <c r="K27">
         <v>-0.5</v>
       </c>
-      <c r="J27">
+      <c r="L27">
         <v>-0.1</v>
       </c>
-      <c r="K27">
+      <c r="M27">
         <v>-7.0000000000000007E-2</v>
       </c>
-      <c r="L27">
+      <c r="N27">
         <v>0.7896824157436344</v>
       </c>
-      <c r="M27">
+      <c r="O27">
         <v>0.50892959244374469</v>
       </c>
-      <c r="N27">
+      <c r="P27">
         <f t="shared" si="0"/>
         <v>0.10732431703810387</v>
       </c>
-      <c r="O27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="Q27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28" t="s">
         <v>38</v>
       </c>
-      <c r="C28">
+      <c r="C28" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="E28">
         <v>39.151699999999998</v>
       </c>
-      <c r="D28">
+      <c r="F28">
         <v>-77.9739</v>
       </c>
-      <c r="E28">
+      <c r="G28">
         <v>0.99</v>
       </c>
-      <c r="F28">
+      <c r="H28">
         <v>-0.17</v>
       </c>
-      <c r="G28">
+      <c r="I28">
         <v>-1.3922728860000001E-2</v>
       </c>
-      <c r="H28">
+      <c r="J28">
         <v>-0.29629629629629628</v>
       </c>
-      <c r="I28">
+      <c r="K28">
         <v>-0.35483870967741937</v>
       </c>
-      <c r="J28">
+      <c r="L28">
         <v>-0.08</v>
       </c>
-      <c r="K28">
-        <v>0</v>
-      </c>
-      <c r="L28">
+      <c r="M28">
+        <v>0</v>
+      </c>
+      <c r="N28">
         <v>0.70861568245565276</v>
       </c>
-      <c r="M28">
+      <c r="O28">
         <v>0.30365027040478537</v>
       </c>
-      <c r="N28">
+      <c r="P28">
         <f t="shared" si="0"/>
         <v>0.12080091311408027</v>
       </c>
-      <c r="O28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="Q28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29" t="s">
         <v>39</v>
       </c>
-      <c r="C29">
+      <c r="C29" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="E29">
         <v>37.244</v>
       </c>
-      <c r="D29">
+      <c r="F29">
         <v>-77.410300000000007</v>
       </c>
-      <c r="E29">
+      <c r="G29">
         <v>0.92</v>
       </c>
-      <c r="F29">
+      <c r="H29">
         <v>-0.18</v>
       </c>
-      <c r="G29">
+      <c r="I29">
         <v>-1.5915420899999998E-2</v>
       </c>
-      <c r="H29">
+      <c r="J29">
         <v>-0.38271604938271603</v>
       </c>
-      <c r="I29">
+      <c r="K29">
         <v>-0.30645161290322581</v>
       </c>
-      <c r="J29">
+      <c r="L29">
         <v>-0.17</v>
       </c>
-      <c r="K29">
+      <c r="M29">
         <v>-0.03</v>
       </c>
-      <c r="L29">
+      <c r="N29">
         <v>0.69506292350010168</v>
       </c>
-      <c r="M29">
+      <c r="O29">
         <v>0.25993408364047904</v>
       </c>
-      <c r="N29">
+      <c r="P29">
         <f t="shared" si="0"/>
         <v>8.7768213772737649E-2</v>
       </c>
-      <c r="O29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="Q29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30" t="s">
         <v>40</v>
       </c>
-      <c r="C30">
+      <c r="C30" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="E30">
         <v>37.793500000000002</v>
       </c>
-      <c r="D30">
+      <c r="F30">
         <v>-79.993899999999996</v>
       </c>
-      <c r="E30">
+      <c r="G30">
         <v>0.81</v>
       </c>
-      <c r="F30">
+      <c r="H30">
         <v>-0.14000000000000001</v>
       </c>
-      <c r="G30">
-        <v>0</v>
-      </c>
-      <c r="H30">
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30">
         <v>-0.48148148148148145</v>
       </c>
-      <c r="I30">
+      <c r="K30">
         <v>-0.58064516129032262</v>
       </c>
-      <c r="J30">
+      <c r="L30">
         <v>-0.26</v>
       </c>
-      <c r="K30">
+      <c r="M30">
         <v>-0.1</v>
       </c>
-      <c r="L30">
+      <c r="N30">
         <v>0.50242013541161024</v>
       </c>
-      <c r="M30">
+      <c r="O30">
         <v>0.1524158945545212</v>
       </c>
-      <c r="N30">
+      <c r="P30">
         <f t="shared" si="0"/>
         <v>-1.2161326600709066E-2</v>
       </c>
-      <c r="O30">
+      <c r="Q30">
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31" t="s">
         <v>41</v>
       </c>
-      <c r="C31">
+      <c r="C31" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="E31">
         <v>37.446599999999997</v>
       </c>
-      <c r="D31">
+      <c r="F31">
         <v>-80.232100000000003</v>
       </c>
-      <c r="E31">
+      <c r="G31">
         <v>0.88</v>
       </c>
-      <c r="F31">
+      <c r="H31">
         <v>-0.08</v>
       </c>
-      <c r="G31">
-        <v>0</v>
-      </c>
-      <c r="H31">
-        <v>0</v>
-      </c>
       <c r="I31">
         <v>0</v>
       </c>
       <c r="J31">
+        <v>0</v>
+      </c>
+      <c r="K31">
+        <v>0</v>
+      </c>
+      <c r="L31">
         <v>-0.21</v>
       </c>
-      <c r="K31">
+      <c r="M31">
         <v>-0.04</v>
       </c>
-      <c r="L31">
+      <c r="N31">
         <v>0.54888673769981688</v>
       </c>
-      <c r="M31">
+      <c r="O31">
         <v>0.15005285741066732</v>
       </c>
-      <c r="N31">
+      <c r="P31">
         <f t="shared" si="0"/>
         <v>0.20815659918508075</v>
       </c>
-      <c r="O31">
+      <c r="Q31">
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>31</v>
       </c>
       <c r="B32" t="s">
         <v>42</v>
       </c>
-      <c r="C32">
+      <c r="C32" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="E32">
         <v>38.472999999999999</v>
       </c>
-      <c r="D32">
+      <c r="F32">
         <v>-77.996300000000005</v>
       </c>
-      <c r="E32">
+      <c r="G32">
         <v>0.92</v>
       </c>
-      <c r="F32">
+      <c r="H32">
         <v>-0.15</v>
       </c>
-      <c r="G32">
+      <c r="I32">
         <v>-7.1357780000000006E-3</v>
       </c>
-      <c r="H32">
+      <c r="J32">
         <v>-0.34567901234567899</v>
       </c>
-      <c r="I32">
+      <c r="K32">
         <v>-0.5</v>
       </c>
-      <c r="J32">
+      <c r="L32">
         <v>-0.11</v>
       </c>
-      <c r="K32">
+      <c r="M32">
         <v>-0.01</v>
       </c>
-      <c r="L32">
+      <c r="N32">
         <v>0.70541108923178408</v>
       </c>
-      <c r="M32">
+      <c r="O32">
         <v>0.41634269635473337</v>
       </c>
-      <c r="N32">
+      <c r="P32">
         <f t="shared" si="0"/>
         <v>0.10210433280453761</v>
       </c>
-      <c r="O32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="Q32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>32</v>
       </c>
       <c r="B33" t="s">
         <v>43</v>
       </c>
-      <c r="C33">
+      <c r="C33" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="E33">
         <v>37.496400000000001</v>
       </c>
-      <c r="D33">
+      <c r="F33">
         <v>-78.244900000000001</v>
       </c>
-      <c r="E33">
+      <c r="G33">
         <v>0.94</v>
       </c>
-      <c r="F33">
+      <c r="H33">
         <v>-0.19</v>
       </c>
-      <c r="G33">
-        <v>0</v>
-      </c>
-      <c r="H33">
-        <v>0</v>
-      </c>
       <c r="I33">
         <v>0</v>
       </c>
       <c r="J33">
+        <v>0</v>
+      </c>
+      <c r="K33">
+        <v>0</v>
+      </c>
+      <c r="L33">
         <v>-0.25</v>
       </c>
-      <c r="K33">
+      <c r="M33">
         <v>-0.24</v>
       </c>
-      <c r="L33">
+      <c r="N33">
         <v>0.54540891326585939</v>
       </c>
-      <c r="M33">
+      <c r="O33">
         <v>0.21079166361117063</v>
       </c>
-      <c r="N33">
+      <c r="P33">
         <f t="shared" si="0"/>
         <v>0.12702507210962877</v>
       </c>
-      <c r="O33">
+      <c r="Q33">
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>33</v>
       </c>
       <c r="B34" t="s">
         <v>44</v>
       </c>
-      <c r="C34">
+      <c r="C34" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="E34">
         <v>36.585999999999999</v>
       </c>
-      <c r="D34">
+      <c r="F34">
         <v>-79.394999999999996</v>
       </c>
-      <c r="E34">
+      <c r="G34">
         <v>0.81</v>
       </c>
-      <c r="F34">
+      <c r="H34">
         <v>-0.17</v>
       </c>
-      <c r="G34">
+      <c r="I34">
         <v>-2.1680477940000002E-2</v>
       </c>
-      <c r="H34">
+      <c r="J34">
         <v>-0.41975308641975306</v>
       </c>
-      <c r="I34">
+      <c r="K34">
         <v>-0.5161290322580645</v>
       </c>
-      <c r="J34">
+      <c r="L34">
         <v>-0.38</v>
       </c>
-      <c r="K34">
+      <c r="M34">
         <v>-0.06</v>
       </c>
-      <c r="L34">
+      <c r="N34">
         <v>8.3252662116805667E-2</v>
       </c>
-      <c r="M34">
+      <c r="O34">
         <v>7.0891113753213164E-2</v>
       </c>
-      <c r="N34">
+      <c r="P34">
         <f t="shared" si="0"/>
         <v>-6.7046535638644322E-2</v>
       </c>
-      <c r="O34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="Q34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>34</v>
       </c>
       <c r="B35" t="s">
         <v>45</v>
       </c>
-      <c r="C35">
+      <c r="C35" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="E35">
         <v>37.0929</v>
       </c>
-      <c r="D35">
+      <c r="F35">
         <v>-82.345200000000006</v>
       </c>
-      <c r="E35">
+      <c r="G35">
         <v>0.91</v>
       </c>
-      <c r="F35">
+      <c r="H35">
         <v>-0.15</v>
       </c>
-      <c r="G35">
-        <v>0</v>
-      </c>
-      <c r="H35">
-        <v>0</v>
-      </c>
       <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>0</v>
+      </c>
+      <c r="K35">
         <v>-0.67741935483870963</v>
       </c>
-      <c r="J35">
+      <c r="L35">
         <v>-0.28999999999999998</v>
       </c>
-      <c r="K35">
-        <v>0</v>
-      </c>
-      <c r="L35">
+      <c r="M35">
+        <v>0</v>
+      </c>
+      <c r="N35">
         <v>0.84935073613547707</v>
       </c>
-      <c r="M35">
+      <c r="O35">
         <v>0.37527474048446818</v>
       </c>
-      <c r="N35">
+      <c r="P35">
         <f t="shared" si="0"/>
         <v>0.16953435363020594</v>
       </c>
-      <c r="O35">
+      <c r="Q35">
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>35</v>
       </c>
       <c r="B36" t="s">
         <v>46</v>
       </c>
-      <c r="C36">
+      <c r="C36" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="E36">
         <v>37.076900000000002</v>
       </c>
-      <c r="D36">
+      <c r="F36">
         <v>-77.653599999999997</v>
       </c>
-      <c r="E36">
+      <c r="G36">
         <v>0.88</v>
       </c>
-      <c r="F36">
+      <c r="H36">
         <v>-0.16</v>
       </c>
-      <c r="G36">
+      <c r="I36">
         <v>-1.05977109E-2</v>
       </c>
-      <c r="H36">
+      <c r="J36">
         <v>-0.27160493827160492</v>
       </c>
-      <c r="I36">
+      <c r="K36">
         <v>-0.35483870967741937</v>
       </c>
-      <c r="J36">
+      <c r="L36">
         <v>-0.18</v>
       </c>
-      <c r="K36">
+      <c r="M36">
         <v>-0.08</v>
       </c>
-      <c r="L36">
+      <c r="N36">
         <v>0.64091864992378822</v>
       </c>
-      <c r="M36">
+      <c r="O36">
         <v>0.30112426519573432</v>
       </c>
-      <c r="N36">
+      <c r="P36">
         <f t="shared" si="0"/>
         <v>8.5000172918944253E-2</v>
       </c>
-      <c r="O36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="Q36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>36</v>
       </c>
       <c r="B37" t="s">
         <v>47</v>
       </c>
-      <c r="C37">
+      <c r="C37" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="E37">
         <v>37.967199999999998</v>
       </c>
-      <c r="D37">
+      <c r="F37">
         <v>-76.964299999999994</v>
       </c>
-      <c r="E37">
+      <c r="G37">
         <v>0.93</v>
       </c>
-      <c r="F37">
+      <c r="H37">
         <v>-0.13</v>
       </c>
-      <c r="G37">
+      <c r="I37">
         <v>-1.9934758980000002E-2</v>
       </c>
-      <c r="H37">
+      <c r="J37">
         <v>-0.22222222222222221</v>
       </c>
-      <c r="I37">
+      <c r="K37">
         <v>-0.20967741935483872</v>
       </c>
-      <c r="J37">
+      <c r="L37">
         <v>-0.23</v>
       </c>
-      <c r="K37">
+      <c r="M37">
         <v>-0.1</v>
       </c>
-      <c r="L37">
+      <c r="N37">
         <v>0.21393998057803978</v>
       </c>
-      <c r="M37">
+      <c r="O37">
         <v>1.7722778413491406E-2</v>
       </c>
-      <c r="N37">
+      <c r="P37">
         <f t="shared" si="0"/>
         <v>2.7758706492718922E-2</v>
       </c>
-      <c r="O37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="Q37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>37</v>
       </c>
       <c r="B38" t="s">
         <v>48</v>
       </c>
-      <c r="C38">
+      <c r="C38" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="E38">
         <v>38.908499999999997</v>
       </c>
-      <c r="D38">
+      <c r="F38">
         <v>-77.240499999999997</v>
       </c>
-      <c r="E38">
+      <c r="G38">
         <v>0.92</v>
       </c>
-      <c r="F38">
+      <c r="H38">
         <v>-0.14000000000000001</v>
       </c>
-      <c r="G38">
+      <c r="I38">
         <v>-0.30253509319999999</v>
       </c>
-      <c r="H38">
+      <c r="J38">
         <v>-0.49382716049382713</v>
       </c>
-      <c r="I38">
+      <c r="K38">
         <v>-0.41935483870967744</v>
       </c>
-      <c r="J38">
+      <c r="L38">
         <v>-7.0000000000000007E-2</v>
       </c>
-      <c r="K38">
+      <c r="M38">
         <v>-0.02</v>
       </c>
-      <c r="L38">
+      <c r="N38">
         <v>0.82258793144802211</v>
       </c>
-      <c r="M38">
+      <c r="O38">
         <v>0.71891466141464699</v>
       </c>
-      <c r="N38">
+      <c r="P38">
         <f t="shared" si="0"/>
         <v>0.11286505560657384</v>
       </c>
-      <c r="O38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="Q38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>38</v>
       </c>
       <c r="B39" t="s">
         <v>49</v>
       </c>
-      <c r="C39">
+      <c r="C39" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="E39">
         <v>38.882300000000001</v>
       </c>
-      <c r="D39">
+      <c r="F39">
         <v>-77.171099999999996</v>
       </c>
-      <c r="E39">
+      <c r="G39">
         <v>0.99</v>
       </c>
-      <c r="F39">
+      <c r="H39">
         <v>-0.14000000000000001</v>
       </c>
-      <c r="G39">
-        <v>0</v>
-      </c>
-      <c r="H39">
+      <c r="I39">
+        <v>0</v>
+      </c>
+      <c r="J39">
         <v>-0.30864197530864196</v>
       </c>
-      <c r="I39">
+      <c r="K39">
         <v>-0.19354838709677419</v>
       </c>
-      <c r="J39">
+      <c r="L39">
         <v>-0.03</v>
       </c>
-      <c r="K39">
-        <v>0</v>
-      </c>
-      <c r="L39">
+      <c r="M39">
+        <v>0</v>
+      </c>
+      <c r="N39">
         <v>1</v>
       </c>
-      <c r="M39">
+      <c r="O39">
         <v>0.79398047411538553</v>
       </c>
-      <c r="N39">
+      <c r="P39">
         <f t="shared" si="0"/>
         <v>0.30168430167285276</v>
       </c>
-      <c r="O39">
+      <c r="Q39">
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>39</v>
       </c>
       <c r="B40" t="s">
         <v>50</v>
       </c>
-      <c r="C40">
+      <c r="C40" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="E40">
         <v>38.7209</v>
       </c>
-      <c r="D40">
+      <c r="F40">
         <v>-77.790999999999997</v>
       </c>
-      <c r="E40">
+      <c r="G40">
         <v>0.96</v>
       </c>
-      <c r="F40">
+      <c r="H40">
         <v>-0.12</v>
       </c>
-      <c r="G40">
+      <c r="I40">
         <v>-6.3662012599999991E-3</v>
       </c>
-      <c r="H40">
+      <c r="J40">
         <v>-0.25925925925925924</v>
       </c>
-      <c r="I40">
+      <c r="K40">
         <v>-0.29032258064516131</v>
       </c>
-      <c r="J40">
+      <c r="L40">
         <v>-7.0000000000000007E-2</v>
       </c>
-      <c r="K40">
+      <c r="M40">
         <v>-0.01</v>
       </c>
-      <c r="L40">
+      <c r="N40">
         <v>0.72320103262135127</v>
       </c>
-      <c r="M40">
+      <c r="O40">
         <v>0.4531517525414353</v>
       </c>
-      <c r="N40">
+      <c r="P40">
         <f t="shared" si="0"/>
         <v>0.15337830488870732</v>
       </c>
-      <c r="O40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="Q40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>40</v>
       </c>
       <c r="B41" t="s">
         <v>51</v>
       </c>
-      <c r="C41">
+      <c r="C41" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="E41">
         <v>36.911200000000001</v>
       </c>
-      <c r="D41">
+      <c r="F41">
         <v>-80.320099999999996</v>
       </c>
-      <c r="E41">
+      <c r="G41">
         <v>0.98</v>
       </c>
-      <c r="F41">
+      <c r="H41">
         <v>-0.09</v>
       </c>
-      <c r="G41">
-        <v>0</v>
-      </c>
-      <c r="H41">
+      <c r="I41">
+        <v>0</v>
+      </c>
+      <c r="J41">
         <v>-0.2839506172839506</v>
       </c>
-      <c r="I41">
+      <c r="K41">
         <v>-0.32258064516129031</v>
       </c>
-      <c r="J41">
+      <c r="L41">
         <v>-0.18</v>
       </c>
-      <c r="K41">
+      <c r="M41">
         <v>-0.1</v>
       </c>
-      <c r="L41">
+      <c r="N41">
         <v>0.69603097755632359</v>
       </c>
-      <c r="M41">
+      <c r="O41">
         <v>0.33200671599870168</v>
       </c>
-      <c r="N41">
+      <c r="P41">
         <f t="shared" si="0"/>
         <v>0.12893830388872304</v>
       </c>
-      <c r="O41">
+      <c r="Q41">
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>41</v>
       </c>
       <c r="B42" t="s">
         <v>52</v>
       </c>
-      <c r="C42">
+      <c r="C42" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="E42">
         <v>37.853299999999997</v>
       </c>
-      <c r="D42">
+      <c r="F42">
         <v>-78.247600000000006</v>
       </c>
-      <c r="E42">
+      <c r="G42">
         <v>0.96</v>
       </c>
-      <c r="F42">
+      <c r="H42">
         <v>-0.14000000000000001</v>
       </c>
-      <c r="G42">
+      <c r="I42">
         <v>-7.6097709399999998E-3</v>
       </c>
-      <c r="H42">
+      <c r="J42">
         <v>-0.16049382716049382</v>
       </c>
-      <c r="I42">
+      <c r="K42">
         <v>-0.20967741935483872</v>
       </c>
-      <c r="J42">
+      <c r="L42">
         <v>-0.09</v>
       </c>
-      <c r="K42">
+      <c r="M42">
         <v>-0.03</v>
       </c>
-      <c r="L42">
+      <c r="N42">
         <v>0.73532062607824367</v>
       </c>
-      <c r="M42">
+      <c r="O42">
         <v>0.40721648397587729</v>
       </c>
-      <c r="N42">
+      <c r="P42">
         <f t="shared" si="0"/>
         <v>0.16275067695542089</v>
       </c>
-      <c r="O42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="Q42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>42</v>
       </c>
       <c r="B43" t="s">
         <v>53</v>
       </c>
-      <c r="C43">
+      <c r="C43" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="E43">
         <v>36.945900000000002</v>
       </c>
-      <c r="D43">
+      <c r="F43">
         <v>-79.829700000000003</v>
       </c>
-      <c r="E43">
+      <c r="G43">
         <v>0.9</v>
       </c>
-      <c r="F43">
+      <c r="H43">
         <v>-0.12</v>
       </c>
-      <c r="G43">
+      <c r="I43">
         <v>-6.0893922779999998E-2</v>
       </c>
-      <c r="H43">
+      <c r="J43">
         <v>-0.44444444444444442</v>
       </c>
-      <c r="I43">
+      <c r="K43">
         <v>-0.56451612903225812</v>
       </c>
-      <c r="J43">
+      <c r="L43">
         <v>-0.23</v>
       </c>
-      <c r="K43">
+      <c r="M43">
         <v>-0.06</v>
       </c>
-      <c r="L43">
+      <c r="N43">
         <v>0.7647628266613562</v>
       </c>
-      <c r="M43">
+      <c r="O43">
         <v>0.38753808848227728</v>
       </c>
-      <c r="N43">
+      <c r="P43">
         <f t="shared" si="0"/>
         <v>6.3605157654103434E-2</v>
       </c>
-      <c r="O43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="Q43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>43</v>
       </c>
       <c r="B44" t="s">
         <v>54</v>
       </c>
-      <c r="C44">
+      <c r="C44" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="E44">
         <v>36.677700000000002</v>
       </c>
-      <c r="D44">
+      <c r="F44">
         <v>-76.922499999999999</v>
       </c>
-      <c r="E44">
+      <c r="G44">
         <v>0.93</v>
       </c>
-      <c r="F44">
+      <c r="H44">
         <v>-0.21</v>
       </c>
-      <c r="G44">
+      <c r="I44">
         <v>-4.9792826199999999E-3</v>
       </c>
-      <c r="H44">
+      <c r="J44">
         <v>-0.55555555555555558</v>
       </c>
-      <c r="I44">
+      <c r="K44">
         <v>-0.70967741935483875</v>
       </c>
-      <c r="J44">
+      <c r="L44">
         <v>-0.34</v>
       </c>
-      <c r="K44">
+      <c r="M44">
         <v>-0.28000000000000003</v>
       </c>
-      <c r="L44">
+      <c r="N44">
         <v>0.53146176170621195</v>
       </c>
-      <c r="M44">
+      <c r="O44">
         <v>0.10633667061327849</v>
       </c>
-      <c r="N44">
+      <c r="P44">
         <f t="shared" si="0"/>
         <v>-5.9157091690100444E-2</v>
       </c>
-      <c r="O44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="Q44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>44</v>
       </c>
       <c r="B45" t="s">
         <v>55</v>
       </c>
-      <c r="C45">
+      <c r="C45" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="E45">
         <v>39.209600000000002</v>
       </c>
-      <c r="D45">
+      <c r="F45">
         <v>-78.260099999999994</v>
       </c>
-      <c r="E45">
+      <c r="G45">
         <v>0.93</v>
       </c>
-      <c r="F45">
+      <c r="H45">
         <v>-0.11</v>
       </c>
-      <c r="G45">
+      <c r="I45">
         <v>-8.4553685800000007E-3</v>
       </c>
-      <c r="H45">
+      <c r="J45">
         <v>-0.35802469135802467</v>
       </c>
-      <c r="I45">
+      <c r="K45">
         <v>-0.37096774193548387</v>
       </c>
-      <c r="J45">
+      <c r="L45">
         <v>-0.1</v>
       </c>
-      <c r="K45">
+      <c r="M45">
         <v>-0.04</v>
       </c>
-      <c r="L45">
+      <c r="N45">
         <v>0.68706034189251175</v>
       </c>
-      <c r="M45">
+      <c r="O45">
         <v>0.39360321699270612</v>
       </c>
-      <c r="N45">
+      <c r="P45">
         <f t="shared" si="0"/>
         <v>0.11369063966796772</v>
       </c>
-      <c r="O45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="Q45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>45</v>
       </c>
       <c r="B46" t="s">
         <v>56</v>
       </c>
-      <c r="C46">
+      <c r="C46" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="E46">
         <v>38.303199999999997</v>
       </c>
-      <c r="D46">
+      <c r="F46">
         <v>-77.460499999999996</v>
       </c>
-      <c r="E46">
+      <c r="G46">
         <v>0.83</v>
       </c>
-      <c r="F46">
+      <c r="H46">
         <v>-0.2</v>
       </c>
-      <c r="G46">
+      <c r="I46">
         <v>-1.6157926159999999E-2</v>
       </c>
-      <c r="H46">
+      <c r="J46">
         <v>-0.20987654320987653</v>
       </c>
-      <c r="I46">
+      <c r="K46">
         <v>-0.30645161290322581</v>
       </c>
-      <c r="J46">
+      <c r="L46">
         <v>-0.21</v>
       </c>
-      <c r="K46">
+      <c r="M46">
         <v>-0.02</v>
       </c>
-      <c r="L46">
+      <c r="N46">
         <v>0.33060720354932088</v>
       </c>
-      <c r="M46">
+      <c r="O46">
         <v>0.17906117516612471</v>
       </c>
-      <c r="N46">
+      <c r="P46">
         <f t="shared" si="0"/>
         <v>4.1909144049149236E-2</v>
       </c>
-      <c r="O46">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="Q46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>46</v>
       </c>
       <c r="B47" t="s">
         <v>57</v>
       </c>
-      <c r="C47">
+      <c r="C47" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="E47">
         <v>36.661200000000001</v>
       </c>
-      <c r="D47">
+      <c r="F47">
         <v>-80.924000000000007</v>
       </c>
-      <c r="E47">
+      <c r="G47">
         <v>0.93</v>
       </c>
-      <c r="F47">
+      <c r="H47">
         <v>-0.14000000000000001</v>
       </c>
-      <c r="G47">
-        <v>0</v>
-      </c>
-      <c r="H47">
+      <c r="I47">
+        <v>0</v>
+      </c>
+      <c r="J47">
         <v>-0.75308641975308643</v>
       </c>
-      <c r="I47">
+      <c r="K47">
         <v>-0.9838709677419355</v>
       </c>
-      <c r="J47">
+      <c r="L47">
         <v>-0.35</v>
       </c>
-      <c r="K47">
+      <c r="M47">
         <v>-0.01</v>
       </c>
-      <c r="L47">
+      <c r="N47">
         <v>0.72604065817820229</v>
       </c>
-      <c r="M47">
+      <c r="O47">
         <v>0.26820471357780251</v>
       </c>
-      <c r="N47">
+      <c r="P47">
         <f t="shared" si="0"/>
         <v>-3.9089001967377121E-2</v>
       </c>
-      <c r="O47">
+      <c r="Q47">
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>47</v>
       </c>
       <c r="B48" t="s">
         <v>58</v>
       </c>
-      <c r="C48">
+      <c r="C48" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="E48">
         <v>37.313299999999998</v>
       </c>
-      <c r="D48">
+      <c r="F48">
         <v>-80.677099999999996</v>
       </c>
-      <c r="E48">
+      <c r="G48">
         <v>0.93</v>
       </c>
-      <c r="F48">
+      <c r="H48">
         <v>-0.08</v>
       </c>
-      <c r="G48">
-        <v>0</v>
-      </c>
-      <c r="H48">
+      <c r="I48">
+        <v>0</v>
+      </c>
+      <c r="J48">
         <v>-0.61728395061728392</v>
       </c>
-      <c r="I48">
+      <c r="K48">
         <v>-0.66129032258064513</v>
       </c>
-      <c r="J48">
+      <c r="L48">
         <v>-0.18</v>
       </c>
-      <c r="K48">
-        <v>0</v>
-      </c>
-      <c r="L48">
+      <c r="M48">
+        <v>0</v>
+      </c>
+      <c r="N48">
         <v>0.81663717981154993</v>
       </c>
-      <c r="M48">
+      <c r="O48">
         <v>0.40151260103232639</v>
       </c>
-      <c r="N48">
+      <c r="P48">
         <f t="shared" si="0"/>
         <v>7.6196938455743435E-2</v>
       </c>
-      <c r="O48">
+      <c r="Q48">
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>48</v>
       </c>
       <c r="B49" t="s">
         <v>59</v>
       </c>
-      <c r="C49">
+      <c r="C49" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="E49">
         <v>37.412799999999997</v>
       </c>
-      <c r="D49">
+      <c r="F49">
         <v>-76.502600000000001</v>
       </c>
-      <c r="E49">
+      <c r="G49">
         <v>0.93</v>
       </c>
-      <c r="F49">
+      <c r="H49">
         <v>-0.12</v>
       </c>
-      <c r="G49">
+      <c r="I49">
         <v>-7.5347810800000005E-3</v>
       </c>
-      <c r="H49">
+      <c r="J49">
         <v>-0.25925925925925924</v>
       </c>
-      <c r="I49">
+      <c r="K49">
         <v>-0.25806451612903225</v>
       </c>
-      <c r="J49">
+      <c r="L49">
         <v>-0.13</v>
       </c>
-      <c r="K49">
+      <c r="M49">
         <v>-0.03</v>
       </c>
-      <c r="L49">
+      <c r="N49">
         <v>0.8189738624835603</v>
       </c>
-      <c r="M49">
+      <c r="O49">
         <v>0.42062060823157127</v>
       </c>
-      <c r="N49">
+      <c r="P49">
         <f t="shared" si="0"/>
         <v>0.15163732380520445</v>
       </c>
-      <c r="O49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="Q49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>49</v>
       </c>
       <c r="B50" t="s">
         <v>60</v>
       </c>
-      <c r="C50">
+      <c r="C50" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="E50">
         <v>37.741599999999998</v>
       </c>
-      <c r="D50">
+      <c r="F50">
         <v>-77.9739</v>
       </c>
-      <c r="E50">
+      <c r="G50">
         <v>0.94</v>
       </c>
-      <c r="F50">
+      <c r="H50">
         <v>-0.11</v>
       </c>
-      <c r="G50">
-        <v>0</v>
-      </c>
-      <c r="H50">
+      <c r="I50">
+        <v>0</v>
+      </c>
+      <c r="J50">
         <v>-0.33333333333333331</v>
       </c>
-      <c r="I50">
+      <c r="K50">
         <v>-0.37096774193548387</v>
       </c>
-      <c r="J50">
+      <c r="L50">
         <v>-0.08</v>
       </c>
-      <c r="K50">
+      <c r="M50">
         <v>-0.03</v>
       </c>
-      <c r="L50">
+      <c r="N50">
         <v>0.8381346595808814</v>
       </c>
-      <c r="M50">
+      <c r="O50">
         <v>0.43915822713646097</v>
       </c>
-      <c r="N50">
+      <c r="P50">
         <f t="shared" si="0"/>
         <v>0.16162397643106563</v>
       </c>
-      <c r="O50">
+      <c r="Q50">
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>50</v>
       </c>
       <c r="B51" t="s">
         <v>61</v>
       </c>
-      <c r="C51">
+      <c r="C51" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="E51">
         <v>36.6721</v>
       </c>
-      <c r="D51">
+      <c r="F51">
         <v>-81.207800000000006</v>
       </c>
-      <c r="E51">
+      <c r="G51">
         <v>0.91</v>
       </c>
-      <c r="F51">
+      <c r="H51">
         <v>-0.12</v>
       </c>
-      <c r="G51">
-        <v>0</v>
-      </c>
-      <c r="H51">
+      <c r="I51">
+        <v>0</v>
+      </c>
+      <c r="J51">
         <v>-0.22222222222222221</v>
       </c>
-      <c r="I51">
+      <c r="K51">
         <v>-0.19354838709677419</v>
       </c>
-      <c r="J51">
+      <c r="L51">
         <v>-0.28000000000000003</v>
       </c>
-      <c r="K51">
+      <c r="M51">
         <v>-0.09</v>
       </c>
-      <c r="L51">
+      <c r="N51">
         <v>0.78315585671118348</v>
       </c>
-      <c r="M51">
+      <c r="O51">
         <v>0.28947204793865239</v>
       </c>
-      <c r="N51">
+      <c r="P51">
         <f t="shared" si="0"/>
         <v>0.13460716191635494</v>
       </c>
-      <c r="O51">
+      <c r="Q51">
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A52">
         <v>51</v>
       </c>
       <c r="B52" t="s">
         <v>62</v>
       </c>
-      <c r="C52">
+      <c r="C52" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="E52">
         <v>38.311999999999998</v>
       </c>
-      <c r="D52">
+      <c r="F52">
         <v>-78.452500000000001</v>
       </c>
-      <c r="E52">
+      <c r="G52">
         <v>0.95</v>
       </c>
-      <c r="F52">
+      <c r="H52">
         <v>-0.12</v>
       </c>
-      <c r="G52">
+      <c r="I52">
         <v>-1.0303967020000001E-2</v>
       </c>
-      <c r="H52">
+      <c r="J52">
         <v>-0.23456790123456789</v>
       </c>
-      <c r="I52">
+      <c r="K52">
         <v>-0.40322580645161288</v>
       </c>
-      <c r="J52">
+      <c r="L52">
         <v>-0.12</v>
       </c>
-      <c r="K52">
-        <v>0</v>
-      </c>
-      <c r="L52">
+      <c r="M52">
+        <v>0</v>
+      </c>
+      <c r="N52">
         <v>0.57923022982220573</v>
       </c>
-      <c r="M52">
+      <c r="O52">
         <v>0.30796892472799531</v>
       </c>
-      <c r="N52">
+      <c r="P52">
         <f t="shared" si="0"/>
         <v>0.10545571998266891</v>
       </c>
-      <c r="O52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="Q52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A53">
         <v>52</v>
       </c>
       <c r="B53" t="s">
         <v>63</v>
       </c>
-      <c r="C53">
+      <c r="C53" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="E53">
         <v>36.605699999999999</v>
       </c>
-      <c r="D53">
+      <c r="F53">
         <v>-77.607799999999997</v>
       </c>
-      <c r="E53">
+      <c r="G53">
         <v>0.89</v>
       </c>
-      <c r="F53">
+      <c r="H53">
         <v>-0.15</v>
       </c>
-      <c r="G53">
-        <v>0</v>
-      </c>
-      <c r="H53">
+      <c r="I53">
+        <v>0</v>
+      </c>
+      <c r="J53">
         <v>-0.12345679012345678</v>
       </c>
-      <c r="I53">
+      <c r="K53">
         <v>-0.16129032258064516</v>
       </c>
-      <c r="J53">
+      <c r="L53">
         <v>-0.27</v>
       </c>
-      <c r="K53">
+      <c r="M53">
         <v>-0.04</v>
       </c>
-      <c r="L53">
+      <c r="N53">
         <v>0.23717328172214311</v>
       </c>
-      <c r="M53">
+      <c r="O53">
         <v>8.1524780801308011E-2</v>
       </c>
-      <c r="N53">
+      <c r="P53">
         <f t="shared" si="0"/>
         <v>5.7993868727418643E-2</v>
       </c>
-      <c r="O53">
+      <c r="Q53">
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A54">
         <v>53</v>
       </c>
       <c r="B54" t="s">
         <v>64</v>
       </c>
-      <c r="C54">
+      <c r="C54" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="E54">
         <v>36.694499999999998</v>
       </c>
-      <c r="D54">
+      <c r="F54">
         <v>-78.928799999999995</v>
       </c>
-      <c r="E54">
+      <c r="G54">
         <v>0.95</v>
       </c>
-      <c r="F54">
+      <c r="H54">
         <v>-0.11</v>
       </c>
-      <c r="G54">
+      <c r="I54">
         <v>-9.2009546000000001E-3</v>
       </c>
-      <c r="H54">
+      <c r="J54">
         <v>-0.29629629629629628</v>
       </c>
-      <c r="I54">
+      <c r="K54">
         <v>-0.35483870967741937</v>
       </c>
-      <c r="J54">
+      <c r="L54">
         <v>-0.22</v>
       </c>
-      <c r="K54">
+      <c r="M54">
         <v>-0.11</v>
       </c>
-      <c r="L54">
+      <c r="N54">
         <v>0.5717528455428269</v>
       </c>
-      <c r="M54">
+      <c r="O54">
         <v>0.18134272834354501</v>
       </c>
-      <c r="N54">
+      <c r="P54">
         <f t="shared" si="0"/>
         <v>6.697329036807291E-2</v>
       </c>
-      <c r="O54">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="Q54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A55">
         <v>54</v>
       </c>
       <c r="B55" t="s">
         <v>65</v>
       </c>
-      <c r="C55">
+      <c r="C55" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="E55">
         <v>37.029899999999998</v>
       </c>
-      <c r="D55">
+      <c r="F55">
         <v>-76.345200000000006</v>
       </c>
-      <c r="E55">
+      <c r="G55">
         <v>0.93</v>
       </c>
-      <c r="F55">
+      <c r="H55">
         <v>-0.23</v>
       </c>
-      <c r="G55">
+      <c r="I55">
         <v>-1.2390933959999999E-2</v>
       </c>
-      <c r="H55">
+      <c r="J55">
         <v>-0.44444444444444442</v>
       </c>
-      <c r="I55">
+      <c r="K55">
         <v>-0.532258064516129</v>
       </c>
-      <c r="J55">
+      <c r="L55">
         <v>-0.24</v>
       </c>
-      <c r="K55">
+      <c r="M55">
         <v>-0.1</v>
       </c>
-      <c r="L55">
+      <c r="N55">
         <v>0.59819504724864991</v>
       </c>
-      <c r="M55">
+      <c r="O55">
         <v>0.26454581732944882</v>
       </c>
-      <c r="N55">
+      <c r="P55">
         <f t="shared" si="0"/>
         <v>2.5960824628613932E-2</v>
       </c>
-      <c r="O55">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="Q55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A56">
         <v>55</v>
       </c>
       <c r="B56" t="s">
         <v>66</v>
       </c>
-      <c r="C56">
+      <c r="C56" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="E56">
         <v>37.777200000000001</v>
       </c>
-      <c r="D56">
+      <c r="F56">
         <v>-77.516099999999994</v>
       </c>
-      <c r="E56">
+      <c r="G56">
         <v>0.95</v>
       </c>
-      <c r="F56">
+      <c r="H56">
         <v>-0.09</v>
       </c>
-      <c r="G56">
+      <c r="I56">
         <v>-6.3188733200000005E-3</v>
       </c>
-      <c r="H56">
+      <c r="J56">
         <v>-0.2839506172839506</v>
       </c>
-      <c r="I56">
+      <c r="K56">
         <v>-0.29032258064516131</v>
       </c>
-      <c r="J56">
+      <c r="L56">
         <v>-0.06</v>
       </c>
-      <c r="K56">
+      <c r="M56">
         <v>-0.04</v>
       </c>
-      <c r="L56">
+      <c r="N56">
         <v>0.8822200708524468</v>
       </c>
-      <c r="M56">
+      <c r="O56">
         <v>0.51600854006509378</v>
       </c>
-      <c r="N56">
+      <c r="P56">
         <f t="shared" si="0"/>
         <v>0.17529294885204763</v>
       </c>
-      <c r="O56">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="Q56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A57">
         <v>56</v>
       </c>
       <c r="B57" t="s">
         <v>67</v>
       </c>
-      <c r="C57">
+      <c r="C57" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="E57">
         <v>38.449599999999997</v>
       </c>
-      <c r="D57">
+      <c r="F57">
         <v>-78.868899999999996</v>
       </c>
-      <c r="E57">
+      <c r="G57">
         <v>0.88</v>
       </c>
-      <c r="F57">
+      <c r="H57">
         <v>-0.26</v>
       </c>
-      <c r="G57">
+      <c r="I57">
         <v>-7.49189938E-3</v>
       </c>
-      <c r="H57">
+      <c r="J57">
         <v>-0.2839506172839506</v>
       </c>
-      <c r="I57">
+      <c r="K57">
         <v>-0.30645161290322581</v>
       </c>
-      <c r="J57">
+      <c r="L57">
         <v>-0.2</v>
       </c>
-      <c r="K57">
+      <c r="M57">
         <v>-0.01</v>
       </c>
-      <c r="L57">
+      <c r="N57">
         <v>0.39980638918875555</v>
       </c>
-      <c r="M57">
+      <c r="O57">
         <v>0.25757104656279023</v>
       </c>
-      <c r="N57">
+      <c r="P57">
         <f t="shared" si="0"/>
         <v>5.2164811798263253E-2</v>
       </c>
-      <c r="O57">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="Q57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A58">
         <v>57</v>
       </c>
       <c r="B58" t="s">
         <v>68</v>
       </c>
-      <c r="C58">
+      <c r="C58" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="E58">
         <v>37.505899999999997</v>
       </c>
-      <c r="D58">
+      <c r="F58">
         <v>-77.332400000000007</v>
       </c>
-      <c r="E58">
+      <c r="G58">
         <v>0.92</v>
       </c>
-      <c r="F58">
+      <c r="H58">
         <v>-0.15</v>
       </c>
-      <c r="G58">
+      <c r="I58">
         <v>-9.8267422600000001E-3</v>
       </c>
-      <c r="H58">
+      <c r="J58">
         <v>-0.70370370370370372</v>
       </c>
-      <c r="I58">
+      <c r="K58">
         <v>-0.67741935483870963</v>
       </c>
-      <c r="J58">
+      <c r="L58">
         <v>-0.13</v>
       </c>
-      <c r="K58">
+      <c r="M58">
         <v>-0.04</v>
       </c>
-      <c r="L58">
+      <c r="N58">
         <v>0.72847640745235065</v>
       </c>
-      <c r="M58">
+      <c r="O58">
         <v>0.55801978311417366</v>
       </c>
-      <c r="N58">
+      <c r="P58">
         <f t="shared" si="0"/>
         <v>5.5060709973790103E-2</v>
       </c>
-      <c r="O58">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="Q58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A59">
         <v>58</v>
       </c>
       <c r="B59" t="s">
         <v>69</v>
       </c>
-      <c r="C59">
+      <c r="C59" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="E59">
         <v>36.658900000000003</v>
       </c>
-      <c r="D59">
+      <c r="F59">
         <v>-79.963999999999999</v>
       </c>
-      <c r="E59">
+      <c r="G59">
         <v>0.88</v>
       </c>
-      <c r="F59">
+      <c r="H59">
         <v>-0.12</v>
       </c>
-      <c r="G59">
+      <c r="I59">
         <v>-8.91680236E-3</v>
       </c>
-      <c r="H59">
+      <c r="J59">
         <v>-0.30864197530864196</v>
       </c>
-      <c r="I59">
+      <c r="K59">
         <v>-0.35483870967741937</v>
       </c>
-      <c r="J59">
+      <c r="L59">
         <v>-0.28000000000000003</v>
       </c>
-      <c r="K59">
+      <c r="M59">
         <v>-7.0000000000000007E-2</v>
       </c>
-      <c r="L59">
+      <c r="N59">
         <v>0.6852533075458086</v>
       </c>
-      <c r="M59">
+      <c r="O59">
         <v>0.33405468144397693</v>
       </c>
-      <c r="N59">
+      <c r="P59">
         <f t="shared" si="0"/>
         <v>8.4101166849302675E-2</v>
       </c>
-      <c r="O59">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="Q59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A60">
         <v>59</v>
       </c>
       <c r="B60" t="s">
         <v>70</v>
       </c>
-      <c r="C60">
+      <c r="C60" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="E60">
         <v>38.4</v>
       </c>
-      <c r="D60">
+      <c r="F60">
         <v>-79.6053</v>
       </c>
-      <c r="E60">
+      <c r="G60">
         <v>1</v>
       </c>
-      <c r="F60">
+      <c r="H60">
         <v>-0.1</v>
       </c>
-      <c r="G60">
-        <v>0</v>
-      </c>
-      <c r="H60">
-        <v>0</v>
-      </c>
       <c r="I60">
         <v>0</v>
       </c>
       <c r="J60">
+        <v>0</v>
+      </c>
+      <c r="K60">
+        <v>0</v>
+      </c>
+      <c r="L60">
         <v>-0.21</v>
       </c>
-      <c r="K60">
+      <c r="M60">
         <v>-0.32</v>
       </c>
-      <c r="L60">
+      <c r="N60">
         <v>0.7721552405631873</v>
       </c>
-      <c r="M60">
+      <c r="O60">
         <v>0.26949364295305556</v>
       </c>
-      <c r="N60">
+      <c r="P60">
         <f t="shared" si="0"/>
         <v>0.2352748139193738</v>
       </c>
-      <c r="O60">
+      <c r="Q60">
         <v>3</v>
       </c>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A61">
         <v>60</v>
       </c>
       <c r="B61" t="s">
         <v>71</v>
       </c>
-      <c r="C61">
+      <c r="C61" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="E61">
         <v>37.304299999999998</v>
       </c>
-      <c r="D61">
+      <c r="F61">
         <v>-77.287199999999999</v>
       </c>
-      <c r="E61">
+      <c r="G61">
         <v>0.91</v>
       </c>
-      <c r="F61">
+      <c r="H61">
         <v>-0.2</v>
       </c>
-      <c r="G61">
+      <c r="I61">
         <v>-2.0528382719999998E-2</v>
       </c>
-      <c r="H61">
+      <c r="J61">
         <v>-0.27160493827160492</v>
       </c>
-      <c r="I61">
+      <c r="K61">
         <v>-0.37096774193548387</v>
       </c>
-      <c r="J61">
+      <c r="L61">
         <v>-0.31</v>
       </c>
-      <c r="K61">
+      <c r="M61">
         <v>-0.13</v>
       </c>
-      <c r="L61">
+      <c r="N61">
         <v>0.52984833800811992</v>
       </c>
-      <c r="M61">
+      <c r="O61">
         <v>0.22708786769820152</v>
       </c>
-      <c r="N61">
+      <c r="P61">
         <f t="shared" si="0"/>
         <v>4.0426126975470288E-2</v>
       </c>
-      <c r="O61">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="Q61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A62">
         <v>61</v>
       </c>
       <c r="B62" t="s">
         <v>72</v>
       </c>
-      <c r="C62">
+      <c r="C62" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="E62">
         <v>36.908299999999997</v>
       </c>
-      <c r="D62">
+      <c r="F62">
         <v>-76.706500000000005</v>
       </c>
-      <c r="E62">
+      <c r="G62">
         <v>0.96</v>
       </c>
-      <c r="F62">
+      <c r="H62">
         <v>-0.12</v>
       </c>
-      <c r="G62">
+      <c r="I62">
         <v>-7.1483558800000003E-3</v>
       </c>
-      <c r="H62">
+      <c r="J62">
         <v>-0.24691358024691357</v>
       </c>
-      <c r="I62">
+      <c r="K62">
         <v>-0.27419354838709675</v>
       </c>
-      <c r="J62">
+      <c r="L62">
         <v>-0.12</v>
       </c>
-      <c r="K62">
+      <c r="M62">
         <v>-0.02</v>
       </c>
-      <c r="L62">
+      <c r="N62">
         <v>0.75024201337852781</v>
       </c>
-      <c r="M62">
+      <c r="O62">
         <v>0.37335986568531909</v>
       </c>
-      <c r="N62">
+      <c r="P62">
         <f t="shared" si="0"/>
         <v>0.14392737717220408</v>
       </c>
-      <c r="O62">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="Q62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A63">
         <v>62</v>
       </c>
       <c r="B63" t="s">
         <v>73</v>
       </c>
-      <c r="C63">
+      <c r="C63" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="E63">
         <v>37.729900000000001</v>
       </c>
-      <c r="D63">
+      <c r="F63">
         <v>-76.895200000000003</v>
       </c>
-      <c r="E63">
+      <c r="G63">
         <v>0.87</v>
       </c>
-      <c r="F63">
+      <c r="H63">
         <v>-0.15</v>
       </c>
-      <c r="G63">
-        <v>0</v>
-      </c>
-      <c r="H63">
+      <c r="I63">
+        <v>0</v>
+      </c>
+      <c r="J63">
         <v>-0.33333333333333331</v>
       </c>
-      <c r="I63">
+      <c r="K63">
         <v>-0.4838709677419355</v>
       </c>
-      <c r="J63">
+      <c r="L63">
         <v>-0.19</v>
       </c>
-      <c r="K63">
+      <c r="M63">
         <v>-0.04</v>
       </c>
-      <c r="L63">
+      <c r="N63">
         <v>0.63811463098843102</v>
       </c>
-      <c r="M63">
+      <c r="O63">
         <v>0.18134272834354501</v>
       </c>
-      <c r="N63">
+      <c r="P63">
         <f t="shared" si="0"/>
         <v>6.1531632282088397E-2</v>
       </c>
-      <c r="O63">
+      <c r="Q63">
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A64">
         <v>63</v>
       </c>
       <c r="B64" t="s">
         <v>74</v>
       </c>
-      <c r="C64">
+      <c r="C64" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E64">
         <v>38.266500000000001</v>
       </c>
-      <c r="D64">
+      <c r="F64">
         <v>-77.180800000000005</v>
       </c>
-      <c r="E64">
+      <c r="G64">
         <v>0.95</v>
       </c>
-      <c r="F64">
+      <c r="H64">
         <v>-0.09</v>
       </c>
-      <c r="G64">
-        <v>0</v>
-      </c>
-      <c r="H64">
+      <c r="I64">
+        <v>0</v>
+      </c>
+      <c r="J64">
         <v>-0.22222222222222221</v>
       </c>
-      <c r="I64">
+      <c r="K64">
         <v>-0.24193548387096775</v>
       </c>
-      <c r="J64">
+      <c r="L64">
         <v>-0.09</v>
       </c>
-      <c r="K64">
-        <v>0</v>
-      </c>
-      <c r="L64">
+      <c r="M64">
+        <v>0</v>
+      </c>
+      <c r="N64">
         <v>0.78205427762106905</v>
       </c>
-      <c r="M64">
+      <c r="O64">
         <v>0.42660968499147445</v>
       </c>
-      <c r="N64">
+      <c r="P64">
         <f t="shared" si="0"/>
         <v>0.21635803664562192</v>
       </c>
-      <c r="O64">
+      <c r="Q64">
         <v>2</v>
       </c>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A65">
         <v>64</v>
       </c>
       <c r="B65" t="s">
         <v>75</v>
       </c>
-      <c r="C65">
+      <c r="C65" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="E65">
         <v>37.687199999999997</v>
       </c>
-      <c r="D65">
+      <c r="F65">
         <v>-77.0137</v>
       </c>
-      <c r="E65">
+      <c r="G65">
         <v>0.92</v>
       </c>
-      <c r="F65">
+      <c r="H65">
         <v>-0.13</v>
       </c>
-      <c r="G65">
-        <v>0</v>
-      </c>
-      <c r="H65">
+      <c r="I65">
+        <v>0</v>
+      </c>
+      <c r="J65">
         <v>-0.23456790123456789</v>
       </c>
-      <c r="I65">
+      <c r="K65">
         <v>-0.27419354838709675</v>
       </c>
-      <c r="J65">
+      <c r="L65">
         <v>-0.1</v>
       </c>
-      <c r="K65">
+      <c r="M65">
         <v>-0.03</v>
       </c>
-      <c r="L65">
+      <c r="N65">
         <v>0.64666021282839581</v>
       </c>
-      <c r="M65">
+      <c r="O65">
         <v>0.20203967407921461</v>
       </c>
-      <c r="N65">
+      <c r="P65">
         <f t="shared" si="0"/>
         <v>0.12499230466074324</v>
       </c>
-      <c r="O65">
+      <c r="Q65">
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A66">
         <v>65</v>
       </c>
       <c r="B66" t="s">
         <v>76</v>
       </c>
-      <c r="C66">
+      <c r="C66" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="E66">
         <v>37.747599999999998</v>
       </c>
-      <c r="D66">
+      <c r="F66">
         <v>-76.502600000000001</v>
       </c>
-      <c r="E66">
+      <c r="G66">
         <v>0.89</v>
       </c>
-      <c r="F66">
+      <c r="H66">
         <v>-0.12</v>
       </c>
-      <c r="G66">
-        <v>0</v>
-      </c>
-      <c r="H66">
+      <c r="I66">
+        <v>0</v>
+      </c>
+      <c r="J66">
         <v>-0.18518518518518517</v>
       </c>
-      <c r="I66">
+      <c r="K66">
         <v>-0.22580645161290322</v>
       </c>
-      <c r="J66">
+      <c r="L66">
         <v>-0.24</v>
       </c>
-      <c r="K66">
+      <c r="M66">
         <v>-0.01</v>
       </c>
-      <c r="L66">
+      <c r="N66">
         <v>0.362052274761824</v>
       </c>
-      <c r="M66">
+      <c r="O66">
         <v>0.10869970772404984</v>
       </c>
-      <c r="N66">
+      <c r="P66">
         <f t="shared" si="0"/>
         <v>7.2470043210973181E-2</v>
       </c>
-      <c r="O66">
+      <c r="Q66">
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A67">
         <v>66</v>
       </c>
       <c r="B67" t="s">
         <v>77</v>
       </c>
-      <c r="C67">
+      <c r="C67" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="E67">
         <v>83.036100000000005</v>
       </c>
-      <c r="D67">
+      <c r="F67">
         <v>-83.036100000000005</v>
       </c>
-      <c r="E67">
+      <c r="G67">
         <v>0.85</v>
       </c>
-      <c r="F67">
+      <c r="H67">
         <v>-0.13</v>
       </c>
-      <c r="G67">
+      <c r="I67">
         <v>-9.1157702799999994E-3</v>
       </c>
-      <c r="H67">
+      <c r="J67">
         <v>-1</v>
       </c>
-      <c r="I67">
+      <c r="K67">
         <v>-1</v>
       </c>
-      <c r="J67">
+      <c r="L67">
         <v>-0.33</v>
       </c>
-      <c r="K67">
-        <v>0</v>
-      </c>
-      <c r="L67">
+      <c r="M67">
+        <v>0</v>
+      </c>
+      <c r="N67">
         <v>0.74733785093880623</v>
       </c>
-      <c r="M67">
+      <c r="O67">
         <v>0.31073938196867706</v>
       </c>
-      <c r="N67">
-        <f t="shared" ref="N67:N130" si="1">(E67+F67+G67+H67+I67+J67+K67+L67+M67)/(9-O67)</f>
+      <c r="P67">
+        <f t="shared" ref="P67:P130" si="1">(G67+H67+I67+J67+K67+L67+M67+N67+O67)/(9-Q67)</f>
         <v>-6.2337615263612985E-2</v>
       </c>
-      <c r="O67">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="Q67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A68">
         <v>67</v>
       </c>
       <c r="B68" t="s">
         <v>78</v>
       </c>
-      <c r="C68">
+      <c r="C68" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="E68">
         <v>37.783999999999999</v>
       </c>
-      <c r="D68">
+      <c r="F68">
         <v>-79.442800000000005</v>
       </c>
-      <c r="E68">
+      <c r="G68">
         <v>0.82</v>
       </c>
-      <c r="F68">
+      <c r="H68">
         <v>-0.16</v>
       </c>
-      <c r="G68">
-        <v>0</v>
-      </c>
-      <c r="H68">
-        <v>0</v>
-      </c>
       <c r="I68">
         <v>0</v>
       </c>
       <c r="J68">
+        <v>0</v>
+      </c>
+      <c r="K68">
+        <v>0</v>
+      </c>
+      <c r="L68">
         <v>-0.14000000000000001</v>
       </c>
-      <c r="K68">
+      <c r="M68">
         <v>-0.01</v>
       </c>
-      <c r="L68">
+      <c r="N68">
         <v>0.79400825392402752</v>
       </c>
-      <c r="M68">
+      <c r="O68">
         <v>1</v>
       </c>
-      <c r="N68">
+      <c r="P68">
         <f t="shared" si="1"/>
         <v>0.38400137565400455</v>
       </c>
-      <c r="O68">
+      <c r="Q68">
         <v>3</v>
       </c>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A69">
         <v>68</v>
       </c>
       <c r="B69" t="s">
         <v>79</v>
       </c>
-      <c r="C69">
+      <c r="C69" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="E69">
         <v>39.076799999999999</v>
       </c>
-      <c r="D69">
+      <c r="F69">
         <v>-77.653599999999997</v>
       </c>
-      <c r="E69">
+      <c r="G69">
         <v>0.96</v>
       </c>
-      <c r="F69">
+      <c r="H69">
         <v>-0.11</v>
       </c>
-      <c r="G69">
+      <c r="I69">
         <v>-6.1795229399999995E-3</v>
       </c>
-      <c r="H69">
+      <c r="J69">
         <v>-0.30864197530864196</v>
       </c>
-      <c r="I69">
+      <c r="K69">
         <v>-0.4838709677419355</v>
       </c>
-      <c r="J69">
+      <c r="L69">
         <v>-0.04</v>
       </c>
-      <c r="K69">
+      <c r="M69">
         <v>-0.01</v>
       </c>
-      <c r="L69">
+      <c r="N69">
         <v>0.8648783687020235</v>
       </c>
-      <c r="M69">
+      <c r="O69">
         <v>0.64979709568958754</v>
       </c>
-      <c r="N69">
+      <c r="P69">
         <f t="shared" si="1"/>
         <v>0.16844255537789263</v>
       </c>
-      <c r="O69">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="Q69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A70">
         <v>69</v>
       </c>
       <c r="B70" t="s">
         <v>80</v>
       </c>
-      <c r="C70">
+      <c r="C70" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="E70">
         <v>37.992600000000003</v>
       </c>
-      <c r="D70">
+      <c r="F70">
         <v>-77.9739</v>
       </c>
-      <c r="E70">
+      <c r="G70">
         <v>0.94</v>
       </c>
-      <c r="F70">
+      <c r="H70">
         <v>-0.12</v>
       </c>
-      <c r="G70">
+      <c r="I70">
         <v>-6.2182023799999993E-3</v>
       </c>
-      <c r="H70">
+      <c r="J70">
         <v>-0.29629629629629628</v>
       </c>
-      <c r="I70">
+      <c r="K70">
         <v>-0.30645161290322581</v>
       </c>
-      <c r="J70">
+      <c r="L70">
         <v>-0.15</v>
       </c>
-      <c r="K70">
+      <c r="M70">
         <v>-0.01</v>
       </c>
-      <c r="L70">
+      <c r="N70">
         <v>0.79090029024518094</v>
       </c>
-      <c r="M70">
+      <c r="O70">
         <v>0.45134009090317645</v>
       </c>
-      <c r="N70">
+      <c r="P70">
         <f t="shared" si="1"/>
         <v>0.14369714106320391</v>
       </c>
-      <c r="O70">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="Q70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A71">
         <v>70</v>
       </c>
       <c r="B71" t="s">
         <v>81</v>
       </c>
-      <c r="C71">
+      <c r="C71" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="E71">
         <v>36.926099999999998</v>
       </c>
-      <c r="D71">
+      <c r="F71">
         <v>-78.247600000000006</v>
       </c>
-      <c r="E71">
+      <c r="G71">
         <v>0.8</v>
       </c>
-      <c r="F71">
+      <c r="H71">
         <v>-0.14000000000000001</v>
       </c>
-      <c r="G71">
-        <v>0</v>
-      </c>
-      <c r="H71">
+      <c r="I71">
+        <v>0</v>
+      </c>
+      <c r="J71">
         <v>-7.407407407407407E-2</v>
       </c>
-      <c r="I71">
+      <c r="K71">
         <v>-0.19354838709677419</v>
       </c>
-      <c r="J71">
+      <c r="L71">
         <v>-0.25</v>
       </c>
-      <c r="K71">
-        <v>0</v>
-      </c>
-      <c r="L71">
+      <c r="M71">
+        <v>0</v>
+      </c>
+      <c r="N71">
         <v>0.5837366891449165</v>
       </c>
-      <c r="M71">
+      <c r="O71">
         <v>0.21858093395386158</v>
       </c>
-      <c r="N71">
+      <c r="P71">
         <f t="shared" si="1"/>
         <v>0.11808689524099122</v>
       </c>
-      <c r="O71">
+      <c r="Q71">
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A72">
         <v>71</v>
       </c>
       <c r="B72" t="s">
         <v>82</v>
       </c>
-      <c r="C72">
+      <c r="C72" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="E72">
         <v>37.413800000000002</v>
       </c>
-      <c r="D72">
+      <c r="F72">
         <v>-79.142200000000003</v>
       </c>
-      <c r="E72">
+      <c r="G72">
         <v>0.86</v>
       </c>
-      <c r="F72">
+      <c r="H72">
         <v>-0.18</v>
       </c>
-      <c r="G72">
+      <c r="I72">
         <v>-9.7340604799999991E-3</v>
       </c>
-      <c r="H72">
+      <c r="J72">
         <v>-0.54320987654320985</v>
       </c>
-      <c r="I72">
+      <c r="K72">
         <v>-0.62903225806451613</v>
       </c>
-      <c r="J72">
+      <c r="L72">
         <v>-0.25</v>
       </c>
-      <c r="K72">
+      <c r="M72">
         <v>-0.09</v>
       </c>
-      <c r="L72">
+      <c r="N72">
         <v>0.49732171651479734</v>
       </c>
-      <c r="M72">
+      <c r="O72">
         <v>0.35610969472044801</v>
       </c>
-      <c r="N72">
+      <c r="P72">
         <f t="shared" si="1"/>
         <v>1.2728017941688134E-3</v>
       </c>
-      <c r="O72">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="Q72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A73">
         <v>72</v>
       </c>
       <c r="B73" t="s">
         <v>83</v>
       </c>
-      <c r="C73">
+      <c r="C73" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="E73">
         <v>38.380400000000002</v>
       </c>
-      <c r="D73">
+      <c r="F73">
         <v>-78.257499999999993</v>
       </c>
-      <c r="E73">
+      <c r="G73">
         <v>0.96</v>
       </c>
-      <c r="F73">
+      <c r="H73">
         <v>-0.17</v>
       </c>
-      <c r="G73">
-        <v>0</v>
-      </c>
-      <c r="H73">
+      <c r="I73">
+        <v>0</v>
+      </c>
+      <c r="J73">
         <v>-7.407407407407407E-2</v>
       </c>
-      <c r="I73">
+      <c r="K73">
         <v>-6.4516129032258063E-2</v>
       </c>
-      <c r="J73">
+      <c r="L73">
         <v>-0.16</v>
       </c>
-      <c r="K73">
+      <c r="M73">
         <v>-0.01</v>
       </c>
-      <c r="L73">
+      <c r="N73">
         <v>0.57405614695636431</v>
       </c>
-      <c r="M73">
+      <c r="O73">
         <v>0.27174926935974836</v>
       </c>
-      <c r="N73">
+      <c r="P73">
         <f t="shared" si="1"/>
         <v>0.16590190165122257</v>
       </c>
-      <c r="O73">
+      <c r="Q73">
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A74">
         <v>73</v>
       </c>
       <c r="B74" t="s">
         <v>84</v>
       </c>
-      <c r="C74">
+      <c r="C74" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="E74">
         <v>38.750900000000001</v>
       </c>
-      <c r="D74">
+      <c r="F74">
         <v>-77.475300000000004</v>
       </c>
-      <c r="E74">
+      <c r="G74">
         <v>0.78</v>
       </c>
-      <c r="F74">
+      <c r="H74">
         <v>-0.19</v>
       </c>
-      <c r="G74">
+      <c r="I74">
         <v>-8.6836963599999997E-3</v>
       </c>
-      <c r="H74">
+      <c r="J74">
         <v>-0.18518518518518517</v>
       </c>
-      <c r="I74">
+      <c r="K74">
         <v>-0.25806451612903225</v>
       </c>
-      <c r="J74">
+      <c r="L74">
         <v>-0.15</v>
       </c>
-      <c r="K74">
+      <c r="M74">
         <v>-0.01</v>
       </c>
-      <c r="L74">
+      <c r="N74">
         <v>0.48295890780119699</v>
       </c>
-      <c r="M74">
+      <c r="O74">
         <v>0.20415825912527272</v>
       </c>
-      <c r="N74">
+      <c r="P74">
         <f t="shared" si="1"/>
         <v>7.3909307694694712E-2</v>
       </c>
-      <c r="O74">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="Q74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A75">
         <v>74</v>
       </c>
       <c r="B75" t="s">
         <v>85</v>
       </c>
-      <c r="C75">
+      <c r="C75" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="E75">
         <v>38.783999999999999</v>
       </c>
-      <c r="D75">
+      <c r="F75">
         <v>-77.469700000000003</v>
       </c>
-      <c r="E75">
+      <c r="G75">
         <v>0.89</v>
       </c>
-      <c r="F75">
+      <c r="H75">
         <v>-0.19</v>
       </c>
-      <c r="G75">
-        <v>0</v>
-      </c>
-      <c r="H75">
+      <c r="I75">
+        <v>0</v>
+      </c>
+      <c r="J75">
         <v>-0.23456790123456789</v>
       </c>
-      <c r="I75">
+      <c r="K75">
         <v>-0.14516129032258066</v>
       </c>
-      <c r="J75">
+      <c r="L75">
         <v>-0.12</v>
       </c>
-      <c r="K75">
+      <c r="M75">
         <v>-0.11</v>
       </c>
-      <c r="L75">
+      <c r="N75">
         <v>0.55759922556109176</v>
       </c>
-      <c r="M75">
+      <c r="O75">
         <v>0.26111560234473608</v>
       </c>
-      <c r="N75">
+      <c r="P75">
         <f t="shared" si="1"/>
         <v>0.1136232045435849</v>
       </c>
-      <c r="O75">
+      <c r="Q75">
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A76">
         <v>75</v>
       </c>
       <c r="B76" t="s">
         <v>86</v>
       </c>
-      <c r="C76">
+      <c r="C76" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="E76">
         <v>36.691499999999998</v>
       </c>
-      <c r="D76">
+      <c r="F76">
         <v>-79.872500000000002</v>
       </c>
-      <c r="E76">
+      <c r="G76">
         <v>0.87</v>
       </c>
-      <c r="F76">
+      <c r="H76">
         <v>-0.15</v>
       </c>
-      <c r="G76">
+      <c r="I76">
         <v>-1.5266010219999999E-2</v>
       </c>
-      <c r="H76">
+      <c r="J76">
         <v>-0.40740740740740738</v>
       </c>
-      <c r="I76">
+      <c r="K76">
         <v>-0.532258064516129</v>
       </c>
-      <c r="J76">
+      <c r="L76">
         <v>-0.34</v>
       </c>
-      <c r="K76">
+      <c r="M76">
         <v>-0.1</v>
       </c>
-      <c r="L76">
+      <c r="N76">
         <v>0.47613925626146286</v>
       </c>
-      <c r="M76">
+      <c r="O76">
         <v>0.1752585866473659</v>
       </c>
-      <c r="N76">
+      <c r="P76">
         <f t="shared" si="1"/>
         <v>-2.6148488038564011E-3</v>
       </c>
-      <c r="O76">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="Q76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A77">
         <v>76</v>
       </c>
       <c r="B77" t="s">
         <v>87</v>
       </c>
-      <c r="C77">
+      <c r="C77" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="D77" s="1">
+        <v>115</v>
+      </c>
+      <c r="E77">
         <v>37.391199999999998</v>
       </c>
-      <c r="D77">
+      <c r="F77">
         <v>-76.317400000000006</v>
       </c>
-      <c r="E77">
+      <c r="G77">
         <v>0.94</v>
       </c>
-      <c r="F77">
+      <c r="H77">
         <v>-0.1</v>
       </c>
-      <c r="G77">
-        <v>0</v>
-      </c>
-      <c r="H77">
+      <c r="I77">
+        <v>0</v>
+      </c>
+      <c r="J77">
         <v>-0.38271604938271603</v>
       </c>
-      <c r="I77">
+      <c r="K77">
         <v>-0.17741935483870969</v>
       </c>
-      <c r="J77">
+      <c r="L77">
         <v>-0.17</v>
       </c>
-      <c r="K77">
-        <v>0</v>
-      </c>
-      <c r="L77">
+      <c r="M77">
+        <v>0</v>
+      </c>
+      <c r="N77">
         <v>0.6708281870413032</v>
       </c>
-      <c r="M77">
+      <c r="O77">
         <v>0.26347863942242489</v>
       </c>
-      <c r="N77">
+      <c r="P77">
         <f t="shared" si="1"/>
         <v>0.1305214277802878</v>
       </c>
-      <c r="O77">
+      <c r="Q77">
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A78">
         <v>77</v>
       </c>
       <c r="B78" t="s">
         <v>88</v>
       </c>
-      <c r="C78">
+      <c r="C78" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="E78">
         <v>36.642200000000003</v>
       </c>
-      <c r="D78">
+      <c r="F78">
         <v>-78.384200000000007</v>
       </c>
-      <c r="E78">
+      <c r="G78">
         <v>0.89</v>
       </c>
-      <c r="F78">
+      <c r="H78">
         <v>-0.14000000000000001</v>
       </c>
-      <c r="G78">
+      <c r="I78">
         <v>-1.8802476740000001E-2</v>
       </c>
-      <c r="H78">
+      <c r="J78">
         <v>-0.22222222222222221</v>
       </c>
-      <c r="I78">
+      <c r="K78">
         <v>-0.29032258064516131</v>
       </c>
-      <c r="J78">
+      <c r="L78">
         <v>-0.3</v>
       </c>
-      <c r="K78">
+      <c r="M78">
         <v>-0.04</v>
       </c>
-      <c r="L78">
+      <c r="N78">
         <v>0.69232566681063512</v>
       </c>
-      <c r="M78">
+      <c r="O78">
         <v>0.38782328262945487</v>
       </c>
-      <c r="N78">
+      <c r="P78">
         <f t="shared" si="1"/>
         <v>0.10653351887030071</v>
       </c>
-      <c r="O78">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="Q78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A79">
         <v>78</v>
       </c>
       <c r="B79" t="s">
         <v>89</v>
       </c>
-      <c r="C79">
+      <c r="C79" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="E79">
         <v>37.603999999999999</v>
       </c>
-      <c r="D79">
+      <c r="F79">
         <v>-76.525700000000001</v>
       </c>
-      <c r="E79">
+      <c r="G79">
         <v>0.94</v>
       </c>
-      <c r="F79">
+      <c r="H79">
         <v>-0.14000000000000001</v>
       </c>
-      <c r="G79">
-        <v>0</v>
-      </c>
-      <c r="H79">
+      <c r="I79">
+        <v>0</v>
+      </c>
+      <c r="J79">
         <v>-0.2839506172839506</v>
       </c>
-      <c r="I79">
+      <c r="K79">
         <v>-0.19354838709677419</v>
       </c>
-      <c r="J79">
+      <c r="L79">
         <v>-0.23</v>
       </c>
-      <c r="K79">
-        <v>0</v>
-      </c>
-      <c r="L79">
+      <c r="M79">
+        <v>0</v>
+      </c>
+      <c r="N79">
         <v>0.62826718277856852</v>
       </c>
-      <c r="M79">
+      <c r="O79">
         <v>0.34736645749991685</v>
       </c>
-      <c r="N79">
+      <c r="P79">
         <f t="shared" si="1"/>
         <v>0.13351682948722005</v>
       </c>
-      <c r="O79">
+      <c r="Q79">
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A80">
         <v>79</v>
       </c>
       <c r="B80" t="s">
         <v>90</v>
       </c>
-      <c r="C80">
+      <c r="C80" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="E80">
         <v>37.207000000000001</v>
       </c>
-      <c r="D80">
+      <c r="F80">
         <v>-80.410399999999996</v>
       </c>
-      <c r="E80">
+      <c r="G80">
         <v>0.95</v>
       </c>
-      <c r="F80">
+      <c r="H80">
         <v>-0.19</v>
       </c>
-      <c r="G80">
+      <c r="I80">
         <v>-5.7144606399999994E-3</v>
       </c>
-      <c r="H80">
+      <c r="J80">
         <v>-0.35802469135802467</v>
       </c>
-      <c r="I80">
+      <c r="K80">
         <v>-0.5161290322580645</v>
       </c>
-      <c r="J80">
+      <c r="L80">
         <v>-0.15</v>
       </c>
-      <c r="K80">
+      <c r="M80">
         <v>-0.04</v>
       </c>
-      <c r="L80">
+      <c r="N80">
         <v>0.75314617608930434</v>
       </c>
-      <c r="M80">
+      <c r="O80">
         <v>0.48796716643441629</v>
       </c>
-      <c r="N80">
+      <c r="P80">
         <f t="shared" si="1"/>
         <v>0.10347168425195906</v>
       </c>
-      <c r="O80">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="Q80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A81">
         <v>80</v>
       </c>
       <c r="B81" t="s">
         <v>91</v>
       </c>
-      <c r="C81">
+      <c r="C81" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="E81">
         <v>37.747900000000001</v>
       </c>
-      <c r="D81">
+      <c r="F81">
         <v>-78.883600000000001</v>
       </c>
-      <c r="E81">
+      <c r="G81">
         <v>0.92</v>
       </c>
-      <c r="F81">
+      <c r="H81">
         <v>-0.14000000000000001</v>
       </c>
-      <c r="G81">
-        <v>0</v>
-      </c>
-      <c r="H81">
+      <c r="I81">
+        <v>0</v>
+      </c>
+      <c r="J81">
         <v>-0.30864197530864196</v>
       </c>
-      <c r="I81">
+      <c r="K81">
         <v>-0.29032258064516131</v>
       </c>
-      <c r="J81">
+      <c r="L81">
         <v>-0.2</v>
       </c>
-      <c r="K81">
+      <c r="M81">
         <v>-0.03</v>
       </c>
-      <c r="L81">
+      <c r="N81">
         <v>0.62689855443383535</v>
       </c>
-      <c r="M81">
+      <c r="O81">
         <v>0.30796892472799531</v>
       </c>
-      <c r="N81">
+      <c r="P81">
         <f t="shared" si="1"/>
         <v>0.11073786540100343</v>
       </c>
-      <c r="O81">
+      <c r="Q81">
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A82">
         <v>81</v>
       </c>
       <c r="B82" t="s">
         <v>92</v>
       </c>
-      <c r="C82">
+      <c r="C82" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="E82">
         <v>37.465400000000002</v>
       </c>
-      <c r="D82">
+      <c r="F82">
         <v>-76.964299999999994</v>
       </c>
-      <c r="E82">
+      <c r="G82">
         <v>0.94</v>
       </c>
-      <c r="F82">
+      <c r="H82">
         <v>-0.13</v>
       </c>
-      <c r="G82">
-        <v>0</v>
-      </c>
-      <c r="H82">
+      <c r="I82">
+        <v>0</v>
+      </c>
+      <c r="J82">
         <v>-0.1111111111111111</v>
       </c>
-      <c r="I82">
+      <c r="K82">
         <v>-4.8387096774193547E-2</v>
       </c>
-      <c r="J82">
+      <c r="L82">
         <v>-7.0000000000000007E-2</v>
       </c>
-      <c r="K82">
-        <v>0</v>
-      </c>
-      <c r="L82">
+      <c r="M82">
+        <v>0</v>
+      </c>
+      <c r="N82">
         <v>0.78111960482331977</v>
       </c>
-      <c r="M82">
+      <c r="O82">
         <v>0.39352716524218045</v>
       </c>
-      <c r="N82">
+      <c r="P82">
         <f t="shared" si="1"/>
         <v>0.21939357027252443</v>
       </c>
-      <c r="O82">
+      <c r="Q82">
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A83">
         <v>82</v>
       </c>
       <c r="B83" t="s">
         <v>93</v>
       </c>
-      <c r="C83">
+      <c r="C83" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="E83">
         <v>37.0871</v>
       </c>
-      <c r="D83">
+      <c r="F83">
         <v>-76.472999999999999</v>
       </c>
-      <c r="E83">
+      <c r="G83">
         <v>0.93</v>
       </c>
-      <c r="F83">
+      <c r="H83">
         <v>-0.18</v>
       </c>
-      <c r="G83">
+      <c r="I83">
         <v>-1.1435232719999999E-2</v>
       </c>
-      <c r="H83">
+      <c r="J83">
         <v>-0.51851851851851849</v>
       </c>
-      <c r="I83">
+      <c r="K83">
         <v>-0.59677419354838712</v>
       </c>
-      <c r="J83">
+      <c r="L83">
         <v>-0.22</v>
       </c>
-      <c r="K83">
+      <c r="M83">
         <v>-0.06</v>
       </c>
-      <c r="L83">
+      <c r="N83">
         <v>0.49822523395920415</v>
       </c>
-      <c r="M83">
+      <c r="O83">
         <v>0.32192442442311925</v>
       </c>
-      <c r="N83">
+      <c r="P83">
         <f t="shared" si="1"/>
         <v>1.8157968177268637E-2</v>
       </c>
-      <c r="O83">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="Q83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A84">
         <v>83</v>
       </c>
       <c r="B84" t="s">
         <v>94</v>
       </c>
-      <c r="C84">
+      <c r="C84" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="E84">
         <v>36.8508</v>
       </c>
-      <c r="D84">
+      <c r="F84">
         <v>-76.285899999999998</v>
       </c>
-      <c r="E84">
+      <c r="G84">
         <v>0.82</v>
       </c>
-      <c r="F84">
+      <c r="H84">
         <v>-0.23</v>
       </c>
-      <c r="G84">
+      <c r="I84">
         <v>-1.4495586179999999E-2</v>
       </c>
-      <c r="H84">
+      <c r="J84">
         <v>-0.65432098765432101</v>
       </c>
-      <c r="I84">
+      <c r="K84">
         <v>-0.74193548387096775</v>
       </c>
-      <c r="J84">
+      <c r="L84">
         <v>-0.28000000000000003</v>
       </c>
-      <c r="K84">
+      <c r="M84">
         <v>-0.08</v>
       </c>
-      <c r="L84">
+      <c r="N84">
         <v>0.48889860418113451</v>
       </c>
-      <c r="M84">
+      <c r="O84">
         <v>0.31897189819664779</v>
       </c>
-      <c r="N84">
+      <c r="P84">
         <f t="shared" si="1"/>
         <v>-4.1431283925278527E-2</v>
       </c>
-      <c r="O84">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="Q84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A85">
         <v>84</v>
       </c>
       <c r="B85" t="s">
         <v>95</v>
       </c>
-      <c r="C85">
+      <c r="C85" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="E85">
         <v>37.226799999999997</v>
       </c>
-      <c r="D85">
+      <c r="F85">
         <v>-75.992800000000003</v>
       </c>
-      <c r="E85">
+      <c r="G85">
         <v>0.91</v>
       </c>
-      <c r="F85">
+      <c r="H85">
         <v>-0.15</v>
       </c>
-      <c r="G85">
+      <c r="I85">
         <v>-1.6726603659999999E-2</v>
       </c>
-      <c r="H85">
+      <c r="J85">
         <v>-6.1728395061728392E-2</v>
       </c>
-      <c r="I85">
+      <c r="K85">
         <v>-9.6774193548387094E-2</v>
       </c>
-      <c r="J85">
+      <c r="L85">
         <v>-0.3</v>
       </c>
-      <c r="K85">
-        <v>0</v>
-      </c>
-      <c r="L85">
+      <c r="M85">
+        <v>0</v>
+      </c>
+      <c r="N85">
         <v>0.45595353339445893</v>
       </c>
-      <c r="M85">
+      <c r="O85">
         <v>0.17368322881612344</v>
       </c>
-      <c r="N85">
+      <c r="P85">
         <f t="shared" si="1"/>
         <v>0.10160084110449631</v>
       </c>
-      <c r="O85">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="Q85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A86">
         <v>85</v>
       </c>
       <c r="B86" t="s">
         <v>96</v>
       </c>
-      <c r="C86">
+      <c r="C86" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="E86">
         <v>37.903599999999997</v>
       </c>
-      <c r="D86">
+      <c r="F86">
         <v>-76.41</v>
       </c>
-      <c r="E86">
+      <c r="G86">
         <v>0.95</v>
       </c>
-      <c r="F86">
+      <c r="H86">
         <v>-0.15</v>
       </c>
-      <c r="G86">
-        <v>0</v>
-      </c>
-      <c r="H86">
+      <c r="I86">
+        <v>0</v>
+      </c>
+      <c r="J86">
         <v>-0.12345679012345678</v>
       </c>
-      <c r="I86">
+      <c r="K86">
         <v>-0.14516129032258066</v>
       </c>
-      <c r="J86">
+      <c r="L86">
         <v>-0.27</v>
       </c>
-      <c r="K86">
+      <c r="M86">
         <v>-0.01</v>
       </c>
-      <c r="L86">
+      <c r="N86">
         <v>0.66795740558899963</v>
       </c>
-      <c r="M86">
+      <c r="O86">
         <v>0.25402649078084438</v>
       </c>
-      <c r="N86">
+      <c r="P86">
         <f t="shared" si="1"/>
         <v>0.14667072699047581</v>
       </c>
-      <c r="O86">
+      <c r="Q86">
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A87">
         <v>86</v>
       </c>
       <c r="B87" t="s">
         <v>97</v>
       </c>
-      <c r="C87">
+      <c r="C87" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="E87">
         <v>36.933399999999999</v>
       </c>
-      <c r="D87">
+      <c r="F87">
         <v>-82.629000000000005</v>
       </c>
-      <c r="E87">
+      <c r="G87">
         <v>0.95</v>
       </c>
-      <c r="F87">
+      <c r="H87">
         <v>-0.23</v>
       </c>
-      <c r="G87">
-        <v>0</v>
-      </c>
-      <c r="H87">
-        <v>0</v>
-      </c>
-      <c r="I87" t="e">
+      <c r="I87">
+        <v>0</v>
+      </c>
+      <c r="J87">
+        <v>0</v>
+      </c>
+      <c r="K87" t="e">
         <v>#VALUE!</v>
       </c>
-      <c r="J87">
+      <c r="L87">
         <v>-0.31</v>
       </c>
-      <c r="K87">
+      <c r="M87">
         <v>-0.02</v>
       </c>
-      <c r="L87">
+      <c r="N87">
         <v>0.80929332029500822</v>
       </c>
-      <c r="M87">
+      <c r="O87">
         <v>0.23039611967313092</v>
       </c>
-      <c r="N87" t="e">
+      <c r="P87" t="e">
         <f t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
-      <c r="O87">
+      <c r="Q87">
         <v>2</v>
       </c>
     </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A88">
         <v>87</v>
       </c>
       <c r="B88" t="s">
         <v>98</v>
       </c>
-      <c r="C88">
+      <c r="C88" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="E88">
         <v>37.114800000000002</v>
       </c>
-      <c r="D88">
+      <c r="F88">
         <v>-78.019499999999994</v>
       </c>
-      <c r="E88">
+      <c r="G88">
         <v>0.91</v>
       </c>
-      <c r="F88">
+      <c r="H88">
         <v>-0.17</v>
       </c>
-      <c r="G88">
+      <c r="I88">
         <v>-1.2903225799999999E-2</v>
       </c>
-      <c r="H88">
+      <c r="J88">
         <v>-0.22222222222222221</v>
       </c>
-      <c r="I88">
+      <c r="K88">
         <v>-0.27419354838709675</v>
       </c>
-      <c r="J88">
+      <c r="L88">
         <v>-0.28000000000000003</v>
       </c>
-      <c r="K88">
+      <c r="M88">
         <v>-0.3</v>
       </c>
-      <c r="L88">
+      <c r="N88">
         <v>0.54791868337253957</v>
       </c>
-      <c r="M88">
+      <c r="O88">
         <v>0.19613208121957992</v>
       </c>
-      <c r="N88">
+      <c r="P88">
         <f t="shared" si="1"/>
         <v>4.3859085353644495E-2</v>
       </c>
-      <c r="O88">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="Q88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A89">
         <v>88</v>
       </c>
       <c r="B89" t="s">
         <v>99</v>
       </c>
-      <c r="C89">
+      <c r="C89" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="E89">
         <v>38.242699999999999</v>
       </c>
-      <c r="D89">
+      <c r="F89">
         <v>-77.9739</v>
       </c>
-      <c r="E89">
+      <c r="G89">
         <v>0.93</v>
       </c>
-      <c r="F89">
+      <c r="H89">
         <v>-0.13</v>
       </c>
-      <c r="G89">
+      <c r="I89">
         <v>-6.7393013599999999E-3</v>
       </c>
-      <c r="H89">
+      <c r="J89">
         <v>-0.1728395061728395</v>
       </c>
-      <c r="I89">
+      <c r="K89">
         <v>-9.6774193548387094E-2</v>
       </c>
-      <c r="J89">
+      <c r="L89">
         <v>-0.13</v>
       </c>
-      <c r="K89">
+      <c r="M89">
         <v>-0.08</v>
       </c>
-      <c r="L89">
+      <c r="N89">
         <v>0.72877791486766885</v>
       </c>
-      <c r="M89">
+      <c r="O89">
         <v>0.35359998629145073</v>
       </c>
-      <c r="N89">
+      <c r="P89">
         <f t="shared" si="1"/>
         <v>0.15511387778643257</v>
       </c>
-      <c r="O89">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="Q89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A90">
         <v>89</v>
       </c>
       <c r="B90" t="s">
         <v>100</v>
       </c>
-      <c r="C90">
+      <c r="C90" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="E90">
         <v>38.630099999999999</v>
       </c>
-      <c r="D90">
+      <c r="F90">
         <v>-78.520700000000005</v>
       </c>
-      <c r="E90">
+      <c r="G90">
         <v>1</v>
       </c>
-      <c r="F90">
+      <c r="H90">
         <v>-0.13</v>
       </c>
-      <c r="G90">
+      <c r="I90">
         <v>-9.2635479400000002E-3</v>
       </c>
-      <c r="H90">
+      <c r="J90">
         <v>-0.66666666666666663</v>
       </c>
-      <c r="I90">
+      <c r="K90">
         <v>-0.54838709677419351</v>
       </c>
-      <c r="J90">
+      <c r="L90">
         <v>-0.19</v>
       </c>
-      <c r="K90">
+      <c r="M90">
         <v>-0.01</v>
       </c>
-      <c r="L90">
+      <c r="N90">
         <v>0.62245885762807029</v>
       </c>
-      <c r="M90">
+      <c r="O90">
         <v>0.25875256526704721</v>
       </c>
-      <c r="N90">
+      <c r="P90">
         <f t="shared" si="1"/>
         <v>3.6321567946028595E-2</v>
       </c>
-      <c r="O90">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="Q90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A91">
         <v>90</v>
       </c>
       <c r="B91" t="s">
         <v>101</v>
       </c>
-      <c r="C91">
+      <c r="C91" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="E91">
         <v>36.688600000000001</v>
       </c>
-      <c r="D91">
+      <c r="F91">
         <v>-80.321299999999994</v>
       </c>
-      <c r="E91">
+      <c r="G91">
         <v>0.93</v>
       </c>
-      <c r="F91">
+      <c r="H91">
         <v>-0.13</v>
       </c>
-      <c r="G91">
-        <v>0</v>
-      </c>
-      <c r="H91">
+      <c r="I91">
+        <v>0</v>
+      </c>
+      <c r="J91">
         <v>-0.24691358024691357</v>
       </c>
-      <c r="I91">
+      <c r="K91">
         <v>-0.33870967741935482</v>
       </c>
-      <c r="J91">
+      <c r="L91">
         <v>-0.23</v>
       </c>
-      <c r="K91">
+      <c r="M91">
         <v>-0.05</v>
       </c>
-      <c r="L91">
+      <c r="N91">
         <v>0.83626531344327315</v>
       </c>
-      <c r="M91">
+      <c r="O91">
         <v>0.45284754553933265</v>
       </c>
-      <c r="N91">
+      <c r="P91">
         <f t="shared" si="1"/>
         <v>0.15293620016454218</v>
       </c>
-      <c r="O91">
+      <c r="Q91">
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A92">
         <v>91</v>
       </c>
       <c r="B92" t="s">
         <v>102</v>
       </c>
-      <c r="C92">
+      <c r="C92" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="E92">
         <v>37.227899999999998</v>
       </c>
-      <c r="D92">
+      <c r="F92">
         <v>-77.401899999999998</v>
       </c>
-      <c r="E92">
+      <c r="G92">
         <v>0.83</v>
       </c>
-      <c r="F92">
+      <c r="H92">
         <v>-0.25</v>
       </c>
-      <c r="G92">
+      <c r="I92">
         <v>-2.3879096359999998E-2</v>
       </c>
-      <c r="H92">
+      <c r="J92">
         <v>-0.39506172839506171</v>
       </c>
-      <c r="I92">
+      <c r="K92">
         <v>-0.5161290322580645</v>
       </c>
-      <c r="J92">
+      <c r="L92">
         <v>-0.39</v>
       </c>
-      <c r="K92">
+      <c r="M92">
         <v>-0.21</v>
       </c>
-      <c r="L92">
-        <v>0</v>
-      </c>
-      <c r="M92">
-        <v>0</v>
-      </c>
       <c r="N92">
+        <v>0</v>
+      </c>
+      <c r="O92">
+        <v>0</v>
+      </c>
+      <c r="P92">
         <f t="shared" si="1"/>
         <v>-0.10611887300145846</v>
       </c>
-      <c r="O92">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="Q92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A93">
         <v>92</v>
       </c>
       <c r="B93" t="s">
         <v>103</v>
       </c>
-      <c r="C93">
+      <c r="C93" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="E93">
         <v>36.744</v>
       </c>
-      <c r="D93">
+      <c r="F93">
         <v>-79.470399999999998</v>
       </c>
-      <c r="E93">
+      <c r="G93">
         <v>0.91</v>
       </c>
-      <c r="F93">
+      <c r="H93">
         <v>-0.12</v>
       </c>
-      <c r="G93">
+      <c r="I93">
         <v>-1.037680784E-2</v>
       </c>
-      <c r="H93">
+      <c r="J93">
         <v>-0.32098765432098764</v>
       </c>
-      <c r="I93">
+      <c r="K93">
         <v>-0.40322580645161288</v>
       </c>
-      <c r="J93">
+      <c r="L93">
         <v>-0.22</v>
       </c>
-      <c r="K93">
+      <c r="M93">
         <v>-0.06</v>
       </c>
-      <c r="L93">
+      <c r="N93">
         <v>0.83252662143911138</v>
       </c>
-      <c r="M93">
+      <c r="O93">
         <v>0.47300126439101159</v>
       </c>
-      <c r="N93">
+      <c r="P93">
         <f t="shared" si="1"/>
         <v>0.12010417969083582</v>
       </c>
-      <c r="O93">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="Q93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A94">
         <v>93</v>
       </c>
       <c r="B94" t="s">
         <v>104</v>
       </c>
-      <c r="C94">
+      <c r="C94" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="D94" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="E94">
         <v>37.122399999999999</v>
       </c>
-      <c r="D94">
+      <c r="F94">
         <v>-76.345799999999997</v>
       </c>
-      <c r="E94">
+      <c r="G94">
         <v>0.96</v>
       </c>
-      <c r="F94">
+      <c r="H94">
         <v>-0.09</v>
       </c>
-      <c r="G94">
-        <v>0</v>
-      </c>
-      <c r="H94">
+      <c r="I94">
+        <v>0</v>
+      </c>
+      <c r="J94">
         <v>-0.4567901234567901</v>
       </c>
-      <c r="I94">
+      <c r="K94">
         <v>-0.33870967741935482</v>
       </c>
-      <c r="J94">
+      <c r="L94">
         <v>-0.05</v>
       </c>
-      <c r="K94">
+      <c r="M94">
         <v>-0.05</v>
       </c>
-      <c r="L94">
+      <c r="N94">
         <v>0.95643756042256989</v>
       </c>
-      <c r="M94">
+      <c r="O94">
         <v>0.56831042839913715</v>
       </c>
-      <c r="N94">
+      <c r="P94">
         <f t="shared" si="1"/>
         <v>0.18740602349319527</v>
       </c>
-      <c r="O94">
+      <c r="Q94">
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A95">
         <v>94</v>
       </c>
       <c r="B95" t="s">
         <v>105</v>
       </c>
-      <c r="C95">
+      <c r="C95" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="D95" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="E95">
         <v>36.8354</v>
       </c>
-      <c r="D95">
+      <c r="F95">
         <v>-76.298299999999998</v>
       </c>
-      <c r="E95">
+      <c r="G95">
         <v>0.86</v>
       </c>
-      <c r="F95">
+      <c r="H95">
         <v>-0.21</v>
       </c>
-      <c r="G95">
+      <c r="I95">
         <v>-1.6157631339999999E-2</v>
       </c>
-      <c r="H95">
+      <c r="J95">
         <v>-0.66666666666666663</v>
       </c>
-      <c r="I95">
+      <c r="K95">
         <v>-0.82258064516129037</v>
       </c>
-      <c r="J95">
+      <c r="L95">
         <v>-0.28999999999999998</v>
       </c>
-      <c r="K95">
+      <c r="M95">
         <v>-0.04</v>
       </c>
-      <c r="L95">
+      <c r="N95">
         <v>0.5424975797903191</v>
       </c>
-      <c r="M95">
+      <c r="O95">
         <v>0.26788964194538895</v>
       </c>
-      <c r="N95">
+      <c r="P95">
         <f t="shared" si="1"/>
         <v>-4.1668635714694327E-2</v>
       </c>
-      <c r="O95">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="Q95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A96">
         <v>95</v>
       </c>
       <c r="B96" t="s">
         <v>106</v>
       </c>
-      <c r="C96">
+      <c r="C96" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="D96" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="E96">
         <v>37.564300000000003</v>
       </c>
-      <c r="D96">
+      <c r="F96">
         <v>-77.882499999999993</v>
       </c>
-      <c r="E96">
+      <c r="G96">
         <v>0.94</v>
       </c>
-      <c r="F96">
+      <c r="H96">
         <v>-0.13</v>
       </c>
-      <c r="G96">
+      <c r="I96">
         <v>-6.9993700599999993E-3</v>
       </c>
-      <c r="H96">
+      <c r="J96">
         <v>-0.35802469135802467</v>
       </c>
-      <c r="I96">
+      <c r="K96">
         <v>-0.29032258064516131</v>
       </c>
-      <c r="J96">
+      <c r="L96">
         <v>-0.08</v>
       </c>
-      <c r="K96">
+      <c r="M96">
         <v>-0.02</v>
       </c>
-      <c r="L96">
+      <c r="N96">
         <v>0.78218780238390606</v>
       </c>
-      <c r="M96">
+      <c r="O96">
         <v>0.36863379152994152</v>
       </c>
-      <c r="N96">
+      <c r="P96">
         <f t="shared" si="1"/>
         <v>0.13394166131674018</v>
       </c>
-      <c r="O96">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="Q96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A97">
         <v>96</v>
       </c>
       <c r="B97" t="s">
         <v>107</v>
       </c>
-      <c r="C97">
+      <c r="C97" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="D97" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="E97">
         <v>37.198300000000003</v>
       </c>
-      <c r="D97">
+      <c r="F97">
         <v>-78.429699999999997</v>
       </c>
-      <c r="E97">
+      <c r="G97">
         <v>0.89</v>
       </c>
-      <c r="F97">
+      <c r="H97">
         <v>-0.13</v>
       </c>
-      <c r="G97">
-        <v>0</v>
-      </c>
-      <c r="H97">
+      <c r="I97">
+        <v>0</v>
+      </c>
+      <c r="J97">
         <v>-0.14814814814814814</v>
       </c>
-      <c r="I97">
+      <c r="K97">
         <v>-0.17741935483870969</v>
       </c>
-      <c r="J97">
+      <c r="L97">
         <v>-0.28000000000000003</v>
       </c>
-      <c r="K97">
+      <c r="M97">
         <v>-0.12</v>
       </c>
-      <c r="L97">
+      <c r="N97">
         <v>0.26331074530596787</v>
       </c>
-      <c r="M97">
+      <c r="O97">
         <v>0.14887133887182288</v>
       </c>
-      <c r="N97">
+      <c r="P97">
         <f t="shared" si="1"/>
         <v>5.5826822648866611E-2</v>
       </c>
-      <c r="O97">
+      <c r="Q97">
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A98">
         <v>97</v>
       </c>
       <c r="B98" t="s">
         <v>108</v>
       </c>
-      <c r="C98">
+      <c r="C98" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="D98" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="E98">
         <v>37.159300000000002</v>
       </c>
-      <c r="D98">
+      <c r="F98">
         <v>-77.240499999999997</v>
       </c>
-      <c r="E98">
+      <c r="G98">
         <v>0.91</v>
       </c>
-      <c r="F98">
+      <c r="H98">
         <v>-0.13</v>
       </c>
-      <c r="G98">
+      <c r="I98">
         <v>-7.9168205999999991E-3</v>
       </c>
-      <c r="H98">
+      <c r="J98">
         <v>-0.23456790123456789</v>
       </c>
-      <c r="I98">
+      <c r="K98">
         <v>-0.27419354838709675</v>
       </c>
-      <c r="J98">
+      <c r="L98">
         <v>-0.11</v>
       </c>
-      <c r="K98">
+      <c r="M98">
         <v>-0.1</v>
       </c>
-      <c r="L98">
+      <c r="N98">
         <v>0.76379477233407878</v>
       </c>
-      <c r="M98">
+      <c r="O98">
         <v>0.30719482618673122</v>
       </c>
-      <c r="N98">
+      <c r="P98">
         <f t="shared" si="1"/>
         <v>0.12492348092212728</v>
       </c>
-      <c r="O98">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="Q98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A99">
         <v>98</v>
       </c>
       <c r="B99" t="s">
         <v>109</v>
       </c>
-      <c r="C99">
+      <c r="C99" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="D99" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="E99">
         <v>38.783900000000003</v>
       </c>
-      <c r="D99">
+      <c r="F99">
         <v>-77.607799999999997</v>
       </c>
-      <c r="E99">
+      <c r="G99">
         <v>0.92</v>
       </c>
-      <c r="F99">
+      <c r="H99">
         <v>-0.16</v>
       </c>
-      <c r="G99">
+      <c r="I99">
         <v>-7.7066397599999999E-3</v>
       </c>
-      <c r="H99">
+      <c r="J99">
         <v>-0.41975308641975306</v>
       </c>
-      <c r="I99">
+      <c r="K99">
         <v>-0.43548387096774194</v>
       </c>
-      <c r="J99">
+      <c r="L99">
         <v>-0.09</v>
       </c>
-      <c r="K99">
+      <c r="M99">
         <v>-0.03</v>
       </c>
-      <c r="L99">
+      <c r="N99">
         <v>0.76520001237290991</v>
       </c>
-      <c r="M99">
+      <c r="O99">
         <v>0.50039216786425267</v>
       </c>
-      <c r="N99">
+      <c r="P99">
         <f t="shared" si="1"/>
         <v>0.11584984256551863</v>
       </c>
-      <c r="O99">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="Q99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A100">
         <v>99</v>
       </c>
       <c r="B100" t="s">
         <v>110</v>
       </c>
-      <c r="C100">
+      <c r="C100" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="D100" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="E100">
         <v>37.047899999999998</v>
       </c>
-      <c r="D100">
+      <c r="F100">
         <v>-80.779799999999994</v>
       </c>
-      <c r="E100">
+      <c r="G100">
         <v>0.95</v>
       </c>
-      <c r="F100">
+      <c r="H100">
         <v>-0.09</v>
       </c>
-      <c r="G100">
+      <c r="I100">
         <v>-7.0105742800000001E-3</v>
       </c>
-      <c r="H100">
+      <c r="J100">
         <v>-0.19753086419753085</v>
       </c>
-      <c r="I100">
+      <c r="K100">
         <v>-0.17741935483870969</v>
       </c>
-      <c r="J100">
+      <c r="L100">
         <v>-0.21</v>
       </c>
-      <c r="K100">
+      <c r="M100">
         <v>-0.06</v>
       </c>
-      <c r="L100">
+      <c r="N100">
         <v>0.65634075501694789</v>
       </c>
-      <c r="M100">
+      <c r="O100">
         <v>0.30010571495366467</v>
       </c>
-      <c r="N100">
+      <c r="P100">
         <f t="shared" si="1"/>
         <v>0.12938729740604135</v>
       </c>
-      <c r="O100">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="Q100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A101">
         <v>100</v>
       </c>
       <c r="B101" t="s">
         <v>111</v>
       </c>
-      <c r="C101">
+      <c r="C101" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="D101" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="E101">
         <v>37.131799999999998</v>
       </c>
-      <c r="D101">
+      <c r="F101">
         <v>-80.576400000000007</v>
       </c>
-      <c r="E101">
+      <c r="G101">
         <v>0.97</v>
       </c>
-      <c r="F101">
+      <c r="H101">
         <v>-0.25</v>
       </c>
-      <c r="G101">
-        <v>0</v>
-      </c>
-      <c r="H101">
+      <c r="I101">
+        <v>0</v>
+      </c>
+      <c r="J101">
         <v>-0.16049382716049382</v>
       </c>
-      <c r="I101">
+      <c r="K101">
         <v>-0.24193548387096775</v>
       </c>
-      <c r="J101">
+      <c r="L101">
         <v>-0.18</v>
       </c>
-      <c r="K101">
+      <c r="M101">
         <v>-7.0000000000000007E-2</v>
       </c>
-      <c r="L101">
+      <c r="N101">
         <v>0.78333512610132294</v>
       </c>
-      <c r="M101">
+      <c r="O101">
         <v>0.54774325347873687</v>
       </c>
-      <c r="N101">
+      <c r="P101">
         <f t="shared" si="1"/>
         <v>0.17483113356857477</v>
       </c>
-      <c r="O101">
+      <c r="Q101">
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A102">
         <v>101</v>
       </c>
       <c r="B102" t="s">
         <v>112</v>
       </c>
-      <c r="C102">
+      <c r="C102" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="D102" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="E102">
         <v>38.676200000000001</v>
       </c>
-      <c r="D102">
+      <c r="F102">
         <v>-78.156400000000005</v>
       </c>
-      <c r="E102">
+      <c r="G102">
         <v>0.95</v>
       </c>
-      <c r="F102">
+      <c r="H102">
         <v>-0.16</v>
       </c>
-      <c r="G102">
-        <v>0</v>
-      </c>
-      <c r="H102">
+      <c r="I102">
+        <v>0</v>
+      </c>
+      <c r="J102">
         <v>-0.41975308641975306</v>
       </c>
-      <c r="I102">
+      <c r="K102">
         <v>-0.54838709677419351</v>
       </c>
-      <c r="J102">
+      <c r="L102">
         <v>-0.14000000000000001</v>
       </c>
-      <c r="K102">
+      <c r="M102">
         <v>-0.21</v>
       </c>
-      <c r="L102">
+      <c r="N102">
         <v>0.86150148548782202</v>
       </c>
-      <c r="M102">
+      <c r="O102">
         <v>0.35816309264629131</v>
       </c>
-      <c r="N102">
+      <c r="P102">
         <f t="shared" si="1"/>
         <v>8.6440549367520839E-2</v>
       </c>
-      <c r="O102">
+      <c r="Q102">
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A103">
         <v>102</v>
       </c>
       <c r="B103" t="s">
         <v>113</v>
       </c>
-      <c r="C103">
+      <c r="C103" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="D103" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="E103">
         <v>37.9176</v>
       </c>
-      <c r="D103">
+      <c r="F103">
         <v>-76.710599999999999</v>
       </c>
-      <c r="E103">
+      <c r="G103">
         <v>0.95</v>
       </c>
-      <c r="F103">
+      <c r="H103">
         <v>-0.17</v>
       </c>
-      <c r="G103">
-        <v>0</v>
-      </c>
-      <c r="H103">
+      <c r="I103">
+        <v>0</v>
+      </c>
+      <c r="J103">
         <v>-0.14814814814814814</v>
       </c>
-      <c r="I103">
+      <c r="K103">
         <v>-0.22580645161290322</v>
       </c>
-      <c r="J103">
+      <c r="L103">
         <v>-0.23</v>
       </c>
-      <c r="K103">
+      <c r="M103">
         <v>-0.02</v>
       </c>
-      <c r="L103">
+      <c r="N103">
         <v>0.68997167536805204</v>
       </c>
-      <c r="M103">
+      <c r="O103">
         <v>0.22426972696767913</v>
       </c>
-      <c r="N103">
+      <c r="P103">
         <f t="shared" si="1"/>
         <v>0.13378585032183496</v>
       </c>
-      <c r="O103">
+      <c r="Q103">
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A104">
         <v>103</v>
       </c>
       <c r="B104" t="s">
         <v>114</v>
       </c>
-      <c r="C104">
+      <c r="C104" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="D104" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="E104">
         <v>37.540700000000001</v>
       </c>
-      <c r="D104">
+      <c r="F104">
         <v>-77.436000000000007</v>
       </c>
-      <c r="E104">
+      <c r="G104">
         <v>0.75</v>
       </c>
-      <c r="F104">
+      <c r="H104">
         <v>-0.24</v>
       </c>
-      <c r="G104">
+      <c r="I104">
         <v>-0.35143050240000001</v>
       </c>
-      <c r="H104">
+      <c r="J104">
         <v>-0.67901234567901236</v>
       </c>
-      <c r="I104">
+      <c r="K104">
         <v>-0.83870967741935487</v>
       </c>
-      <c r="J104">
+      <c r="L104">
         <v>-0.35</v>
       </c>
-      <c r="K104">
+      <c r="M104">
         <v>-0.08</v>
       </c>
-      <c r="L104">
+      <c r="N104">
         <v>0.15139118742701954</v>
       </c>
-      <c r="M104">
+      <c r="O104">
         <v>0.22399305123851185</v>
       </c>
-      <c r="N104">
+      <c r="P104">
         <f t="shared" si="1"/>
         <v>-0.15708536520364846</v>
       </c>
-      <c r="O104">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="105" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="Q104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A105">
         <v>104</v>
       </c>
       <c r="B105" t="s">
         <v>115</v>
       </c>
-      <c r="C105">
+      <c r="C105" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="D105" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="E105">
         <v>37.246699999999997</v>
       </c>
-      <c r="D105">
+      <c r="F105">
         <v>-80.120500000000007</v>
       </c>
-      <c r="E105">
+      <c r="G105">
         <v>0.95</v>
       </c>
-      <c r="F105">
+      <c r="H105">
         <v>-0.11</v>
       </c>
-      <c r="G105">
+      <c r="I105">
         <v>-6.4243482799999996E-3</v>
       </c>
-      <c r="H105">
+      <c r="J105">
         <v>-0.40740740740740738</v>
       </c>
-      <c r="I105">
+      <c r="K105">
         <v>-0.37096774193548387</v>
       </c>
-      <c r="J105">
+      <c r="L105">
         <v>-0.08</v>
       </c>
-      <c r="K105">
+      <c r="M105">
         <v>-0.03</v>
       </c>
-      <c r="L105">
+      <c r="N105">
         <v>0.87137786368800585</v>
       </c>
-      <c r="M105">
+      <c r="O105">
         <v>0.51931679204002323</v>
       </c>
-      <c r="N105">
+      <c r="P105">
         <f t="shared" si="1"/>
         <v>0.1484327953450153</v>
       </c>
-      <c r="O105">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="106" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="Q105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A106">
         <v>105</v>
       </c>
       <c r="B106" t="s">
         <v>116</v>
       </c>
-      <c r="C106">
+      <c r="C106" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="D106" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="E106">
         <v>37.271000000000001</v>
       </c>
-      <c r="D106">
+      <c r="F106">
         <v>-79.941400000000002</v>
       </c>
-      <c r="E106">
+      <c r="G106">
         <v>0.9</v>
       </c>
-      <c r="F106">
+      <c r="H106">
         <v>-0.19</v>
       </c>
-      <c r="G106">
+      <c r="I106">
         <v>-1.325026982E-2</v>
       </c>
-      <c r="H106">
+      <c r="J106">
         <v>-0.71604938271604934</v>
       </c>
-      <c r="I106">
+      <c r="K106">
         <v>-0.80645161290322576</v>
       </c>
-      <c r="J106">
+      <c r="L106">
         <v>-0.32</v>
       </c>
-      <c r="K106">
+      <c r="M106">
         <v>-0.08</v>
       </c>
-      <c r="L106">
+      <c r="N106">
         <v>0.59490158099476464</v>
       </c>
-      <c r="M106">
+      <c r="O106">
         <v>0.41014447686735311</v>
       </c>
-      <c r="N106">
+      <c r="P106">
         <f t="shared" si="1"/>
         <v>-2.4522800841906389E-2</v>
       </c>
-      <c r="O106">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="107" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="Q106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A107">
         <v>106</v>
       </c>
       <c r="B107" t="s">
         <v>117</v>
       </c>
-      <c r="C107">
+      <c r="C107" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="D107" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="E107">
         <v>37.806199999999997</v>
       </c>
-      <c r="D107">
+      <c r="F107">
         <v>-79.5154</v>
       </c>
-      <c r="E107">
+      <c r="G107">
         <v>0.91</v>
       </c>
-      <c r="F107">
+      <c r="H107">
         <v>-0.12</v>
       </c>
-      <c r="G107">
-        <v>0</v>
-      </c>
-      <c r="H107">
+      <c r="I107">
+        <v>0</v>
+      </c>
+      <c r="J107">
         <v>-0.44444444444444442</v>
       </c>
-      <c r="I107">
+      <c r="K107">
         <v>-0.38709677419354838</v>
       </c>
-      <c r="J107">
+      <c r="L107">
         <v>-0.17</v>
       </c>
-      <c r="K107">
+      <c r="M107">
         <v>-0.05</v>
       </c>
-      <c r="L107">
+      <c r="N107">
         <v>0.69519199726584235</v>
       </c>
-      <c r="M107">
+      <c r="O107">
         <v>0.45535725396832999</v>
       </c>
-      <c r="N107">
+      <c r="P107">
         <f t="shared" si="1"/>
         <v>0.11112600407452244</v>
       </c>
-      <c r="O107">
+      <c r="Q107">
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A108">
         <v>107</v>
       </c>
       <c r="B108" t="s">
         <v>118</v>
       </c>
-      <c r="C108">
+      <c r="C108" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="D108" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="E108">
         <v>38.582599999999999</v>
       </c>
-      <c r="D108">
+      <c r="F108">
         <v>-78.883600000000001</v>
       </c>
-      <c r="E108">
+      <c r="G108">
         <v>0.94</v>
       </c>
-      <c r="F108">
+      <c r="H108">
         <v>-0.12</v>
       </c>
-      <c r="G108">
+      <c r="I108">
         <v>-9.3147374200000001E-3</v>
       </c>
-      <c r="H108">
+      <c r="J108">
         <v>-0.62962962962962965</v>
       </c>
-      <c r="I108">
+      <c r="K108">
         <v>-0.54838709677419351</v>
       </c>
-      <c r="J108">
+      <c r="L108">
         <v>-0.09</v>
       </c>
-      <c r="K108">
+      <c r="M108">
         <v>-0.06</v>
       </c>
-      <c r="L108">
+      <c r="N108">
         <v>0.73532062607824367</v>
       </c>
-      <c r="M108">
+      <c r="O108">
         <v>0.40721648397587729</v>
       </c>
-      <c r="N108">
+      <c r="P108">
         <f t="shared" si="1"/>
         <v>6.9467294025588655E-2</v>
       </c>
-      <c r="O108">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="109" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="Q108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A109">
         <v>108</v>
       </c>
       <c r="B109" t="s">
         <v>119</v>
       </c>
-      <c r="C109">
+      <c r="C109" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="D109" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="E109">
         <v>36.990400000000001</v>
       </c>
-      <c r="D109">
+      <c r="F109">
         <v>-82.084299999999999</v>
       </c>
-      <c r="E109">
+      <c r="G109">
         <v>0.9</v>
       </c>
-      <c r="F109">
+      <c r="H109">
         <v>-0.13</v>
       </c>
-      <c r="G109">
+      <c r="I109">
         <v>-9.4862813799999994E-3</v>
       </c>
-      <c r="H109">
+      <c r="J109">
         <v>-0.85185185185185186</v>
       </c>
-      <c r="I109">
+      <c r="K109">
         <v>-0.77419354838709675</v>
       </c>
-      <c r="J109">
+      <c r="L109">
         <v>-0.22</v>
       </c>
-      <c r="K109">
+      <c r="M109">
         <v>-0.02</v>
       </c>
-      <c r="L109">
+      <c r="N109">
         <v>0.83654225377243285</v>
       </c>
-      <c r="M109">
+      <c r="O109">
         <v>0.34189646400109114</v>
       </c>
-      <c r="N109">
+      <c r="P109">
         <f t="shared" si="1"/>
         <v>8.100781794952815E-3</v>
       </c>
-      <c r="O109">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="110" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="Q109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A110">
         <v>109</v>
       </c>
       <c r="B110" t="s">
         <v>120</v>
       </c>
-      <c r="C110">
+      <c r="C110" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="D110" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="E110">
         <v>37.293500000000002</v>
       </c>
-      <c r="D110">
+      <c r="F110">
         <v>-80.0548</v>
       </c>
-      <c r="E110">
+      <c r="G110">
         <v>0.97</v>
       </c>
-      <c r="F110">
+      <c r="H110">
         <v>-0.15</v>
       </c>
-      <c r="G110">
+      <c r="I110">
         <v>-1.0188487E-2</v>
       </c>
-      <c r="H110">
+      <c r="J110">
         <v>-0.59259259259259256</v>
       </c>
-      <c r="I110">
+      <c r="K110">
         <v>-0.64516129032258063</v>
       </c>
-      <c r="J110">
+      <c r="L110">
         <v>-0.12</v>
       </c>
-      <c r="K110">
+      <c r="M110">
         <v>-0.12</v>
       </c>
-      <c r="L110">
+      <c r="N110">
         <v>0.78953166190044777</v>
       </c>
-      <c r="M110">
+      <c r="O110">
         <v>0.44372133316047646</v>
       </c>
-      <c r="N110">
+      <c r="P110">
         <f t="shared" si="1"/>
         <v>6.2812291682861232E-2</v>
       </c>
-      <c r="O110">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="111" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="Q110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A111">
         <v>110</v>
       </c>
       <c r="B111" t="s">
         <v>121</v>
       </c>
-      <c r="C111">
+      <c r="C111" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="D111" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="E111">
         <v>36.681600000000003</v>
       </c>
-      <c r="D111">
+      <c r="F111">
         <v>-82.605099999999993</v>
       </c>
-      <c r="E111">
+      <c r="G111">
         <v>0.95</v>
       </c>
-      <c r="F111">
+      <c r="H111">
         <v>-0.11</v>
       </c>
-      <c r="G111">
-        <v>0</v>
-      </c>
-      <c r="H111">
-        <v>0</v>
-      </c>
       <c r="I111">
+        <v>0</v>
+      </c>
+      <c r="J111">
+        <v>0</v>
+      </c>
+      <c r="K111">
         <v>-0.88709677419354838</v>
       </c>
-      <c r="J111">
+      <c r="L111">
         <v>-0.25</v>
       </c>
-      <c r="K111">
+      <c r="M111">
         <v>-0.04</v>
       </c>
-      <c r="L111">
+      <c r="N111">
         <v>0.93901258470002036</v>
       </c>
-      <c r="M111">
+      <c r="O111">
         <v>0.43716186810621827</v>
       </c>
-      <c r="N111">
+      <c r="P111">
         <f t="shared" si="1"/>
         <v>0.14843966837324146</v>
       </c>
-      <c r="O111">
+      <c r="Q111">
         <v>2</v>
       </c>
     </row>
-    <row r="112" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A112">
         <v>111</v>
       </c>
       <c r="B112" t="s">
         <v>122</v>
       </c>
-      <c r="C112">
+      <c r="C112" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="D112" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="E112">
         <v>38.485100000000003</v>
       </c>
-      <c r="D112">
+      <c r="F112">
         <v>-78.625</v>
       </c>
-      <c r="E112">
+      <c r="G112">
         <v>0.97</v>
       </c>
-      <c r="F112">
+      <c r="H112">
         <v>-0.12</v>
       </c>
-      <c r="G112">
-        <v>0</v>
-      </c>
-      <c r="H112">
+      <c r="I112">
+        <v>0</v>
+      </c>
+      <c r="J112">
         <v>-0.48148148148148145</v>
       </c>
-      <c r="I112">
+      <c r="K112">
         <v>-0.46774193548387094</v>
       </c>
-      <c r="J112">
+      <c r="L112">
         <v>-0.15</v>
       </c>
-      <c r="K112">
+      <c r="M112">
         <v>-0.03</v>
       </c>
-      <c r="L112">
+      <c r="N112">
         <v>0.50629235217860913</v>
       </c>
-      <c r="M112">
+      <c r="O112">
         <v>0.21385485979848393</v>
       </c>
-      <c r="N112">
+      <c r="P112">
         <f t="shared" si="1"/>
         <v>5.5115474376467577E-2</v>
       </c>
-      <c r="O112">
+      <c r="Q112">
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A113">
         <v>112</v>
       </c>
       <c r="B113" t="s">
         <v>123</v>
       </c>
-      <c r="C113">
+      <c r="C113" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="D113" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="E113">
         <v>36.8688</v>
       </c>
-      <c r="D113">
+      <c r="F113">
         <v>-81.559600000000003</v>
       </c>
-      <c r="E113">
+      <c r="G113">
         <v>0.95</v>
       </c>
-      <c r="F113">
+      <c r="H113">
         <v>-0.11</v>
       </c>
-      <c r="G113">
+      <c r="I113">
         <v>-1.030297176E-2</v>
       </c>
-      <c r="H113">
+      <c r="J113">
         <v>-0.64197530864197527</v>
       </c>
-      <c r="I113">
+      <c r="K113">
         <v>-0.532258064516129</v>
       </c>
-      <c r="J113">
+      <c r="L113">
         <v>-0.25</v>
       </c>
-      <c r="K113">
+      <c r="M113">
         <v>-0.06</v>
       </c>
-      <c r="L113">
+      <c r="N113">
         <v>0.72223520365709437</v>
       </c>
-      <c r="M113">
+      <c r="O113">
         <v>0.3102504775745904</v>
       </c>
-      <c r="N113">
+      <c r="P113">
         <f t="shared" si="1"/>
         <v>4.1994370701508937E-2</v>
       </c>
-      <c r="O113">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="114" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="Q113">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A114">
         <v>113</v>
       </c>
       <c r="B114" t="s">
         <v>124</v>
       </c>
-      <c r="C114">
+      <c r="C114" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="D114" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="E114">
         <v>36.678899999999999</v>
       </c>
-      <c r="D114">
+      <c r="F114">
         <v>-77.102500000000006</v>
       </c>
-      <c r="E114">
+      <c r="G114">
         <v>0.87</v>
       </c>
-      <c r="F114">
+      <c r="H114">
         <v>-0.12</v>
       </c>
-      <c r="G114">
+      <c r="I114">
         <v>-1.3378672160000001E-2</v>
       </c>
-      <c r="H114">
+      <c r="J114">
         <v>-0.13580246913580246</v>
       </c>
-      <c r="I114">
+      <c r="K114">
         <v>-0.16129032258064516</v>
       </c>
-      <c r="J114">
+      <c r="L114">
         <v>-0.2</v>
       </c>
-      <c r="K114">
+      <c r="M114">
         <v>-0.14000000000000001</v>
       </c>
-      <c r="L114">
+      <c r="N114">
         <v>0.80445304920073191</v>
       </c>
-      <c r="M114">
+      <c r="O114">
         <v>0.33318823470295866</v>
       </c>
-      <c r="N114">
+      <c r="P114">
         <f t="shared" si="1"/>
         <v>0.13746331333636033</v>
       </c>
-      <c r="O114">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="115" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="Q114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A115">
         <v>114</v>
       </c>
       <c r="B115" t="s">
         <v>125</v>
       </c>
-      <c r="C115">
+      <c r="C115" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="D115" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="E115">
         <v>38.2042</v>
       </c>
-      <c r="D115">
+      <c r="F115">
         <v>-77.607799999999997</v>
       </c>
-      <c r="E115">
+      <c r="G115">
         <v>0.91</v>
       </c>
-      <c r="F115">
+      <c r="H115">
         <v>-0.13</v>
       </c>
-      <c r="G115">
+      <c r="I115">
         <v>-8.8271999599999987E-3</v>
       </c>
-      <c r="H115">
+      <c r="J115">
         <v>-0.22222222222222221</v>
       </c>
-      <c r="I115">
+      <c r="K115">
         <v>-0.30645161290322581</v>
       </c>
-      <c r="J115">
+      <c r="L115">
         <v>-0.1</v>
       </c>
-      <c r="K115">
+      <c r="M115">
         <v>-0.04</v>
       </c>
-      <c r="L115">
+      <c r="N115">
         <v>0.69880606650135957</v>
       </c>
-      <c r="M115">
+      <c r="O115">
         <v>0.39691146896763557</v>
       </c>
-      <c r="N115">
+      <c r="P115">
         <f t="shared" si="1"/>
         <v>0.13313516670928302</v>
       </c>
-      <c r="O115">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="116" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="Q115">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A116">
         <v>115</v>
       </c>
       <c r="B116" t="s">
         <v>126</v>
       </c>
-      <c r="C116">
+      <c r="C116" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="D116" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="E116">
         <v>38.433500000000002</v>
       </c>
-      <c r="D116">
+      <c r="F116">
         <v>-77.424300000000002</v>
       </c>
-      <c r="E116">
+      <c r="G116">
         <v>0.95</v>
       </c>
-      <c r="F116">
+      <c r="H116">
         <v>-0.11</v>
       </c>
-      <c r="G116">
+      <c r="I116">
         <v>-8.4715162600000008E-3</v>
       </c>
-      <c r="H116">
+      <c r="J116">
         <v>-0.2839506172839506</v>
       </c>
-      <c r="I116">
+      <c r="K116">
         <v>-0.40322580645161288</v>
       </c>
-      <c r="J116">
+      <c r="L116">
         <v>-7.0000000000000007E-2</v>
       </c>
-      <c r="K116">
+      <c r="M116">
         <v>-0.03</v>
       </c>
-      <c r="L116">
+      <c r="N116">
         <v>0.79755175963582203</v>
       </c>
-      <c r="M116">
+      <c r="O116">
         <v>0.49932498995722874</v>
       </c>
-      <c r="N116">
+      <c r="P116">
         <f t="shared" si="1"/>
         <v>0.14902542328860971</v>
       </c>
-      <c r="O116">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="117" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="Q116">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A117">
         <v>116</v>
       </c>
       <c r="B117" t="s">
         <v>127</v>
       </c>
-      <c r="C117">
+      <c r="C117" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="D117" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="E117">
         <v>38.1496</v>
       </c>
-      <c r="D117">
+      <c r="F117">
         <v>-79.071700000000007</v>
       </c>
-      <c r="E117">
+      <c r="G117">
         <v>0.9</v>
       </c>
-      <c r="F117">
+      <c r="H117">
         <v>-0.17</v>
       </c>
-      <c r="G117">
+      <c r="I117">
         <v>-9.8151480400000008E-3</v>
       </c>
-      <c r="H117">
+      <c r="J117">
         <v>-0.19753086419753085</v>
       </c>
-      <c r="I117">
+      <c r="K117">
         <v>-0.30645161290322581</v>
       </c>
-      <c r="J117">
+      <c r="L117">
         <v>-0.19</v>
       </c>
-      <c r="K117">
+      <c r="M117">
         <v>-0.02</v>
       </c>
-      <c r="L117">
+      <c r="N117">
         <v>0.55179090013953846</v>
       </c>
-      <c r="M117">
+      <c r="O117">
         <v>0.32255456768794638</v>
       </c>
-      <c r="N117">
+      <c r="P117">
         <f t="shared" si="1"/>
         <v>9.7838649187414237E-2</v>
       </c>
-      <c r="O117">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="118" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="Q117">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A118">
         <v>117</v>
       </c>
       <c r="B118" t="s">
         <v>128</v>
       </c>
-      <c r="C118">
+      <c r="C118" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="D118" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="E118">
         <v>36.728200000000001</v>
       </c>
-      <c r="D118">
+      <c r="F118">
         <v>-76.583600000000004</v>
       </c>
-      <c r="E118">
+      <c r="G118">
         <v>0.87</v>
       </c>
-      <c r="F118">
+      <c r="H118">
         <v>-0.16</v>
       </c>
-      <c r="G118">
+      <c r="I118">
         <v>-9.6455809800000004E-3</v>
       </c>
-      <c r="H118">
+      <c r="J118">
         <v>-0.53086419753086422</v>
       </c>
-      <c r="I118">
+      <c r="K118">
         <v>-0.67741935483870963</v>
       </c>
-      <c r="J118">
+      <c r="L118">
         <v>-0.16</v>
       </c>
-      <c r="K118">
+      <c r="M118">
         <v>-0.06</v>
       </c>
-      <c r="L118">
+      <c r="N118">
         <v>0.64098096144363825</v>
       </c>
-      <c r="M118">
+      <c r="O118">
         <v>0.2711978939203184</v>
       </c>
-      <c r="N118">
+      <c r="P118">
         <f t="shared" si="1"/>
         <v>2.047219133493142E-2</v>
       </c>
-      <c r="O118">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="119" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="Q118">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A119">
         <v>118</v>
       </c>
       <c r="B119" t="s">
         <v>129</v>
       </c>
-      <c r="C119">
+      <c r="C119" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="D119" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="E119">
         <v>37.118600000000001</v>
       </c>
-      <c r="D119">
+      <c r="F119">
         <v>-76.872100000000003</v>
       </c>
-      <c r="E119">
+      <c r="G119">
         <v>0.94</v>
       </c>
-      <c r="F119">
+      <c r="H119">
         <v>-0.09</v>
       </c>
-      <c r="G119">
-        <v>0</v>
-      </c>
-      <c r="H119">
+      <c r="I119">
+        <v>0</v>
+      </c>
+      <c r="J119">
         <v>-1.2345679012345678E-2</v>
       </c>
-      <c r="I119">
+      <c r="K119">
         <v>-1.6129032258064516E-2</v>
       </c>
-      <c r="J119">
+      <c r="L119">
         <v>-0.2</v>
       </c>
-      <c r="K119">
+      <c r="M119">
         <v>-0.1</v>
       </c>
-      <c r="L119">
+      <c r="N119">
         <v>0.67570183912299708</v>
       </c>
-      <c r="M119">
+      <c r="O119">
         <v>0.17132019140760946</v>
       </c>
-      <c r="N119">
+      <c r="P119">
         <f t="shared" si="1"/>
         <v>0.17106841490752456</v>
       </c>
-      <c r="O119">
+      <c r="Q119">
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A120">
         <v>119</v>
       </c>
       <c r="B120" t="s">
         <v>130</v>
       </c>
-      <c r="C120">
+      <c r="C120" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="D120" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="E120">
         <v>36.905799999999999</v>
       </c>
-      <c r="D120">
+      <c r="F120">
         <v>-77.240499999999997</v>
       </c>
-      <c r="E120">
+      <c r="G120">
         <v>0.89</v>
       </c>
-      <c r="F120">
+      <c r="H120">
         <v>-0.13</v>
       </c>
-      <c r="G120">
-        <v>0</v>
-      </c>
-      <c r="H120">
+      <c r="I120">
+        <v>0</v>
+      </c>
+      <c r="J120">
         <v>-0.22222222222222221</v>
       </c>
-      <c r="I120">
+      <c r="K120">
         <v>-0.27419354838709675</v>
       </c>
-      <c r="J120">
+      <c r="L120">
         <v>-0.3</v>
       </c>
-      <c r="K120">
+      <c r="M120">
         <v>-0.18</v>
       </c>
-      <c r="L120">
+      <c r="N120">
         <v>0.64569215877217345</v>
       </c>
-      <c r="M120">
+      <c r="O120">
         <v>0.23512219382850857</v>
       </c>
-      <c r="N120">
+      <c r="P120">
         <f t="shared" si="1"/>
         <v>8.3049822748920393E-2</v>
       </c>
-      <c r="O120">
+      <c r="Q120">
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A121">
         <v>120</v>
       </c>
       <c r="B121" t="s">
         <v>131</v>
       </c>
-      <c r="C121">
+      <c r="C121" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="D121" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="E121">
         <v>37.124699999999997</v>
       </c>
-      <c r="D121">
+      <c r="F121">
         <v>-81.559600000000003</v>
       </c>
-      <c r="E121">
+      <c r="G121">
         <v>0.89</v>
       </c>
-      <c r="F121">
+      <c r="H121">
         <v>-0.1</v>
       </c>
-      <c r="G121">
+      <c r="I121">
         <v>-9.0304182600000008E-3</v>
       </c>
-      <c r="H121">
+      <c r="J121">
         <v>-0.65432098765432101</v>
       </c>
-      <c r="I121">
+      <c r="K121">
         <v>-0.43548387096774194</v>
       </c>
-      <c r="J121">
+      <c r="L121">
         <v>-0.24</v>
       </c>
-      <c r="K121">
+      <c r="M121">
         <v>-0.08</v>
       </c>
-      <c r="L121">
+      <c r="N121">
         <v>0.90222652460036579</v>
       </c>
-      <c r="M121">
+      <c r="O121">
         <v>0.44070642388816406</v>
       </c>
-      <c r="N121">
+      <c r="P121">
         <f t="shared" si="1"/>
         <v>7.93441857340519E-2</v>
       </c>
-      <c r="O121">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="122" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="Q121">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A122">
         <v>121</v>
       </c>
       <c r="B122" t="s">
         <v>132</v>
       </c>
-      <c r="C122">
+      <c r="C122" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="D122" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="E122">
         <v>36.852899999999998</v>
       </c>
-      <c r="D122">
+      <c r="F122">
         <v>-75.977999999999994</v>
       </c>
-      <c r="E122">
+      <c r="G122">
         <v>0.93</v>
       </c>
-      <c r="F122">
+      <c r="H122">
         <v>-0.16</v>
       </c>
-      <c r="G122">
+      <c r="I122">
         <v>-7.8198762600000006E-3</v>
       </c>
-      <c r="H122">
+      <c r="J122">
         <v>-0.44444444444444442</v>
       </c>
-      <c r="I122">
+      <c r="K122">
         <v>-0.54838709677419351</v>
       </c>
-      <c r="J122">
+      <c r="L122">
         <v>-0.1</v>
       </c>
-      <c r="K122">
+      <c r="M122">
         <v>-0.03</v>
       </c>
-      <c r="L122">
+      <c r="N122">
         <v>0.84301907987167612</v>
       </c>
-      <c r="M122">
+      <c r="O122">
         <v>0.51533266087836382</v>
       </c>
-      <c r="N122">
+      <c r="P122">
         <f t="shared" si="1"/>
         <v>0.11085559147460022</v>
       </c>
-      <c r="O122">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="123" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="Q122">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A123">
         <v>122</v>
       </c>
       <c r="B123" t="s">
         <v>133</v>
       </c>
-      <c r="C123">
+      <c r="C123" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="D123" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="E123">
         <v>38.933199999999999</v>
       </c>
-      <c r="D123">
+      <c r="F123">
         <v>-78.247600000000006</v>
       </c>
-      <c r="E123">
+      <c r="G123">
         <v>0.94</v>
       </c>
-      <c r="F123">
+      <c r="H123">
         <v>-0.12</v>
       </c>
-      <c r="G123">
+      <c r="I123">
         <v>-1.216760882E-2</v>
       </c>
-      <c r="H123">
+      <c r="J123">
         <v>-0.46913580246913578</v>
       </c>
-      <c r="I123">
+      <c r="K123">
         <v>-0.46774193548387094</v>
       </c>
-      <c r="J123">
+      <c r="L123">
         <v>-0.14000000000000001</v>
       </c>
-      <c r="K123">
+      <c r="M123">
         <v>-0.03</v>
       </c>
-      <c r="L123">
+      <c r="N123">
         <v>0.58276863508869448</v>
       </c>
-      <c r="M123">
+      <c r="O123">
         <v>0.29419812209403007</v>
       </c>
-      <c r="N123">
+      <c r="P123">
         <f t="shared" si="1"/>
         <v>6.4213490045524194E-2</v>
       </c>
-      <c r="O123">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="124" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="Q123">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A124">
         <v>123</v>
       </c>
       <c r="B124" t="s">
         <v>134</v>
       </c>
-      <c r="C124">
+      <c r="C124" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="D124" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="E124">
         <v>36.767800000000001</v>
       </c>
-      <c r="D124">
+      <c r="F124">
         <v>-81.953500000000005</v>
       </c>
-      <c r="E124">
+      <c r="G124">
         <v>0.94</v>
       </c>
-      <c r="F124">
+      <c r="H124">
         <v>-0.1</v>
       </c>
-      <c r="G124">
+      <c r="I124">
         <v>-6.6169172600000006E-3</v>
       </c>
-      <c r="H124">
+      <c r="J124">
         <v>-0.72839506172839508</v>
       </c>
-      <c r="I124">
+      <c r="K124">
         <v>-0.43548387096774194</v>
       </c>
-      <c r="J124">
+      <c r="L124">
         <v>-0.21</v>
       </c>
-      <c r="K124">
+      <c r="M124">
         <v>-0.03</v>
       </c>
-      <c r="L124">
+      <c r="N124">
         <v>0.89198388661312555</v>
       </c>
-      <c r="M124">
+      <c r="O124">
         <v>0.56122131716607071</v>
       </c>
-      <c r="N124">
+      <c r="P124">
         <f t="shared" si="1"/>
         <v>9.8078817091451012E-2</v>
       </c>
-      <c r="O124">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="125" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="Q124">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A125">
         <v>124</v>
       </c>
       <c r="B125" t="s">
         <v>135</v>
       </c>
-      <c r="C125">
+      <c r="C125" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="D125" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="E125">
         <v>38.0685</v>
       </c>
-      <c r="D125">
+      <c r="F125">
         <v>-78.889499999999998</v>
       </c>
-      <c r="E125">
+      <c r="G125">
         <v>0.83</v>
       </c>
-      <c r="F125">
+      <c r="H125">
         <v>-0.15</v>
       </c>
-      <c r="G125">
+      <c r="I125">
         <v>-1.0945908959999999E-2</v>
       </c>
-      <c r="H125">
+      <c r="J125">
         <v>-0.33333333333333331</v>
       </c>
-      <c r="I125">
+      <c r="K125">
         <v>-0.33870967741935482</v>
       </c>
-      <c r="J125">
+      <c r="L125">
         <v>-0.25</v>
       </c>
-      <c r="K125">
+      <c r="M125">
         <v>-0.04</v>
       </c>
-      <c r="L125">
+      <c r="N125">
         <v>0.41335914814430658</v>
       </c>
-      <c r="M125">
+      <c r="O125">
         <v>0.19849511862809394</v>
       </c>
-      <c r="N125">
+      <c r="P125">
         <f t="shared" si="1"/>
         <v>3.5429483006634704E-2</v>
       </c>
-      <c r="O125">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="126" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="Q125">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A126">
         <v>125</v>
       </c>
       <c r="B126" t="s">
         <v>136</v>
       </c>
-      <c r="C126">
+      <c r="C126" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="D126" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="E126">
         <v>38.112699999999997</v>
       </c>
-      <c r="D126">
+      <c r="F126">
         <v>-76.779799999999994</v>
       </c>
-      <c r="E126">
+      <c r="G126">
         <v>0.92</v>
       </c>
-      <c r="F126">
+      <c r="H126">
         <v>-0.14000000000000001</v>
       </c>
-      <c r="G126">
-        <v>0</v>
-      </c>
-      <c r="H126">
+      <c r="I126">
+        <v>0</v>
+      </c>
+      <c r="J126">
         <v>-0.30864197530864196</v>
       </c>
-      <c r="I126">
+      <c r="K126">
         <v>-0.33870967741935482</v>
       </c>
-      <c r="J126">
+      <c r="L126">
         <v>-0.27</v>
       </c>
-      <c r="K126">
+      <c r="M126">
         <v>-0.02</v>
       </c>
-      <c r="L126">
+      <c r="N126">
         <v>0.5730880929001424</v>
       </c>
-      <c r="M126">
+      <c r="O126">
         <v>0.20440271115690342</v>
       </c>
-      <c r="N126">
+      <c r="P126">
         <f t="shared" si="1"/>
         <v>7.7517393916131133E-2</v>
       </c>
-      <c r="O126">
+      <c r="Q126">
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A127">
         <v>126</v>
       </c>
       <c r="B127" t="s">
         <v>137</v>
       </c>
-      <c r="C127">
+      <c r="C127" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="D127" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="E127">
         <v>37.270699999999998</v>
       </c>
-      <c r="D127">
+      <c r="F127">
         <v>-76.707499999999996</v>
       </c>
-      <c r="E127">
+      <c r="G127">
         <v>0.92</v>
       </c>
-      <c r="F127">
+      <c r="H127">
         <v>-0.22</v>
       </c>
-      <c r="G127">
-        <v>0</v>
-      </c>
-      <c r="H127">
+      <c r="I127">
+        <v>0</v>
+      </c>
+      <c r="J127">
         <v>-0.27160493827160492</v>
       </c>
-      <c r="I127">
+      <c r="K127">
         <v>-0.37096774193548387</v>
       </c>
-      <c r="J127">
+      <c r="L127">
         <v>-0.28000000000000003</v>
       </c>
-      <c r="K127">
+      <c r="M127">
         <v>-0.04</v>
       </c>
-      <c r="L127">
+      <c r="N127">
         <v>0.80279798898763177</v>
       </c>
-      <c r="M127">
+      <c r="O127">
         <v>0.60497561763972973</v>
       </c>
-      <c r="N127">
+      <c r="P127">
         <f t="shared" si="1"/>
         <v>0.14315011580253412</v>
       </c>
-      <c r="O127">
+      <c r="Q127">
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A128">
         <v>127</v>
       </c>
       <c r="B128" t="s">
         <v>138</v>
       </c>
-      <c r="C128">
+      <c r="C128" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="D128" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="E128">
         <v>39.185699999999997</v>
       </c>
-      <c r="D128">
+      <c r="F128">
         <v>-78.163300000000007</v>
       </c>
-      <c r="E128">
+      <c r="G128">
         <v>0.89</v>
       </c>
-      <c r="F128">
+      <c r="H128">
         <v>-0.2</v>
       </c>
-      <c r="G128">
+      <c r="I128">
         <v>-1.0795638560000001E-2</v>
       </c>
-      <c r="H128">
+      <c r="J128">
         <v>-0.37037037037037035</v>
       </c>
-      <c r="I128">
+      <c r="K128">
         <v>-0.33870967741935482</v>
       </c>
-      <c r="J128">
+      <c r="L128">
         <v>-0.22</v>
       </c>
-      <c r="K128">
+      <c r="M128">
         <v>-0.03</v>
       </c>
-      <c r="L128">
+      <c r="N128">
         <v>0.53630203280048783</v>
       </c>
-      <c r="M128">
+      <c r="O128">
         <v>0.31310241904636582</v>
       </c>
-      <c r="N128">
+      <c r="P128">
         <f t="shared" si="1"/>
         <v>6.3280973944125379E-2</v>
       </c>
-      <c r="O128">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="129" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="Q128">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A129">
         <v>128</v>
       </c>
       <c r="B129" t="s">
         <v>139</v>
       </c>
-      <c r="C129">
+      <c r="C129" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="D129" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="E129">
         <v>37.024099999999997</v>
       </c>
-      <c r="D129">
+      <c r="F129">
         <v>-82.605099999999993</v>
       </c>
-      <c r="E129">
+      <c r="G129">
         <v>0.96</v>
       </c>
-      <c r="F129">
+      <c r="H129">
         <v>-0.13</v>
       </c>
-      <c r="G129">
+      <c r="I129">
         <v>-1.229980782E-2</v>
       </c>
-      <c r="H129">
+      <c r="J129">
         <v>-0.71604938271604934</v>
       </c>
-      <c r="I129">
+      <c r="K129">
         <v>-0.46774193548387094</v>
       </c>
-      <c r="J129">
+      <c r="L129">
         <v>-0.33</v>
       </c>
-      <c r="K129">
+      <c r="M129">
         <v>-0.04</v>
       </c>
-      <c r="L129">
+      <c r="N129">
         <v>0.95450145203907066</v>
       </c>
-      <c r="M129">
+      <c r="O129">
         <v>0.49860083344942857</v>
       </c>
-      <c r="N129">
+      <c r="P129">
         <f t="shared" si="1"/>
         <v>7.9667906607619868E-2</v>
       </c>
-      <c r="O129">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="130" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="Q129">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A130">
         <v>129</v>
       </c>
       <c r="B130" t="s">
         <v>140</v>
       </c>
-      <c r="C130">
+      <c r="C130" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="D130" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="E130">
         <v>36.948399999999999</v>
       </c>
-      <c r="D130">
+      <c r="F130">
         <v>-81.084800000000001</v>
       </c>
-      <c r="E130">
+      <c r="G130">
         <v>0.94</v>
       </c>
-      <c r="F130">
+      <c r="H130">
         <v>-0.12</v>
       </c>
-      <c r="G130">
-        <v>0</v>
-      </c>
-      <c r="H130">
+      <c r="I130">
+        <v>0</v>
+      </c>
+      <c r="J130">
         <v>-0.59259259259259256</v>
       </c>
-      <c r="I130">
+      <c r="K130">
         <v>-0.69354838709677424</v>
       </c>
-      <c r="J130">
+      <c r="L130">
         <v>-0.24</v>
       </c>
-      <c r="K130">
+      <c r="M130">
         <v>-0.02</v>
       </c>
-      <c r="L130">
+      <c r="N130">
         <v>0.90681581865686867</v>
       </c>
-      <c r="M130">
+      <c r="O130">
         <v>0.53549046839865866</v>
       </c>
-      <c r="N130">
+      <c r="P130">
         <f t="shared" si="1"/>
         <v>8.9520663420770058E-2</v>
       </c>
-      <c r="O130">
+      <c r="Q130">
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A131">
         <v>130</v>
       </c>
       <c r="B131" t="s">
         <v>141</v>
       </c>
-      <c r="C131">
+      <c r="C131" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="D131" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="E131">
         <v>37.2104</v>
       </c>
-      <c r="D131">
+      <c r="F131">
         <v>-76.386899999999997</v>
       </c>
-      <c r="E131">
+      <c r="G131">
         <v>0.97</v>
       </c>
-      <c r="F131">
+      <c r="H131">
         <v>-0.11</v>
       </c>
-      <c r="G131">
+      <c r="I131">
         <v>-5.0305532200000001E-3</v>
       </c>
-      <c r="H131">
+      <c r="J131">
         <v>-0.34567901234567899</v>
       </c>
-      <c r="I131">
+      <c r="K131">
         <v>-0.43548387096774194</v>
       </c>
-      <c r="J131">
+      <c r="L131">
         <v>-7.0000000000000007E-2</v>
       </c>
-      <c r="K131">
+      <c r="M131">
         <v>-0.04</v>
       </c>
-      <c r="L131">
+      <c r="N131">
         <v>0.97166827995908356</v>
       </c>
-      <c r="M131">
+      <c r="O131">
         <v>0.58107082901564711</v>
       </c>
-      <c r="N131">
-        <f t="shared" ref="N131" si="2">(E131+F131+G131+H131+I131+J131+K131+L131+M131)/(9-O131)</f>
+      <c r="P131">
+        <f t="shared" ref="P131" si="2">(G131+H131+I131+J131+K131+L131+M131+N131+O131)/(9-Q131)</f>
         <v>0.16850507471570106</v>
       </c>
-      <c r="O131">
+      <c r="Q131">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="D53" numberStoredAsText="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>
 

--- a/score_data.xlsx
+++ b/score_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Desktop\SYS 2202\Final Project Folder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A74BFC0C-A2ED-4E8D-81AB-D8698F8A8E0C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E36AB5A-DF24-4188-A45C-BD9B4665E5A3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{FBA93070-678B-4237-861F-8662DD655F34}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="472" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="277">
   <si>
     <t>HealthyFoods</t>
   </si>
@@ -857,6 +857,12 @@
   </si>
   <si>
     <t>51</t>
+  </si>
+  <si>
+    <t>Number</t>
+  </si>
+  <si>
+    <t>DynamicScore</t>
   </si>
 </sst>
 </file>
@@ -1209,10 +1215,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D2F7106-D69E-42AB-90EE-8EE88DA6E3E0}">
-  <dimension ref="A1:Q131"/>
+  <dimension ref="A1:R131"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A123" workbookViewId="0">
-      <selection activeCell="C132" sqref="C132:D165"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R2" sqref="R2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1221,7 +1227,7 @@
     <col min="16" max="16" width="7.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
         <v>11</v>
       </c>
@@ -1267,11 +1273,14 @@
       <c r="P1" t="s">
         <v>10</v>
       </c>
-      <c r="Q1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="Q1" t="s">
+        <v>275</v>
+      </c>
+      <c r="R1" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1325,7 +1334,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1379,7 +1388,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1433,7 +1442,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1487,7 +1496,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1541,7 +1550,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1595,7 +1604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1649,7 +1658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1703,7 +1712,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1757,7 +1766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1811,7 +1820,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1865,7 +1874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1919,7 +1928,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1973,7 +1982,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>14</v>
       </c>
@@ -2027,7 +2036,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>15</v>
       </c>
@@ -5892,8 +5901,8 @@
       <c r="J87">
         <v>0</v>
       </c>
-      <c r="K87" t="e">
-        <v>#VALUE!</v>
+      <c r="K87">
+        <v>0</v>
       </c>
       <c r="L87">
         <v>-0.31</v>
@@ -5907,9 +5916,9 @@
       <c r="O87">
         <v>0.23039611967313092</v>
       </c>
-      <c r="P87" t="e">
+      <c r="P87">
         <f t="shared" si="1"/>
-        <v>#VALUE!</v>
+        <v>0.20424134856687703</v>
       </c>
       <c r="Q87">
         <v>2</v>

--- a/score_data.xlsx
+++ b/score_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Desktop\SYS 2202\Final Project Folder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E36AB5A-DF24-4188-A45C-BD9B4665E5A3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54FFA578-AD41-4EFB-B7D4-693FBA1F9945}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{FBA93070-678B-4237-861F-8662DD655F34}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="279">
   <si>
     <t>HealthyFoods</t>
   </si>
@@ -863,6 +863,12 @@
   </si>
   <si>
     <t>DynamicScore</t>
+  </si>
+  <si>
+    <t>0-1</t>
+  </si>
+  <si>
+    <t>Raw Score</t>
   </si>
 </sst>
 </file>
@@ -1215,19 +1221,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D2F7106-D69E-42AB-90EE-8EE88DA6E3E0}">
-  <dimension ref="A1:R131"/>
+  <dimension ref="A1:T131"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R2" sqref="R2"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1:G1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="3" max="4" width="8.7265625" style="1"/>
-    <col min="16" max="16" width="7.453125" customWidth="1"/>
+    <col min="18" max="18" width="7.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
         <v>11</v>
       </c>
@@ -1271,16 +1277,22 @@
         <v>9</v>
       </c>
       <c r="P1" t="s">
+        <v>277</v>
+      </c>
+      <c r="Q1" t="s">
         <v>10</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
+        <v>278</v>
+      </c>
+      <c r="S1" t="s">
         <v>275</v>
       </c>
-      <c r="R1" t="s">
+      <c r="T1" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1327,14 +1339,22 @@
         <v>0.16537185676325311</v>
       </c>
       <c r="P2">
-        <f>(G2+H2+I2+J2+K2+L2+M2+N2+O2)/(9-Q2)</f>
+        <f>(R2-MIN($R$2:$R$131)*1)/(MAX($R$2:$R$131)-MIN($R$2:$R$131))</f>
+        <v>0.40631363759594818</v>
+      </c>
+      <c r="Q2">
+        <f>P2*100</f>
+        <v>40.631363759594819</v>
+      </c>
+      <c r="R2">
+        <f>(G2+H2+I2+J2+K2+L2+M2+N2+O2)/(9-S2)</f>
         <v>6.2765556729160676E-2</v>
       </c>
-      <c r="Q2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1381,14 +1401,22 @@
         <v>0.59323665900834077</v>
       </c>
       <c r="P3">
-        <f t="shared" ref="P3:P66" si="0">(G3+H3+I3+J3+K3+L3+M3+N3+O3)/(9-Q3)</f>
+        <f t="shared" ref="P3:P66" si="0">(R3-MIN($R$2:$R$131)*1)/(MAX($R$2:$R$131)-MIN($R$2:$R$131))</f>
+        <v>0.49842877973460953</v>
+      </c>
+      <c r="Q3">
+        <f t="shared" ref="Q3:Q66" si="1">P3*100</f>
+        <v>49.842877973460951</v>
+      </c>
+      <c r="R3">
+        <f>(G3+H3+I3+J3+K3+L3+M3+N3+O3)/(9-S3)</f>
         <v>0.11260783877260835</v>
       </c>
-      <c r="Q3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1436,13 +1464,21 @@
       </c>
       <c r="P4">
         <f t="shared" si="0"/>
+        <v>0.33355780810318336</v>
+      </c>
+      <c r="Q4">
+        <f t="shared" si="1"/>
+        <v>33.355780810318336</v>
+      </c>
+      <c r="R4">
+        <f>(G4+H4+I4+J4+K4+L4+M4+N4+O4)/(9-S4)</f>
         <v>2.3398342070525442E-2</v>
       </c>
-      <c r="Q4">
+      <c r="S4">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1490,13 +1526,21 @@
       </c>
       <c r="P5">
         <f t="shared" si="0"/>
+        <v>0.33387063718417642</v>
+      </c>
+      <c r="Q5">
+        <f t="shared" si="1"/>
+        <v>33.387063718417643</v>
+      </c>
+      <c r="R5">
+        <f>(G5+H5+I5+J5+K5+L5+M5+N5+O5)/(9-S5)</f>
         <v>2.3567609738405455E-2</v>
       </c>
-      <c r="Q5">
+      <c r="S5">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1544,13 +1588,21 @@
       </c>
       <c r="P6">
         <f t="shared" si="0"/>
+        <v>0.60150047879393498</v>
+      </c>
+      <c r="Q6">
+        <f t="shared" si="1"/>
+        <v>60.150047879393497</v>
+      </c>
+      <c r="R6">
+        <f>(G6+H6+I6+J6+K6+L6+M6+N6+O6)/(9-S6)</f>
         <v>0.16837856849127966</v>
       </c>
-      <c r="Q6">
+      <c r="S6">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1598,13 +1650,21 @@
       </c>
       <c r="P7">
         <f t="shared" si="0"/>
+        <v>0.48839778512966642</v>
+      </c>
+      <c r="Q7">
+        <f t="shared" si="1"/>
+        <v>48.839778512966639</v>
+      </c>
+      <c r="R7">
+        <f>(G7+H7+I7+J7+K7+L7+M7+N7+O7)/(9-S7)</f>
         <v>0.10718020059425903</v>
       </c>
-      <c r="Q7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1652,13 +1712,21 @@
       </c>
       <c r="P8">
         <f t="shared" si="0"/>
+        <v>0.62019406173414637</v>
+      </c>
+      <c r="Q8">
+        <f t="shared" si="1"/>
+        <v>62.019406173414637</v>
+      </c>
+      <c r="R8">
+        <f>(G8+H8+I8+J8+K8+L8+M8+N8+O8)/(9-S8)</f>
         <v>0.17849341835935084</v>
       </c>
-      <c r="Q8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1706,13 +1774,21 @@
       </c>
       <c r="P9">
         <f t="shared" si="0"/>
+        <v>0.5058964615478152</v>
+      </c>
+      <c r="Q9">
+        <f t="shared" si="1"/>
+        <v>50.589646154781519</v>
+      </c>
+      <c r="R9">
+        <f>(G9+H9+I9+J9+K9+L9+M9+N9+O9)/(9-S9)</f>
         <v>0.1166485023866778</v>
       </c>
-      <c r="Q9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1760,13 +1836,21 @@
       </c>
       <c r="P10">
         <f t="shared" si="0"/>
+        <v>0.50379256422569574</v>
+      </c>
+      <c r="Q10">
+        <f t="shared" si="1"/>
+        <v>50.379256422569576</v>
+      </c>
+      <c r="R10">
+        <f>(G10+H10+I10+J10+K10+L10+M10+N10+O10)/(9-S10)</f>
         <v>0.11551011144155303</v>
       </c>
-      <c r="Q10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1814,13 +1898,21 @@
       </c>
       <c r="P11">
         <f t="shared" si="0"/>
+        <v>0.76781280543466834</v>
+      </c>
+      <c r="Q11">
+        <f t="shared" si="1"/>
+        <v>76.781280543466835</v>
+      </c>
+      <c r="R11">
+        <f>(G11+H11+I11+J11+K11+L11+M11+N11+O11)/(9-S11)</f>
         <v>0.25836796327776745</v>
       </c>
-      <c r="Q11">
+      <c r="S11">
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1868,13 +1960,21 @@
       </c>
       <c r="P12">
         <f t="shared" si="0"/>
+        <v>0.46753871929313678</v>
+      </c>
+      <c r="Q12">
+        <f t="shared" si="1"/>
+        <v>46.753871929313675</v>
+      </c>
+      <c r="R12">
+        <f>(G12+H12+I12+J12+K12+L12+M12+N12+O12)/(9-S12)</f>
         <v>9.5893636643435975E-2</v>
       </c>
-      <c r="Q12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1922,13 +2022,21 @@
       </c>
       <c r="P13">
         <f t="shared" si="0"/>
+        <v>0.87279740993407584</v>
+      </c>
+      <c r="Q13">
+        <f t="shared" si="1"/>
+        <v>87.279740993407586</v>
+      </c>
+      <c r="R13">
+        <f>(G13+H13+I13+J13+K13+L13+M13+N13+O13)/(9-S13)</f>
         <v>0.31517374076658156</v>
       </c>
-      <c r="Q13">
+      <c r="S13">
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1976,13 +2084,21 @@
       </c>
       <c r="P14">
         <f t="shared" si="0"/>
+        <v>0.55765592037237943</v>
+      </c>
+      <c r="Q14">
+        <f t="shared" si="1"/>
+        <v>55.765592037237944</v>
+      </c>
+      <c r="R14">
+        <f>(G14+H14+I14+J14+K14+L14+M14+N14+O14)/(9-S14)</f>
         <v>0.14465485927061714</v>
       </c>
-      <c r="Q14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>14</v>
       </c>
@@ -2030,13 +2146,21 @@
       </c>
       <c r="P15">
         <f t="shared" si="0"/>
+        <v>0.3815788913814584</v>
+      </c>
+      <c r="Q15">
+        <f t="shared" si="1"/>
+        <v>38.15788913814584</v>
+      </c>
+      <c r="R15">
+        <f>(G15+H15+I15+J15+K15+L15+M15+N15+O15)/(9-S15)</f>
         <v>4.9381913514021207E-2</v>
       </c>
-      <c r="Q15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>15</v>
       </c>
@@ -2084,13 +2208,21 @@
       </c>
       <c r="P16">
         <f t="shared" si="0"/>
+        <v>0.35285153108789824</v>
+      </c>
+      <c r="Q16">
+        <f t="shared" si="1"/>
+        <v>35.285153108789821</v>
+      </c>
+      <c r="R16">
+        <f>(G16+H16+I16+J16+K16+L16+M16+N16+O16)/(9-S16)</f>
         <v>3.3837919759335207E-2</v>
       </c>
-      <c r="Q16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>16</v>
       </c>
@@ -2138,13 +2270,21 @@
       </c>
       <c r="P17">
         <f t="shared" si="0"/>
+        <v>0.2051804306534015</v>
+      </c>
+      <c r="Q17">
+        <f t="shared" si="1"/>
+        <v>20.518043065340148</v>
+      </c>
+      <c r="R17">
+        <f>(G17+H17+I17+J17+K17+L17+M17+N17+O17)/(9-S17)</f>
         <v>-4.606495469362977E-2</v>
       </c>
-      <c r="Q17">
+      <c r="S17">
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>17</v>
       </c>
@@ -2192,13 +2332,21 @@
       </c>
       <c r="P18">
         <f t="shared" si="0"/>
+        <v>0.4530337230787993</v>
+      </c>
+      <c r="Q18">
+        <f t="shared" si="1"/>
+        <v>45.303372307879933</v>
+      </c>
+      <c r="R18">
+        <f>(G18+H18+I18+J18+K18+L18+M18+N18+O18)/(9-S18)</f>
         <v>8.8045175515667526E-2</v>
       </c>
-      <c r="Q18">
+      <c r="S18">
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>18</v>
       </c>
@@ -2246,13 +2394,21 @@
       </c>
       <c r="P19">
         <f t="shared" si="0"/>
+        <v>0.49425165939058119</v>
+      </c>
+      <c r="Q19">
+        <f t="shared" si="1"/>
+        <v>49.425165939058118</v>
+      </c>
+      <c r="R19">
+        <f>(G19+H19+I19+J19+K19+L19+M19+N19+O19)/(9-S19)</f>
         <v>0.1103476543394879</v>
       </c>
-      <c r="Q19">
+      <c r="S19">
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>19</v>
       </c>
@@ -2300,13 +2456,21 @@
       </c>
       <c r="P20">
         <f t="shared" si="0"/>
+        <v>0.536271513426685</v>
+      </c>
+      <c r="Q20">
+        <f t="shared" si="1"/>
+        <v>53.627151342668498</v>
+      </c>
+      <c r="R20">
+        <f>(G20+H20+I20+J20+K20+L20+M20+N20+O20)/(9-S20)</f>
         <v>0.13308404021119757</v>
       </c>
-      <c r="Q20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>20</v>
       </c>
@@ -2354,13 +2518,21 @@
       </c>
       <c r="P21">
         <f t="shared" si="0"/>
+        <v>0.50477571416786138</v>
+      </c>
+      <c r="Q21">
+        <f t="shared" si="1"/>
+        <v>50.477571416786141</v>
+      </c>
+      <c r="R21">
+        <f>(G21+H21+I21+J21+K21+L21+M21+N21+O21)/(9-S21)</f>
         <v>0.11604208083953384</v>
       </c>
-      <c r="Q21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>21</v>
       </c>
@@ -2408,13 +2580,21 @@
       </c>
       <c r="P22">
         <f t="shared" si="0"/>
+        <v>0.56256688494370732</v>
+      </c>
+      <c r="Q22">
+        <f t="shared" si="1"/>
+        <v>56.256688494370735</v>
+      </c>
+      <c r="R22">
+        <f>(G22+H22+I22+J22+K22+L22+M22+N22+O22)/(9-S22)</f>
         <v>0.1473121170849844</v>
       </c>
-      <c r="Q22">
+      <c r="S22">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>22</v>
       </c>
@@ -2462,13 +2642,21 @@
       </c>
       <c r="P23">
         <f t="shared" si="0"/>
+        <v>0.44415509275040699</v>
+      </c>
+      <c r="Q23">
+        <f t="shared" si="1"/>
+        <v>44.415509275040698</v>
+      </c>
+      <c r="R23">
+        <f>(G23+H23+I23+J23+K23+L23+M23+N23+O23)/(9-S23)</f>
         <v>8.3241066367997829E-2</v>
       </c>
-      <c r="Q23">
+      <c r="S23">
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>23</v>
       </c>
@@ -2516,13 +2704,21 @@
       </c>
       <c r="P24">
         <f t="shared" si="0"/>
+        <v>0.57022272046233624</v>
+      </c>
+      <c r="Q24">
+        <f t="shared" si="1"/>
+        <v>57.022272046233624</v>
+      </c>
+      <c r="R24">
+        <f>(G24+H24+I24+J24+K24+L24+M24+N24+O24)/(9-S24)</f>
         <v>0.15145458817430157</v>
       </c>
-      <c r="Q24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>24</v>
       </c>
@@ -2570,13 +2766,21 @@
       </c>
       <c r="P25">
         <f t="shared" si="0"/>
+        <v>0.42088678700811744</v>
+      </c>
+      <c r="Q25">
+        <f t="shared" si="1"/>
+        <v>42.088678700811741</v>
+      </c>
+      <c r="R25">
+        <f>(G25+H25+I25+J25+K25+L25+M25+N25+O25)/(9-S25)</f>
         <v>7.0650894648622953E-2</v>
       </c>
-      <c r="Q25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="S25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>25</v>
       </c>
@@ -2624,13 +2828,21 @@
       </c>
       <c r="P26">
         <f t="shared" si="0"/>
+        <v>0.47431542834596691</v>
+      </c>
+      <c r="Q26">
+        <f t="shared" si="1"/>
+        <v>47.431542834596691</v>
+      </c>
+      <c r="R26">
+        <f>(G26+H26+I26+J26+K26+L26+M26+N26+O26)/(9-S26)</f>
         <v>9.9560424058572419E-2</v>
       </c>
-      <c r="Q26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="S26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>26</v>
       </c>
@@ -2678,13 +2890,21 @@
       </c>
       <c r="P27">
         <f t="shared" si="0"/>
+        <v>0.48866413141569148</v>
+      </c>
+      <c r="Q27">
+        <f t="shared" si="1"/>
+        <v>48.866413141569147</v>
+      </c>
+      <c r="R27">
+        <f>(G27+H27+I27+J27+K27+L27+M27+N27+O27)/(9-S27)</f>
         <v>0.10732431703810387</v>
       </c>
-      <c r="Q27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="S27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>27</v>
       </c>
@@ -2732,13 +2952,21 @@
       </c>
       <c r="P28">
         <f t="shared" si="0"/>
+        <v>0.51357066683479125</v>
+      </c>
+      <c r="Q28">
+        <f t="shared" si="1"/>
+        <v>51.357066683479125</v>
+      </c>
+      <c r="R28">
+        <f>(G28+H28+I28+J28+K28+L28+M28+N28+O28)/(9-S28)</f>
         <v>0.12080091311408027</v>
       </c>
-      <c r="Q28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="S28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>28</v>
       </c>
@@ -2786,13 +3014,21 @@
       </c>
       <c r="P29">
         <f t="shared" si="0"/>
+        <v>0.45252186107587739</v>
+      </c>
+      <c r="Q29">
+        <f t="shared" si="1"/>
+        <v>45.25218610758774</v>
+      </c>
+      <c r="R29">
+        <f>(G29+H29+I29+J29+K29+L29+M29+N29+O29)/(9-S29)</f>
         <v>8.7768213772737649E-2</v>
       </c>
-      <c r="Q29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="S29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>29</v>
       </c>
@@ -2840,13 +3076,21 @@
       </c>
       <c r="P30">
         <f t="shared" si="0"/>
+        <v>0.26783882815761967</v>
+      </c>
+      <c r="Q30">
+        <f t="shared" si="1"/>
+        <v>26.783882815761967</v>
+      </c>
+      <c r="R30">
+        <f>(G30+H30+I30+J30+K30+L30+M30+N30+O30)/(9-S30)</f>
         <v>-1.2161326600709066E-2</v>
       </c>
-      <c r="Q30">
+      <c r="S30">
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>30</v>
       </c>
@@ -2894,13 +3138,21 @@
       </c>
       <c r="P31">
         <f t="shared" si="0"/>
+        <v>0.67501555075956987</v>
+      </c>
+      <c r="Q31">
+        <f t="shared" si="1"/>
+        <v>67.501555075956986</v>
+      </c>
+      <c r="R31">
+        <f>(G31+H31+I31+J31+K31+L31+M31+N31+O31)/(9-S31)</f>
         <v>0.20815659918508075</v>
       </c>
-      <c r="Q31">
+      <c r="S31">
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>31</v>
       </c>
@@ -2948,13 +3200,21 @@
       </c>
       <c r="P32">
         <f t="shared" si="0"/>
+        <v>0.47901690881827158</v>
+      </c>
+      <c r="Q32">
+        <f t="shared" si="1"/>
+        <v>47.901690881827157</v>
+      </c>
+      <c r="R32">
+        <f>(G32+H32+I32+J32+K32+L32+M32+N32+O32)/(9-S32)</f>
         <v>0.10210433280453761</v>
       </c>
-      <c r="Q32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="S32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>32</v>
       </c>
@@ -3002,13 +3262,21 @@
       </c>
       <c r="P33">
         <f t="shared" si="0"/>
+        <v>0.5250737374620309</v>
+      </c>
+      <c r="Q33">
+        <f t="shared" si="1"/>
+        <v>52.507373746203086</v>
+      </c>
+      <c r="R33">
+        <f>(G33+H33+I33+J33+K33+L33+M33+N33+O33)/(9-S33)</f>
         <v>0.12702507210962877</v>
       </c>
-      <c r="Q33">
+      <c r="S33">
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>33</v>
       </c>
@@ -3056,13 +3324,21 @@
       </c>
       <c r="P34">
         <f t="shared" si="0"/>
+        <v>0.16640368866235297</v>
+      </c>
+      <c r="Q34">
+        <f t="shared" si="1"/>
+        <v>16.640368866235296</v>
+      </c>
+      <c r="R34">
+        <f>(G34+H34+I34+J34+K34+L34+M34+N34+O34)/(9-S34)</f>
         <v>-6.7046535638644322E-2</v>
       </c>
-      <c r="Q34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="S34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>34</v>
       </c>
@@ -3110,13 +3386,21 @@
       </c>
       <c r="P35">
         <f t="shared" si="0"/>
+        <v>0.60363652289121661</v>
+      </c>
+      <c r="Q35">
+        <f t="shared" si="1"/>
+        <v>60.36365228912166</v>
+      </c>
+      <c r="R35">
+        <f>(G35+H35+I35+J35+K35+L35+M35+N35+O35)/(9-S35)</f>
         <v>0.16953435363020594</v>
       </c>
-      <c r="Q35">
+      <c r="S35">
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>35</v>
       </c>
@@ -3164,13 +3448,21 @@
       </c>
       <c r="P36">
         <f t="shared" si="0"/>
+        <v>0.44740615476711459</v>
+      </c>
+      <c r="Q36">
+        <f t="shared" si="1"/>
+        <v>44.740615476711461</v>
+      </c>
+      <c r="R36">
+        <f>(G36+H36+I36+J36+K36+L36+M36+N36+O36)/(9-S36)</f>
         <v>8.5000172918944253E-2</v>
       </c>
-      <c r="Q36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="S36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>36</v>
       </c>
@@ -3218,13 +3510,21 @@
       </c>
       <c r="P37">
         <f t="shared" si="0"/>
+        <v>0.34161633937541902</v>
+      </c>
+      <c r="Q37">
+        <f t="shared" si="1"/>
+        <v>34.1616339375419</v>
+      </c>
+      <c r="R37">
+        <f>(G37+H37+I37+J37+K37+L37+M37+N37+O37)/(9-S37)</f>
         <v>2.7758706492718922E-2</v>
       </c>
-      <c r="Q37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="S37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>37</v>
       </c>
@@ -3272,13 +3572,21 @@
       </c>
       <c r="P38">
         <f t="shared" si="0"/>
+        <v>0.49890415052923986</v>
+      </c>
+      <c r="Q38">
+        <f t="shared" si="1"/>
+        <v>49.890415052923984</v>
+      </c>
+      <c r="R38">
+        <f>(G38+H38+I38+J38+K38+L38+M38+N38+O38)/(9-S38)</f>
         <v>0.11286505560657384</v>
       </c>
-      <c r="Q38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="S38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>38</v>
       </c>
@@ -3326,13 +3634,21 @@
       </c>
       <c r="P39">
         <f t="shared" si="0"/>
+        <v>0.84786713891625853</v>
+      </c>
+      <c r="Q39">
+        <f t="shared" si="1"/>
+        <v>84.786713891625851</v>
+      </c>
+      <c r="R39">
+        <f>(G39+H39+I39+J39+K39+L39+M39+N39+O39)/(9-S39)</f>
         <v>0.30168430167285276</v>
       </c>
-      <c r="Q39">
+      <c r="S39">
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>39</v>
       </c>
@@ -3380,13 +3696,21 @@
       </c>
       <c r="P40">
         <f t="shared" si="0"/>
+        <v>0.57377800387467148</v>
+      </c>
+      <c r="Q40">
+        <f t="shared" si="1"/>
+        <v>57.377800387467147</v>
+      </c>
+      <c r="R40">
+        <f>(G40+H40+I40+J40+K40+L40+M40+N40+O40)/(9-S40)</f>
         <v>0.15337830488870732</v>
       </c>
-      <c r="Q40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="S40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>40</v>
       </c>
@@ -3434,13 +3758,21 @@
       </c>
       <c r="P41">
         <f t="shared" si="0"/>
+        <v>0.52860964332448424</v>
+      </c>
+      <c r="Q41">
+        <f t="shared" si="1"/>
+        <v>52.860964332448425</v>
+      </c>
+      <c r="R41">
+        <f>(G41+H41+I41+J41+K41+L41+M41+N41+O41)/(9-S41)</f>
         <v>0.12893830388872304</v>
       </c>
-      <c r="Q41">
+      <c r="S41">
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>41</v>
       </c>
@@ -3488,13 +3820,21 @@
       </c>
       <c r="P42">
         <f t="shared" si="0"/>
+        <v>0.59109938944745022</v>
+      </c>
+      <c r="Q42">
+        <f t="shared" si="1"/>
+        <v>59.109938944745025</v>
+      </c>
+      <c r="R42">
+        <f>(G42+H42+I42+J42+K42+L42+M42+N42+O42)/(9-S42)</f>
         <v>0.16275067695542089</v>
       </c>
-      <c r="Q42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="S42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>42</v>
       </c>
@@ -3542,13 +3882,21 @@
       </c>
       <c r="P43">
         <f t="shared" si="0"/>
+        <v>0.40786533136617797</v>
+      </c>
+      <c r="Q43">
+        <f t="shared" si="1"/>
+        <v>40.786533136617798</v>
+      </c>
+      <c r="R43">
+        <f>(G43+H43+I43+J43+K43+L43+M43+N43+O43)/(9-S43)</f>
         <v>6.3605157654103434E-2</v>
       </c>
-      <c r="Q43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="S43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>43</v>
       </c>
@@ -3596,13 +3944,21 @@
       </c>
       <c r="P44">
         <f t="shared" si="0"/>
+        <v>0.18098442656038141</v>
+      </c>
+      <c r="Q44">
+        <f t="shared" si="1"/>
+        <v>18.098442656038142</v>
+      </c>
+      <c r="R44">
+        <f>(G44+H44+I44+J44+K44+L44+M44+N44+O44)/(9-S44)</f>
         <v>-5.9157091690100444E-2</v>
       </c>
-      <c r="Q44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="S44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>44</v>
       </c>
@@ -3650,13 +4006,21 @@
       </c>
       <c r="P45">
         <f t="shared" si="0"/>
+        <v>0.50042993927816637</v>
+      </c>
+      <c r="Q45">
+        <f t="shared" si="1"/>
+        <v>50.042993927816639</v>
+      </c>
+      <c r="R45">
+        <f>(G45+H45+I45+J45+K45+L45+M45+N45+O45)/(9-S45)</f>
         <v>0.11369063966796772</v>
       </c>
-      <c r="Q45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="S45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>45</v>
       </c>
@@ -3704,13 +4068,21 @@
       </c>
       <c r="P46">
         <f t="shared" si="0"/>
+        <v>0.3677682231454798</v>
+      </c>
+      <c r="Q46">
+        <f t="shared" si="1"/>
+        <v>36.776822314547978</v>
+      </c>
+      <c r="R46">
+        <f>(G46+H46+I46+J46+K46+L46+M46+N46+O46)/(9-S46)</f>
         <v>4.1909144049149236E-2</v>
       </c>
-      <c r="Q46">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="S46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>46</v>
       </c>
@@ -3758,13 +4130,21 @@
       </c>
       <c r="P47">
         <f t="shared" si="0"/>
+        <v>0.21807291572002016</v>
+      </c>
+      <c r="Q47">
+        <f t="shared" si="1"/>
+        <v>21.807291572002015</v>
+      </c>
+      <c r="R47">
+        <f>(G47+H47+I47+J47+K47+L47+M47+N47+O47)/(9-S47)</f>
         <v>-3.9089001967377121E-2</v>
       </c>
-      <c r="Q47">
+      <c r="S47">
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>47</v>
       </c>
@@ -3812,13 +4192,21 @@
       </c>
       <c r="P48">
         <f t="shared" si="0"/>
+        <v>0.43113661090572336</v>
+      </c>
+      <c r="Q48">
+        <f t="shared" si="1"/>
+        <v>43.113661090572336</v>
+      </c>
+      <c r="R48">
+        <f>(G48+H48+I48+J48+K48+L48+M48+N48+O48)/(9-S48)</f>
         <v>7.6196938455743435E-2</v>
       </c>
-      <c r="Q48">
+      <c r="S48">
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>48</v>
       </c>
@@ -3866,13 +4254,21 @@
       </c>
       <c r="P49">
         <f t="shared" si="0"/>
+        <v>0.5705604401237222</v>
+      </c>
+      <c r="Q49">
+        <f t="shared" si="1"/>
+        <v>57.056044012372219</v>
+      </c>
+      <c r="R49">
+        <f>(G49+H49+I49+J49+K49+L49+M49+N49+O49)/(9-S49)</f>
         <v>0.15163732380520445</v>
       </c>
-      <c r="Q49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="S49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>49</v>
       </c>
@@ -3920,13 +4316,21 @@
       </c>
       <c r="P50">
         <f t="shared" si="0"/>
+        <v>0.58901709757208587</v>
+      </c>
+      <c r="Q50">
+        <f t="shared" si="1"/>
+        <v>58.901709757208586</v>
+      </c>
+      <c r="R50">
+        <f>(G50+H50+I50+J50+K50+L50+M50+N50+O50)/(9-S50)</f>
         <v>0.16162397643106563</v>
       </c>
-      <c r="Q50">
+      <c r="S50">
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>50</v>
       </c>
@@ -3974,13 +4378,21 @@
       </c>
       <c r="P51">
         <f t="shared" si="0"/>
+        <v>0.53908644417649987</v>
+      </c>
+      <c r="Q51">
+        <f t="shared" si="1"/>
+        <v>53.908644417649988</v>
+      </c>
+      <c r="R51">
+        <f>(G51+H51+I51+J51+K51+L51+M51+N51+O51)/(9-S51)</f>
         <v>0.13460716191635494</v>
       </c>
-      <c r="Q51">
+      <c r="S51">
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A52">
         <v>51</v>
       </c>
@@ -4028,13 +4440,21 @@
       </c>
       <c r="P52">
         <f t="shared" si="0"/>
+        <v>0.48521071643739588</v>
+      </c>
+      <c r="Q52">
+        <f t="shared" si="1"/>
+        <v>48.521071643739589</v>
+      </c>
+      <c r="R52">
+        <f>(G52+H52+I52+J52+K52+L52+M52+N52+O52)/(9-S52)</f>
         <v>0.10545571998266891</v>
       </c>
-      <c r="Q52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="S52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A53">
         <v>52</v>
       </c>
@@ -4082,13 +4502,21 @@
       </c>
       <c r="P53">
         <f t="shared" si="0"/>
+        <v>0.39749492584156543</v>
+      </c>
+      <c r="Q53">
+        <f t="shared" si="1"/>
+        <v>39.749492584156542</v>
+      </c>
+      <c r="R53">
+        <f>(G53+H53+I53+J53+K53+L53+M53+N53+O53)/(9-S53)</f>
         <v>5.7993868727418643E-2</v>
       </c>
-      <c r="Q53">
+      <c r="S53">
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A54">
         <v>53</v>
       </c>
@@ -4136,13 +4564,21 @@
       </c>
       <c r="P54">
         <f t="shared" si="0"/>
+        <v>0.41409008695459032</v>
+      </c>
+      <c r="Q54">
+        <f t="shared" si="1"/>
+        <v>41.409008695459029</v>
+      </c>
+      <c r="R54">
+        <f>(G54+H54+I54+J54+K54+L54+M54+N54+O54)/(9-S54)</f>
         <v>6.697329036807291E-2</v>
       </c>
-      <c r="Q54">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="S54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A55">
         <v>54</v>
       </c>
@@ -4190,13 +4626,21 @@
       </c>
       <c r="P55">
         <f t="shared" si="0"/>
+        <v>0.3382936154416275</v>
+      </c>
+      <c r="Q55">
+        <f t="shared" si="1"/>
+        <v>33.829361544162751</v>
+      </c>
+      <c r="R55">
+        <f>(G55+H55+I55+J55+K55+L55+M55+N55+O55)/(9-S55)</f>
         <v>2.5960824628613932E-2</v>
       </c>
-      <c r="Q55">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="S55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A56">
         <v>55</v>
       </c>
@@ -4244,13 +4688,21 @@
       </c>
       <c r="P56">
         <f t="shared" si="0"/>
+        <v>0.6142791699697866</v>
+      </c>
+      <c r="Q56">
+        <f t="shared" si="1"/>
+        <v>61.427916996978659</v>
+      </c>
+      <c r="R56">
+        <f>(G56+H56+I56+J56+K56+L56+M56+N56+O56)/(9-S56)</f>
         <v>0.17529294885204763</v>
       </c>
-      <c r="Q56">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="S56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A57">
         <v>56</v>
       </c>
@@ -4298,13 +4750,21 @@
       </c>
       <c r="P57">
         <f t="shared" si="0"/>
+        <v>0.38672205619054428</v>
+      </c>
+      <c r="Q57">
+        <f t="shared" si="1"/>
+        <v>38.672205619054431</v>
+      </c>
+      <c r="R57">
+        <f>(G57+H57+I57+J57+K57+L57+M57+N57+O57)/(9-S57)</f>
         <v>5.2164811798263253E-2</v>
       </c>
-      <c r="Q57">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="S57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A58">
         <v>57</v>
       </c>
@@ -4352,13 +4812,21 @@
       </c>
       <c r="P58">
         <f t="shared" si="0"/>
+        <v>0.39207405977306908</v>
+      </c>
+      <c r="Q58">
+        <f t="shared" si="1"/>
+        <v>39.207405977306905</v>
+      </c>
+      <c r="R58">
+        <f>(G58+H58+I58+J58+K58+L58+M58+N58+O58)/(9-S58)</f>
         <v>5.5060709973790103E-2</v>
       </c>
-      <c r="Q58">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="S58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A59">
         <v>58</v>
       </c>
@@ -4406,13 +4874,21 @@
       </c>
       <c r="P59">
         <f t="shared" si="0"/>
+        <v>0.44574467241732241</v>
+      </c>
+      <c r="Q59">
+        <f t="shared" si="1"/>
+        <v>44.574467241732243</v>
+      </c>
+      <c r="R59">
+        <f>(G59+H59+I59+J59+K59+L59+M59+N59+O59)/(9-S59)</f>
         <v>8.4101166849302675E-2</v>
       </c>
-      <c r="Q59">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="S59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A60">
         <v>59</v>
       </c>
@@ -4460,13 +4936,21 @@
       </c>
       <c r="P60">
         <f t="shared" si="0"/>
+        <v>0.72513360519814118</v>
+      </c>
+      <c r="Q60">
+        <f t="shared" si="1"/>
+        <v>72.513360519814114</v>
+      </c>
+      <c r="R60">
+        <f>(G60+H60+I60+J60+K60+L60+M60+N60+O60)/(9-S60)</f>
         <v>0.2352748139193738</v>
       </c>
-      <c r="Q60">
+      <c r="S60">
         <v>3</v>
       </c>
     </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A61">
         <v>60</v>
       </c>
@@ -4514,13 +4998,21 @@
       </c>
       <c r="P61">
         <f t="shared" si="0"/>
+        <v>0.36502741106916042</v>
+      </c>
+      <c r="Q61">
+        <f t="shared" si="1"/>
+        <v>36.502741106916041</v>
+      </c>
+      <c r="R61">
+        <f>(G61+H61+I61+J61+K61+L61+M61+N61+O61)/(9-S61)</f>
         <v>4.0426126975470288E-2</v>
       </c>
-      <c r="Q61">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="S61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A62">
         <v>61</v>
       </c>
@@ -4568,13 +5060,21 @@
       </c>
       <c r="P62">
         <f t="shared" si="0"/>
+        <v>0.55631143705116548</v>
+      </c>
+      <c r="Q62">
+        <f t="shared" si="1"/>
+        <v>55.63114370511655</v>
+      </c>
+      <c r="R62">
+        <f>(G62+H62+I62+J62+K62+L62+M62+N62+O62)/(9-S62)</f>
         <v>0.14392737717220408</v>
       </c>
-      <c r="Q62">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="S62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A63">
         <v>62</v>
       </c>
@@ -4622,13 +5122,21 @@
       </c>
       <c r="P63">
         <f t="shared" si="0"/>
+        <v>0.40403318170246905</v>
+      </c>
+      <c r="Q63">
+        <f t="shared" si="1"/>
+        <v>40.403318170246905</v>
+      </c>
+      <c r="R63">
+        <f>(G63+H63+I63+J63+K63+L63+M63+N63+O63)/(9-S63)</f>
         <v>6.1531632282088397E-2</v>
       </c>
-      <c r="Q63">
+      <c r="S63">
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A64">
         <v>63</v>
       </c>
@@ -4676,13 +5184,21 @@
       </c>
       <c r="P64">
         <f t="shared" si="0"/>
+        <v>0.6901728940120424</v>
+      </c>
+      <c r="Q64">
+        <f t="shared" si="1"/>
+        <v>69.017289401204238</v>
+      </c>
+      <c r="R64">
+        <f>(G64+H64+I64+J64+K64+L64+M64+N64+O64)/(9-S64)</f>
         <v>0.21635803664562192</v>
       </c>
-      <c r="Q64">
+      <c r="S64">
         <v>2</v>
       </c>
     </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A65">
         <v>64</v>
       </c>
@@ -4730,13 +5246,21 @@
       </c>
       <c r="P65">
         <f t="shared" si="0"/>
+        <v>0.5213169138413607</v>
+      </c>
+      <c r="Q65">
+        <f t="shared" si="1"/>
+        <v>52.131691384136069</v>
+      </c>
+      <c r="R65">
+        <f>(G65+H65+I65+J65+K65+L65+M65+N65+O65)/(9-S65)</f>
         <v>0.12499230466074324</v>
       </c>
-      <c r="Q65">
+      <c r="S65">
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A66">
         <v>65</v>
       </c>
@@ -4784,13 +5308,21 @@
       </c>
       <c r="P66">
         <f t="shared" si="0"/>
+        <v>0.42424881461845354</v>
+      </c>
+      <c r="Q66">
+        <f t="shared" si="1"/>
+        <v>42.424881461845352</v>
+      </c>
+      <c r="R66">
+        <f>(G66+H66+I66+J66+K66+L66+M66+N66+O66)/(9-S66)</f>
         <v>7.2470043210973181E-2</v>
       </c>
-      <c r="Q66">
+      <c r="S66">
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A67">
         <v>66</v>
       </c>
@@ -4837,14 +5369,22 @@
         <v>0.31073938196867706</v>
       </c>
       <c r="P67">
-        <f t="shared" ref="P67:P130" si="1">(G67+H67+I67+J67+K67+L67+M67+N67+O67)/(9-Q67)</f>
+        <f t="shared" ref="P67:P130" si="2">(R67-MIN($R$2:$R$131)*1)/(MAX($R$2:$R$131)-MIN($R$2:$R$131))</f>
+        <v>0.17510639752483118</v>
+      </c>
+      <c r="Q67">
+        <f t="shared" ref="Q67:Q130" si="3">P67*100</f>
+        <v>17.510639752483119</v>
+      </c>
+      <c r="R67">
+        <f>(G67+H67+I67+J67+K67+L67+M67+N67+O67)/(9-S67)</f>
         <v>-6.2337615263612985E-2</v>
       </c>
-      <c r="Q67">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="S67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A68">
         <v>67</v>
       </c>
@@ -4891,14 +5431,22 @@
         <v>1</v>
       </c>
       <c r="P68">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="Q68">
+        <f t="shared" si="3"/>
+        <v>100</v>
+      </c>
+      <c r="R68">
+        <f>(G68+H68+I68+J68+K68+L68+M68+N68+O68)/(9-S68)</f>
         <v>0.38400137565400455</v>
       </c>
-      <c r="Q68">
+      <c r="S68">
         <v>3</v>
       </c>
     </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A69">
         <v>68</v>
       </c>
@@ -4945,14 +5493,22 @@
         <v>0.64979709568958754</v>
       </c>
       <c r="P69">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
+        <v>0.60161873503971108</v>
+      </c>
+      <c r="Q69">
+        <f t="shared" si="3"/>
+        <v>60.161873503971108</v>
+      </c>
+      <c r="R69">
+        <f>(G69+H69+I69+J69+K69+L69+M69+N69+O69)/(9-S69)</f>
         <v>0.16844255537789263</v>
       </c>
-      <c r="Q69">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="S69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A70">
         <v>69</v>
       </c>
@@ -4999,14 +5555,22 @@
         <v>0.45134009090317645</v>
       </c>
       <c r="P70">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
+        <v>0.55588593021166099</v>
+      </c>
+      <c r="Q70">
+        <f t="shared" si="3"/>
+        <v>55.588593021166098</v>
+      </c>
+      <c r="R70">
+        <f>(G70+H70+I70+J70+K70+L70+M70+N70+O70)/(9-S70)</f>
         <v>0.14369714106320391</v>
       </c>
-      <c r="Q70">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="S70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A71">
         <v>70</v>
       </c>
@@ -5053,14 +5617,22 @@
         <v>0.21858093395386158</v>
       </c>
       <c r="P71">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
+        <v>0.50855480215330384</v>
+      </c>
+      <c r="Q71">
+        <f t="shared" si="3"/>
+        <v>50.855480215330381</v>
+      </c>
+      <c r="R71">
+        <f>(G71+H71+I71+J71+K71+L71+M71+N71+O71)/(9-S71)</f>
         <v>0.11808689524099122</v>
       </c>
-      <c r="Q71">
+      <c r="S71">
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A72">
         <v>71</v>
       </c>
@@ -5107,14 +5679,22 @@
         <v>0.35610969472044801</v>
       </c>
       <c r="P72">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
+        <v>0.29266687767438293</v>
+      </c>
+      <c r="Q72">
+        <f t="shared" si="3"/>
+        <v>29.266687767438292</v>
+      </c>
+      <c r="R72">
+        <f>(G72+H72+I72+J72+K72+L72+M72+N72+O72)/(9-S72)</f>
         <v>1.2728017941688134E-3</v>
       </c>
-      <c r="Q72">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="S72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A73">
         <v>72</v>
       </c>
@@ -5161,14 +5741,22 @@
         <v>0.27174926935974836</v>
       </c>
       <c r="P73">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
+        <v>0.59692327027440739</v>
+      </c>
+      <c r="Q73">
+        <f t="shared" si="3"/>
+        <v>59.69232702744074</v>
+      </c>
+      <c r="R73">
+        <f>(G73+H73+I73+J73+K73+L73+M73+N73+O73)/(9-S73)</f>
         <v>0.16590190165122257</v>
       </c>
-      <c r="Q73">
+      <c r="S73">
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A74">
         <v>73</v>
       </c>
@@ -5215,14 +5803,22 @@
         <v>0.20415825912527272</v>
       </c>
       <c r="P74">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
+        <v>0.4269087661105937</v>
+      </c>
+      <c r="Q74">
+        <f t="shared" si="3"/>
+        <v>42.690876611059366</v>
+      </c>
+      <c r="R74">
+        <f>(G74+H74+I74+J74+K74+L74+M74+N74+O74)/(9-S74)</f>
         <v>7.3909307694694712E-2</v>
       </c>
-      <c r="Q74">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="S74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A75">
         <v>74</v>
       </c>
@@ -5269,14 +5865,22 @@
         <v>0.26111560234473608</v>
       </c>
       <c r="P75">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
+        <v>0.50030531023204339</v>
+      </c>
+      <c r="Q75">
+        <f t="shared" si="3"/>
+        <v>50.03053102320434</v>
+      </c>
+      <c r="R75">
+        <f>(G75+H75+I75+J75+K75+L75+M75+N75+O75)/(9-S75)</f>
         <v>0.1136232045435849</v>
       </c>
-      <c r="Q75">
+      <c r="S75">
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A76">
         <v>75</v>
       </c>
@@ -5323,14 +5927,22 @@
         <v>0.1752585866473659</v>
       </c>
       <c r="P76">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
+        <v>0.285481984191569</v>
+      </c>
+      <c r="Q76">
+        <f t="shared" si="3"/>
+        <v>28.5481984191569</v>
+      </c>
+      <c r="R76">
+        <f>(G76+H76+I76+J76+K76+L76+M76+N76+O76)/(9-S76)</f>
         <v>-2.6148488038564011E-3</v>
       </c>
-      <c r="Q76">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="S76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A77">
         <v>76</v>
       </c>
@@ -5377,14 +5989,22 @@
         <v>0.26347863942242489</v>
       </c>
       <c r="P77">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
+        <v>0.53153546606605684</v>
+      </c>
+      <c r="Q77">
+        <f t="shared" si="3"/>
+        <v>53.153546606605687</v>
+      </c>
+      <c r="R77">
+        <f>(G77+H77+I77+J77+K77+L77+M77+N77+O77)/(9-S77)</f>
         <v>0.1305214277802878</v>
       </c>
-      <c r="Q77">
+      <c r="S77">
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A78">
         <v>77</v>
       </c>
@@ -5431,14 +6051,22 @@
         <v>0.38782328262945487</v>
       </c>
       <c r="P78">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
+        <v>0.4872026316078239</v>
+      </c>
+      <c r="Q78">
+        <f t="shared" si="3"/>
+        <v>48.720263160782388</v>
+      </c>
+      <c r="R78">
+        <f>(G78+H78+I78+J78+K78+L78+M78+N78+O78)/(9-S78)</f>
         <v>0.10653351887030071</v>
       </c>
-      <c r="Q78">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="S78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A79">
         <v>78</v>
       </c>
@@ -5485,14 +6113,22 @@
         <v>0.34736645749991685</v>
       </c>
       <c r="P79">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
+        <v>0.53707136536047373</v>
+      </c>
+      <c r="Q79">
+        <f t="shared" si="3"/>
+        <v>53.707136536047372</v>
+      </c>
+      <c r="R79">
+        <f>(G79+H79+I79+J79+K79+L79+M79+N79+O79)/(9-S79)</f>
         <v>0.13351682948722005</v>
       </c>
-      <c r="Q79">
+      <c r="S79">
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A80">
         <v>79</v>
       </c>
@@ -5539,14 +6175,22 @@
         <v>0.48796716643441629</v>
       </c>
       <c r="P80">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
+        <v>0.48154395548966872</v>
+      </c>
+      <c r="Q80">
+        <f t="shared" si="3"/>
+        <v>48.154395548966875</v>
+      </c>
+      <c r="R80">
+        <f>(G80+H80+I80+J80+K80+L80+M80+N80+O80)/(9-S80)</f>
         <v>0.10347168425195906</v>
       </c>
-      <c r="Q80">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="S80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A81">
         <v>80</v>
       </c>
@@ -5593,14 +6237,22 @@
         <v>0.30796892472799531</v>
       </c>
       <c r="P81">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
+        <v>0.49497282114164726</v>
+      </c>
+      <c r="Q81">
+        <f t="shared" si="3"/>
+        <v>49.497282114164726</v>
+      </c>
+      <c r="R81">
+        <f>(G81+H81+I81+J81+K81+L81+M81+N81+O81)/(9-S81)</f>
         <v>0.11073786540100343</v>
       </c>
-      <c r="Q81">
+      <c r="S81">
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A82">
         <v>81</v>
       </c>
@@ -5647,14 +6299,22 @@
         <v>0.39352716524218045</v>
       </c>
       <c r="P82">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
+        <v>0.6957829624127041</v>
+      </c>
+      <c r="Q82">
+        <f t="shared" si="3"/>
+        <v>69.578296241270408</v>
+      </c>
+      <c r="R82">
+        <f>(G82+H82+I82+J82+K82+L82+M82+N82+O82)/(9-S82)</f>
         <v>0.21939357027252443</v>
       </c>
-      <c r="Q82">
+      <c r="S82">
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A83">
         <v>82</v>
       </c>
@@ -5701,14 +6361,22 @@
         <v>0.32192442442311925</v>
       </c>
       <c r="P83">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
+        <v>0.32387290271268993</v>
+      </c>
+      <c r="Q83">
+        <f t="shared" si="3"/>
+        <v>32.387290271268995</v>
+      </c>
+      <c r="R83">
+        <f>(G83+H83+I83+J83+K83+L83+M83+N83+O83)/(9-S83)</f>
         <v>1.8157968177268637E-2</v>
       </c>
-      <c r="Q83">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="S83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A84">
         <v>83</v>
       </c>
@@ -5755,14 +6423,22 @@
         <v>0.31897189819664779</v>
       </c>
       <c r="P84">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
+        <v>0.21374406827092399</v>
+      </c>
+      <c r="Q84">
+        <f t="shared" si="3"/>
+        <v>21.3744068270924</v>
+      </c>
+      <c r="R84">
+        <f>(G84+H84+I84+J84+K84+L84+M84+N84+O84)/(9-S84)</f>
         <v>-4.1431283925278527E-2</v>
       </c>
-      <c r="Q84">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="S84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A85">
         <v>84</v>
       </c>
@@ -5809,14 +6485,22 @@
         <v>0.17368322881612344</v>
       </c>
       <c r="P85">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
+        <v>0.47808638943566156</v>
+      </c>
+      <c r="Q85">
+        <f t="shared" si="3"/>
+        <v>47.808638943566159</v>
+      </c>
+      <c r="R85">
+        <f>(G85+H85+I85+J85+K85+L85+M85+N85+O85)/(9-S85)</f>
         <v>0.10160084110449631</v>
       </c>
-      <c r="Q85">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="S85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A86">
         <v>85</v>
       </c>
@@ -5863,14 +6547,22 @@
         <v>0.25402649078084438</v>
       </c>
       <c r="P86">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
+        <v>0.56138151105431588</v>
+      </c>
+      <c r="Q86">
+        <f t="shared" si="3"/>
+        <v>56.138151105431589</v>
+      </c>
+      <c r="R86">
+        <f>(G86+H86+I86+J86+K86+L86+M86+N86+O86)/(9-S86)</f>
         <v>0.14667072699047581</v>
       </c>
-      <c r="Q86">
+      <c r="S86">
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A87">
         <v>86</v>
       </c>
@@ -5917,14 +6609,22 @@
         <v>0.23039611967313092</v>
       </c>
       <c r="P87">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
+        <v>0.66777964878200913</v>
+      </c>
+      <c r="Q87">
+        <f t="shared" si="3"/>
+        <v>66.777964878200919</v>
+      </c>
+      <c r="R87">
+        <f>(G87+H87+I87+J87+K87+L87+M87+N87+O87)/(9-S87)</f>
         <v>0.20424134856687703</v>
       </c>
-      <c r="Q87">
+      <c r="S87">
         <v>2</v>
       </c>
     </row>
-    <row r="88" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A88">
         <v>87</v>
       </c>
@@ -5971,14 +6671,22 @@
         <v>0.19613208121957992</v>
       </c>
       <c r="P88">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
+        <v>0.37137197307549008</v>
+      </c>
+      <c r="Q88">
+        <f t="shared" si="3"/>
+        <v>37.137197307549009</v>
+      </c>
+      <c r="R88">
+        <f>(G88+H88+I88+J88+K88+L88+M88+N88+O88)/(9-S88)</f>
         <v>4.3859085353644495E-2</v>
       </c>
-      <c r="Q88">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="S88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A89">
         <v>88</v>
       </c>
@@ -6025,14 +6733,22 @@
         <v>0.35359998629145073</v>
       </c>
       <c r="P89">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
+        <v>0.57698557258163019</v>
+      </c>
+      <c r="Q89">
+        <f t="shared" si="3"/>
+        <v>57.698557258163021</v>
+      </c>
+      <c r="R89">
+        <f>(G89+H89+I89+J89+K89+L89+M89+N89+O89)/(9-S89)</f>
         <v>0.15511387778643257</v>
       </c>
-      <c r="Q89">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="S89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A90">
         <v>89</v>
       </c>
@@ -6079,14 +6795,22 @@
         <v>0.25875256526704721</v>
       </c>
       <c r="P90">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
+        <v>0.35744164206115303</v>
+      </c>
+      <c r="Q90">
+        <f t="shared" si="3"/>
+        <v>35.7441642061153</v>
+      </c>
+      <c r="R90">
+        <f>(G90+H90+I90+J90+K90+L90+M90+N90+O90)/(9-S90)</f>
         <v>3.6321567946028595E-2</v>
       </c>
-      <c r="Q90">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="S90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A91">
         <v>90</v>
       </c>
@@ -6133,14 +6857,22 @@
         <v>0.45284754553933265</v>
       </c>
       <c r="P91">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
+        <v>0.5729609357582649</v>
+      </c>
+      <c r="Q91">
+        <f t="shared" si="3"/>
+        <v>57.29609357582649</v>
+      </c>
+      <c r="R91">
+        <f>(G91+H91+I91+J91+K91+L91+M91+N91+O91)/(9-S91)</f>
         <v>0.15293620016454218</v>
       </c>
-      <c r="Q91">
+      <c r="S91">
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A92">
         <v>91</v>
       </c>
@@ -6187,14 +6919,22 @@
         <v>0</v>
       </c>
       <c r="P92">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
+        <v>9.4192831488358483E-2</v>
+      </c>
+      <c r="Q92">
+        <f t="shared" si="3"/>
+        <v>9.4192831488358486</v>
+      </c>
+      <c r="R92">
+        <f>(G92+H92+I92+J92+K92+L92+M92+N92+O92)/(9-S92)</f>
         <v>-0.10611887300145846</v>
       </c>
-      <c r="Q92">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="S92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A93">
         <v>92</v>
       </c>
@@ -6241,14 +6981,22 @@
         <v>0.47300126439101159</v>
       </c>
       <c r="P93">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
+        <v>0.51228301113999442</v>
+      </c>
+      <c r="Q93">
+        <f t="shared" si="3"/>
+        <v>51.228301113999443</v>
+      </c>
+      <c r="R93">
+        <f>(G93+H93+I93+J93+K93+L93+M93+N93+O93)/(9-S93)</f>
         <v>0.12010417969083582</v>
       </c>
-      <c r="Q93">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="S93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A94">
         <v>93</v>
       </c>
@@ -6295,14 +7043,22 @@
         <v>0.56831042839913715</v>
       </c>
       <c r="P94">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
+        <v>0.63666573708830021</v>
+      </c>
+      <c r="Q94">
+        <f t="shared" si="3"/>
+        <v>63.666573708830022</v>
+      </c>
+      <c r="R94">
+        <f>(G94+H94+I94+J94+K94+L94+M94+N94+O94)/(9-S94)</f>
         <v>0.18740602349319527</v>
       </c>
-      <c r="Q94">
+      <c r="S94">
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A95">
         <v>94</v>
       </c>
@@ -6349,14 +7105,22 @@
         <v>0.26788964194538895</v>
       </c>
       <c r="P95">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
+        <v>0.21330541071106662</v>
+      </c>
+      <c r="Q95">
+        <f t="shared" si="3"/>
+        <v>21.330541071106662</v>
+      </c>
+      <c r="R95">
+        <f>(G95+H95+I95+J95+K95+L95+M95+N95+O95)/(9-S95)</f>
         <v>-4.1668635714694327E-2</v>
       </c>
-      <c r="Q95">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="S95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A96">
         <v>95</v>
       </c>
@@ -6403,14 +7167,22 @@
         <v>0.36863379152994152</v>
       </c>
       <c r="P96">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
+        <v>0.53785651087863362</v>
+      </c>
+      <c r="Q96">
+        <f t="shared" si="3"/>
+        <v>53.785651087863364</v>
+      </c>
+      <c r="R96">
+        <f>(G96+H96+I96+J96+K96+L96+M96+N96+O96)/(9-S96)</f>
         <v>0.13394166131674018</v>
       </c>
-      <c r="Q96">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="S96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A97">
         <v>96</v>
       </c>
@@ -6457,14 +7229,22 @@
         <v>0.14887133887182288</v>
       </c>
       <c r="P97">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
+        <v>0.39348993751914396</v>
+      </c>
+      <c r="Q97">
+        <f t="shared" si="3"/>
+        <v>39.348993751914399</v>
+      </c>
+      <c r="R97">
+        <f>(G97+H97+I97+J97+K97+L97+M97+N97+O97)/(9-S97)</f>
         <v>5.5826822648866611E-2</v>
       </c>
-      <c r="Q97">
+      <c r="S97">
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A98">
         <v>97</v>
       </c>
@@ -6511,14 +7291,22 @@
         <v>0.30719482618673122</v>
       </c>
       <c r="P98">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
+        <v>0.5211897184521207</v>
+      </c>
+      <c r="Q98">
+        <f t="shared" si="3"/>
+        <v>52.118971845212073</v>
+      </c>
+      <c r="R98">
+        <f>(G98+H98+I98+J98+K98+L98+M98+N98+O98)/(9-S98)</f>
         <v>0.12492348092212728</v>
       </c>
-      <c r="Q98">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="S98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A99">
         <v>98</v>
       </c>
@@ -6565,14 +7353,22 @@
         <v>0.50039216786425267</v>
       </c>
       <c r="P99">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
+        <v>0.50442043236274725</v>
+      </c>
+      <c r="Q99">
+        <f t="shared" si="3"/>
+        <v>50.442043236274728</v>
+      </c>
+      <c r="R99">
+        <f>(G99+H99+I99+J99+K99+L99+M99+N99+O99)/(9-S99)</f>
         <v>0.11584984256551863</v>
       </c>
-      <c r="Q99">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="S99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A100">
         <v>99</v>
       </c>
@@ -6619,14 +7415,22 @@
         <v>0.30010571495366467</v>
       </c>
       <c r="P100">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
+        <v>0.52943944284351629</v>
+      </c>
+      <c r="Q100">
+        <f t="shared" si="3"/>
+        <v>52.94394428435163</v>
+      </c>
+      <c r="R100">
+        <f>(G100+H100+I100+J100+K100+L100+M100+N100+O100)/(9-S100)</f>
         <v>0.12938729740604135</v>
       </c>
-      <c r="Q100">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="S100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A101">
         <v>100</v>
       </c>
@@ -6673,14 +7477,22 @@
         <v>0.54774325347873687</v>
       </c>
       <c r="P101">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
+        <v>0.61342567412780602</v>
+      </c>
+      <c r="Q101">
+        <f t="shared" si="3"/>
+        <v>61.342567412780603</v>
+      </c>
+      <c r="R101">
+        <f>(G101+H101+I101+J101+K101+L101+M101+N101+O101)/(9-S101)</f>
         <v>0.17483113356857477</v>
       </c>
-      <c r="Q101">
+      <c r="S101">
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A102">
         <v>101</v>
       </c>
@@ -6727,14 +7539,22 @@
         <v>0.35816309264629131</v>
       </c>
       <c r="P102">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
+        <v>0.45006816131766048</v>
+      </c>
+      <c r="Q102">
+        <f t="shared" si="3"/>
+        <v>45.006816131766044</v>
+      </c>
+      <c r="R102">
+        <f>(G102+H102+I102+J102+K102+L102+M102+N102+O102)/(9-S102)</f>
         <v>8.6440549367520839E-2</v>
       </c>
-      <c r="Q102">
+      <c r="S102">
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A103">
         <v>102</v>
       </c>
@@ -6781,14 +7601,22 @@
         <v>0.22426972696767913</v>
       </c>
       <c r="P103">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
+        <v>0.53756855151252869</v>
+      </c>
+      <c r="Q103">
+        <f t="shared" si="3"/>
+        <v>53.756855151252871</v>
+      </c>
+      <c r="R103">
+        <f>(G103+H103+I103+J103+K103+L103+M103+N103+O103)/(9-S103)</f>
         <v>0.13378585032183496</v>
       </c>
-      <c r="Q103">
+      <c r="S103">
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A104">
         <v>103</v>
       </c>
@@ -6835,14 +7663,22 @@
         <v>0.22399305123851185</v>
       </c>
       <c r="P104">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q104">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="R104">
+        <f>(G104+H104+I104+J104+K104+L104+M104+N104+O104)/(9-S104)</f>
         <v>-0.15708536520364846</v>
       </c>
-      <c r="Q104">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="105" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="S104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A105">
         <v>104</v>
       </c>
@@ -6889,14 +7725,22 @@
         <v>0.51931679204002323</v>
       </c>
       <c r="P105">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
+        <v>0.56463804687655117</v>
+      </c>
+      <c r="Q105">
+        <f t="shared" si="3"/>
+        <v>56.46380468765512</v>
+      </c>
+      <c r="R105">
+        <f>(G105+H105+I105+J105+K105+L105+M105+N105+O105)/(9-S105)</f>
         <v>0.1484327953450153</v>
       </c>
-      <c r="Q105">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="106" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="S105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A106">
         <v>105</v>
       </c>
@@ -6943,14 +7787,22 @@
         <v>0.41014447686735311</v>
       </c>
       <c r="P106">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
+        <v>0.24499318566118058</v>
+      </c>
+      <c r="Q106">
+        <f t="shared" si="3"/>
+        <v>24.49931856611806</v>
+      </c>
+      <c r="R106">
+        <f>(G106+H106+I106+J106+K106+L106+M106+N106+O106)/(9-S106)</f>
         <v>-2.4522800841906389E-2</v>
       </c>
-      <c r="Q106">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="107" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="S106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A107">
         <v>106</v>
       </c>
@@ -6997,14 +7849,22 @@
         <v>0.45535725396832999</v>
       </c>
       <c r="P107">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
+        <v>0.49569015284507023</v>
+      </c>
+      <c r="Q107">
+        <f t="shared" si="3"/>
+        <v>49.569015284507024</v>
+      </c>
+      <c r="R107">
+        <f>(G107+H107+I107+J107+K107+L107+M107+N107+O107)/(9-S107)</f>
         <v>0.11112600407452244</v>
       </c>
-      <c r="Q107">
+      <c r="S107">
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A108">
         <v>107</v>
       </c>
@@ -7051,14 +7911,22 @@
         <v>0.40721648397587729</v>
       </c>
       <c r="P108">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
+        <v>0.41869933621019506</v>
+      </c>
+      <c r="Q108">
+        <f t="shared" si="3"/>
+        <v>41.869933621019506</v>
+      </c>
+      <c r="R108">
+        <f>(G108+H108+I108+J108+K108+L108+M108+N108+O108)/(9-S108)</f>
         <v>6.9467294025588655E-2</v>
       </c>
-      <c r="Q108">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="109" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="S108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A109">
         <v>108</v>
       </c>
@@ -7105,14 +7973,22 @@
         <v>0.34189646400109114</v>
       </c>
       <c r="P109">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
+        <v>0.30528588953551505</v>
+      </c>
+      <c r="Q109">
+        <f t="shared" si="3"/>
+        <v>30.528588953551505</v>
+      </c>
+      <c r="R109">
+        <f>(G109+H109+I109+J109+K109+L109+M109+N109+O109)/(9-S109)</f>
         <v>8.100781794952815E-3</v>
       </c>
-      <c r="Q109">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="110" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="S109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A110">
         <v>109</v>
       </c>
@@ -7159,14 +8035,22 @@
         <v>0.44372133316047646</v>
       </c>
       <c r="P110">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
+        <v>0.40640000998353709</v>
+      </c>
+      <c r="Q110">
+        <f t="shared" si="3"/>
+        <v>40.640000998353706</v>
+      </c>
+      <c r="R110">
+        <f>(G110+H110+I110+J110+K110+L110+M110+N110+O110)/(9-S110)</f>
         <v>6.2812291682861232E-2</v>
       </c>
-      <c r="Q110">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="111" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="S110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A111">
         <v>110</v>
       </c>
@@ -7213,14 +8097,22 @@
         <v>0.43716186810621827</v>
       </c>
       <c r="P111">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
+        <v>0.56465074914350244</v>
+      </c>
+      <c r="Q111">
+        <f t="shared" si="3"/>
+        <v>56.465074914350247</v>
+      </c>
+      <c r="R111">
+        <f>(G111+H111+I111+J111+K111+L111+M111+N111+O111)/(9-S111)</f>
         <v>0.14843966837324146</v>
       </c>
-      <c r="Q111">
+      <c r="S111">
         <v>2</v>
       </c>
     </row>
-    <row r="112" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A112">
         <v>111</v>
       </c>
@@ -7267,14 +8159,22 @@
         <v>0.21385485979848393</v>
       </c>
       <c r="P112">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
+        <v>0.39217527164640137</v>
+      </c>
+      <c r="Q112">
+        <f t="shared" si="3"/>
+        <v>39.217527164640138</v>
+      </c>
+      <c r="R112">
+        <f>(G112+H112+I112+J112+K112+L112+M112+N112+O112)/(9-S112)</f>
         <v>5.5115474376467577E-2</v>
       </c>
-      <c r="Q112">
+      <c r="S112">
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A113">
         <v>112</v>
       </c>
@@ -7321,14 +8221,22 @@
         <v>0.3102504775745904</v>
       </c>
       <c r="P113">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
+        <v>0.36792573329297407</v>
+      </c>
+      <c r="Q113">
+        <f t="shared" si="3"/>
+        <v>36.792573329297404</v>
+      </c>
+      <c r="R113">
+        <f>(G113+H113+I113+J113+K113+L113+M113+N113+O113)/(9-S113)</f>
         <v>4.1994370701508937E-2</v>
       </c>
-      <c r="Q113">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="114" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="S113">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A114">
         <v>113</v>
       </c>
@@ -7375,14 +8283,22 @@
         <v>0.33318823470295866</v>
       </c>
       <c r="P114">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
+        <v>0.54436499048772202</v>
+      </c>
+      <c r="Q114">
+        <f t="shared" si="3"/>
+        <v>54.436499048772205</v>
+      </c>
+      <c r="R114">
+        <f>(G114+H114+I114+J114+K114+L114+M114+N114+O114)/(9-S114)</f>
         <v>0.13746331333636033</v>
       </c>
-      <c r="Q114">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="115" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="S114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A115">
         <v>114</v>
       </c>
@@ -7429,14 +8345,22 @@
         <v>0.39691146896763557</v>
       </c>
       <c r="P115">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
+        <v>0.53636600197024897</v>
+      </c>
+      <c r="Q115">
+        <f t="shared" si="3"/>
+        <v>53.636600197024897</v>
+      </c>
+      <c r="R115">
+        <f>(G115+H115+I115+J115+K115+L115+M115+N115+O115)/(9-S115)</f>
         <v>0.13313516670928302</v>
       </c>
-      <c r="Q115">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="116" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="S115">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A116">
         <v>115</v>
       </c>
@@ -7483,14 +8407,22 @@
         <v>0.49932498995722874</v>
       </c>
       <c r="P116">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
+        <v>0.56573330184926596</v>
+      </c>
+      <c r="Q116">
+        <f t="shared" si="3"/>
+        <v>56.573330184926597</v>
+      </c>
+      <c r="R116">
+        <f>(G116+H116+I116+J116+K116+L116+M116+N116+O116)/(9-S116)</f>
         <v>0.14902542328860971</v>
       </c>
-      <c r="Q116">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="117" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="S116">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A117">
         <v>116</v>
       </c>
@@ -7537,14 +8469,22 @@
         <v>0.32255456768794638</v>
       </c>
       <c r="P117">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
+        <v>0.47113336022056979</v>
+      </c>
+      <c r="Q117">
+        <f t="shared" si="3"/>
+        <v>47.113336022056977</v>
+      </c>
+      <c r="R117">
+        <f>(G117+H117+I117+J117+K117+L117+M117+N117+O117)/(9-S117)</f>
         <v>9.7838649187414237E-2</v>
       </c>
-      <c r="Q117">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="118" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="S117">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A118">
         <v>117</v>
       </c>
@@ -7591,14 +8531,22 @@
         <v>0.2711978939203184</v>
       </c>
       <c r="P118">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
+        <v>0.32814989378069243</v>
+      </c>
+      <c r="Q118">
+        <f t="shared" si="3"/>
+        <v>32.814989378069242</v>
+      </c>
+      <c r="R118">
+        <f>(G118+H118+I118+J118+K118+L118+M118+N118+O118)/(9-S118)</f>
         <v>2.047219133493142E-2</v>
       </c>
-      <c r="Q118">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="119" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="S118">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A119">
         <v>118</v>
       </c>
@@ -7645,14 +8593,22 @@
         <v>0.17132019140760946</v>
       </c>
       <c r="P119">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
+        <v>0.60647167142005887</v>
+      </c>
+      <c r="Q119">
+        <f t="shared" si="3"/>
+        <v>60.647167142005884</v>
+      </c>
+      <c r="R119">
+        <f>(G119+H119+I119+J119+K119+L119+M119+N119+O119)/(9-S119)</f>
         <v>0.17106841490752456</v>
       </c>
-      <c r="Q119">
+      <c r="S119">
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A120">
         <v>119</v>
       </c>
@@ -7699,14 +8655,22 @@
         <v>0.23512219382850857</v>
       </c>
       <c r="P120">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
+        <v>0.44380164919942605</v>
+      </c>
+      <c r="Q120">
+        <f t="shared" si="3"/>
+        <v>44.380164919942608</v>
+      </c>
+      <c r="R120">
+        <f>(G120+H120+I120+J120+K120+L120+M120+N120+O120)/(9-S120)</f>
         <v>8.3049822748920393E-2</v>
       </c>
-      <c r="Q120">
+      <c r="S120">
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A121">
         <v>120</v>
       </c>
@@ -7753,14 +8717,22 @@
         <v>0.44070642388816406</v>
       </c>
       <c r="P121">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
+        <v>0.43695314093807991</v>
+      </c>
+      <c r="Q121">
+        <f t="shared" si="3"/>
+        <v>43.695314093807994</v>
+      </c>
+      <c r="R121">
+        <f>(G121+H121+I121+J121+K121+L121+M121+N121+O121)/(9-S121)</f>
         <v>7.93441857340519E-2</v>
       </c>
-      <c r="Q121">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="122" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="S121">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A122">
         <v>121</v>
       </c>
@@ -7807,14 +8779,22 @@
         <v>0.51533266087836382</v>
       </c>
       <c r="P122">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
+        <v>0.49519039452629571</v>
+      </c>
+      <c r="Q122">
+        <f t="shared" si="3"/>
+        <v>49.519039452629571</v>
+      </c>
+      <c r="R122">
+        <f>(G122+H122+I122+J122+K122+L122+M122+N122+O122)/(9-S122)</f>
         <v>0.11085559147460022</v>
       </c>
-      <c r="Q122">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="123" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="S122">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A123">
         <v>122</v>
       </c>
@@ -7861,14 +8841,22 @@
         <v>0.29419812209403007</v>
       </c>
       <c r="P123">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
+        <v>0.40898961023957359</v>
+      </c>
+      <c r="Q123">
+        <f t="shared" si="3"/>
+        <v>40.898961023957355</v>
+      </c>
+      <c r="R123">
+        <f>(G123+H123+I123+J123+K123+L123+M123+N123+O123)/(9-S123)</f>
         <v>6.4213490045524194E-2</v>
       </c>
-      <c r="Q123">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="124" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="S123">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A124">
         <v>123</v>
       </c>
@@ -7915,14 +8903,22 @@
         <v>0.56122131716607071</v>
       </c>
       <c r="P124">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
+        <v>0.47157722233342819</v>
+      </c>
+      <c r="Q124">
+        <f t="shared" si="3"/>
+        <v>47.157722233342817</v>
+      </c>
+      <c r="R124">
+        <f>(G124+H124+I124+J124+K124+L124+M124+N124+O124)/(9-S124)</f>
         <v>9.8078817091451012E-2</v>
       </c>
-      <c r="Q124">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="125" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="S124">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A125">
         <v>124</v>
       </c>
@@ -7969,14 +8965,22 @@
         <v>0.19849511862809394</v>
       </c>
       <c r="P125">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
+        <v>0.35579295087722218</v>
+      </c>
+      <c r="Q125">
+        <f t="shared" si="3"/>
+        <v>35.579295087722215</v>
+      </c>
+      <c r="R125">
+        <f>(G125+H125+I125+J125+K125+L125+M125+N125+O125)/(9-S125)</f>
         <v>3.5429483006634704E-2</v>
       </c>
-      <c r="Q125">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="126" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="S125">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A126">
         <v>125</v>
       </c>
@@ -8023,14 +9027,22 @@
         <v>0.20440271115690342</v>
       </c>
       <c r="P126">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
+        <v>0.43357698757859231</v>
+      </c>
+      <c r="Q126">
+        <f t="shared" si="3"/>
+        <v>43.357698757859232</v>
+      </c>
+      <c r="R126">
+        <f>(G126+H126+I126+J126+K126+L126+M126+N126+O126)/(9-S126)</f>
         <v>7.7517393916131133E-2</v>
       </c>
-      <c r="Q126">
+      <c r="S126">
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A127">
         <v>126</v>
       </c>
@@ -8077,14 +9089,22 @@
         <v>0.60497561763972973</v>
       </c>
       <c r="P127">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
+        <v>0.55487495504009654</v>
+      </c>
+      <c r="Q127">
+        <f t="shared" si="3"/>
+        <v>55.487495504009651</v>
+      </c>
+      <c r="R127">
+        <f>(G127+H127+I127+J127+K127+L127+M127+N127+O127)/(9-S127)</f>
         <v>0.14315011580253412</v>
       </c>
-      <c r="Q127">
+      <c r="S127">
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A128">
         <v>127</v>
       </c>
@@ -8131,14 +9151,22 @@
         <v>0.31310241904636582</v>
       </c>
       <c r="P128">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
+        <v>0.40726619691046351</v>
+      </c>
+      <c r="Q128">
+        <f t="shared" si="3"/>
+        <v>40.726619691046352</v>
+      </c>
+      <c r="R128">
+        <f>(G128+H128+I128+J128+K128+L128+M128+N128+O128)/(9-S128)</f>
         <v>6.3280973944125379E-2</v>
       </c>
-      <c r="Q128">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="129" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="S128">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A129">
         <v>128</v>
       </c>
@@ -8185,14 +9213,22 @@
         <v>0.49860083344942857</v>
       </c>
       <c r="P129">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
+        <v>0.43755142001077507</v>
+      </c>
+      <c r="Q129">
+        <f t="shared" si="3"/>
+        <v>43.755142001077509</v>
+      </c>
+      <c r="R129">
+        <f>(G129+H129+I129+J129+K129+L129+M129+N129+O129)/(9-S129)</f>
         <v>7.9667906607619868E-2</v>
       </c>
-      <c r="Q129">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="130" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="S129">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A130">
         <v>129</v>
       </c>
@@ -8239,14 +9275,22 @@
         <v>0.53549046839865866</v>
       </c>
       <c r="P130">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
+        <v>0.45576062025385078</v>
+      </c>
+      <c r="Q130">
+        <f t="shared" si="3"/>
+        <v>45.576062025385077</v>
+      </c>
+      <c r="R130">
+        <f>(G130+H130+I130+J130+K130+L130+M130+N130+O130)/(9-S130)</f>
         <v>8.9520663420770058E-2</v>
       </c>
-      <c r="Q130">
+      <c r="S130">
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A131">
         <v>130</v>
       </c>
@@ -8293,10 +9337,18 @@
         <v>0.58107082901564711</v>
       </c>
       <c r="P131">
-        <f t="shared" ref="P131" si="2">(G131+H131+I131+J131+K131+L131+M131+N131+O131)/(9-Q131)</f>
+        <f t="shared" ref="P131" si="4">(R131-MIN($R$2:$R$131)*1)/(MAX($R$2:$R$131)-MIN($R$2:$R$131))</f>
+        <v>0.60173427906082189</v>
+      </c>
+      <c r="Q131">
+        <f t="shared" ref="Q131" si="5">P131*100</f>
+        <v>60.173427906082189</v>
+      </c>
+      <c r="R131">
+        <f>(G131+H131+I131+J131+K131+L131+M131+N131+O131)/(9-S131)</f>
         <v>0.16850507471570106</v>
       </c>
-      <c r="Q131">
+      <c r="S131">
         <v>0</v>
       </c>
     </row>
